--- a/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
+++ b/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB13FE-4A44-4C8C-B0C9-DF766D7AB3EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3148D-2F12-45CF-91D0-AFA1299BB0E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="799" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESF - ERI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4073,7 +4073,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4138,6 +4138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -5195,7 +5201,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="899">
+  <cellXfs count="900">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="193" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7073,6 +7079,17 @@
     <xf numFmtId="195" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="196" fontId="13" fillId="0" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7082,17 +7099,17 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="331" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7106,16 +7123,8 @@
     <xf numFmtId="196" fontId="74" fillId="9" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="196" fontId="53" fillId="12" borderId="4" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="586">
@@ -8212,15 +8221,15 @@
       <c r="C3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="P3" s="883" t="s">
+      <c r="P3" s="888" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="883"/>
+      <c r="Q3" s="888"/>
       <c r="V3" s="4"/>
-      <c r="AG3" s="883" t="s">
+      <c r="AG3" s="888" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="883"/>
+      <c r="AH3" s="888"/>
     </row>
     <row r="4" spans="1:41" ht="78" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -15895,11 +15904,11 @@
         <f t="shared" si="38"/>
         <v>-0.48993751406669617</v>
       </c>
-      <c r="P79" s="884">
+      <c r="P79" s="889">
         <f>P78-Q78</f>
         <v>224942.27000001073</v>
       </c>
-      <c r="Q79" s="884"/>
+      <c r="Q79" s="889"/>
       <c r="R79" s="71" t="s">
         <v>114</v>
       </c>
@@ -16216,10 +16225,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="C1" s="890" t="s">
+      <c r="C1" s="895" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="890"/>
+      <c r="D1" s="895"/>
     </row>
     <row r="2" spans="2:5">
       <c r="C2" s="297" t="s">
@@ -16342,11 +16351,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="890" t="s">
+      <c r="C14" s="895" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="890"/>
-      <c r="E14" s="890"/>
+      <c r="D14" s="895"/>
+      <c r="E14" s="895"/>
     </row>
     <row r="15" spans="2:5" ht="26.25">
       <c r="C15" s="303" t="s">
@@ -16555,18 +16564,18 @@
         <f t="shared" ref="G3:G11" si="2">+E3*$G$2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="891">
+      <c r="K3" s="896">
         <v>2017</v>
       </c>
-      <c r="L3" s="891"/>
-      <c r="M3" s="891">
+      <c r="L3" s="896"/>
+      <c r="M3" s="896">
         <v>2016</v>
       </c>
-      <c r="N3" s="891"/>
-      <c r="O3" s="891" t="s">
+      <c r="N3" s="896"/>
+      <c r="O3" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="891"/>
+      <c r="P3" s="896"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="305" t="s">
@@ -16729,18 +16738,18 @@
       <c r="J8" s="306" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="891">
+      <c r="K8" s="896">
         <v>2017</v>
       </c>
-      <c r="L8" s="891"/>
-      <c r="M8" s="891">
+      <c r="L8" s="896"/>
+      <c r="M8" s="896">
         <v>2016</v>
       </c>
-      <c r="N8" s="891"/>
-      <c r="O8" s="891" t="s">
+      <c r="N8" s="896"/>
+      <c r="O8" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="891"/>
+      <c r="P8" s="896"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="305" t="s">
@@ -17058,18 +17067,18 @@
         <v>0</v>
       </c>
       <c r="H20" s="308"/>
-      <c r="K20" s="891">
+      <c r="K20" s="896">
         <v>2017</v>
       </c>
-      <c r="L20" s="891"/>
-      <c r="M20" s="891">
+      <c r="L20" s="896"/>
+      <c r="M20" s="896">
         <v>2016</v>
       </c>
-      <c r="N20" s="891"/>
-      <c r="O20" s="891" t="s">
+      <c r="N20" s="896"/>
+      <c r="O20" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="891"/>
+      <c r="P20" s="896"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="305" t="s">
@@ -17464,18 +17473,18 @@
         <f t="shared" ref="G39:G46" si="8">+E39*$G$38</f>
         <v>0</v>
       </c>
-      <c r="K39" s="891">
+      <c r="K39" s="896">
         <v>2017</v>
       </c>
-      <c r="L39" s="891"/>
-      <c r="M39" s="891">
+      <c r="L39" s="896"/>
+      <c r="M39" s="896">
         <v>2016</v>
       </c>
-      <c r="N39" s="891"/>
-      <c r="O39" s="891" t="s">
+      <c r="N39" s="896"/>
+      <c r="O39" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="891"/>
+      <c r="P39" s="896"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="305" t="s">
@@ -17836,18 +17845,18 @@
         <f t="shared" ref="G55:G62" si="11">+E55*$G$54</f>
         <v>0</v>
       </c>
-      <c r="K55" s="891">
+      <c r="K55" s="896">
         <v>2017</v>
       </c>
-      <c r="L55" s="891"/>
-      <c r="M55" s="891">
+      <c r="L55" s="896"/>
+      <c r="M55" s="896">
         <v>2016</v>
       </c>
-      <c r="N55" s="891"/>
-      <c r="O55" s="891" t="s">
+      <c r="N55" s="896"/>
+      <c r="O55" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="891"/>
+      <c r="P55" s="896"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="305" t="s">
@@ -18253,18 +18262,18 @@
         <f t="shared" ref="G73:G80" si="14">+E73*$G$72</f>
         <v>0</v>
       </c>
-      <c r="K73" s="891">
+      <c r="K73" s="896">
         <v>2017</v>
       </c>
-      <c r="L73" s="891"/>
-      <c r="M73" s="891">
+      <c r="L73" s="896"/>
+      <c r="M73" s="896">
         <v>2016</v>
       </c>
-      <c r="N73" s="891"/>
-      <c r="O73" s="891" t="s">
+      <c r="N73" s="896"/>
+      <c r="O73" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P73" s="891"/>
+      <c r="P73" s="896"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="305" t="s">
@@ -18672,18 +18681,18 @@
         <f t="shared" ref="G92:G99" si="17">+E92*$G$91</f>
         <v>0</v>
       </c>
-      <c r="K92" s="891">
+      <c r="K92" s="896">
         <v>2017</v>
       </c>
-      <c r="L92" s="891"/>
-      <c r="M92" s="891">
+      <c r="L92" s="896"/>
+      <c r="M92" s="896">
         <v>2016</v>
       </c>
-      <c r="N92" s="891"/>
-      <c r="O92" s="891" t="s">
+      <c r="N92" s="896"/>
+      <c r="O92" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P92" s="891"/>
+      <c r="P92" s="896"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="305" t="s">
@@ -19055,18 +19064,18 @@
         <f t="shared" ref="G109:G116" si="20">+E109*$G$108</f>
         <v>0</v>
       </c>
-      <c r="K109" s="891">
+      <c r="K109" s="896">
         <v>2017</v>
       </c>
-      <c r="L109" s="891"/>
-      <c r="M109" s="891">
+      <c r="L109" s="896"/>
+      <c r="M109" s="896">
         <v>2016</v>
       </c>
-      <c r="N109" s="891"/>
-      <c r="O109" s="891" t="s">
+      <c r="N109" s="896"/>
+      <c r="O109" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P109" s="891"/>
+      <c r="P109" s="896"/>
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="305" t="s">
@@ -19438,18 +19447,18 @@
         <f t="shared" ref="G126:G133" si="23">+E126*$G$125</f>
         <v>0</v>
       </c>
-      <c r="K126" s="891">
+      <c r="K126" s="896">
         <v>2017</v>
       </c>
-      <c r="L126" s="891"/>
-      <c r="M126" s="891">
+      <c r="L126" s="896"/>
+      <c r="M126" s="896">
         <v>2016</v>
       </c>
-      <c r="N126" s="891"/>
-      <c r="O126" s="891" t="s">
+      <c r="N126" s="896"/>
+      <c r="O126" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P126" s="891"/>
+      <c r="P126" s="896"/>
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="305" t="s">
@@ -19812,18 +19821,18 @@
         <f t="shared" ref="G142:G149" si="26">+E142*$G$141</f>
         <v>0</v>
       </c>
-      <c r="K142" s="891">
+      <c r="K142" s="896">
         <v>2017</v>
       </c>
-      <c r="L142" s="891"/>
-      <c r="M142" s="891">
+      <c r="L142" s="896"/>
+      <c r="M142" s="896">
         <v>2016</v>
       </c>
-      <c r="N142" s="891"/>
-      <c r="O142" s="891" t="s">
+      <c r="N142" s="896"/>
+      <c r="O142" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="P142" s="891"/>
+      <c r="P142" s="896"/>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="305" t="s">
@@ -20192,14 +20201,14 @@
         <f t="shared" ref="G159:G166" si="29">+E159*$G$158</f>
         <v>0</v>
       </c>
-      <c r="K159" s="891">
+      <c r="K159" s="896">
         <v>2017</v>
       </c>
-      <c r="L159" s="891"/>
-      <c r="M159" s="891">
+      <c r="L159" s="896"/>
+      <c r="M159" s="896">
         <v>2016</v>
       </c>
-      <c r="N159" s="891"/>
+      <c r="N159" s="896"/>
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="305" t="s">
@@ -20594,10 +20603,10 @@
         <f t="shared" ref="G184:G191" si="32">+E184*$G$183</f>
         <v>0</v>
       </c>
-      <c r="K184" s="891">
+      <c r="K184" s="896">
         <v>2017</v>
       </c>
-      <c r="L184" s="891"/>
+      <c r="L184" s="896"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="305" t="s">
@@ -21008,24 +21017,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
     <mergeCell ref="O126:P126"/>
     <mergeCell ref="K142:L142"/>
     <mergeCell ref="M142:N142"/>
@@ -21036,11 +21032,24 @@
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:N109"/>
     <mergeCell ref="O109:P109"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21407,22 +21416,22 @@
         <f t="shared" ref="K22:K29" si="5">+I22*$K$21</f>
         <v>0</v>
       </c>
-      <c r="O22" s="891">
+      <c r="O22" s="896">
         <v>2018</v>
       </c>
-      <c r="P22" s="891"/>
-      <c r="Q22" s="891">
+      <c r="P22" s="896"/>
+      <c r="Q22" s="896">
         <v>2017</v>
       </c>
-      <c r="R22" s="891"/>
-      <c r="S22" s="891">
+      <c r="R22" s="896"/>
+      <c r="S22" s="896">
         <v>2016</v>
       </c>
-      <c r="T22" s="891"/>
-      <c r="U22" s="891" t="s">
+      <c r="T22" s="896"/>
+      <c r="U22" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="891"/>
+      <c r="V22" s="896"/>
     </row>
     <row r="23" spans="2:25">
       <c r="B23" s="305" t="s">
@@ -21658,18 +21667,18 @@
       </c>
       <c r="O27" s="306"/>
       <c r="P27" s="306"/>
-      <c r="Q27" s="891">
+      <c r="Q27" s="896">
         <v>2017</v>
       </c>
-      <c r="R27" s="891"/>
-      <c r="S27" s="891">
+      <c r="R27" s="896"/>
+      <c r="S27" s="896">
         <v>2016</v>
       </c>
-      <c r="T27" s="891"/>
-      <c r="U27" s="891" t="s">
+      <c r="T27" s="896"/>
+      <c r="U27" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="891"/>
+      <c r="V27" s="896"/>
     </row>
     <row r="28" spans="2:25">
       <c r="B28" s="305" t="s">
@@ -22061,18 +22070,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="308"/>
-      <c r="Q39" s="891">
+      <c r="Q39" s="896">
         <v>2017</v>
       </c>
-      <c r="R39" s="891"/>
-      <c r="S39" s="891">
+      <c r="R39" s="896"/>
+      <c r="S39" s="896">
         <v>2016</v>
       </c>
-      <c r="T39" s="891"/>
-      <c r="U39" s="891" t="s">
+      <c r="T39" s="896"/>
+      <c r="U39" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="891"/>
+      <c r="V39" s="896"/>
     </row>
     <row r="40" spans="2:24">
       <c r="B40" s="305" t="s">
@@ -22648,18 +22657,18 @@
         <f t="shared" ref="K60:K67" si="13">+I60*$K$59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="891">
+      <c r="Q60" s="896">
         <v>2017</v>
       </c>
-      <c r="R60" s="891"/>
-      <c r="S60" s="891">
+      <c r="R60" s="896"/>
+      <c r="S60" s="896">
         <v>2016</v>
       </c>
-      <c r="T60" s="891"/>
-      <c r="U60" s="891" t="s">
+      <c r="T60" s="896"/>
+      <c r="U60" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="891"/>
+      <c r="V60" s="896"/>
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="305" t="s">
@@ -23162,18 +23171,18 @@
         <f t="shared" ref="K77:K84" si="17">+I77*$K$76</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="891">
+      <c r="Q77" s="896">
         <v>2017</v>
       </c>
-      <c r="R77" s="891"/>
-      <c r="S77" s="891">
+      <c r="R77" s="896"/>
+      <c r="S77" s="896">
         <v>2016</v>
       </c>
-      <c r="T77" s="891"/>
-      <c r="U77" s="891" t="s">
+      <c r="T77" s="896"/>
+      <c r="U77" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="891"/>
+      <c r="V77" s="896"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="305" t="s">
@@ -23744,18 +23753,18 @@
         <f t="shared" ref="K97:K104" si="21">+I97*$K$96</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="891">
+      <c r="Q97" s="896">
         <v>2017</v>
       </c>
-      <c r="R97" s="891"/>
-      <c r="S97" s="891">
+      <c r="R97" s="896"/>
+      <c r="S97" s="896">
         <v>2016</v>
       </c>
-      <c r="T97" s="891"/>
-      <c r="U97" s="891" t="s">
+      <c r="T97" s="896"/>
+      <c r="U97" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V97" s="891"/>
+      <c r="V97" s="896"/>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="305" t="s">
@@ -24322,18 +24331,18 @@
         <f t="shared" ref="K117:K124" si="25">+I117*$K$116</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="891">
+      <c r="Q117" s="896">
         <v>2017</v>
       </c>
-      <c r="R117" s="891"/>
-      <c r="S117" s="891">
+      <c r="R117" s="896"/>
+      <c r="S117" s="896">
         <v>2016</v>
       </c>
-      <c r="T117" s="891"/>
-      <c r="U117" s="891" t="s">
+      <c r="T117" s="896"/>
+      <c r="U117" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V117" s="891"/>
+      <c r="V117" s="896"/>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="305" t="s">
@@ -24826,18 +24835,18 @@
         <f t="shared" ref="K134:K141" si="29">+I134*$K$133</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="891">
+      <c r="Q134" s="896">
         <v>2017</v>
       </c>
-      <c r="R134" s="891"/>
-      <c r="S134" s="891">
+      <c r="R134" s="896"/>
+      <c r="S134" s="896">
         <v>2016</v>
       </c>
-      <c r="T134" s="891"/>
-      <c r="U134" s="891" t="s">
+      <c r="T134" s="896"/>
+      <c r="U134" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V134" s="891"/>
+      <c r="V134" s="896"/>
     </row>
     <row r="135" spans="2:22">
       <c r="B135" s="305" t="s">
@@ -25341,18 +25350,18 @@
         <f t="shared" ref="K151:K158" si="33">+I151*$K$150</f>
         <v>0</v>
       </c>
-      <c r="Q151" s="891">
+      <c r="Q151" s="896">
         <v>2017</v>
       </c>
-      <c r="R151" s="891"/>
-      <c r="S151" s="891">
+      <c r="R151" s="896"/>
+      <c r="S151" s="896">
         <v>2016</v>
       </c>
-      <c r="T151" s="891"/>
-      <c r="U151" s="891" t="s">
+      <c r="T151" s="896"/>
+      <c r="U151" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V151" s="891"/>
+      <c r="V151" s="896"/>
     </row>
     <row r="152" spans="2:22">
       <c r="B152" s="305" t="s">
@@ -25848,18 +25857,18 @@
         <f t="shared" ref="K168:K175" si="37">+I168*$K$167</f>
         <v>0</v>
       </c>
-      <c r="Q168" s="891">
+      <c r="Q168" s="896">
         <v>2017</v>
       </c>
-      <c r="R168" s="891"/>
-      <c r="S168" s="891">
+      <c r="R168" s="896"/>
+      <c r="S168" s="896">
         <v>2016</v>
       </c>
-      <c r="T168" s="891"/>
-      <c r="U168" s="891" t="s">
+      <c r="T168" s="896"/>
+      <c r="U168" s="896" t="s">
         <v>5</v>
       </c>
-      <c r="V168" s="891"/>
+      <c r="V168" s="896"/>
     </row>
     <row r="169" spans="2:22">
       <c r="B169" s="305" t="s">
@@ -26356,14 +26365,14 @@
         <f t="shared" ref="K185:K192" si="41">+I185*$K$184</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="891">
+      <c r="Q185" s="896">
         <v>2017</v>
       </c>
-      <c r="R185" s="891"/>
-      <c r="S185" s="891">
+      <c r="R185" s="896"/>
+      <c r="S185" s="896">
         <v>2016</v>
       </c>
-      <c r="T185" s="891"/>
+      <c r="T185" s="896"/>
     </row>
     <row r="186" spans="2:20">
       <c r="B186" s="305" t="s">
@@ -26891,10 +26900,10 @@
         <f t="shared" ref="K206:K213" si="45">+I206*$K$205</f>
         <v>0</v>
       </c>
-      <c r="Q206" s="891">
+      <c r="Q206" s="896">
         <v>2017</v>
       </c>
-      <c r="R206" s="891"/>
+      <c r="R206" s="896"/>
     </row>
     <row r="207" spans="2:18">
       <c r="B207" s="305" t="s">
@@ -27081,7 +27090,7 @@
       </c>
       <c r="C212" s="265">
         <f>Participaciones!Y11-C213</f>
-        <v>-622676</v>
+        <v>-1058874</v>
       </c>
       <c r="D212" s="265">
         <f>'ESF - ERI'!AD55</f>
@@ -27089,7 +27098,7 @@
       </c>
       <c r="E212" s="265">
         <f t="shared" si="42"/>
-        <v>-478341</v>
+        <v>-914539</v>
       </c>
       <c r="H212" s="265">
         <v>0</v>
@@ -27113,7 +27122,7 @@
       </c>
       <c r="C213" s="315">
         <f>'Planilla final'!M74</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="D213" s="315">
         <f>'ESF - ERI'!AD56</f>
@@ -27121,7 +27130,7 @@
       </c>
       <c r="E213" s="315">
         <f t="shared" si="42"/>
-        <v>-40639</v>
+        <v>302262</v>
       </c>
       <c r="F213" s="315"/>
       <c r="G213" s="315"/>
@@ -27147,7 +27156,7 @@
       </c>
       <c r="C215" s="306">
         <f>SUM(C206:C214)</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="D215" s="306">
         <f>SUM(D206:D214)</f>
@@ -27256,7 +27265,7 @@
       <c r="B219" s="317"/>
       <c r="C219" s="265">
         <f>C215-C218</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="D219" s="265">
         <f>D215-D218</f>
@@ -27264,7 +27273,7 @@
       </c>
       <c r="E219" s="306">
         <f>C219-D219</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="H219" s="265">
         <f>H215-H218</f>
@@ -27444,25 +27453,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="S151:T151"/>
     <mergeCell ref="U151:V151"/>
     <mergeCell ref="Q168:R168"/>
     <mergeCell ref="S168:T168"/>
@@ -27473,11 +27468,25 @@
     <mergeCell ref="Q134:R134"/>
     <mergeCell ref="S134:T134"/>
     <mergeCell ref="U134:V134"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -28844,12 +28853,12 @@
       <c r="X11" s="361"/>
       <c r="Y11" s="359">
         <f>'Planilla final'!M55</f>
-        <v>-1058874</v>
+        <v>-1152171</v>
       </c>
       <c r="Z11" s="360"/>
       <c r="AA11" s="360">
         <f t="shared" si="0"/>
-        <v>30231544.740000002</v>
+        <v>30138247.740000002</v>
       </c>
       <c r="AB11" s="360"/>
       <c r="AC11" s="360">
@@ -28864,7 +28873,7 @@
       <c r="AF11" s="360"/>
       <c r="AG11" s="362">
         <f>AA11-AC11+AE11</f>
-        <v>30231544.740000002</v>
+        <v>30138247.740000002</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
@@ -28961,12 +28970,12 @@
       <c r="X13" s="361"/>
       <c r="Y13" s="365">
         <f>+SUM(Y3:Y11)</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="Z13" s="360"/>
       <c r="AA13" s="365">
         <f>+SUM(AA3:AA11)</f>
-        <v>108136222.34999999</v>
+        <v>108042925.34999999</v>
       </c>
       <c r="AB13" s="360"/>
       <c r="AC13" s="365">
@@ -28981,7 +28990,7 @@
       <c r="AF13" s="360"/>
       <c r="AG13" s="366">
         <f>+SUM(AG3:AG11)</f>
-        <v>106555463.44</v>
+        <v>106462166.44</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
@@ -29792,12 +29801,12 @@
       <c r="X27" s="361"/>
       <c r="Y27" s="378">
         <f>+Y11*Y$16</f>
-        <v>-1058874</v>
+        <v>-1152171</v>
       </c>
       <c r="Z27" s="360"/>
       <c r="AA27" s="378">
         <f t="shared" si="5"/>
-        <v>32758994.515525036</v>
+        <v>32665697.515525036</v>
       </c>
       <c r="AC27" s="379">
         <f t="shared" si="6"/>
@@ -29809,7 +29818,7 @@
       </c>
       <c r="AG27" s="381">
         <f t="shared" si="8"/>
-        <v>32758994.515525036</v>
+        <v>32665697.515525036</v>
       </c>
     </row>
     <row r="28" spans="1:33" outlineLevel="1">
@@ -29862,11 +29871,11 @@
       <c r="X28" s="367"/>
       <c r="Y28" s="368">
         <f>+SUM(Y19:Y27)</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="AA28" s="368">
         <f>+SUM(AA19:AA27)</f>
-        <v>95028689.195625037</v>
+        <v>94935392.195625037</v>
       </c>
       <c r="AC28" s="368">
         <f>+SUM(AC19:AC27)</f>
@@ -29878,7 +29887,7 @@
       </c>
       <c r="AG28" s="362">
         <f>+SUM(AG19:AG27)</f>
-        <v>95028689.195625037</v>
+        <v>94935392.195625037</v>
       </c>
     </row>
     <row r="29" spans="1:33" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
@@ -30618,11 +30627,11 @@
       <c r="X42" s="367"/>
       <c r="Y42" s="368">
         <f>+Y40+Y28</f>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="AA42" s="368">
         <f>+AA40+AA28</f>
-        <v>106830153.44</v>
+        <v>106736856.44</v>
       </c>
       <c r="AC42" s="368">
         <f>+AC40+AC28</f>
@@ -30634,7 +30643,7 @@
       </c>
       <c r="AG42" s="368">
         <f>+AG40+AG28</f>
-        <v>106830153.44</v>
+        <v>106736856.44</v>
       </c>
     </row>
     <row r="43" spans="1:34" s="355" customFormat="1" ht="5.0999999999999996" customHeight="1" outlineLevel="1">
@@ -31019,12 +31028,12 @@
       <c r="D60" s="395"/>
       <c r="E60" s="265">
         <f>+'PAT20'!M$55</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="F60" s="395"/>
       <c r="G60" s="265">
         <f t="shared" si="23"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="H60" s="395"/>
       <c r="I60" s="396">
@@ -31041,12 +31050,12 @@
       <c r="D61" s="389"/>
       <c r="E61" s="399">
         <f>SUM(E49:E60)</f>
-        <v>26458360.889999997</v>
+        <v>26801261.889999997</v>
       </c>
       <c r="F61" s="389"/>
       <c r="G61" s="399">
         <f>SUM(G49:G60)</f>
-        <v>27762057.461909998</v>
+        <v>28104958.461909998</v>
       </c>
       <c r="H61" s="389"/>
       <c r="I61" s="400">
@@ -31218,7 +31227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -31271,15 +31280,15 @@
       <c r="I5" s="408"/>
     </row>
     <row r="6" spans="1:10" s="407" customFormat="1" ht="12">
-      <c r="A6" s="897"/>
-      <c r="B6" s="897"/>
+      <c r="A6" s="886"/>
+      <c r="B6" s="886"/>
       <c r="C6" s="511"/>
       <c r="D6" s="511"/>
       <c r="I6" s="408"/>
     </row>
     <row r="7" spans="1:10" s="407" customFormat="1" ht="12">
       <c r="A7" s="411"/>
-      <c r="B7" s="898" t="s">
+      <c r="B7" s="887" t="s">
         <v>461</v>
       </c>
       <c r="C7" s="411"/>
@@ -32303,11 +32312,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomRight" activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -32386,12 +32395,12 @@
         <v>502</v>
       </c>
       <c r="M3" s="456" t="s">
-        <v>503</v>
-      </c>
-      <c r="O3" s="892" t="s">
+        <v>502</v>
+      </c>
+      <c r="O3" s="897" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="892"/>
+      <c r="P3" s="897"/>
     </row>
     <row r="4" spans="1:1024" s="463" customFormat="1" ht="36">
       <c r="A4" s="458" t="s">
@@ -32430,7 +32439,7 @@
       <c r="L4" s="459" t="s">
         <v>515</v>
       </c>
-      <c r="M4" s="460" t="s">
+      <c r="M4" s="899" t="s">
         <v>516</v>
       </c>
       <c r="N4" s="461" t="s">
@@ -32478,17 +32487,17 @@
         <v>131514.23999999999</v>
       </c>
       <c r="M5" s="465">
-        <v>4342</v>
+        <v>27222</v>
       </c>
       <c r="N5" s="466">
         <f t="shared" ref="N5:N45" si="0">SUM(B5:M5)</f>
-        <v>19933867.189999998</v>
+        <v>19956747.189999998</v>
       </c>
       <c r="O5" s="465"/>
       <c r="P5" s="465"/>
       <c r="Q5" s="465">
         <f t="shared" ref="Q5:Q24" si="1">N5+O5-P5</f>
-        <v>19933867.189999998</v>
+        <v>19956747.189999998</v>
       </c>
       <c r="R5" s="467"/>
       <c r="AMJ5"/>
@@ -32583,17 +32592,17 @@
         <v>41054.14</v>
       </c>
       <c r="M8" s="466">
-        <v>193437</v>
+        <v>155134</v>
       </c>
       <c r="N8" s="466">
         <f t="shared" si="0"/>
-        <v>16558471.950000001</v>
+        <v>16520168.950000001</v>
       </c>
       <c r="O8" s="465"/>
       <c r="P8" s="465"/>
       <c r="Q8" s="465">
         <f t="shared" si="1"/>
-        <v>16558471.950000001</v>
+        <v>16520168.950000001</v>
       </c>
       <c r="R8" s="467"/>
       <c r="AMJ8"/>
@@ -32661,17 +32670,17 @@
         <v>14795.37</v>
       </c>
       <c r="M10" s="466">
-        <v>6266</v>
+        <v>6194</v>
       </c>
       <c r="N10" s="466">
         <f t="shared" si="0"/>
-        <v>12229553.59</v>
+        <v>12229481.59</v>
       </c>
       <c r="O10" s="465"/>
       <c r="P10" s="465"/>
       <c r="Q10" s="465">
         <f t="shared" si="1"/>
-        <v>12229553.59</v>
+        <v>12229481.59</v>
       </c>
       <c r="R10" s="467"/>
       <c r="AMJ10"/>
@@ -32875,17 +32884,17 @@
         <v>433904.97</v>
       </c>
       <c r="M16" s="465">
-        <v>271520</v>
+        <v>167276</v>
       </c>
       <c r="N16" s="466">
         <f t="shared" si="0"/>
-        <v>224540373.88</v>
+        <v>224436129.88</v>
       </c>
       <c r="O16" s="465"/>
       <c r="P16" s="465"/>
       <c r="Q16" s="465">
         <f t="shared" si="1"/>
-        <v>224540373.88</v>
+        <v>224436129.88</v>
       </c>
       <c r="R16" s="467"/>
       <c r="AMJ16"/>
@@ -33206,11 +33215,11 @@
       </c>
       <c r="M25" s="473">
         <f t="shared" si="2"/>
-        <v>272170</v>
+        <v>152431</v>
       </c>
       <c r="N25" s="473">
         <f t="shared" si="0"/>
-        <v>277099050.2899999</v>
+        <v>276979311.2899999</v>
       </c>
       <c r="O25" s="473">
         <f>+SUM(O5:O24)</f>
@@ -33222,7 +33231,7 @@
       </c>
       <c r="Q25" s="474">
         <f>SUM(Q5:Q24)</f>
-        <v>277099050.28999996</v>
+        <v>276979311.28999996</v>
       </c>
       <c r="R25" s="475"/>
       <c r="AMJ25"/>
@@ -33245,17 +33254,17 @@
       <c r="K26" s="478"/>
       <c r="L26" s="479"/>
       <c r="M26" s="479">
-        <v>23268</v>
+        <v>0</v>
       </c>
       <c r="N26" s="479">
         <f t="shared" si="0"/>
-        <v>23268</v>
+        <v>0</v>
       </c>
       <c r="O26" s="478"/>
       <c r="P26" s="478"/>
       <c r="Q26" s="478">
         <f t="shared" ref="Q26:Q45" si="3">N26-O26+P26</f>
-        <v>23268</v>
+        <v>0</v>
       </c>
       <c r="R26" s="480"/>
       <c r="AMJ26"/>
@@ -33354,17 +33363,17 @@
         <v>38046.5</v>
       </c>
       <c r="M29" s="465">
-        <v>427890</v>
+        <v>468560</v>
       </c>
       <c r="N29" s="466">
         <f t="shared" si="0"/>
-        <v>30552517.389999997</v>
+        <v>30593187.389999997</v>
       </c>
       <c r="O29" s="465"/>
       <c r="P29" s="465"/>
       <c r="Q29" s="465">
         <f t="shared" si="3"/>
-        <v>30552517.389999997</v>
+        <v>30593187.389999997</v>
       </c>
       <c r="R29" s="480"/>
       <c r="AMJ29"/>
@@ -33395,17 +33404,17 @@
       </c>
       <c r="L30" s="465"/>
       <c r="M30" s="465">
-        <v>31795</v>
+        <v>4144</v>
       </c>
       <c r="N30" s="466">
         <f t="shared" si="0"/>
-        <v>3049201.06</v>
+        <v>3021550.06</v>
       </c>
       <c r="O30" s="465"/>
       <c r="P30" s="465"/>
       <c r="Q30" s="465">
         <f t="shared" si="3"/>
-        <v>3049201.06</v>
+        <v>3021550.06</v>
       </c>
       <c r="R30" s="480"/>
       <c r="AMJ30"/>
@@ -33465,17 +33474,17 @@
         <v>2235.0500000000002</v>
       </c>
       <c r="M32" s="465">
-        <v>89411</v>
+        <v>73218</v>
       </c>
       <c r="N32" s="466">
         <f t="shared" si="0"/>
-        <v>6830738.9400000004</v>
+        <v>6814545.9400000004</v>
       </c>
       <c r="O32" s="465"/>
       <c r="P32" s="465"/>
       <c r="Q32" s="465">
         <f t="shared" si="3"/>
-        <v>6830738.9400000004</v>
+        <v>6814545.9400000004</v>
       </c>
       <c r="R32" s="480"/>
       <c r="AMJ32"/>
@@ -33957,11 +33966,11 @@
       </c>
       <c r="M46" s="473">
         <f t="shared" si="4"/>
-        <v>1321044</v>
+        <v>1294602</v>
       </c>
       <c r="N46" s="473">
         <f t="shared" si="4"/>
-        <v>136766611.91</v>
+        <v>136740169.91</v>
       </c>
       <c r="O46" s="473">
         <f t="shared" si="4"/>
@@ -33973,7 +33982,7 @@
       </c>
       <c r="Q46" s="474">
         <f t="shared" si="4"/>
-        <v>136766611.91</v>
+        <v>136740169.91</v>
       </c>
       <c r="R46" s="462"/>
       <c r="AMJ46"/>
@@ -34304,17 +34313,17 @@
         <v>-3973273.83</v>
       </c>
       <c r="M55" s="465">
-        <v>-1058874</v>
+        <v>-1152171</v>
       </c>
       <c r="N55" s="466">
         <f t="shared" si="5"/>
-        <v>30231544.740000002</v>
+        <v>30138247.740000002</v>
       </c>
       <c r="O55" s="465"/>
       <c r="P55" s="465"/>
       <c r="Q55" s="465">
         <f t="shared" si="6"/>
-        <v>30231544.740000002</v>
+        <v>30138247.740000002</v>
       </c>
       <c r="R55" s="451"/>
       <c r="AMJ55"/>
@@ -34438,11 +34447,11 @@
       </c>
       <c r="M58" s="473">
         <f t="shared" si="7"/>
-        <v>-1048874</v>
+        <v>-1142171</v>
       </c>
       <c r="N58" s="473">
         <f t="shared" si="7"/>
-        <v>140332438.37999997</v>
+        <v>140239141.37999997</v>
       </c>
       <c r="O58" s="473">
         <f t="shared" si="7"/>
@@ -34454,7 +34463,7 @@
       </c>
       <c r="Q58" s="474">
         <f t="shared" si="7"/>
-        <v>140332438.37999997</v>
+        <v>140239141.37999997</v>
       </c>
       <c r="R58" s="462"/>
       <c r="AMJ58"/>
@@ -34634,17 +34643,17 @@
         <v>780607.18</v>
       </c>
       <c r="M62" s="495">
-        <v>296176</v>
+        <v>251463</v>
       </c>
       <c r="N62" s="496">
         <f>SUM(B62:M62)</f>
-        <v>212345966.60000002</v>
+        <v>212301253.60000002</v>
       </c>
       <c r="O62" s="497"/>
       <c r="P62" s="498"/>
       <c r="Q62" s="499">
         <f>N62-O62+P62</f>
-        <v>212345966.60000002</v>
+        <v>212301253.60000002</v>
       </c>
     </row>
     <row r="63" spans="1:1024">
@@ -34675,17 +34684,17 @@
         <v>-265414.81</v>
       </c>
       <c r="M63" s="500">
-        <v>-155573</v>
+        <v>-72447</v>
       </c>
       <c r="N63" s="501">
         <f>SUM(B63:M63)</f>
-        <v>-101838131.51000001</v>
+        <v>-101755005.51000001</v>
       </c>
       <c r="O63" s="502"/>
       <c r="P63" s="503"/>
       <c r="Q63" s="504">
         <f>N63-O63+P63</f>
-        <v>-101838131.51000001</v>
+        <v>-101755005.51000001</v>
       </c>
     </row>
     <row r="64" spans="1:1024" s="405" customFormat="1">
@@ -34738,17 +34747,17 @@
       </c>
       <c r="M64" s="506">
         <f t="shared" si="9"/>
-        <v>140603</v>
+        <v>179016</v>
       </c>
       <c r="N64" s="506">
         <f t="shared" si="9"/>
-        <v>110507835.09000002</v>
+        <v>110546248.09000002</v>
       </c>
       <c r="O64" s="507"/>
       <c r="P64" s="507"/>
       <c r="Q64" s="507">
         <f>SUM(Q62:Q63)</f>
-        <v>110507835.09000002</v>
+        <v>110546248.09000002</v>
       </c>
       <c r="R64" s="508"/>
       <c r="AMJ64"/>
@@ -34783,17 +34792,17 @@
         <v>-276541.61</v>
       </c>
       <c r="M65" s="510">
-        <v>-576801</v>
+        <v>-272313</v>
       </c>
       <c r="N65" s="511">
         <f>SUM(B65:M65)</f>
-        <v>-83187434.729999989</v>
+        <v>-82882946.729999989</v>
       </c>
       <c r="O65" s="498"/>
       <c r="P65" s="497"/>
       <c r="Q65" s="499">
         <f>N65-O65+P65</f>
-        <v>-83187434.729999989</v>
+        <v>-82882946.729999989</v>
       </c>
     </row>
     <row r="66" spans="1:1024">
@@ -34883,17 +34892,17 @@
       </c>
       <c r="M67" s="506">
         <f t="shared" si="10"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N67" s="506">
         <f t="shared" si="10"/>
-        <v>26806074.960000031</v>
+        <v>27148975.960000031</v>
       </c>
       <c r="O67" s="507"/>
       <c r="P67" s="507"/>
       <c r="Q67" s="507">
         <f>SUM(Q64:Q66)</f>
-        <v>26806074.960000031</v>
+        <v>27148975.960000031</v>
       </c>
       <c r="R67" s="508"/>
       <c r="AMJ67"/>
@@ -34979,17 +34988,17 @@
       </c>
       <c r="M69" s="506">
         <f t="shared" si="11"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N69" s="506">
         <f t="shared" si="11"/>
-        <v>26798236.810000032</v>
+        <v>27141137.810000032</v>
       </c>
       <c r="O69" s="512"/>
       <c r="P69" s="512"/>
       <c r="Q69" s="507">
         <f>+Q67+Q68</f>
-        <v>26798236.810000032</v>
+        <v>27141137.810000032</v>
       </c>
       <c r="R69" s="508"/>
       <c r="AMJ69"/>
@@ -35106,17 +35115,17 @@
       </c>
       <c r="M72" s="506">
         <f>+M69+M70+M71</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N72" s="506">
         <f>+N69+N70+N71</f>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="O72" s="513"/>
       <c r="P72" s="513"/>
       <c r="Q72" s="513">
         <f>+Q69+Q70+Q71</f>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="R72" s="508"/>
       <c r="AMJ72"/>
@@ -35200,11 +35209,11 @@
       </c>
       <c r="M74" s="519">
         <f t="shared" si="13"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N74" s="519">
         <f t="shared" si="13"/>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="O74" s="519">
         <f>SUM(O62:O73)</f>
@@ -35216,7 +35225,7 @@
       </c>
       <c r="Q74" s="520">
         <f>Q72+Q73</f>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="R74" s="462"/>
       <c r="AMJ74"/>
@@ -35391,11 +35400,11 @@
       </c>
       <c r="M79" s="527">
         <f>+M74*Participaciones!Y16</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N79" s="528">
         <f>SUM(B79:M79)</f>
-        <v>27868881.929421965</v>
+        <v>28211782.929421965</v>
       </c>
       <c r="O79" s="528">
         <f>+O66+O62</f>
@@ -35407,7 +35416,7 @@
       </c>
       <c r="Q79" s="528">
         <f>+N79-O79+P79</f>
-        <v>27868881.929421965</v>
+        <v>28211782.929421965</v>
       </c>
     </row>
     <row r="80" spans="1:1024">
@@ -35519,11 +35528,11 @@
       </c>
       <c r="M81" s="533">
         <f t="shared" si="16"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N81" s="533">
         <f t="shared" si="16"/>
-        <v>26636578.509999998</v>
+        <v>26979479.509999998</v>
       </c>
       <c r="O81" s="533">
         <f t="shared" si="16"/>
@@ -35535,7 +35544,7 @@
       </c>
       <c r="Q81" s="533">
         <f t="shared" si="16"/>
-        <v>26636578.509999998</v>
+        <v>26979479.509999998</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -38043,86 +38052,86 @@
       </c>
     </row>
     <row r="248" spans="2:6">
-      <c r="C248" s="894" t="s">
+      <c r="C248" s="883" t="s">
         <v>172</v>
       </c>
-      <c r="D248" s="895">
+      <c r="D248" s="884">
         <v>4753717</v>
       </c>
-      <c r="E248" s="895"/>
+      <c r="E248" s="884"/>
     </row>
     <row r="249" spans="2:6">
-      <c r="C249" s="894" t="s">
+      <c r="C249" s="883" t="s">
         <v>90</v>
       </c>
-      <c r="D249" s="895">
+      <c r="D249" s="884">
         <v>74927</v>
       </c>
-      <c r="E249" s="895"/>
+      <c r="E249" s="884"/>
     </row>
     <row r="250" spans="2:6">
-      <c r="C250" s="894" t="s">
+      <c r="C250" s="883" t="s">
         <v>92</v>
       </c>
-      <c r="D250" s="895">
+      <c r="D250" s="884">
         <v>111199</v>
       </c>
-      <c r="E250" s="895"/>
+      <c r="E250" s="884"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="C251" s="894" t="s">
+      <c r="C251" s="883" t="s">
         <v>470</v>
       </c>
-      <c r="D251" s="895">
+      <c r="D251" s="884">
         <v>31237644</v>
       </c>
-      <c r="E251" s="895"/>
+      <c r="E251" s="884"/>
     </row>
     <row r="252" spans="2:6">
-      <c r="C252" s="894" t="s">
+      <c r="C252" s="883" t="s">
         <v>580</v>
       </c>
-      <c r="D252" s="895">
+      <c r="D252" s="884">
         <f>D141+D152-E177</f>
         <v>1502112</v>
       </c>
-      <c r="E252" s="895"/>
+      <c r="E252" s="884"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="C253" s="894" t="s">
+      <c r="C253" s="883" t="s">
         <v>50</v>
       </c>
-      <c r="D253" s="895">
+      <c r="D253" s="884">
         <f>D142-E154+D175</f>
         <v>47450</v>
       </c>
-      <c r="E253" s="895"/>
+      <c r="E253" s="884"/>
     </row>
     <row r="254" spans="2:6">
-      <c r="C254" s="894" t="s">
+      <c r="C254" s="883" t="s">
         <v>54</v>
       </c>
-      <c r="D254" s="895">
+      <c r="D254" s="884">
         <f>D143+D176</f>
         <v>472983</v>
       </c>
-      <c r="E254" s="895"/>
+      <c r="E254" s="884"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="C255" s="894" t="s">
+      <c r="C255" s="883" t="s">
         <v>870</v>
       </c>
-      <c r="D255" s="895">
+      <c r="D255" s="884">
         <v>25218</v>
       </c>
-      <c r="E255" s="895"/>
+      <c r="E255" s="884"/>
     </row>
     <row r="256" spans="2:6">
-      <c r="C256" s="894" t="s">
+      <c r="C256" s="883" t="s">
         <v>867</v>
       </c>
-      <c r="D256" s="895"/>
-      <c r="E256" s="895">
+      <c r="D256" s="884"/>
+      <c r="E256" s="884">
         <f>E145+E155+E156-D153</f>
         <v>4249214</v>
       </c>
@@ -38254,7 +38263,7 @@
       </c>
     </row>
     <row r="269" spans="3:6">
-      <c r="C269" s="896" t="s">
+      <c r="C269" s="885" t="s">
         <v>591</v>
       </c>
       <c r="D269" s="544"/>
@@ -39173,11 +39182,11 @@
       </c>
       <c r="C5" s="628">
         <f>'Planilla final'!Q5</f>
-        <v>19933867.189999998</v>
+        <v>19956747.189999998</v>
       </c>
       <c r="D5" s="620">
         <f t="shared" ref="D5:D13" si="0">F5-C5</f>
-        <v>-14047893.189999998</v>
+        <v>-14070773.189999998</v>
       </c>
       <c r="E5" s="627"/>
       <c r="F5" s="408">
@@ -39209,11 +39218,11 @@
       <c r="P5" s="604"/>
       <c r="Q5" s="634">
         <f>'Planilla final'!Q26</f>
-        <v>23268</v>
+        <v>0</v>
       </c>
       <c r="R5" s="635">
         <f t="shared" ref="R5:R13" si="1">T5-Q5</f>
-        <v>50776</v>
+        <v>74044</v>
       </c>
       <c r="S5" s="604"/>
       <c r="T5" s="408">
@@ -39412,11 +39421,11 @@
       </c>
       <c r="C8" s="628">
         <f>'Planilla final'!Q8</f>
-        <v>16558471.950000001</v>
+        <v>16520168.950000001</v>
       </c>
       <c r="D8" s="620">
         <f t="shared" si="0"/>
-        <v>-5471916.9500000011</v>
+        <v>-5433613.9500000011</v>
       </c>
       <c r="E8" s="627"/>
       <c r="F8" s="408">
@@ -39450,11 +39459,11 @@
       </c>
       <c r="Q8" s="634">
         <f>'Planilla final'!Q29</f>
-        <v>30552517.389999997</v>
+        <v>30593187.389999997</v>
       </c>
       <c r="R8" s="635">
         <f t="shared" si="1"/>
-        <v>-8012518.3899999969</v>
+        <v>-8053188.3899999969</v>
       </c>
       <c r="S8" s="604"/>
       <c r="T8" s="408">
@@ -39530,11 +39539,11 @@
       </c>
       <c r="Q9" s="634">
         <f>'Planilla final'!Q30</f>
-        <v>3049201.06</v>
+        <v>3021550.06</v>
       </c>
       <c r="R9" s="635">
         <f t="shared" si="1"/>
-        <v>-1304703.06</v>
+        <v>-1277052.06</v>
       </c>
       <c r="S9" s="604"/>
       <c r="T9" s="408">
@@ -39650,11 +39659,11 @@
       </c>
       <c r="C11" s="628">
         <f>'Planilla final'!Q10</f>
-        <v>12229553.59</v>
+        <v>12229481.59</v>
       </c>
       <c r="D11" s="620">
         <f t="shared" si="0"/>
-        <v>5468533.4100000001</v>
+        <v>5468605.4100000001</v>
       </c>
       <c r="E11" s="627"/>
       <c r="F11" s="408">
@@ -39688,11 +39697,11 @@
       </c>
       <c r="Q11" s="634">
         <f>'Planilla final'!Q32</f>
-        <v>6830738.9400000004</v>
+        <v>6814545.9400000004</v>
       </c>
       <c r="R11" s="635">
         <f t="shared" si="1"/>
-        <v>-2649734.9400000004</v>
+        <v>-2633541.9400000004</v>
       </c>
       <c r="S11" s="604"/>
       <c r="T11" s="408">
@@ -39927,7 +39936,7 @@
       <c r="B15" s="627"/>
       <c r="C15" s="650">
         <f>SUM(C5:C13)</f>
-        <v>129423119.59999998</v>
+        <v>129407624.59999998</v>
       </c>
       <c r="D15" s="620"/>
       <c r="E15" s="627"/>
@@ -39991,7 +40000,7 @@
       <c r="P16" s="655"/>
       <c r="Q16" s="650">
         <f>SUM(Q5:Q15)</f>
-        <v>63541958.18</v>
+        <v>63515516.18</v>
       </c>
       <c r="R16" s="635"/>
       <c r="S16" s="655"/>
@@ -40269,11 +40278,11 @@
       </c>
       <c r="C21" s="628">
         <f>'Planilla final'!Q16+'Planilla final'!Q17</f>
-        <v>76231900.75</v>
+        <v>76127656.75</v>
       </c>
       <c r="D21" s="620">
         <f t="shared" si="2"/>
-        <v>9701170.25</v>
+        <v>9805414.25</v>
       </c>
       <c r="E21" s="627"/>
       <c r="F21" s="408">
@@ -40858,7 +40867,7 @@
       <c r="B29" s="627"/>
       <c r="C29" s="650">
         <f>SUM(C19:C28)</f>
-        <v>147675930.69</v>
+        <v>147571686.69</v>
       </c>
       <c r="D29" s="674"/>
       <c r="E29" s="627"/>
@@ -40879,7 +40888,7 @@
       <c r="P29" s="655"/>
       <c r="Q29" s="650">
         <f>Q16+Q28</f>
-        <v>136766611.91</v>
+        <v>136740169.91</v>
       </c>
       <c r="R29" s="670"/>
       <c r="S29" s="655"/>
@@ -40944,7 +40953,7 @@
       <c r="P31" s="655"/>
       <c r="Q31" s="408">
         <f>'Planilla final'!Q58</f>
-        <v>140332438.37999997</v>
+        <v>140239141.37999997</v>
       </c>
       <c r="R31" s="670"/>
       <c r="S31" s="655"/>
@@ -41007,7 +41016,7 @@
       <c r="B33" s="627"/>
       <c r="C33" s="683">
         <f>C15+C29</f>
-        <v>277099050.28999996</v>
+        <v>276979311.28999996</v>
       </c>
       <c r="D33" s="627"/>
       <c r="E33" s="627"/>
@@ -41034,7 +41043,7 @@
       <c r="P33" s="684"/>
       <c r="Q33" s="683">
         <f>Q29+Q31</f>
-        <v>277099050.28999996</v>
+        <v>276979311.28999996</v>
       </c>
       <c r="R33" s="685"/>
       <c r="S33" s="684"/>
@@ -43814,7 +43823,7 @@
       <c r="C3" s="711"/>
       <c r="D3" s="712">
         <f>'Planilla final'!Q62</f>
-        <v>212345966.60000002</v>
+        <v>212301253.60000002</v>
       </c>
       <c r="E3" s="711"/>
       <c r="F3" s="710">
@@ -43843,7 +43852,7 @@
       </c>
       <c r="D4" s="712">
         <f>'Planilla final'!Q63</f>
-        <v>-101838131.51000001</v>
+        <v>-101755005.51000001</v>
       </c>
       <c r="E4" s="711"/>
       <c r="F4" s="710">
@@ -43878,7 +43887,7 @@
       <c r="C6" s="711"/>
       <c r="D6" s="719">
         <f>D3+D4</f>
-        <v>110507835.09000002</v>
+        <v>110546248.09000002</v>
       </c>
       <c r="E6" s="711"/>
       <c r="F6" s="720">
@@ -43934,7 +43943,7 @@
       </c>
       <c r="D9" s="712">
         <f>'Planilla final'!N65</f>
-        <v>-83187434.729999989</v>
+        <v>-82882946.729999989</v>
       </c>
       <c r="E9" s="711"/>
       <c r="F9" s="710">
@@ -43973,7 +43982,7 @@
       <c r="C11" s="711"/>
       <c r="D11" s="719">
         <f>D6+D9</f>
-        <v>27320400.360000029</v>
+        <v>27663301.360000029</v>
       </c>
       <c r="E11" s="711"/>
       <c r="F11" s="720">
@@ -44079,7 +44088,7 @@
       <c r="C16" s="727"/>
       <c r="D16" s="719">
         <f>D11+D13+D14</f>
-        <v>26798236.810000032</v>
+        <v>27141137.810000032</v>
       </c>
       <c r="E16" s="727"/>
       <c r="F16" s="720">
@@ -44194,7 +44203,7 @@
       <c r="C22" s="711"/>
       <c r="D22" s="730">
         <f>D16+D18+D20</f>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="E22" s="711"/>
       <c r="F22" s="731">
@@ -44290,7 +44299,7 @@
       <c r="C28" s="711"/>
       <c r="D28" s="737">
         <f>D22+D26</f>
-        <v>26636578.510000035</v>
+        <v>26979479.510000035</v>
       </c>
       <c r="E28" s="711"/>
       <c r="F28" s="738">
@@ -44404,7 +44413,7 @@
       <c r="C35" s="701"/>
       <c r="D35" s="746">
         <f>D28/D34</f>
-        <v>0.71712890475558011</v>
+        <v>0.7263607292737807</v>
       </c>
       <c r="E35" s="701"/>
       <c r="F35" s="747">
@@ -48430,11 +48439,11 @@
       </c>
       <c r="M55" s="783">
         <f>+'Planilla final'!M74</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N55" s="783">
         <f t="shared" si="4"/>
-        <v>27558060.889999997</v>
+        <v>27900961.889999997</v>
       </c>
       <c r="O55" s="783">
         <f>+'Planilla final'!O74</f>
@@ -48446,7 +48455,7 @@
       </c>
       <c r="Q55" s="442">
         <f t="shared" si="5"/>
-        <v>28861757.461909998</v>
+        <v>29204658.461909998</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -48499,11 +48508,11 @@
       </c>
       <c r="M56" s="787">
         <f t="shared" si="6"/>
-        <v>-1058874</v>
+        <v>-715973</v>
       </c>
       <c r="N56" s="787">
         <f t="shared" si="6"/>
-        <v>42876587.25</v>
+        <v>43219488.25</v>
       </c>
       <c r="O56" s="787">
         <f t="shared" si="6"/>
@@ -48515,11 +48524,11 @@
       </c>
       <c r="Q56" s="787">
         <f t="shared" si="6"/>
-        <v>49251351.821909994</v>
+        <v>49594252.821909994</v>
       </c>
       <c r="R56" s="784">
         <f>+Q56-'ECP20'!P67</f>
-        <v>15130839.988027394</v>
+        <v>15473740.988027394</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -48569,11 +48578,11 @@
       </c>
       <c r="M57" s="796">
         <f>+M56-'Planilla final'!M55</f>
-        <v>0</v>
+        <v>436198</v>
       </c>
       <c r="N57" s="796">
         <f>+N56-'Planilla final'!N55</f>
-        <v>12645042.509999998</v>
+        <v>13081240.509999998</v>
       </c>
       <c r="O57" s="796">
         <f>+O56-'Planilla final'!O55</f>
@@ -48585,7 +48594,7 @@
       </c>
       <c r="Q57" s="796">
         <f>+Q56-'Planilla final'!Q55</f>
-        <v>19019807.081909992</v>
+        <v>19456005.081909992</v>
       </c>
       <c r="S57" s="434"/>
     </row>
@@ -49258,11 +49267,11 @@
       </c>
       <c r="M72" s="783">
         <f t="shared" si="12"/>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="N72" s="783">
         <f>SUM(B72:M72)</f>
-        <v>26458360.889999997</v>
+        <v>26801261.889999997</v>
       </c>
       <c r="O72" s="783">
         <f>+O55+O61</f>
@@ -49274,7 +49283,7 @@
       </c>
       <c r="Q72" s="783">
         <f>+P72+N72-O72</f>
-        <v>26458360.889999997</v>
+        <v>26801261.889999997</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -49327,11 +49336,11 @@
       </c>
       <c r="M73" s="787">
         <f t="shared" si="13"/>
-        <v>-1048874</v>
+        <v>-705973</v>
       </c>
       <c r="N73" s="787">
         <f>SUM(B73:M73)</f>
-        <v>141529904.88</v>
+        <v>141872805.88</v>
       </c>
       <c r="O73" s="787">
         <f>SUM(O66:O72)</f>
@@ -49343,11 +49352,11 @@
       </c>
       <c r="Q73" s="787">
         <f>SUM(Q66:Q72)</f>
-        <v>103588087.88000001</v>
+        <v>103930988.88000001</v>
       </c>
       <c r="R73" s="784">
         <f>+Q73-'ECP20'!T67</f>
-        <v>15087191.360000014</v>
+        <v>15430092.360000014</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -49398,11 +49407,11 @@
       </c>
       <c r="M74" s="784">
         <f>+M73-'Planilla final'!M58</f>
-        <v>0</v>
+        <v>436198</v>
       </c>
       <c r="N74" s="784">
         <f>+N73-'Planilla final'!N58</f>
-        <v>1197466.5000000298</v>
+        <v>1633664.5000000298</v>
       </c>
       <c r="O74" s="784">
         <f>+O73-'Planilla final'!O58</f>
@@ -49414,7 +49423,7 @@
       </c>
       <c r="Q74" s="784">
         <f>+Q73-'Planilla final'!Q58</f>
-        <v>-36744350.499999955</v>
+        <v>-36308152.499999955</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -49586,7 +49595,7 @@
       <c r="B6" s="809"/>
       <c r="C6" s="481">
         <f>+W6</f>
-        <v>26723657.91</v>
+        <v>27066558.91</v>
       </c>
       <c r="D6" s="481"/>
       <c r="E6" s="481">
@@ -49647,11 +49656,11 @@
       </c>
       <c r="S6" s="408">
         <f>+'Planilla final'!M69+'Planilla final'!M70</f>
-        <v>-436198</v>
+        <v>-93297</v>
       </c>
       <c r="T6" s="408">
         <f t="shared" ref="T6:T20" si="0">SUM(H6:S6)</f>
-        <v>26723657.91</v>
+        <v>27066558.91</v>
       </c>
       <c r="U6" s="408">
         <f>+'Planilla final'!O74</f>
@@ -49663,7 +49672,7 @@
       </c>
       <c r="W6" s="408">
         <f>+T6+V6-U6</f>
-        <v>26723657.91</v>
+        <v>27066558.91</v>
       </c>
       <c r="X6" s="566"/>
     </row>
@@ -50348,7 +50357,7 @@
       <c r="B21" s="811"/>
       <c r="C21" s="815">
         <f>+SUM(C6:C20)</f>
-        <v>61608956.339999996</v>
+        <v>61951857.339999996</v>
       </c>
       <c r="D21" s="481"/>
       <c r="E21" s="815">
@@ -50409,11 +50418,11 @@
       </c>
       <c r="S21" s="481">
         <f t="shared" si="3"/>
-        <v>-331954</v>
+        <v>10947</v>
       </c>
       <c r="T21" s="481">
         <f t="shared" si="3"/>
-        <v>63755151.809999995</v>
+        <v>64098052.809999995</v>
       </c>
       <c r="U21" s="481">
         <f t="shared" si="3"/>
@@ -50425,7 +50434,7 @@
       </c>
       <c r="W21" s="481">
         <f t="shared" si="3"/>
-        <v>63916000.279999994</v>
+        <v>64258901.279999994</v>
       </c>
       <c r="X21" s="414"/>
     </row>
@@ -51100,7 +51109,7 @@
       <c r="B40" s="811"/>
       <c r="C40" s="815">
         <f>+SUM(C21:C39)</f>
-        <v>54118419.339999996</v>
+        <v>54461320.339999996</v>
       </c>
       <c r="D40" s="481"/>
       <c r="E40" s="815">
@@ -51279,7 +51288,7 @@
       <c r="B44" s="817"/>
       <c r="C44" s="818">
         <f>+C40+C41+C42+C43</f>
-        <v>42172633.339999996</v>
+        <v>42515534.339999996</v>
       </c>
       <c r="D44" s="819"/>
       <c r="E44" s="818">
@@ -52021,7 +52030,7 @@
       <c r="B65" s="811"/>
       <c r="C65" s="812">
         <f>+C63+C54+C44</f>
-        <v>11520504.339999996</v>
+        <v>11863405.339999996</v>
       </c>
       <c r="D65" s="812"/>
       <c r="E65" s="812">
@@ -52102,7 +52111,7 @@
       </c>
       <c r="C67" s="828">
         <f>+C65+C66</f>
-        <v>8364739.3399999961</v>
+        <v>8707640.3399999961</v>
       </c>
       <c r="D67" s="812"/>
       <c r="E67" s="828">
@@ -52218,7 +52227,7 @@
     <row r="71" spans="1:24">
       <c r="C71" s="830">
         <f>+'ESF20'!F5-'ESF20'!T5-C67</f>
-        <v>-2552809.3399999961</v>
+        <v>-2895710.3399999961</v>
       </c>
       <c r="D71" s="830"/>
       <c r="E71" s="829"/>
@@ -52506,10 +52515,10 @@
     <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="836"/>
       <c r="E3" s="833"/>
-      <c r="P3" s="893" t="s">
+      <c r="P3" s="898" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="893"/>
+      <c r="Q3" s="898"/>
     </row>
     <row r="4" spans="1:22" ht="38.25">
       <c r="A4" s="837" t="s">
@@ -59575,18 +59584,18 @@
     <row r="2" spans="1:21">
       <c r="B2" s="161"/>
       <c r="D2" s="162"/>
-      <c r="F2" s="885" t="s">
+      <c r="F2" s="890" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="885"/>
-      <c r="H2" s="885"/>
-      <c r="J2" s="885" t="s">
+      <c r="G2" s="890"/>
+      <c r="H2" s="890"/>
+      <c r="J2" s="890" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="885"/>
-      <c r="L2" s="885"/>
-      <c r="M2" s="885"/>
-      <c r="N2" s="885"/>
+      <c r="K2" s="890"/>
+      <c r="L2" s="890"/>
+      <c r="M2" s="890"/>
+      <c r="N2" s="890"/>
       <c r="O2" s="164"/>
       <c r="P2" s="164"/>
       <c r="U2" s="165"/>
@@ -62920,13 +62929,13 @@
         <f>+C2-'Asientos - para Consolidado'!C10-'Asientos - para Consolidado'!D62</f>
         <v>9054002.0000000037</v>
       </c>
-      <c r="D8" s="888" t="s">
+      <c r="D8" s="891" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="888"/>
-      <c r="F8" s="888"/>
-      <c r="G8" s="888"/>
-      <c r="H8" s="888"/>
+      <c r="E8" s="891"/>
+      <c r="F8" s="891"/>
+      <c r="G8" s="891"/>
+      <c r="H8" s="891"/>
       <c r="I8" s="281"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
@@ -62940,10 +62949,10 @@
       <c r="D9" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="889" t="s">
+      <c r="E9" s="892" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="889"/>
+      <c r="F9" s="892"/>
       <c r="G9" s="283"/>
       <c r="H9" s="257"/>
       <c r="I9" s="271"/>
@@ -62971,13 +62980,13 @@
         <f>+'ESF - ERI'!F58-'ESF - ERI'!F49</f>
         <v>21123.449999999953</v>
       </c>
-      <c r="D13" s="888" t="s">
+      <c r="D13" s="891" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="888"/>
-      <c r="F13" s="888"/>
-      <c r="G13" s="888"/>
-      <c r="H13" s="888"/>
+      <c r="E13" s="891"/>
+      <c r="F13" s="891"/>
+      <c r="G13" s="891"/>
+      <c r="H13" s="891"/>
       <c r="I13" s="281"/>
       <c r="J13" s="277"/>
     </row>
@@ -63207,10 +63216,10 @@
       <c r="D31" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="889" t="s">
+      <c r="E31" s="892" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="889"/>
+      <c r="F31" s="892"/>
       <c r="G31" s="283"/>
       <c r="I31" s="290">
         <f>C24*G27</f>
@@ -63244,13 +63253,13 @@
         <f>+'ESF - ERI'!H58-'ESF - ERI'!H49</f>
         <v>-276937.91993750003</v>
       </c>
-      <c r="D35" s="888" t="s">
+      <c r="D35" s="891" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="888"/>
-      <c r="F35" s="888"/>
-      <c r="G35" s="888"/>
-      <c r="H35" s="888"/>
+      <c r="E35" s="891"/>
+      <c r="F35" s="891"/>
+      <c r="G35" s="891"/>
+      <c r="H35" s="891"/>
     </row>
     <row r="36" spans="2:9" ht="5.25" customHeight="1">
       <c r="B36" s="266"/>
@@ -63357,10 +63366,10 @@
       <c r="D42" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="887" t="s">
+      <c r="E42" s="894" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="887"/>
+      <c r="F42" s="894"/>
       <c r="G42" s="283"/>
       <c r="H42" s="257"/>
     </row>
@@ -63387,13 +63396,13 @@
         <f>+'ESF - ERI'!I58-'ESF - ERI'!I49</f>
         <v>70210.969999999972</v>
       </c>
-      <c r="D46" s="888" t="s">
+      <c r="D46" s="891" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="888"/>
-      <c r="F46" s="888"/>
-      <c r="G46" s="888"/>
-      <c r="H46" s="888"/>
+      <c r="E46" s="891"/>
+      <c r="F46" s="891"/>
+      <c r="G46" s="891"/>
+      <c r="H46" s="891"/>
     </row>
     <row r="47" spans="2:9" ht="6" customHeight="1">
       <c r="B47" s="266"/>
@@ -63650,10 +63659,10 @@
       <c r="D64" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="887" t="s">
+      <c r="E64" s="894" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="887"/>
+      <c r="F64" s="894"/>
       <c r="G64" s="257"/>
       <c r="H64" s="257"/>
       <c r="I64" s="291">
@@ -63820,13 +63829,13 @@
         <f>+'ESF - ERI'!L58+881973</f>
         <v>883113.17</v>
       </c>
-      <c r="D79" s="888" t="s">
+      <c r="D79" s="891" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="888"/>
-      <c r="F79" s="888"/>
-      <c r="G79" s="888"/>
-      <c r="H79" s="888"/>
+      <c r="E79" s="891"/>
+      <c r="F79" s="891"/>
+      <c r="G79" s="891"/>
+      <c r="H79" s="891"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="266"/>
@@ -64104,12 +64113,12 @@
         <f>+C17+C28+C39+C50+C61+C72+C83+C94+C6</f>
         <v>9357519.0706554651</v>
       </c>
-      <c r="D101" s="886" t="s">
+      <c r="D101" s="893" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="886"/>
-      <c r="F101" s="886"/>
-      <c r="G101" s="886"/>
+      <c r="E101" s="893"/>
+      <c r="F101" s="893"/>
+      <c r="G101" s="893"/>
       <c r="H101" s="295"/>
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1">
@@ -64120,13 +64129,13 @@
         <f>+C9+C31+C64+C42</f>
         <v>828548.36364874605</v>
       </c>
-      <c r="D102" s="886" t="s">
+      <c r="D102" s="893" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="886"/>
-      <c r="F102" s="886"/>
-      <c r="G102" s="886"/>
-      <c r="H102" s="886"/>
+      <c r="E102" s="893"/>
+      <c r="F102" s="893"/>
+      <c r="G102" s="893"/>
+      <c r="H102" s="893"/>
     </row>
     <row r="103" spans="2:9" ht="15" customHeight="1">
       <c r="B103" s="293" t="s">
@@ -64136,23 +64145,18 @@
         <f>+C86+C53+C20</f>
         <v>394335.36694421433</v>
       </c>
-      <c r="D103" s="886" t="s">
+      <c r="D103" s="893" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="886"/>
-      <c r="F103" s="886"/>
-      <c r="G103" s="886"/>
+      <c r="E103" s="893"/>
+      <c r="F103" s="893"/>
+      <c r="G103" s="893"/>
     </row>
     <row r="105" spans="2:9">
       <c r="E105" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D35:H35"/>
     <mergeCell ref="D102:H102"/>
     <mergeCell ref="D103:G103"/>
     <mergeCell ref="E42:F42"/>
@@ -64160,6 +64164,11 @@
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="D79:H79"/>
     <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D35:H35"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
+++ b/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41530CD4-0093-46A4-B80C-FAD772277C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB8478F-9C3F-4F78-A4B9-D004925FF486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="16" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESF - ERI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="18">'ESF20'!$A$2:$W$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">PNC!$B$1:$H$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5448,7 +5448,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1071">
+  <cellXfs count="1073">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="193" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7558,40 +7558,6 @@
     <xf numFmtId="195" fontId="0" fillId="10" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="53" fillId="10" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="0" fillId="13" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="196" fontId="13" fillId="0" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="194" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="331" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="56" fillId="13" borderId="7" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="196" fontId="74" fillId="8" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="61" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7626,9 +7592,6 @@
     </xf>
     <xf numFmtId="195" fontId="53" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="212" fontId="84" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="12" fillId="16" borderId="0" xfId="467" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="84" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="212" fontId="84" fillId="17" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="12" fillId="13" borderId="0" xfId="467" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7636,6 +7599,47 @@
     </xf>
     <xf numFmtId="195" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="12" fillId="13" borderId="0" xfId="467" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="196" fontId="13" fillId="0" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="194" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="331" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="56" fillId="13" borderId="7" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="196" fontId="74" fillId="8" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="12" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="12" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="467" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="467" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8399,11 +8403,6 @@
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
       <sheetData sheetId="22">
-        <row r="8">
-          <cell r="C8">
-            <v>49654</v>
-          </cell>
-        </row>
         <row r="9">
           <cell r="C9">
             <v>1812247</v>
@@ -8805,15 +8804,15 @@
       <c r="C3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="P3" s="1035" t="s">
+      <c r="P3" s="1058" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1035"/>
+      <c r="Q3" s="1058"/>
       <c r="V3" s="4"/>
-      <c r="AG3" s="1035" t="s">
+      <c r="AG3" s="1058" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="1035"/>
+      <c r="AH3" s="1058"/>
     </row>
     <row r="4" spans="1:41" ht="78" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -16488,11 +16487,11 @@
         <f t="shared" si="38"/>
         <v>-0.48993751406669617</v>
       </c>
-      <c r="P79" s="1036">
+      <c r="P79" s="1059">
         <f>P78-Q78</f>
         <v>224942.27000001073</v>
       </c>
-      <c r="Q79" s="1036"/>
+      <c r="Q79" s="1059"/>
       <c r="R79" s="71" t="s">
         <v>114</v>
       </c>
@@ -16809,10 +16808,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="C1" s="1042" t="s">
+      <c r="C1" s="1065" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1042"/>
+      <c r="D1" s="1065"/>
     </row>
     <row r="2" spans="2:5">
       <c r="C2" s="297" t="s">
@@ -16935,11 +16934,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="1042" t="s">
+      <c r="C14" s="1065" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="1042"/>
-      <c r="E14" s="1042"/>
+      <c r="D14" s="1065"/>
+      <c r="E14" s="1065"/>
     </row>
     <row r="15" spans="2:5" ht="26.25">
       <c r="C15" s="303" t="s">
@@ -17148,18 +17147,18 @@
         <f t="shared" ref="G3:G11" si="2">+E3*$G$2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1043">
+      <c r="K3" s="1066">
         <v>2017</v>
       </c>
-      <c r="L3" s="1043"/>
-      <c r="M3" s="1043">
+      <c r="L3" s="1066"/>
+      <c r="M3" s="1066">
         <v>2016</v>
       </c>
-      <c r="N3" s="1043"/>
-      <c r="O3" s="1043" t="s">
+      <c r="N3" s="1066"/>
+      <c r="O3" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1043"/>
+      <c r="P3" s="1066"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="305" t="s">
@@ -17322,18 +17321,18 @@
       <c r="J8" s="306" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="1043">
+      <c r="K8" s="1066">
         <v>2017</v>
       </c>
-      <c r="L8" s="1043"/>
-      <c r="M8" s="1043">
+      <c r="L8" s="1066"/>
+      <c r="M8" s="1066">
         <v>2016</v>
       </c>
-      <c r="N8" s="1043"/>
-      <c r="O8" s="1043" t="s">
+      <c r="N8" s="1066"/>
+      <c r="O8" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="1043"/>
+      <c r="P8" s="1066"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="305" t="s">
@@ -17651,18 +17650,18 @@
         <v>0</v>
       </c>
       <c r="H20" s="308"/>
-      <c r="K20" s="1043">
+      <c r="K20" s="1066">
         <v>2017</v>
       </c>
-      <c r="L20" s="1043"/>
-      <c r="M20" s="1043">
+      <c r="L20" s="1066"/>
+      <c r="M20" s="1066">
         <v>2016</v>
       </c>
-      <c r="N20" s="1043"/>
-      <c r="O20" s="1043" t="s">
+      <c r="N20" s="1066"/>
+      <c r="O20" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="1043"/>
+      <c r="P20" s="1066"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="305" t="s">
@@ -18057,18 +18056,18 @@
         <f t="shared" ref="G39:G46" si="8">+E39*$G$38</f>
         <v>0</v>
       </c>
-      <c r="K39" s="1043">
+      <c r="K39" s="1066">
         <v>2017</v>
       </c>
-      <c r="L39" s="1043"/>
-      <c r="M39" s="1043">
+      <c r="L39" s="1066"/>
+      <c r="M39" s="1066">
         <v>2016</v>
       </c>
-      <c r="N39" s="1043"/>
-      <c r="O39" s="1043" t="s">
+      <c r="N39" s="1066"/>
+      <c r="O39" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="1043"/>
+      <c r="P39" s="1066"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="305" t="s">
@@ -18429,18 +18428,18 @@
         <f t="shared" ref="G55:G62" si="11">+E55*$G$54</f>
         <v>0</v>
       </c>
-      <c r="K55" s="1043">
+      <c r="K55" s="1066">
         <v>2017</v>
       </c>
-      <c r="L55" s="1043"/>
-      <c r="M55" s="1043">
+      <c r="L55" s="1066"/>
+      <c r="M55" s="1066">
         <v>2016</v>
       </c>
-      <c r="N55" s="1043"/>
-      <c r="O55" s="1043" t="s">
+      <c r="N55" s="1066"/>
+      <c r="O55" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="1043"/>
+      <c r="P55" s="1066"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="305" t="s">
@@ -18846,18 +18845,18 @@
         <f t="shared" ref="G73:G80" si="14">+E73*$G$72</f>
         <v>0</v>
       </c>
-      <c r="K73" s="1043">
+      <c r="K73" s="1066">
         <v>2017</v>
       </c>
-      <c r="L73" s="1043"/>
-      <c r="M73" s="1043">
+      <c r="L73" s="1066"/>
+      <c r="M73" s="1066">
         <v>2016</v>
       </c>
-      <c r="N73" s="1043"/>
-      <c r="O73" s="1043" t="s">
+      <c r="N73" s="1066"/>
+      <c r="O73" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P73" s="1043"/>
+      <c r="P73" s="1066"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="305" t="s">
@@ -19265,18 +19264,18 @@
         <f t="shared" ref="G92:G99" si="17">+E92*$G$91</f>
         <v>0</v>
       </c>
-      <c r="K92" s="1043">
+      <c r="K92" s="1066">
         <v>2017</v>
       </c>
-      <c r="L92" s="1043"/>
-      <c r="M92" s="1043">
+      <c r="L92" s="1066"/>
+      <c r="M92" s="1066">
         <v>2016</v>
       </c>
-      <c r="N92" s="1043"/>
-      <c r="O92" s="1043" t="s">
+      <c r="N92" s="1066"/>
+      <c r="O92" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P92" s="1043"/>
+      <c r="P92" s="1066"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="305" t="s">
@@ -19648,18 +19647,18 @@
         <f t="shared" ref="G109:G116" si="20">+E109*$G$108</f>
         <v>0</v>
       </c>
-      <c r="K109" s="1043">
+      <c r="K109" s="1066">
         <v>2017</v>
       </c>
-      <c r="L109" s="1043"/>
-      <c r="M109" s="1043">
+      <c r="L109" s="1066"/>
+      <c r="M109" s="1066">
         <v>2016</v>
       </c>
-      <c r="N109" s="1043"/>
-      <c r="O109" s="1043" t="s">
+      <c r="N109" s="1066"/>
+      <c r="O109" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P109" s="1043"/>
+      <c r="P109" s="1066"/>
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="305" t="s">
@@ -20031,18 +20030,18 @@
         <f t="shared" ref="G126:G133" si="23">+E126*$G$125</f>
         <v>0</v>
       </c>
-      <c r="K126" s="1043">
+      <c r="K126" s="1066">
         <v>2017</v>
       </c>
-      <c r="L126" s="1043"/>
-      <c r="M126" s="1043">
+      <c r="L126" s="1066"/>
+      <c r="M126" s="1066">
         <v>2016</v>
       </c>
-      <c r="N126" s="1043"/>
-      <c r="O126" s="1043" t="s">
+      <c r="N126" s="1066"/>
+      <c r="O126" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P126" s="1043"/>
+      <c r="P126" s="1066"/>
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="305" t="s">
@@ -20405,18 +20404,18 @@
         <f t="shared" ref="G142:G149" si="26">+E142*$G$141</f>
         <v>0</v>
       </c>
-      <c r="K142" s="1043">
+      <c r="K142" s="1066">
         <v>2017</v>
       </c>
-      <c r="L142" s="1043"/>
-      <c r="M142" s="1043">
+      <c r="L142" s="1066"/>
+      <c r="M142" s="1066">
         <v>2016</v>
       </c>
-      <c r="N142" s="1043"/>
-      <c r="O142" s="1043" t="s">
+      <c r="N142" s="1066"/>
+      <c r="O142" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="P142" s="1043"/>
+      <c r="P142" s="1066"/>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="305" t="s">
@@ -20785,14 +20784,14 @@
         <f t="shared" ref="G159:G166" si="29">+E159*$G$158</f>
         <v>0</v>
       </c>
-      <c r="K159" s="1043">
+      <c r="K159" s="1066">
         <v>2017</v>
       </c>
-      <c r="L159" s="1043"/>
-      <c r="M159" s="1043">
+      <c r="L159" s="1066"/>
+      <c r="M159" s="1066">
         <v>2016</v>
       </c>
-      <c r="N159" s="1043"/>
+      <c r="N159" s="1066"/>
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="305" t="s">
@@ -21187,10 +21186,10 @@
         <f t="shared" ref="G184:G191" si="32">+E184*$G$183</f>
         <v>0</v>
       </c>
-      <c r="K184" s="1043">
+      <c r="K184" s="1066">
         <v>2017</v>
       </c>
-      <c r="L184" s="1043"/>
+      <c r="L184" s="1066"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="305" t="s">
@@ -21601,24 +21600,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
     <mergeCell ref="O126:P126"/>
     <mergeCell ref="K142:L142"/>
     <mergeCell ref="M142:N142"/>
@@ -21629,11 +21615,24 @@
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:N109"/>
     <mergeCell ref="O109:P109"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22000,22 +21999,22 @@
         <f t="shared" ref="K22:K29" si="5">+I22*$K$21</f>
         <v>0</v>
       </c>
-      <c r="O22" s="1043">
+      <c r="O22" s="1066">
         <v>2018</v>
       </c>
-      <c r="P22" s="1043"/>
-      <c r="Q22" s="1043">
+      <c r="P22" s="1066"/>
+      <c r="Q22" s="1066">
         <v>2017</v>
       </c>
-      <c r="R22" s="1043"/>
-      <c r="S22" s="1043">
+      <c r="R22" s="1066"/>
+      <c r="S22" s="1066">
         <v>2016</v>
       </c>
-      <c r="T22" s="1043"/>
-      <c r="U22" s="1043" t="s">
+      <c r="T22" s="1066"/>
+      <c r="U22" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="1043"/>
+      <c r="V22" s="1066"/>
     </row>
     <row r="23" spans="2:25">
       <c r="B23" s="305" t="s">
@@ -22251,18 +22250,18 @@
       </c>
       <c r="O27" s="306"/>
       <c r="P27" s="306"/>
-      <c r="Q27" s="1043">
+      <c r="Q27" s="1066">
         <v>2017</v>
       </c>
-      <c r="R27" s="1043"/>
-      <c r="S27" s="1043">
+      <c r="R27" s="1066"/>
+      <c r="S27" s="1066">
         <v>2016</v>
       </c>
-      <c r="T27" s="1043"/>
-      <c r="U27" s="1043" t="s">
+      <c r="T27" s="1066"/>
+      <c r="U27" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="1043"/>
+      <c r="V27" s="1066"/>
     </row>
     <row r="28" spans="2:25">
       <c r="B28" s="305" t="s">
@@ -22654,18 +22653,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="308"/>
-      <c r="Q39" s="1043">
+      <c r="Q39" s="1066">
         <v>2017</v>
       </c>
-      <c r="R39" s="1043"/>
-      <c r="S39" s="1043">
+      <c r="R39" s="1066"/>
+      <c r="S39" s="1066">
         <v>2016</v>
       </c>
-      <c r="T39" s="1043"/>
-      <c r="U39" s="1043" t="s">
+      <c r="T39" s="1066"/>
+      <c r="U39" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="1043"/>
+      <c r="V39" s="1066"/>
     </row>
     <row r="40" spans="2:24">
       <c r="B40" s="305" t="s">
@@ -23241,18 +23240,18 @@
         <f t="shared" ref="K60:K67" si="13">+I60*$K$59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="1043">
+      <c r="Q60" s="1066">
         <v>2017</v>
       </c>
-      <c r="R60" s="1043"/>
-      <c r="S60" s="1043">
+      <c r="R60" s="1066"/>
+      <c r="S60" s="1066">
         <v>2016</v>
       </c>
-      <c r="T60" s="1043"/>
-      <c r="U60" s="1043" t="s">
+      <c r="T60" s="1066"/>
+      <c r="U60" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="1043"/>
+      <c r="V60" s="1066"/>
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="305" t="s">
@@ -23755,18 +23754,18 @@
         <f t="shared" ref="K77:K84" si="17">+I77*$K$76</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="1043">
+      <c r="Q77" s="1066">
         <v>2017</v>
       </c>
-      <c r="R77" s="1043"/>
-      <c r="S77" s="1043">
+      <c r="R77" s="1066"/>
+      <c r="S77" s="1066">
         <v>2016</v>
       </c>
-      <c r="T77" s="1043"/>
-      <c r="U77" s="1043" t="s">
+      <c r="T77" s="1066"/>
+      <c r="U77" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="1043"/>
+      <c r="V77" s="1066"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="305" t="s">
@@ -24337,18 +24336,18 @@
         <f t="shared" ref="K97:K104" si="21">+I97*$K$96</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="1043">
+      <c r="Q97" s="1066">
         <v>2017</v>
       </c>
-      <c r="R97" s="1043"/>
-      <c r="S97" s="1043">
+      <c r="R97" s="1066"/>
+      <c r="S97" s="1066">
         <v>2016</v>
       </c>
-      <c r="T97" s="1043"/>
-      <c r="U97" s="1043" t="s">
+      <c r="T97" s="1066"/>
+      <c r="U97" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V97" s="1043"/>
+      <c r="V97" s="1066"/>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="305" t="s">
@@ -24915,18 +24914,18 @@
         <f t="shared" ref="K117:K124" si="25">+I117*$K$116</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="1043">
+      <c r="Q117" s="1066">
         <v>2017</v>
       </c>
-      <c r="R117" s="1043"/>
-      <c r="S117" s="1043">
+      <c r="R117" s="1066"/>
+      <c r="S117" s="1066">
         <v>2016</v>
       </c>
-      <c r="T117" s="1043"/>
-      <c r="U117" s="1043" t="s">
+      <c r="T117" s="1066"/>
+      <c r="U117" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V117" s="1043"/>
+      <c r="V117" s="1066"/>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="305" t="s">
@@ -25419,18 +25418,18 @@
         <f t="shared" ref="K134:K141" si="29">+I134*$K$133</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="1043">
+      <c r="Q134" s="1066">
         <v>2017</v>
       </c>
-      <c r="R134" s="1043"/>
-      <c r="S134" s="1043">
+      <c r="R134" s="1066"/>
+      <c r="S134" s="1066">
         <v>2016</v>
       </c>
-      <c r="T134" s="1043"/>
-      <c r="U134" s="1043" t="s">
+      <c r="T134" s="1066"/>
+      <c r="U134" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V134" s="1043"/>
+      <c r="V134" s="1066"/>
     </row>
     <row r="135" spans="2:22">
       <c r="B135" s="305" t="s">
@@ -25934,18 +25933,18 @@
         <f t="shared" ref="K151:K158" si="33">+I151*$K$150</f>
         <v>0</v>
       </c>
-      <c r="Q151" s="1043">
+      <c r="Q151" s="1066">
         <v>2017</v>
       </c>
-      <c r="R151" s="1043"/>
-      <c r="S151" s="1043">
+      <c r="R151" s="1066"/>
+      <c r="S151" s="1066">
         <v>2016</v>
       </c>
-      <c r="T151" s="1043"/>
-      <c r="U151" s="1043" t="s">
+      <c r="T151" s="1066"/>
+      <c r="U151" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V151" s="1043"/>
+      <c r="V151" s="1066"/>
     </row>
     <row r="152" spans="2:22">
       <c r="B152" s="305" t="s">
@@ -26441,18 +26440,18 @@
         <f t="shared" ref="K168:K175" si="37">+I168*$K$167</f>
         <v>0</v>
       </c>
-      <c r="Q168" s="1043">
+      <c r="Q168" s="1066">
         <v>2017</v>
       </c>
-      <c r="R168" s="1043"/>
-      <c r="S168" s="1043">
+      <c r="R168" s="1066"/>
+      <c r="S168" s="1066">
         <v>2016</v>
       </c>
-      <c r="T168" s="1043"/>
-      <c r="U168" s="1043" t="s">
+      <c r="T168" s="1066"/>
+      <c r="U168" s="1066" t="s">
         <v>5</v>
       </c>
-      <c r="V168" s="1043"/>
+      <c r="V168" s="1066"/>
     </row>
     <row r="169" spans="2:22">
       <c r="B169" s="305" t="s">
@@ -26949,14 +26948,14 @@
         <f t="shared" ref="K185:K192" si="41">+I185*$K$184</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="1043">
+      <c r="Q185" s="1066">
         <v>2017</v>
       </c>
-      <c r="R185" s="1043"/>
-      <c r="S185" s="1043">
+      <c r="R185" s="1066"/>
+      <c r="S185" s="1066">
         <v>2016</v>
       </c>
-      <c r="T185" s="1043"/>
+      <c r="T185" s="1066"/>
     </row>
     <row r="186" spans="2:20">
       <c r="B186" s="305" t="s">
@@ -27484,10 +27483,10 @@
         <f t="shared" ref="K206:K213" si="45">+I206*$K$205</f>
         <v>0</v>
       </c>
-      <c r="Q206" s="1043">
+      <c r="Q206" s="1066">
         <v>2017</v>
       </c>
-      <c r="R206" s="1043"/>
+      <c r="R206" s="1066"/>
     </row>
     <row r="207" spans="2:18">
       <c r="B207" s="305" t="s">
@@ -28037,25 +28036,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="S151:T151"/>
     <mergeCell ref="U151:V151"/>
     <mergeCell ref="Q168:R168"/>
     <mergeCell ref="S168:T168"/>
@@ -28066,11 +28051,25 @@
     <mergeCell ref="Q134:R134"/>
     <mergeCell ref="S134:T134"/>
     <mergeCell ref="U134:V134"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31808,8 +31807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
@@ -32906,27 +32905,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="Q55" sqref="Q55"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="47.7109375" style="407" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="14.5703125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="15.7109375" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="7" width="12" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="13.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="14.28515625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="12.85546875" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="13.28515625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="12.85546875" style="407" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.85546875" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="14.5703125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="15.7109375" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="7" width="12" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.140625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="13.140625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="14.28515625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.140625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="12.85546875" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="13.28515625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.85546875" style="407" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.42578125" style="941" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" style="407" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="406" bestFit="1" customWidth="1"/>
@@ -32992,10 +32991,10 @@
       <c r="M3" s="456" t="s">
         <v>498</v>
       </c>
-      <c r="O3" s="1044" t="s">
+      <c r="O3" s="1067" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="1044"/>
+      <c r="P3" s="1067"/>
     </row>
     <row r="4" spans="1:21 1026:1026" s="460" customFormat="1" ht="36">
       <c r="A4" s="458" t="s">
@@ -34720,7 +34719,7 @@
       <c r="U46" s="893"/>
       <c r="AML46"/>
     </row>
-    <row r="47" spans="1:22 1026:1026" s="475" customFormat="1">
+    <row r="47" spans="1:22 1026:1026" s="475" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="468" t="s">
         <v>86</v>
       </c>
@@ -37771,8 +37770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ320"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B308" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView showGridLines="0" topLeftCell="C309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -41012,8 +41011,8 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -41642,8 +41641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -43655,7 +43654,7 @@
         <f>C15+C28</f>
         <v>226994842.79000002</v>
       </c>
-      <c r="D32" s="1048">
+      <c r="D32" s="1036">
         <f>SUM(D5:D31)</f>
         <v>-16095872.319999989</v>
       </c>
@@ -43685,7 +43684,7 @@
         <f>Q28+Q30</f>
         <v>226994842.78999999</v>
       </c>
-      <c r="R32" s="1048">
+      <c r="R32" s="1036">
         <f>SUM(R5:R31)</f>
         <v>16095872.320000004</v>
       </c>
@@ -43852,11 +43851,11 @@
       <c r="X38" s="992"/>
     </row>
     <row r="39" spans="1:30" s="989" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="1066" t="s">
+      <c r="A39" s="1053" t="s">
         <v>657</v>
       </c>
-      <c r="B39" s="1066"/>
-      <c r="C39" s="1067">
+      <c r="B39" s="1053"/>
+      <c r="C39" s="1054">
         <f>-C38+D24</f>
         <v>-937756.5299999998</v>
       </c>
@@ -43874,11 +43873,11 @@
         <v>843</v>
       </c>
       <c r="P39" s="1002"/>
-      <c r="Q39" s="1050">
+      <c r="Q39" s="1038">
         <f>+'ECP20'!T76</f>
         <v>-21629181</v>
       </c>
-      <c r="R39" s="1062" t="s">
+      <c r="R39" s="1050" t="s">
         <v>886</v>
       </c>
       <c r="T39" s="991"/>
@@ -43977,7 +43976,7 @@
       <c r="B43" s="996"/>
       <c r="C43" s="997">
         <f>+'EFE20'!C10</f>
-        <v>17580599</v>
+        <v>19635020</v>
       </c>
       <c r="D43" s="998"/>
       <c r="E43" s="998"/>
@@ -44011,7 +44010,7 @@
       <c r="B44" s="999"/>
       <c r="C44" s="1000">
         <f>-C43+D20</f>
-        <v>-10612624.439999998</v>
+        <v>-12667045.439999998</v>
       </c>
       <c r="D44" s="1001"/>
       <c r="E44" s="1001"/>
@@ -44310,7 +44309,7 @@
         <v>884</v>
       </c>
       <c r="B55" s="996"/>
-      <c r="C55" s="1050">
+      <c r="C55" s="1038">
         <v>-17000</v>
       </c>
       <c r="D55" s="1001"/>
@@ -44684,7 +44683,7 @@
       <c r="B72" s="999"/>
       <c r="C72" s="997">
         <f>+'EFE20'!C41</f>
-        <v>-3680975</v>
+        <v>-4275291</v>
       </c>
       <c r="G72" s="1006"/>
       <c r="I72" s="1006"/>
@@ -44700,7 +44699,7 @@
       <c r="B73" s="999"/>
       <c r="C73" s="1018">
         <f>-C71-C72+R10</f>
-        <v>384191</v>
+        <v>978507</v>
       </c>
       <c r="G73" s="1006"/>
       <c r="I73" s="1006"/>
@@ -44726,7 +44725,7 @@
       <c r="X74" s="992"/>
     </row>
     <row r="75" spans="1:24" s="989" customFormat="1" ht="12" customHeight="1">
-      <c r="C75" s="1049">
+      <c r="C75" s="1037">
         <f>+C74-R10</f>
         <v>0</v>
       </c>
@@ -44771,9 +44770,9 @@
         <v>676</v>
       </c>
       <c r="B78" s="999"/>
-      <c r="C78" s="1064">
+      <c r="C78" s="1052">
         <f>+'EFE20'!C42</f>
-        <v>-3976474</v>
+        <v>-4453394</v>
       </c>
       <c r="G78" s="1006"/>
       <c r="I78" s="1006"/>
@@ -44789,7 +44788,7 @@
       <c r="B79" s="999"/>
       <c r="C79" s="1018">
         <f>-C77-C78+R14</f>
-        <v>1201418.08</v>
+        <v>1678338.08</v>
       </c>
       <c r="G79" s="1006"/>
       <c r="I79" s="1006"/>
@@ -44815,7 +44814,7 @@
       <c r="X80" s="992"/>
     </row>
     <row r="81" spans="1:24" s="989" customFormat="1" ht="12" customHeight="1">
-      <c r="C81" s="1049">
+      <c r="C81" s="1037">
         <f>+C80-R14</f>
         <v>0</v>
       </c>
@@ -44846,7 +44845,7 @@
       <c r="B83" s="996"/>
       <c r="C83" s="997">
         <f>+'EFE20'!C8</f>
-        <v>177231</v>
+        <v>179838</v>
       </c>
       <c r="G83" s="1006"/>
       <c r="I83" s="1006"/>
@@ -44862,7 +44861,7 @@
       <c r="B84" s="999"/>
       <c r="C84" s="1000">
         <f>-C83+D8</f>
-        <v>-4907436.74</v>
+        <v>-4910043.74</v>
       </c>
       <c r="G84" s="1006"/>
       <c r="I84" s="1006"/>
@@ -45194,7 +45193,7 @@
       <c r="V106" s="995"/>
     </row>
     <row r="107" spans="1:22" ht="12" customHeight="1">
-      <c r="C107" s="1051">
+      <c r="C107" s="1039">
         <f>+C106-R24</f>
         <v>0</v>
       </c>
@@ -46433,7 +46432,7 @@
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D18"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -54357,12 +54356,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AML81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -54375,13 +54374,15 @@
     <col min="6" max="6" width="1" style="407" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" style="407" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11.5703125" style="407" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="21" width="0" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="12" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="24" width="0" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11" style="407" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="18" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9.7109375" style="407" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="12" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="24" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.140625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="11" style="407" customWidth="1"/>
     <col min="27" max="1026" width="11.42578125" style="407"/>
   </cols>
   <sheetData>
@@ -54391,7 +54392,7 @@
       </c>
       <c r="B1" s="762"/>
       <c r="C1" s="762"/>
-      <c r="D1" s="1058"/>
+      <c r="D1" s="1046"/>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="763" t="s">
@@ -54399,7 +54400,7 @@
       </c>
       <c r="B2" s="764"/>
       <c r="C2" s="764"/>
-      <c r="D2" s="1059"/>
+      <c r="D2" s="1047"/>
       <c r="E2" s="765"/>
       <c r="F2" s="765"/>
       <c r="G2" s="765"/>
@@ -54412,7 +54413,7 @@
       </c>
       <c r="B3" s="764"/>
       <c r="C3" s="764"/>
-      <c r="D3" s="1059"/>
+      <c r="D3" s="1047"/>
       <c r="E3" s="765"/>
       <c r="F3" s="765"/>
       <c r="G3" s="765"/>
@@ -54653,8 +54654,8 @@
         <v>8</v>
       </c>
       <c r="C8" s="971">
-        <f t="shared" ref="C7:C19" si="1">+Y8</f>
-        <v>177231</v>
+        <f t="shared" ref="C8:C19" si="1">+Y8</f>
+        <v>179838</v>
       </c>
       <c r="D8" s="773"/>
       <c r="E8" s="475">
@@ -54682,17 +54683,19 @@
       <c r="Q8" s="408"/>
       <c r="R8" s="408"/>
       <c r="S8" s="408"/>
-      <c r="T8" s="1046"/>
+      <c r="T8" s="1069">
+        <v>2607</v>
+      </c>
       <c r="U8" s="408"/>
       <c r="V8" s="408">
         <f t="shared" si="0"/>
-        <v>177231</v>
+        <v>179838</v>
       </c>
       <c r="W8" s="408"/>
       <c r="X8" s="408"/>
       <c r="Y8" s="408">
         <f t="shared" ref="Y8:Y14" si="2">+V8+W8-X8</f>
-        <v>177231</v>
+        <v>179838</v>
       </c>
       <c r="Z8" s="408"/>
     </row>
@@ -54754,7 +54757,7 @@
       </c>
       <c r="C10" s="971">
         <f t="shared" si="1"/>
-        <v>17580599</v>
+        <v>19635020</v>
       </c>
       <c r="D10" s="773"/>
       <c r="E10" s="475">
@@ -54773,14 +54776,20 @@
       <c r="J10" s="408">
         <v>17423605</v>
       </c>
-      <c r="K10" s="408"/>
-      <c r="L10" s="408"/>
+      <c r="K10" s="408">
+        <v>1794410</v>
+      </c>
+      <c r="L10" s="408">
+        <v>219425</v>
+      </c>
       <c r="M10" s="408"/>
       <c r="N10" s="408"/>
       <c r="O10" s="408"/>
       <c r="P10" s="408"/>
       <c r="Q10" s="408"/>
-      <c r="R10" s="408"/>
+      <c r="R10" s="408">
+        <v>40586</v>
+      </c>
       <c r="S10" s="408">
         <v>134304</v>
       </c>
@@ -54790,13 +54799,13 @@
       <c r="U10" s="408"/>
       <c r="V10" s="408">
         <f t="shared" si="0"/>
-        <v>17580599</v>
+        <v>19635020</v>
       </c>
       <c r="W10" s="408"/>
       <c r="X10" s="408"/>
       <c r="Y10" s="408">
         <f t="shared" si="2"/>
-        <v>17580599</v>
+        <v>19635020</v>
       </c>
       <c r="Z10" s="408"/>
     </row>
@@ -55006,7 +55015,7 @@
         <v>468128</v>
       </c>
       <c r="D15" s="773"/>
-      <c r="E15" s="1063">
+      <c r="E15" s="1051">
         <v>-268373.46999999881</v>
       </c>
       <c r="F15" s="475"/>
@@ -55108,7 +55117,7 @@
       <c r="B17" s="773">
         <v>25</v>
       </c>
-      <c r="C17" s="1065">
+      <c r="C17" s="1055">
         <f>+Y17+'ESF20'!C56</f>
         <v>-893979</v>
       </c>
@@ -55160,7 +55169,7 @@
         <v>777</v>
       </c>
       <c r="B18" s="773"/>
-      <c r="C18" s="1057">
+      <c r="C18" s="1045">
         <f>+'ESF20'!R24</f>
         <v>11250279</v>
       </c>
@@ -55178,7 +55187,7 @@
       <c r="I18" s="475">
         <v>5177025</v>
       </c>
-      <c r="J18" s="1047"/>
+      <c r="J18" s="1035"/>
       <c r="K18" s="408"/>
       <c r="L18" s="408"/>
       <c r="M18" s="408"/>
@@ -55254,11 +55263,11 @@
       <c r="Z19" s="414"/>
     </row>
     <row r="20" spans="1:1026">
-      <c r="A20" s="775" t="s">
+      <c r="A20" s="1071" t="s">
         <v>843</v>
       </c>
-      <c r="B20" s="773"/>
-      <c r="C20" s="971">
+      <c r="B20" s="1072"/>
+      <c r="C20" s="1045">
         <f>+'ESF20'!Q39</f>
         <v>-21629181</v>
       </c>
@@ -55305,7 +55314,7 @@
       <c r="B21" s="973"/>
       <c r="C21" s="974">
         <f t="shared" ref="C21:D21" si="3">+SUM(C6:C20)</f>
-        <v>43607595.003671966</v>
+        <v>45664623.003671974</v>
       </c>
       <c r="D21" s="975">
         <f t="shared" si="3"/>
@@ -55333,11 +55342,11 @@
       </c>
       <c r="K21" s="975">
         <f t="shared" si="4"/>
-        <v>-3188003</v>
+        <v>-1393593</v>
       </c>
       <c r="L21" s="975">
         <f t="shared" si="4"/>
-        <v>399181.97999999992</v>
+        <v>618606.98</v>
       </c>
       <c r="M21" s="975">
         <f t="shared" si="4"/>
@@ -55361,7 +55370,7 @@
       </c>
       <c r="R21" s="975">
         <f t="shared" si="4"/>
-        <v>-40586.1</v>
+        <v>-9.9999999998544808E-2</v>
       </c>
       <c r="S21" s="975">
         <f t="shared" si="4"/>
@@ -55369,7 +55378,7 @@
       </c>
       <c r="T21" s="975">
         <f t="shared" si="4"/>
-        <v>254659</v>
+        <v>257266</v>
       </c>
       <c r="U21" s="975">
         <f t="shared" si="4"/>
@@ -55377,7 +55386,7 @@
       </c>
       <c r="V21" s="975">
         <f t="shared" si="4"/>
-        <v>59437476.050000012</v>
+        <v>61494504.050000012</v>
       </c>
       <c r="W21" s="975">
         <f t="shared" si="4"/>
@@ -55386,7 +55395,7 @@
       <c r="X21" s="975"/>
       <c r="Y21" s="975">
         <f t="shared" si="4"/>
-        <v>59905604.050000012</v>
+        <v>61962632.050000012</v>
       </c>
       <c r="Z21" s="976"/>
       <c r="AA21" s="941"/>
@@ -56425,9 +56434,9 @@
         <v>38</v>
       </c>
       <c r="B23" s="773"/>
-      <c r="C23" s="1053">
+      <c r="C23" s="1041">
         <f>+'ESF20'!C84</f>
-        <v>-4907436.74</v>
+        <v>-4910043.74</v>
       </c>
       <c r="D23" s="773"/>
       <c r="E23" s="774">
@@ -56467,7 +56476,7 @@
         <v>126</v>
       </c>
       <c r="B24" s="773"/>
-      <c r="C24" s="1053">
+      <c r="C24" s="1041">
         <f>+'ESF20'!D19+'ESF20'!D9</f>
         <v>-5134943.1499999985</v>
       </c>
@@ -56509,7 +56518,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="773"/>
-      <c r="C25" s="1054">
+      <c r="C25" s="1042">
         <f>+'ESF20'!D11+'ESF20'!D18</f>
         <v>6930446</v>
       </c>
@@ -56550,7 +56559,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="773"/>
-      <c r="C26" s="1053">
+      <c r="C26" s="1041">
         <f>+'ESF20'!D10</f>
         <v>-5308932.76</v>
       </c>
@@ -56592,7 +56601,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="773"/>
-      <c r="C27" s="1053">
+      <c r="C27" s="1041">
         <f>+'ESF20'!D12</f>
         <v>-1008270</v>
       </c>
@@ -56634,7 +56643,7 @@
         <v>46</v>
       </c>
       <c r="B28" s="773"/>
-      <c r="C28" s="1055">
+      <c r="C28" s="1043">
         <f>+'ESF20'!D13</f>
         <v>462096.62000000104</v>
       </c>
@@ -56676,7 +56685,7 @@
         <v>518</v>
       </c>
       <c r="B29" s="773"/>
-      <c r="C29" s="1056"/>
+      <c r="C29" s="1044"/>
       <c r="D29" s="773"/>
       <c r="E29" s="774">
         <v>0</v>
@@ -56714,7 +56723,7 @@
         <v>61</v>
       </c>
       <c r="B30" s="773"/>
-      <c r="C30" s="1053">
+      <c r="C30" s="1041">
         <f>+'ESF20'!D14+'ESF20'!D25</f>
         <v>-2149319.1799999997</v>
       </c>
@@ -56757,7 +56766,7 @@
         <v>67</v>
       </c>
       <c r="B31" s="773"/>
-      <c r="C31" s="1054">
+      <c r="C31" s="1042">
         <f>+'ESF20'!R8</f>
         <v>4724443</v>
       </c>
@@ -56800,7 +56809,7 @@
         <v>139</v>
       </c>
       <c r="B32" s="773"/>
-      <c r="C32" s="1053">
+      <c r="C32" s="1041">
         <f>+'ESF20'!R9+'ESF20'!R21</f>
         <v>-69666.679999999702</v>
       </c>
@@ -56843,9 +56852,9 @@
         <v>780</v>
       </c>
       <c r="B33" s="773"/>
-      <c r="C33" s="1053">
+      <c r="C33" s="1041">
         <f>+'ESF20'!C73</f>
-        <v>384191</v>
+        <v>978507</v>
       </c>
       <c r="D33" s="773"/>
       <c r="E33" s="774">
@@ -56887,7 +56896,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="773"/>
-      <c r="C34" s="1053">
+      <c r="C34" s="1041">
         <f>+'ESF20'!R11+'ESF20'!R22</f>
         <v>-10990751.469999999</v>
       </c>
@@ -56930,7 +56939,7 @@
         <v>76</v>
       </c>
       <c r="B35" s="773"/>
-      <c r="C35" s="1052">
+      <c r="C35" s="1040">
         <f>+'ESF20'!C105</f>
         <v>0</v>
       </c>
@@ -56971,7 +56980,7 @@
         <v>520</v>
       </c>
       <c r="B36" s="773"/>
-      <c r="C36" s="1053">
+      <c r="C36" s="1041">
         <f>+'ESF20'!C100</f>
         <v>1100326</v>
       </c>
@@ -57006,7 +57015,7 @@
         <v>840</v>
       </c>
       <c r="B37" s="773"/>
-      <c r="C37" s="1053">
+      <c r="C37" s="1041">
         <f>+'ESF20'!R12</f>
         <v>-3097550</v>
       </c>
@@ -57041,9 +57050,9 @@
         <v>75</v>
       </c>
       <c r="B38" s="773"/>
-      <c r="C38" s="1052">
+      <c r="C38" s="1040">
         <f>+'ESF20'!C79</f>
-        <v>1201418.08</v>
+        <v>1678338.08</v>
       </c>
       <c r="D38" s="773"/>
       <c r="E38" s="774">
@@ -57084,7 +57093,7 @@
         <v>887</v>
       </c>
       <c r="B39" s="773"/>
-      <c r="C39" s="1053">
+      <c r="C39" s="1041">
         <f>+'ESF20'!R5</f>
         <v>-74044</v>
       </c>
@@ -57129,7 +57138,7 @@
       <c r="B40" s="773"/>
       <c r="C40" s="777">
         <f t="shared" ref="C40:D40" si="5">+SUM(C21:C39)</f>
-        <v>25669601.723671973</v>
+        <v>28795258.723671973</v>
       </c>
       <c r="D40" s="475">
         <f t="shared" si="5"/>
@@ -57174,9 +57183,9 @@
         <v>782</v>
       </c>
       <c r="B41" s="773"/>
-      <c r="C41" s="1070">
+      <c r="C41" s="1057">
         <f>+Y41</f>
-        <v>-3680975</v>
+        <v>-4275291</v>
       </c>
       <c r="D41" s="773"/>
       <c r="E41" s="774">
@@ -57205,18 +57214,22 @@
       <c r="P41" s="408"/>
       <c r="Q41" s="408"/>
       <c r="R41" s="408"/>
-      <c r="S41" s="521"/>
-      <c r="T41" s="408"/>
+      <c r="S41" s="1070">
+        <v>-268323</v>
+      </c>
+      <c r="T41" s="408">
+        <v>-325993</v>
+      </c>
       <c r="U41" s="408"/>
       <c r="V41" s="408">
         <f>SUM(J41:U41)</f>
-        <v>-3680975</v>
+        <v>-4275291</v>
       </c>
       <c r="W41" s="408"/>
       <c r="X41" s="408"/>
       <c r="Y41" s="408">
         <f>+V41+W41-X41</f>
-        <v>-3680975</v>
+        <v>-4275291</v>
       </c>
       <c r="Z41" s="414"/>
     </row>
@@ -57225,9 +57238,9 @@
         <v>783</v>
       </c>
       <c r="B42" s="773"/>
-      <c r="C42" s="1065">
-        <f t="shared" ref="C42:C43" si="6">+Y42</f>
-        <v>-3976474</v>
+      <c r="C42" s="1055">
+        <f t="shared" ref="C42" si="6">+Y42</f>
+        <v>-4453394</v>
       </c>
       <c r="D42" s="773"/>
       <c r="E42" s="774">
@@ -57254,18 +57267,22 @@
       <c r="P42" s="414"/>
       <c r="Q42" s="414"/>
       <c r="R42" s="414"/>
-      <c r="S42" s="414"/>
-      <c r="T42" s="414"/>
+      <c r="S42" s="1040">
+        <v>-231683</v>
+      </c>
+      <c r="T42" s="1040">
+        <v>-245237</v>
+      </c>
       <c r="U42" s="414"/>
       <c r="V42" s="408">
         <f>SUM(J42:U42)</f>
-        <v>-3976474</v>
+        <v>-4453394</v>
       </c>
       <c r="W42" s="414"/>
       <c r="X42" s="414"/>
       <c r="Y42" s="408">
         <f>+V42+W42-X42</f>
-        <v>-3976474</v>
+        <v>-4453394</v>
       </c>
       <c r="Z42" s="414"/>
     </row>
@@ -57276,7 +57293,7 @@
       <c r="B43" s="773">
         <v>25</v>
       </c>
-      <c r="C43" s="1068">
+      <c r="C43" s="1055">
         <f>+Y43</f>
         <v>-17000</v>
       </c>
@@ -57327,7 +57344,7 @@
       <c r="B44" s="779"/>
       <c r="C44" s="780">
         <f t="shared" ref="C44:D44" si="7">+C40+C41+C42+C43</f>
-        <v>17995152.723671973</v>
+        <v>20049573.723671973</v>
       </c>
       <c r="D44" s="781">
         <f t="shared" si="7"/>
@@ -57432,7 +57449,7 @@
       <c r="B47" s="773">
         <v>7</v>
       </c>
-      <c r="C47" s="1054">
+      <c r="C47" s="1042">
         <f>+'ESF20'!D7</f>
         <v>3350139</v>
       </c>
@@ -57474,7 +57491,7 @@
         <v>788</v>
       </c>
       <c r="B48" s="773"/>
-      <c r="C48" s="1053">
+      <c r="C48" s="1041">
         <f>+'ESF20'!D6</f>
         <v>-3107992</v>
       </c>
@@ -57516,7 +57533,7 @@
         <v>789</v>
       </c>
       <c r="B49" s="773"/>
-      <c r="C49" s="1054">
+      <c r="C49" s="1042">
         <f>+'ESF20'!D23</f>
         <v>1673584</v>
       </c>
@@ -57557,7 +57574,7 @@
         <v>890</v>
       </c>
       <c r="B50" s="773"/>
-      <c r="C50" s="1053">
+      <c r="C50" s="1041">
         <f>+'ESF20'!C39</f>
         <v>-937756.5299999998</v>
       </c>
@@ -57590,7 +57607,7 @@
         <v>889</v>
       </c>
       <c r="B51" s="773"/>
-      <c r="C51" s="1052">
+      <c r="C51" s="1040">
         <f>+'ESF20'!C67</f>
         <v>-439321.65</v>
       </c>
@@ -57631,9 +57648,9 @@
       <c r="B52" s="773">
         <v>12</v>
       </c>
-      <c r="C52" s="1053">
+      <c r="C52" s="1041">
         <f>+'ESF20'!C44</f>
-        <v>-10612624.439999998</v>
+        <v>-12667045.439999998</v>
       </c>
       <c r="D52" s="773"/>
       <c r="E52" s="784">
@@ -57673,7 +57690,7 @@
         <v>888</v>
       </c>
       <c r="B53" s="773"/>
-      <c r="C53" s="1052">
+      <c r="C53" s="1040">
         <f>+'ESF20'!C50</f>
         <v>-1610904</v>
       </c>
@@ -57716,7 +57733,7 @@
       <c r="B54" s="773">
         <v>14</v>
       </c>
-      <c r="C54" s="1053">
+      <c r="C54" s="1041">
         <f>+'ESF20'!C62</f>
         <v>-1744851</v>
       </c>
@@ -57760,7 +57777,7 @@
       <c r="B55" s="773"/>
       <c r="C55" s="780">
         <f t="shared" ref="C55:D55" si="8">+SUM(C47:C54)</f>
-        <v>-13429726.619999997</v>
+        <v>-15484147.619999997</v>
       </c>
       <c r="D55" s="774">
         <f t="shared" si="8"/>
@@ -57863,7 +57880,7 @@
         <v>794</v>
       </c>
       <c r="B58" s="771"/>
-      <c r="C58" s="1068">
+      <c r="C58" s="1055">
         <f t="shared" ref="C58" si="9">+Y58</f>
         <v>-1307540</v>
       </c>
@@ -58012,7 +58029,7 @@
         <v>797</v>
       </c>
       <c r="B62" s="773"/>
-      <c r="C62" s="1053">
+      <c r="C62" s="1041">
         <f>+'ESF20'!R6+'ESF20'!R18</f>
         <v>-456875</v>
       </c>
@@ -58056,12 +58073,12 @@
         <v>798</v>
       </c>
       <c r="B63" s="773"/>
-      <c r="C63" s="1054">
+      <c r="C63" s="1042">
         <f>+'ESF20'!R7+'ESF20'!R19</f>
         <v>11202774.02</v>
       </c>
       <c r="D63" s="773"/>
-      <c r="E63" s="1061">
+      <c r="E63" s="1049">
         <v>-8550313</v>
       </c>
       <c r="F63" s="774"/>
@@ -58218,12 +58235,12 @@
         <v>801</v>
       </c>
       <c r="B67" s="773"/>
-      <c r="C67" s="1053">
+      <c r="C67" s="1041">
         <f>+'ESF20'!F5</f>
         <v>5885974</v>
       </c>
       <c r="D67" s="773"/>
-      <c r="E67" s="1061">
+      <c r="E67" s="1049">
         <v>-3155765</v>
       </c>
       <c r="F67" s="774"/>
@@ -58271,7 +58288,7 @@
         <f t="shared" ref="D68" si="10">+D66+D67</f>
         <v>0</v>
       </c>
-      <c r="E68" s="1060">
+      <c r="E68" s="1048">
         <v>5811930</v>
       </c>
       <c r="F68" s="774"/>
@@ -58337,7 +58354,7 @@
         <v>803</v>
       </c>
       <c r="B70" s="414"/>
-      <c r="C70" s="1069">
+      <c r="C70" s="1056">
         <f>+C68-'ESF20'!C5</f>
         <v>-0.36632802337408066</v>
       </c>
@@ -58680,10 +58697,10 @@
     <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="798"/>
       <c r="E3" s="795"/>
-      <c r="P3" s="1045" t="s">
+      <c r="P3" s="1068" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1045"/>
+      <c r="Q3" s="1068"/>
     </row>
     <row r="4" spans="1:22" ht="38.25">
       <c r="A4" s="799" t="s">
@@ -65749,18 +65766,18 @@
     <row r="2" spans="1:21">
       <c r="B2" s="161"/>
       <c r="D2" s="162"/>
-      <c r="F2" s="1037" t="s">
+      <c r="F2" s="1060" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="1037"/>
-      <c r="H2" s="1037"/>
-      <c r="J2" s="1037" t="s">
+      <c r="G2" s="1060"/>
+      <c r="H2" s="1060"/>
+      <c r="J2" s="1060" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="1037"/>
-      <c r="L2" s="1037"/>
-      <c r="M2" s="1037"/>
-      <c r="N2" s="1037"/>
+      <c r="K2" s="1060"/>
+      <c r="L2" s="1060"/>
+      <c r="M2" s="1060"/>
+      <c r="N2" s="1060"/>
       <c r="O2" s="164"/>
       <c r="P2" s="164"/>
       <c r="U2" s="165"/>
@@ -69094,13 +69111,13 @@
         <f>+C2-'Asientos - para Consolidado'!C10-'Asientos - para Consolidado'!D62</f>
         <v>9054002.0000000037</v>
       </c>
-      <c r="D8" s="1040" t="s">
+      <c r="D8" s="1061" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="1040"/>
-      <c r="F8" s="1040"/>
-      <c r="G8" s="1040"/>
-      <c r="H8" s="1040"/>
+      <c r="E8" s="1061"/>
+      <c r="F8" s="1061"/>
+      <c r="G8" s="1061"/>
+      <c r="H8" s="1061"/>
       <c r="I8" s="281"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
@@ -69114,10 +69131,10 @@
       <c r="D9" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="1041" t="s">
+      <c r="E9" s="1062" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="1041"/>
+      <c r="F9" s="1062"/>
       <c r="G9" s="283"/>
       <c r="H9" s="257"/>
       <c r="I9" s="271"/>
@@ -69145,13 +69162,13 @@
         <f>+'ESF - ERI'!F58-'ESF - ERI'!F49</f>
         <v>21123.449999999953</v>
       </c>
-      <c r="D13" s="1040" t="s">
+      <c r="D13" s="1061" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="1040"/>
-      <c r="F13" s="1040"/>
-      <c r="G13" s="1040"/>
-      <c r="H13" s="1040"/>
+      <c r="E13" s="1061"/>
+      <c r="F13" s="1061"/>
+      <c r="G13" s="1061"/>
+      <c r="H13" s="1061"/>
       <c r="I13" s="281"/>
       <c r="J13" s="277"/>
     </row>
@@ -69381,10 +69398,10 @@
       <c r="D31" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="1041" t="s">
+      <c r="E31" s="1062" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="1041"/>
+      <c r="F31" s="1062"/>
       <c r="G31" s="283"/>
       <c r="I31" s="290">
         <f>C24*G27</f>
@@ -69418,13 +69435,13 @@
         <f>+'ESF - ERI'!H58-'ESF - ERI'!H49</f>
         <v>-276937.91993750003</v>
       </c>
-      <c r="D35" s="1040" t="s">
+      <c r="D35" s="1061" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="1040"/>
-      <c r="F35" s="1040"/>
-      <c r="G35" s="1040"/>
-      <c r="H35" s="1040"/>
+      <c r="E35" s="1061"/>
+      <c r="F35" s="1061"/>
+      <c r="G35" s="1061"/>
+      <c r="H35" s="1061"/>
     </row>
     <row r="36" spans="2:9" ht="5.25" customHeight="1">
       <c r="B36" s="266"/>
@@ -69531,10 +69548,10 @@
       <c r="D42" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="1039" t="s">
+      <c r="E42" s="1064" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="1039"/>
+      <c r="F42" s="1064"/>
       <c r="G42" s="283"/>
       <c r="H42" s="257"/>
     </row>
@@ -69561,13 +69578,13 @@
         <f>+'ESF - ERI'!I58-'ESF - ERI'!I49</f>
         <v>70210.969999999972</v>
       </c>
-      <c r="D46" s="1040" t="s">
+      <c r="D46" s="1061" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="1040"/>
-      <c r="F46" s="1040"/>
-      <c r="G46" s="1040"/>
-      <c r="H46" s="1040"/>
+      <c r="E46" s="1061"/>
+      <c r="F46" s="1061"/>
+      <c r="G46" s="1061"/>
+      <c r="H46" s="1061"/>
     </row>
     <row r="47" spans="2:9" ht="6" customHeight="1">
       <c r="B47" s="266"/>
@@ -69824,10 +69841,10 @@
       <c r="D64" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="1039" t="s">
+      <c r="E64" s="1064" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="1039"/>
+      <c r="F64" s="1064"/>
       <c r="G64" s="257"/>
       <c r="H64" s="257"/>
       <c r="I64" s="291">
@@ -69994,13 +70011,13 @@
         <f>+'ESF - ERI'!L58+881973</f>
         <v>883113.17</v>
       </c>
-      <c r="D79" s="1040" t="s">
+      <c r="D79" s="1061" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="1040"/>
-      <c r="F79" s="1040"/>
-      <c r="G79" s="1040"/>
-      <c r="H79" s="1040"/>
+      <c r="E79" s="1061"/>
+      <c r="F79" s="1061"/>
+      <c r="G79" s="1061"/>
+      <c r="H79" s="1061"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="266"/>
@@ -70278,12 +70295,12 @@
         <f>+C17+C28+C39+C50+C61+C72+C83+C94+C6</f>
         <v>9357519.0706554651</v>
       </c>
-      <c r="D101" s="1038" t="s">
+      <c r="D101" s="1063" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="1038"/>
-      <c r="F101" s="1038"/>
-      <c r="G101" s="1038"/>
+      <c r="E101" s="1063"/>
+      <c r="F101" s="1063"/>
+      <c r="G101" s="1063"/>
       <c r="H101" s="295"/>
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1">
@@ -70294,13 +70311,13 @@
         <f>+C9+C31+C64+C42</f>
         <v>828548.36364874605</v>
       </c>
-      <c r="D102" s="1038" t="s">
+      <c r="D102" s="1063" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="1038"/>
-      <c r="F102" s="1038"/>
-      <c r="G102" s="1038"/>
-      <c r="H102" s="1038"/>
+      <c r="E102" s="1063"/>
+      <c r="F102" s="1063"/>
+      <c r="G102" s="1063"/>
+      <c r="H102" s="1063"/>
     </row>
     <row r="103" spans="2:9" ht="15" customHeight="1">
       <c r="B103" s="293" t="s">
@@ -70310,23 +70327,18 @@
         <f>+C86+C53+C20</f>
         <v>394335.36694421433</v>
       </c>
-      <c r="D103" s="1038" t="s">
+      <c r="D103" s="1063" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="1038"/>
-      <c r="F103" s="1038"/>
-      <c r="G103" s="1038"/>
+      <c r="E103" s="1063"/>
+      <c r="F103" s="1063"/>
+      <c r="G103" s="1063"/>
     </row>
     <row r="105" spans="2:9">
       <c r="E105" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D35:H35"/>
     <mergeCell ref="D102:H102"/>
     <mergeCell ref="D103:G103"/>
     <mergeCell ref="E42:F42"/>
@@ -70334,6 +70346,11 @@
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="D79:H79"/>
     <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D35:H35"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
+++ b/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3A357-6707-4510-8863-3A6D36A66494}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2114C049-BD42-4DED-8D96-30B68C1A8414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Asientos - para Consolidado'!$A$1:$M$75</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">'EFE20'!$A$1:$J$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">'EFE20'!$A$1:$J$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ESF - ERI'!$A$1:$AI$79</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'ESF20'!$A$2:$W$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">PNC!$B$1:$H$103</definedName>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="902">
   <si>
     <t>TELCONET S.A. Y SUBSIDIARIAS</t>
   </si>
@@ -3194,9 +3194,6 @@
   </si>
   <si>
     <t>Efectivo y equivalentes de efectivo al final del año</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        Las notas explicativas anexas son parte integrante de los estados financieros</t>
   </si>
   <si>
     <t>Telconet S.A.
@@ -3508,6 +3505,24 @@
   </si>
   <si>
     <t>TELSOTERERA</t>
+  </si>
+  <si>
+    <t>Flujos de efectivo de actividades de operación:</t>
+  </si>
+  <si>
+    <t>Recibido de clientes, relacionadas y terceros</t>
+  </si>
+  <si>
+    <t>Pagado a proveedores, relacionadas, trabajadores y otros</t>
+  </si>
+  <si>
+    <t>Intereses y comisiones bancarias pagadas</t>
+  </si>
+  <si>
+    <t>Efectivo neto proveniente de actividades de operación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Las notas explicativas anexas son parte integrante de los estados financieros</t>
   </si>
 </sst>
 </file>
@@ -5466,7 +5481,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="1079">
+  <cellXfs count="1080">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="193" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7497,9 +7512,7 @@
     </xf>
     <xf numFmtId="195" fontId="53" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="53" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="80" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="80" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="14" fillId="13" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7624,6 +7637,17 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="467" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="195" fontId="49" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="0" fillId="12" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="0" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="70" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="196" fontId="13" fillId="0" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7633,17 +7657,17 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="7" xfId="331" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="528" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7657,17 +7681,11 @@
     <xf numFmtId="196" fontId="74" fillId="8" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="49" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="195" fontId="49" fillId="6" borderId="0" xfId="467" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="12" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="0" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="70" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="80" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="586">
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -8830,15 +8848,15 @@
       <c r="C3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="P3" s="1059" t="s">
+      <c r="P3" s="1066" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1059"/>
+      <c r="Q3" s="1066"/>
       <c r="V3" s="4"/>
-      <c r="AG3" s="1059" t="s">
+      <c r="AG3" s="1066" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="1059"/>
+      <c r="AH3" s="1066"/>
     </row>
     <row r="4" spans="1:41" ht="78" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -16513,11 +16531,11 @@
         <f t="shared" si="38"/>
         <v>-0.48993751406669617</v>
       </c>
-      <c r="P79" s="1060">
+      <c r="P79" s="1067">
         <f>P78-Q78</f>
         <v>224942.27000001073</v>
       </c>
-      <c r="Q79" s="1060"/>
+      <c r="Q79" s="1067"/>
       <c r="R79" s="71" t="s">
         <v>114</v>
       </c>
@@ -16834,10 +16852,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="C1" s="1066" t="s">
+      <c r="C1" s="1073" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1066"/>
+      <c r="D1" s="1073"/>
     </row>
     <row r="2" spans="2:5">
       <c r="C2" s="297" t="s">
@@ -16960,11 +16978,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="1066" t="s">
+      <c r="C14" s="1073" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="1066"/>
-      <c r="E14" s="1066"/>
+      <c r="D14" s="1073"/>
+      <c r="E14" s="1073"/>
     </row>
     <row r="15" spans="2:5" ht="26.25">
       <c r="C15" s="303" t="s">
@@ -17173,18 +17191,18 @@
         <f t="shared" ref="G3:G11" si="2">+E3*$G$2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1067">
+      <c r="K3" s="1074">
         <v>2017</v>
       </c>
-      <c r="L3" s="1067"/>
-      <c r="M3" s="1067">
+      <c r="L3" s="1074"/>
+      <c r="M3" s="1074">
         <v>2016</v>
       </c>
-      <c r="N3" s="1067"/>
-      <c r="O3" s="1067" t="s">
+      <c r="N3" s="1074"/>
+      <c r="O3" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1067"/>
+      <c r="P3" s="1074"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="305" t="s">
@@ -17347,18 +17365,18 @@
       <c r="J8" s="306" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="1067">
+      <c r="K8" s="1074">
         <v>2017</v>
       </c>
-      <c r="L8" s="1067"/>
-      <c r="M8" s="1067">
+      <c r="L8" s="1074"/>
+      <c r="M8" s="1074">
         <v>2016</v>
       </c>
-      <c r="N8" s="1067"/>
-      <c r="O8" s="1067" t="s">
+      <c r="N8" s="1074"/>
+      <c r="O8" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="1067"/>
+      <c r="P8" s="1074"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="305" t="s">
@@ -17676,18 +17694,18 @@
         <v>0</v>
       </c>
       <c r="H20" s="308"/>
-      <c r="K20" s="1067">
+      <c r="K20" s="1074">
         <v>2017</v>
       </c>
-      <c r="L20" s="1067"/>
-      <c r="M20" s="1067">
+      <c r="L20" s="1074"/>
+      <c r="M20" s="1074">
         <v>2016</v>
       </c>
-      <c r="N20" s="1067"/>
-      <c r="O20" s="1067" t="s">
+      <c r="N20" s="1074"/>
+      <c r="O20" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="1067"/>
+      <c r="P20" s="1074"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="305" t="s">
@@ -18082,18 +18100,18 @@
         <f t="shared" ref="G39:G46" si="8">+E39*$G$38</f>
         <v>0</v>
       </c>
-      <c r="K39" s="1067">
+      <c r="K39" s="1074">
         <v>2017</v>
       </c>
-      <c r="L39" s="1067"/>
-      <c r="M39" s="1067">
+      <c r="L39" s="1074"/>
+      <c r="M39" s="1074">
         <v>2016</v>
       </c>
-      <c r="N39" s="1067"/>
-      <c r="O39" s="1067" t="s">
+      <c r="N39" s="1074"/>
+      <c r="O39" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="1067"/>
+      <c r="P39" s="1074"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="305" t="s">
@@ -18454,18 +18472,18 @@
         <f t="shared" ref="G55:G62" si="11">+E55*$G$54</f>
         <v>0</v>
       </c>
-      <c r="K55" s="1067">
+      <c r="K55" s="1074">
         <v>2017</v>
       </c>
-      <c r="L55" s="1067"/>
-      <c r="M55" s="1067">
+      <c r="L55" s="1074"/>
+      <c r="M55" s="1074">
         <v>2016</v>
       </c>
-      <c r="N55" s="1067"/>
-      <c r="O55" s="1067" t="s">
+      <c r="N55" s="1074"/>
+      <c r="O55" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="1067"/>
+      <c r="P55" s="1074"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="305" t="s">
@@ -18871,18 +18889,18 @@
         <f t="shared" ref="G73:G80" si="14">+E73*$G$72</f>
         <v>0</v>
       </c>
-      <c r="K73" s="1067">
+      <c r="K73" s="1074">
         <v>2017</v>
       </c>
-      <c r="L73" s="1067"/>
-      <c r="M73" s="1067">
+      <c r="L73" s="1074"/>
+      <c r="M73" s="1074">
         <v>2016</v>
       </c>
-      <c r="N73" s="1067"/>
-      <c r="O73" s="1067" t="s">
+      <c r="N73" s="1074"/>
+      <c r="O73" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P73" s="1067"/>
+      <c r="P73" s="1074"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="305" t="s">
@@ -19290,18 +19308,18 @@
         <f t="shared" ref="G92:G99" si="17">+E92*$G$91</f>
         <v>0</v>
       </c>
-      <c r="K92" s="1067">
+      <c r="K92" s="1074">
         <v>2017</v>
       </c>
-      <c r="L92" s="1067"/>
-      <c r="M92" s="1067">
+      <c r="L92" s="1074"/>
+      <c r="M92" s="1074">
         <v>2016</v>
       </c>
-      <c r="N92" s="1067"/>
-      <c r="O92" s="1067" t="s">
+      <c r="N92" s="1074"/>
+      <c r="O92" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P92" s="1067"/>
+      <c r="P92" s="1074"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="305" t="s">
@@ -19673,18 +19691,18 @@
         <f t="shared" ref="G109:G116" si="20">+E109*$G$108</f>
         <v>0</v>
       </c>
-      <c r="K109" s="1067">
+      <c r="K109" s="1074">
         <v>2017</v>
       </c>
-      <c r="L109" s="1067"/>
-      <c r="M109" s="1067">
+      <c r="L109" s="1074"/>
+      <c r="M109" s="1074">
         <v>2016</v>
       </c>
-      <c r="N109" s="1067"/>
-      <c r="O109" s="1067" t="s">
+      <c r="N109" s="1074"/>
+      <c r="O109" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P109" s="1067"/>
+      <c r="P109" s="1074"/>
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="305" t="s">
@@ -20056,18 +20074,18 @@
         <f t="shared" ref="G126:G133" si="23">+E126*$G$125</f>
         <v>0</v>
       </c>
-      <c r="K126" s="1067">
+      <c r="K126" s="1074">
         <v>2017</v>
       </c>
-      <c r="L126" s="1067"/>
-      <c r="M126" s="1067">
+      <c r="L126" s="1074"/>
+      <c r="M126" s="1074">
         <v>2016</v>
       </c>
-      <c r="N126" s="1067"/>
-      <c r="O126" s="1067" t="s">
+      <c r="N126" s="1074"/>
+      <c r="O126" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P126" s="1067"/>
+      <c r="P126" s="1074"/>
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="305" t="s">
@@ -20430,18 +20448,18 @@
         <f t="shared" ref="G142:G149" si="26">+E142*$G$141</f>
         <v>0</v>
       </c>
-      <c r="K142" s="1067">
+      <c r="K142" s="1074">
         <v>2017</v>
       </c>
-      <c r="L142" s="1067"/>
-      <c r="M142" s="1067">
+      <c r="L142" s="1074"/>
+      <c r="M142" s="1074">
         <v>2016</v>
       </c>
-      <c r="N142" s="1067"/>
-      <c r="O142" s="1067" t="s">
+      <c r="N142" s="1074"/>
+      <c r="O142" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="P142" s="1067"/>
+      <c r="P142" s="1074"/>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="305" t="s">
@@ -20810,14 +20828,14 @@
         <f t="shared" ref="G159:G166" si="29">+E159*$G$158</f>
         <v>0</v>
       </c>
-      <c r="K159" s="1067">
+      <c r="K159" s="1074">
         <v>2017</v>
       </c>
-      <c r="L159" s="1067"/>
-      <c r="M159" s="1067">
+      <c r="L159" s="1074"/>
+      <c r="M159" s="1074">
         <v>2016</v>
       </c>
-      <c r="N159" s="1067"/>
+      <c r="N159" s="1074"/>
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="305" t="s">
@@ -21212,10 +21230,10 @@
         <f t="shared" ref="G184:G191" si="32">+E184*$G$183</f>
         <v>0</v>
       </c>
-      <c r="K184" s="1067">
+      <c r="K184" s="1074">
         <v>2017</v>
       </c>
-      <c r="L184" s="1067"/>
+      <c r="L184" s="1074"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="305" t="s">
@@ -21626,24 +21644,11 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
     <mergeCell ref="O126:P126"/>
     <mergeCell ref="K142:L142"/>
     <mergeCell ref="M142:N142"/>
@@ -21654,11 +21659,24 @@
     <mergeCell ref="K109:L109"/>
     <mergeCell ref="M109:N109"/>
     <mergeCell ref="O109:P109"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22025,22 +22043,22 @@
         <f t="shared" ref="K22:K29" si="5">+I22*$K$21</f>
         <v>0</v>
       </c>
-      <c r="O22" s="1067">
+      <c r="O22" s="1074">
         <v>2018</v>
       </c>
-      <c r="P22" s="1067"/>
-      <c r="Q22" s="1067">
+      <c r="P22" s="1074"/>
+      <c r="Q22" s="1074">
         <v>2017</v>
       </c>
-      <c r="R22" s="1067"/>
-      <c r="S22" s="1067">
+      <c r="R22" s="1074"/>
+      <c r="S22" s="1074">
         <v>2016</v>
       </c>
-      <c r="T22" s="1067"/>
-      <c r="U22" s="1067" t="s">
+      <c r="T22" s="1074"/>
+      <c r="U22" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="1067"/>
+      <c r="V22" s="1074"/>
     </row>
     <row r="23" spans="2:25">
       <c r="B23" s="305" t="s">
@@ -22276,18 +22294,18 @@
       </c>
       <c r="O27" s="306"/>
       <c r="P27" s="306"/>
-      <c r="Q27" s="1067">
+      <c r="Q27" s="1074">
         <v>2017</v>
       </c>
-      <c r="R27" s="1067"/>
-      <c r="S27" s="1067">
+      <c r="R27" s="1074"/>
+      <c r="S27" s="1074">
         <v>2016</v>
       </c>
-      <c r="T27" s="1067"/>
-      <c r="U27" s="1067" t="s">
+      <c r="T27" s="1074"/>
+      <c r="U27" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="1067"/>
+      <c r="V27" s="1074"/>
     </row>
     <row r="28" spans="2:25">
       <c r="B28" s="305" t="s">
@@ -22679,18 +22697,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="308"/>
-      <c r="Q39" s="1067">
+      <c r="Q39" s="1074">
         <v>2017</v>
       </c>
-      <c r="R39" s="1067"/>
-      <c r="S39" s="1067">
+      <c r="R39" s="1074"/>
+      <c r="S39" s="1074">
         <v>2016</v>
       </c>
-      <c r="T39" s="1067"/>
-      <c r="U39" s="1067" t="s">
+      <c r="T39" s="1074"/>
+      <c r="U39" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="1067"/>
+      <c r="V39" s="1074"/>
     </row>
     <row r="40" spans="2:24">
       <c r="B40" s="305" t="s">
@@ -23266,18 +23284,18 @@
         <f t="shared" ref="K60:K67" si="13">+I60*$K$59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="1067">
+      <c r="Q60" s="1074">
         <v>2017</v>
       </c>
-      <c r="R60" s="1067"/>
-      <c r="S60" s="1067">
+      <c r="R60" s="1074"/>
+      <c r="S60" s="1074">
         <v>2016</v>
       </c>
-      <c r="T60" s="1067"/>
-      <c r="U60" s="1067" t="s">
+      <c r="T60" s="1074"/>
+      <c r="U60" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="1067"/>
+      <c r="V60" s="1074"/>
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="305" t="s">
@@ -23780,18 +23798,18 @@
         <f t="shared" ref="K77:K84" si="17">+I77*$K$76</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="1067">
+      <c r="Q77" s="1074">
         <v>2017</v>
       </c>
-      <c r="R77" s="1067"/>
-      <c r="S77" s="1067">
+      <c r="R77" s="1074"/>
+      <c r="S77" s="1074">
         <v>2016</v>
       </c>
-      <c r="T77" s="1067"/>
-      <c r="U77" s="1067" t="s">
+      <c r="T77" s="1074"/>
+      <c r="U77" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="1067"/>
+      <c r="V77" s="1074"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="305" t="s">
@@ -24362,18 +24380,18 @@
         <f t="shared" ref="K97:K104" si="21">+I97*$K$96</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="1067">
+      <c r="Q97" s="1074">
         <v>2017</v>
       </c>
-      <c r="R97" s="1067"/>
-      <c r="S97" s="1067">
+      <c r="R97" s="1074"/>
+      <c r="S97" s="1074">
         <v>2016</v>
       </c>
-      <c r="T97" s="1067"/>
-      <c r="U97" s="1067" t="s">
+      <c r="T97" s="1074"/>
+      <c r="U97" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V97" s="1067"/>
+      <c r="V97" s="1074"/>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="305" t="s">
@@ -24940,18 +24958,18 @@
         <f t="shared" ref="K117:K124" si="25">+I117*$K$116</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="1067">
+      <c r="Q117" s="1074">
         <v>2017</v>
       </c>
-      <c r="R117" s="1067"/>
-      <c r="S117" s="1067">
+      <c r="R117" s="1074"/>
+      <c r="S117" s="1074">
         <v>2016</v>
       </c>
-      <c r="T117" s="1067"/>
-      <c r="U117" s="1067" t="s">
+      <c r="T117" s="1074"/>
+      <c r="U117" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V117" s="1067"/>
+      <c r="V117" s="1074"/>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="305" t="s">
@@ -25444,18 +25462,18 @@
         <f t="shared" ref="K134:K141" si="29">+I134*$K$133</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="1067">
+      <c r="Q134" s="1074">
         <v>2017</v>
       </c>
-      <c r="R134" s="1067"/>
-      <c r="S134" s="1067">
+      <c r="R134" s="1074"/>
+      <c r="S134" s="1074">
         <v>2016</v>
       </c>
-      <c r="T134" s="1067"/>
-      <c r="U134" s="1067" t="s">
+      <c r="T134" s="1074"/>
+      <c r="U134" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V134" s="1067"/>
+      <c r="V134" s="1074"/>
     </row>
     <row r="135" spans="2:22">
       <c r="B135" s="305" t="s">
@@ -25959,18 +25977,18 @@
         <f t="shared" ref="K151:K158" si="33">+I151*$K$150</f>
         <v>0</v>
       </c>
-      <c r="Q151" s="1067">
+      <c r="Q151" s="1074">
         <v>2017</v>
       </c>
-      <c r="R151" s="1067"/>
-      <c r="S151" s="1067">
+      <c r="R151" s="1074"/>
+      <c r="S151" s="1074">
         <v>2016</v>
       </c>
-      <c r="T151" s="1067"/>
-      <c r="U151" s="1067" t="s">
+      <c r="T151" s="1074"/>
+      <c r="U151" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V151" s="1067"/>
+      <c r="V151" s="1074"/>
     </row>
     <row r="152" spans="2:22">
       <c r="B152" s="305" t="s">
@@ -26466,18 +26484,18 @@
         <f t="shared" ref="K168:K175" si="37">+I168*$K$167</f>
         <v>0</v>
       </c>
-      <c r="Q168" s="1067">
+      <c r="Q168" s="1074">
         <v>2017</v>
       </c>
-      <c r="R168" s="1067"/>
-      <c r="S168" s="1067">
+      <c r="R168" s="1074"/>
+      <c r="S168" s="1074">
         <v>2016</v>
       </c>
-      <c r="T168" s="1067"/>
-      <c r="U168" s="1067" t="s">
+      <c r="T168" s="1074"/>
+      <c r="U168" s="1074" t="s">
         <v>5</v>
       </c>
-      <c r="V168" s="1067"/>
+      <c r="V168" s="1074"/>
     </row>
     <row r="169" spans="2:22">
       <c r="B169" s="305" t="s">
@@ -26974,14 +26992,14 @@
         <f t="shared" ref="K185:K192" si="41">+I185*$K$184</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="1067">
+      <c r="Q185" s="1074">
         <v>2017</v>
       </c>
-      <c r="R185" s="1067"/>
-      <c r="S185" s="1067">
+      <c r="R185" s="1074"/>
+      <c r="S185" s="1074">
         <v>2016</v>
       </c>
-      <c r="T185" s="1067"/>
+      <c r="T185" s="1074"/>
     </row>
     <row r="186" spans="2:20">
       <c r="B186" s="305" t="s">
@@ -27509,10 +27527,10 @@
         <f t="shared" ref="K206:K213" si="45">+I206*$K$205</f>
         <v>0</v>
       </c>
-      <c r="Q206" s="1067">
+      <c r="Q206" s="1074">
         <v>2017</v>
       </c>
-      <c r="R206" s="1067"/>
+      <c r="R206" s="1074"/>
     </row>
     <row r="207" spans="2:18">
       <c r="B207" s="305" t="s">
@@ -28062,25 +28080,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="S77:T77"/>
-    <mergeCell ref="U77:V77"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="S97:T97"/>
-    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="S151:T151"/>
     <mergeCell ref="U151:V151"/>
     <mergeCell ref="Q168:R168"/>
     <mergeCell ref="S168:T168"/>
@@ -28091,11 +28095,25 @@
     <mergeCell ref="Q134:R134"/>
     <mergeCell ref="S134:T134"/>
     <mergeCell ref="U134:V134"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="S77:T77"/>
+    <mergeCell ref="U77:V77"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="S97:T97"/>
+    <mergeCell ref="U97:V97"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31348,7 +31366,7 @@
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="390" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F48" s="389"/>
       <c r="G48" s="390" t="s">
@@ -31833,8 +31851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
@@ -32216,16 +32234,16 @@
       <c r="D32" s="413"/>
     </row>
     <row r="33" spans="1:6" s="407" customFormat="1" ht="12">
-      <c r="A33" s="852" t="s">
+      <c r="A33" s="1058" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="853" t="s">
-        <v>824</v>
-      </c>
-      <c r="C33" s="854"/>
-      <c r="D33" s="854">
+      <c r="B33" s="1059" t="s">
+        <v>823</v>
+      </c>
+      <c r="C33" s="1060"/>
+      <c r="D33" s="1060">
         <f>+C31-D34</f>
-        <v>231689</v>
+        <v>0</v>
       </c>
       <c r="E33" s="420"/>
     </row>
@@ -32238,7 +32256,7 @@
       </c>
       <c r="C34" s="413"/>
       <c r="D34" s="413">
-        <v>1050822</v>
+        <v>1282511</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="407" customFormat="1" ht="12">
@@ -32318,7 +32336,7 @@
         <v>212</v>
       </c>
       <c r="B41" s="411" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C41" s="413">
         <v>27178</v>
@@ -32326,26 +32344,26 @@
       <c r="D41" s="413"/>
     </row>
     <row r="42" spans="1:6" s="407" customFormat="1" ht="12">
-      <c r="A42" s="1071" t="s">
+      <c r="A42" s="858" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="1072" t="s">
+      <c r="B42" s="859" t="s">
+        <v>893</v>
+      </c>
+      <c r="C42" s="860">
+        <v>831651</v>
+      </c>
+      <c r="D42" s="860"/>
+    </row>
+    <row r="43" spans="1:6" s="407" customFormat="1" ht="12">
+      <c r="A43" s="858" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="859" t="s">
         <v>894</v>
       </c>
-      <c r="C42" s="1073">
-        <v>831651</v>
-      </c>
-      <c r="D42" s="413"/>
-    </row>
-    <row r="43" spans="1:6" s="407" customFormat="1" ht="12">
-      <c r="A43" s="1071" t="s">
-        <v>208</v>
-      </c>
-      <c r="B43" s="1072" t="s">
-        <v>895</v>
-      </c>
-      <c r="C43" s="1073"/>
-      <c r="D43" s="413">
+      <c r="C43" s="860"/>
+      <c r="D43" s="860">
         <v>529779</v>
       </c>
     </row>
@@ -32354,7 +32372,7 @@
         <v>247</v>
       </c>
       <c r="B44" s="411" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C44" s="413"/>
       <c r="D44" s="413">
@@ -32366,7 +32384,7 @@
         <v>247</v>
       </c>
       <c r="B45" s="411" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C45" s="413"/>
       <c r="D45" s="413">
@@ -32378,7 +32396,7 @@
         <v>212</v>
       </c>
       <c r="B46" s="411" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C46" s="413"/>
       <c r="D46" s="413">
@@ -32503,7 +32521,7 @@
         <v>212</v>
       </c>
       <c r="B56" s="411" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C56" s="417"/>
       <c r="D56" s="417">
@@ -32567,7 +32585,7 @@
         <v>243</v>
       </c>
       <c r="B61" s="897" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C61" s="898"/>
       <c r="D61" s="898">
@@ -32597,7 +32615,7 @@
     <row r="64" spans="1:6" s="407" customFormat="1" ht="12">
       <c r="A64" s="415"/>
       <c r="B64" s="857" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C64" s="413"/>
       <c r="D64" s="413"/>
@@ -32631,7 +32649,7 @@
         <v>433</v>
       </c>
       <c r="B67" s="861" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C67" s="862"/>
       <c r="D67" s="862">
@@ -32911,11 +32929,11 @@
     </row>
     <row r="87" spans="2:9" s="403" customFormat="1">
       <c r="B87" s="899" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C87" s="900">
         <f>+C42+C54+C66-D25-D33</f>
-        <v>1494289</v>
+        <v>1725978</v>
       </c>
       <c r="E87" s="449"/>
       <c r="F87" s="449"/>
@@ -32956,10 +32974,10 @@
   <dimension ref="A1:AML85"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomRight" activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -33041,10 +33059,10 @@
       <c r="M3" s="456" t="s">
         <v>498</v>
       </c>
-      <c r="O3" s="1068" t="s">
+      <c r="O3" s="1075" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="1068"/>
+      <c r="P3" s="1075"/>
     </row>
     <row r="4" spans="1:21 1026:1026" s="460" customFormat="1" ht="36">
       <c r="A4" s="458" t="s">
@@ -33098,7 +33116,7 @@
       <c r="Q4" s="459" t="s">
         <v>513</v>
       </c>
-      <c r="R4" s="1022"/>
+      <c r="R4" s="1020"/>
       <c r="S4" s="769"/>
       <c r="T4" s="769"/>
       <c r="U4" s="890"/>
@@ -33305,11 +33323,11 @@
       <c r="O9" s="903"/>
       <c r="P9" s="903">
         <f>+'AD ESF'!E308</f>
-        <v>8913485</v>
+        <v>9145174</v>
       </c>
       <c r="Q9" s="462">
         <f t="shared" si="1"/>
-        <v>37455803.149999999</v>
+        <v>37224114.149999999</v>
       </c>
       <c r="R9" s="451"/>
       <c r="S9" s="920"/>
@@ -33361,7 +33379,7 @@
     </row>
     <row r="11" spans="1:21 1026:1026" s="408" customFormat="1">
       <c r="A11" s="461" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B11" s="903">
         <v>5359704</v>
@@ -33479,7 +33497,7 @@
     </row>
     <row r="14" spans="1:21 1026:1026" s="408" customFormat="1">
       <c r="A14" s="461" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="903">
         <v>413564</v>
@@ -34005,13 +34023,13 @@
       </c>
       <c r="P26" s="905">
         <f>+SUM(P5:P25)</f>
-        <v>53433155</v>
+        <v>53664844</v>
       </c>
       <c r="Q26" s="470">
         <f>SUM(Q5:Q25)</f>
-        <v>225467533.79000002</v>
-      </c>
-      <c r="R26" s="1023"/>
+        <v>225235844.79000002</v>
+      </c>
+      <c r="R26" s="1021"/>
       <c r="S26" s="921"/>
       <c r="T26" s="921"/>
       <c r="U26" s="892"/>
@@ -34226,7 +34244,7 @@
     </row>
     <row r="32" spans="1:21 1026:1026" s="408" customFormat="1">
       <c r="A32" s="461" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B32" s="903">
         <v>12422401</v>
@@ -34295,12 +34313,12 @@
       </c>
       <c r="O33" s="903">
         <f>+'AD ESF'!D306</f>
-        <v>662638</v>
+        <v>894327</v>
       </c>
       <c r="P33" s="903"/>
       <c r="Q33" s="462">
         <f t="shared" si="3"/>
-        <v>5822193.5300000003</v>
+        <v>5590504.5300000003</v>
       </c>
       <c r="R33" s="451"/>
       <c r="S33" s="920"/>
@@ -34310,7 +34328,7 @@
     </row>
     <row r="34" spans="1:22 1026:1026" s="408" customFormat="1">
       <c r="A34" s="461" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B34" s="903">
         <v>4578384</v>
@@ -34344,7 +34362,7 @@
     </row>
     <row r="35" spans="1:22 1026:1026" s="408" customFormat="1">
       <c r="A35" s="461" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B35" s="903">
         <v>9733654</v>
@@ -34491,7 +34509,7 @@
     </row>
     <row r="39" spans="1:22 1026:1026" s="408" customFormat="1">
       <c r="A39" s="461" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B39" s="903">
         <v>6657895</v>
@@ -34747,7 +34765,7 @@
     </row>
     <row r="46" spans="1:22 1026:1026" s="408" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="465" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B46" s="904">
         <v>2580000</v>
@@ -34837,7 +34855,7 @@
       </c>
       <c r="O47" s="905">
         <f t="shared" si="4"/>
-        <v>11064638</v>
+        <v>11296327</v>
       </c>
       <c r="P47" s="905">
         <f t="shared" si="4"/>
@@ -34845,9 +34863,9 @@
       </c>
       <c r="Q47" s="470">
         <f t="shared" si="4"/>
-        <v>139001305.94999999</v>
-      </c>
-      <c r="R47" s="1024"/>
+        <v>138769616.94999999</v>
+      </c>
+      <c r="R47" s="1022"/>
       <c r="S47" s="921"/>
       <c r="T47" s="921"/>
       <c r="U47" s="890"/>
@@ -35132,7 +35150,7 @@
         <v>0.16999999998370185</v>
       </c>
       <c r="S52" s="920" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T52" s="926">
         <f>+Q52-'ECP20'!L84</f>
@@ -35244,7 +35262,7 @@
         <v>0.35000000009313226</v>
       </c>
       <c r="W54" s="408" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AML54"/>
     </row>
@@ -35305,7 +35323,7 @@
     </row>
     <row r="56" spans="1:24 1026:1026" s="408" customFormat="1">
       <c r="A56" s="461" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B56" s="903">
         <v>44007629</v>
@@ -35354,7 +35372,7 @@
         <f t="shared" si="6"/>
         <v>36380872.639999993</v>
       </c>
-      <c r="R56" s="1070">
+      <c r="R56" s="1057">
         <f>+Q56+Q57-'ECP20'!P84</f>
         <v>-2312.4925545752048</v>
       </c>
@@ -35370,8 +35388,8 @@
         <f t="shared" si="7"/>
         <v>-2260360.8763399944</v>
       </c>
-      <c r="X56" s="1078" t="s">
-        <v>896</v>
+      <c r="X56" s="1065" t="s">
+        <v>895</v>
       </c>
       <c r="AML56"/>
     </row>
@@ -35559,7 +35577,7 @@
         <f t="shared" si="10"/>
         <v>86466227.840000004</v>
       </c>
-      <c r="R59" s="1024"/>
+      <c r="R59" s="1022"/>
       <c r="S59" s="921"/>
       <c r="T59" s="929"/>
       <c r="U59" s="927">
@@ -35615,7 +35633,7 @@
         <f t="shared" si="11"/>
         <v>3135700</v>
       </c>
-      <c r="L60" s="979">
+      <c r="L60" s="977">
         <f t="shared" si="11"/>
         <v>1344307</v>
       </c>
@@ -35629,7 +35647,7 @@
       </c>
       <c r="O60" s="905">
         <f t="shared" si="11"/>
-        <v>68207894</v>
+        <v>68439583</v>
       </c>
       <c r="P60" s="905">
         <f t="shared" si="11"/>
@@ -35637,85 +35655,85 @@
       </c>
       <c r="Q60" s="905">
         <f t="shared" si="11"/>
-        <v>225467533.78999999</v>
-      </c>
-      <c r="R60" s="1024"/>
+        <v>225235844.78999999</v>
+      </c>
+      <c r="R60" s="1022"/>
       <c r="S60" s="921"/>
       <c r="T60" s="929"/>
       <c r="U60" s="927"/>
       <c r="V60" s="928"/>
       <c r="AML60"/>
     </row>
-    <row r="61" spans="1:24 1026:1026" s="982" customFormat="1" ht="9.75">
-      <c r="A61" s="980"/>
-      <c r="B61" s="1019">
+    <row r="61" spans="1:24 1026:1026" s="980" customFormat="1" ht="9.75">
+      <c r="A61" s="978"/>
+      <c r="B61" s="1017">
         <f t="shared" ref="B61:Q61" si="12">+B26-B47-B59</f>
         <v>0</v>
       </c>
-      <c r="C61" s="1020">
+      <c r="C61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D61" s="1020">
+      <c r="D61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E61" s="1020">
+      <c r="E61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F61" s="1020">
+      <c r="F61" s="1018">
         <f t="shared" si="12"/>
         <v>-1.1641532182693481E-10</v>
       </c>
-      <c r="G61" s="1020">
+      <c r="G61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H61" s="1020">
+      <c r="H61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I61" s="1020">
+      <c r="I61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J61" s="1020">
+      <c r="J61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K61" s="1020">
+      <c r="K61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L61" s="1020">
+      <c r="L61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M61" s="1020">
+      <c r="M61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N61" s="1020">
+      <c r="N61" s="1018">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O61" s="981">
+      <c r="O61" s="979">
         <f>+O26+O47+O59</f>
-        <v>71255253</v>
-      </c>
-      <c r="P61" s="981">
+        <v>71486942</v>
+      </c>
+      <c r="P61" s="979">
         <f>+P26+P47+P59</f>
-        <v>71255253</v>
-      </c>
-      <c r="Q61" s="1018">
+        <v>71486942</v>
+      </c>
+      <c r="Q61" s="1016">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S61" s="983"/>
-      <c r="T61" s="983"/>
+      <c r="S61" s="981"/>
+      <c r="T61" s="981"/>
       <c r="U61" s="889"/>
-      <c r="V61" s="984"/>
+      <c r="V61" s="982"/>
       <c r="AML61" s="938"/>
     </row>
     <row r="62" spans="1:24 1026:1026" s="414" customFormat="1">
@@ -35739,7 +35757,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="483"/>
-      <c r="R62" s="982"/>
+      <c r="R62" s="980"/>
       <c r="S62" s="483"/>
       <c r="T62" s="483"/>
       <c r="U62" s="889"/>
@@ -35798,7 +35816,7 @@
       <c r="Q63" s="957" t="s">
         <v>513</v>
       </c>
-      <c r="R63" s="1025"/>
+      <c r="R63" s="1023"/>
       <c r="S63" s="769"/>
       <c r="T63" s="769"/>
       <c r="U63" s="890"/>
@@ -35958,7 +35976,7 @@
         <f>SUM(Q64:Q65)</f>
         <v>112357222.2</v>
       </c>
-      <c r="R66" s="1026"/>
+      <c r="R66" s="1024"/>
       <c r="S66" s="923"/>
       <c r="T66" s="923"/>
       <c r="U66" s="894"/>
@@ -36112,7 +36130,7 @@
         <f>SUM(Q66:Q68)</f>
         <v>32027372.050000008</v>
       </c>
-      <c r="R69" s="1026"/>
+      <c r="R69" s="1024"/>
       <c r="S69" s="923"/>
       <c r="T69" s="923"/>
       <c r="U69" s="894"/>
@@ -36215,7 +36233,7 @@
         <f>+Q69+Q70</f>
         <v>30129911.050000008</v>
       </c>
-      <c r="R71" s="1026"/>
+      <c r="R71" s="1024"/>
       <c r="S71" s="923"/>
       <c r="T71" s="923"/>
       <c r="U71" s="894"/>
@@ -36354,7 +36372,7 @@
         <f>+Q71+Q72+Q73</f>
         <v>17334150.050000008</v>
       </c>
-      <c r="R74" s="1026"/>
+      <c r="R74" s="1024"/>
       <c r="S74" s="924"/>
       <c r="T74" s="924"/>
       <c r="U74" s="894"/>
@@ -36459,7 +36477,7 @@
         <f>Q74+Q75</f>
         <v>17334150.050000008</v>
       </c>
-      <c r="R76" s="1022"/>
+      <c r="R76" s="1020"/>
       <c r="S76" s="924"/>
       <c r="T76" s="924"/>
       <c r="U76" s="890"/>
@@ -37707,7 +37725,7 @@
         <f>+N81-O81+P81</f>
         <v>-700623.12867196836</v>
       </c>
-      <c r="R81" s="1027"/>
+      <c r="R81" s="1025"/>
       <c r="S81" s="925"/>
       <c r="T81" s="925"/>
       <c r="W81" s="408"/>
@@ -37837,8 +37855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ321"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E311" sqref="E311"/>
+    <sheetView showGridLines="0" topLeftCell="A248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -39232,7 +39250,7 @@
     </row>
     <row r="136" spans="2:6" ht="32.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C136" s="535" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D136" s="529" t="s">
         <v>216</v>
@@ -39986,7 +40004,7 @@
     </row>
     <row r="216" spans="3:6" hidden="1" outlineLevel="1">
       <c r="C216" s="538" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D216" s="531"/>
       <c r="E216" s="531">
@@ -40199,7 +40217,7 @@
     </row>
     <row r="236" spans="3:7" ht="24.75" hidden="1" outlineLevel="1">
       <c r="C236" s="536" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D236" s="537" t="s">
         <v>216</v>
@@ -40366,7 +40384,7 @@
     </row>
     <row r="253" spans="2:6">
       <c r="C253" s="845" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D253" s="846">
         <v>25218</v>
@@ -40375,7 +40393,7 @@
     </row>
     <row r="254" spans="2:6">
       <c r="C254" s="845" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D254" s="846"/>
       <c r="E254" s="846">
@@ -40469,7 +40487,7 @@
     </row>
     <row r="263" spans="3:6">
       <c r="C263" s="538" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D263" s="548">
         <f>D163+D183</f>
@@ -40482,7 +40500,7 @@
     </row>
     <row r="264" spans="3:6">
       <c r="C264" s="538" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D264" s="548"/>
       <c r="E264" s="548">
@@ -40518,7 +40536,7 @@
     </row>
     <row r="268" spans="3:6" ht="24.75">
       <c r="C268" s="536" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D268" s="537" t="s">
         <v>216</v>
@@ -40540,7 +40558,7 @@
     </row>
     <row r="270" spans="3:6">
       <c r="C270" s="538" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D270" s="531"/>
       <c r="E270" s="531">
@@ -40582,7 +40600,7 @@
     </row>
     <row r="274" spans="3:6" ht="24.75">
       <c r="C274" s="536" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D274" s="537" t="s">
         <v>216</v>
@@ -40604,7 +40622,7 @@
     </row>
     <row r="276" spans="3:6">
       <c r="C276" s="538" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D276" s="531"/>
       <c r="E276" s="531">
@@ -40646,7 +40664,7 @@
     </row>
     <row r="280" spans="3:6" ht="24.75">
       <c r="C280" s="536" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D280" s="537" t="s">
         <v>216</v>
@@ -40668,7 +40686,7 @@
     </row>
     <row r="282" spans="3:6">
       <c r="C282" s="538" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D282" s="531">
         <v>78647</v>
@@ -40678,7 +40696,7 @@
     </row>
     <row r="283" spans="3:6">
       <c r="C283" s="538" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D283" s="531">
         <v>2008798</v>
@@ -40699,7 +40717,7 @@
     </row>
     <row r="285" spans="3:6">
       <c r="C285" s="538" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D285" s="531"/>
       <c r="E285" s="531">
@@ -40741,7 +40759,7 @@
     </row>
     <row r="289" spans="3:6" ht="24.75">
       <c r="C289" s="536" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D289" s="537" t="s">
         <v>216</v>
@@ -40752,10 +40770,10 @@
       <c r="F289" s="525"/>
     </row>
     <row r="290" spans="3:6">
-      <c r="C290" s="976" t="s">
+      <c r="C290" s="859" t="s">
         <v>54</v>
       </c>
-      <c r="D290" s="863">
+      <c r="D290" s="860">
         <v>50000</v>
       </c>
       <c r="E290" s="531"/>
@@ -40763,7 +40781,7 @@
     </row>
     <row r="291" spans="3:6">
       <c r="C291" s="538" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D291" s="531"/>
       <c r="E291" s="531">
@@ -40805,7 +40823,7 @@
     </row>
     <row r="295" spans="3:6" ht="24.75">
       <c r="C295" s="536" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D295" s="537" t="s">
         <v>216</v>
@@ -40816,10 +40834,10 @@
       <c r="F295" s="525"/>
     </row>
     <row r="296" spans="3:6">
-      <c r="C296" s="965" t="s">
+      <c r="C296" s="859" t="s">
         <v>701</v>
       </c>
-      <c r="D296" s="964">
+      <c r="D296" s="860">
         <f>+D196</f>
         <v>3608585</v>
       </c>
@@ -40865,7 +40883,7 @@
     </row>
     <row r="301" spans="3:6" ht="24.75">
       <c r="C301" s="438" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D301" s="422"/>
       <c r="E301" s="422"/>
@@ -40892,7 +40910,7 @@
     </row>
     <row r="304" spans="3:6">
       <c r="C304" s="440" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D304" s="441">
         <f>+'Saldos interco.'!C41+'Saldos interco.'!C42</f>
@@ -40916,7 +40934,7 @@
       </c>
       <c r="D306" s="849">
         <f>+'Saldos interco.'!C54+'Saldos interco.'!C66-'Saldos interco.'!D25-'Saldos interco.'!D33</f>
-        <v>662638</v>
+        <v>894327</v>
       </c>
       <c r="E306" s="967"/>
     </row>
@@ -40936,12 +40954,12 @@
       <c r="D308" s="411"/>
       <c r="E308" s="441">
         <f>+'Saldos interco.'!D10+'Saldos interco.'!D19+'Saldos interco.'!D26+'Saldos interco.'!D34+'Saldos interco.'!D46+'Saldos interco.'!D56+'Saldos interco.'!D61+'Saldos interco.'!D67+'Saldos interco.'!D11</f>
-        <v>8913485</v>
+        <v>9145174</v>
       </c>
     </row>
     <row r="309" spans="3:6">
       <c r="C309" s="440" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D309" s="411"/>
       <c r="E309" s="441">
@@ -40970,11 +40988,11 @@
       </c>
     </row>
     <row r="312" spans="3:6">
-      <c r="C312" s="850" t="s">
+      <c r="C312" s="960" t="s">
         <v>496</v>
       </c>
-      <c r="D312" s="853"/>
-      <c r="E312" s="854">
+      <c r="D312" s="897"/>
+      <c r="E312" s="962">
         <f>+'Saldos interco.'!D43</f>
         <v>529779</v>
       </c>
@@ -40985,11 +41003,11 @@
       </c>
       <c r="D313" s="446">
         <f>SUM(D302:D312)</f>
-        <v>11495219</v>
+        <v>11726908</v>
       </c>
       <c r="E313" s="446">
         <f>SUM(E302:E312)</f>
-        <v>11495219</v>
+        <v>11726908</v>
       </c>
       <c r="F313" s="525">
         <f>+D313-E313</f>
@@ -41012,7 +41030,7 @@
     </row>
     <row r="316" spans="3:6">
       <c r="C316" s="536" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D316" s="537" t="s">
         <v>216</v>
@@ -41069,11 +41087,11 @@
     <row r="321" spans="4:6">
       <c r="D321" s="533">
         <f>+D257+D265+D277+D271+D286+D292+D313</f>
-        <v>66275978</v>
+        <v>66507667</v>
       </c>
       <c r="E321" s="533">
         <f>+E257+E265+E277+E271+E286+E292+E313</f>
-        <v>66275978</v>
+        <v>66507667</v>
       </c>
       <c r="F321" s="525">
         <f>+D321-E321</f>
@@ -41721,7 +41739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
@@ -42241,11 +42259,11 @@
       </c>
       <c r="C9" s="606">
         <f>'Planilla final'!Q9</f>
-        <v>37455803.149999999</v>
+        <v>37224114.149999999</v>
       </c>
       <c r="D9" s="598">
         <f t="shared" si="0"/>
-        <v>-5652060.1499999985</v>
+        <v>-5420371.1499999985</v>
       </c>
       <c r="E9" s="605"/>
       <c r="F9" s="408">
@@ -42437,11 +42455,11 @@
       </c>
       <c r="Q11" s="612">
         <f>'Planilla final'!Q33</f>
-        <v>5822193.5300000003</v>
+        <v>5590504.5300000003</v>
       </c>
       <c r="R11" s="613">
         <f t="shared" si="1"/>
-        <v>1641189.5300000003</v>
+        <v>1409500.5300000003</v>
       </c>
       <c r="S11" s="582"/>
       <c r="T11" s="408">
@@ -42507,7 +42525,7 @@
       </c>
       <c r="N12" s="593"/>
       <c r="O12" s="611" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P12" s="582">
         <v>26</v>
@@ -42625,10 +42643,10 @@
     </row>
     <row r="14" spans="1:31" ht="12" customHeight="1">
       <c r="A14" s="407" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B14" s="625"/>
-      <c r="C14" s="978">
+      <c r="C14" s="976">
         <f>+'Planilla final'!Q14</f>
         <v>413564</v>
       </c>
@@ -42691,9 +42709,9 @@
         <v>640</v>
       </c>
       <c r="B15" s="605"/>
-      <c r="C15" s="977">
+      <c r="C15" s="975">
         <f>SUM(C5:C14)</f>
-        <v>119266738.52</v>
+        <v>119035049.52</v>
       </c>
       <c r="D15" s="598"/>
       <c r="E15" s="605"/>
@@ -42716,7 +42734,7 @@
       <c r="P15" s="633"/>
       <c r="Q15" s="628">
         <f>SUM(Q5:Q14)</f>
-        <v>71300921.719999999</v>
+        <v>71069232.719999999</v>
       </c>
       <c r="R15" s="613"/>
       <c r="S15" s="633"/>
@@ -43263,7 +43281,7 @@
       </c>
       <c r="N23" s="582"/>
       <c r="O23" s="611" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="P23" s="582">
         <v>28</v>
@@ -43482,7 +43500,7 @@
       </c>
       <c r="N26" s="582"/>
       <c r="O26" s="611" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P26" s="582">
         <v>29</v>
@@ -43601,7 +43619,7 @@
       <c r="P28" s="633"/>
       <c r="Q28" s="628">
         <f>Q15+Q27</f>
-        <v>139001305.94999999</v>
+        <v>138769616.94999999</v>
       </c>
       <c r="R28" s="647"/>
       <c r="S28" s="633"/>
@@ -43732,11 +43750,11 @@
       <c r="B32" s="605"/>
       <c r="C32" s="660">
         <f>C15+C28</f>
-        <v>225467533.79000002</v>
-      </c>
-      <c r="D32" s="1033">
+        <v>225235844.79000002</v>
+      </c>
+      <c r="D32" s="1031">
         <f>SUM(D5:D31)</f>
-        <v>-14568563.319999989</v>
+        <v>-14336874.319999989</v>
       </c>
       <c r="E32" s="605"/>
       <c r="F32" s="660">
@@ -43762,11 +43780,11 @@
       <c r="P32" s="661"/>
       <c r="Q32" s="660">
         <f>Q28+Q30</f>
-        <v>225467533.78999999</v>
-      </c>
-      <c r="R32" s="1033">
+        <v>225235844.78999999</v>
+      </c>
+      <c r="R32" s="1031">
         <f>SUM(R5:R31)</f>
-        <v>14568563.320000004</v>
+        <v>14336874.320000004</v>
       </c>
       <c r="S32" s="661"/>
       <c r="T32" s="660">
@@ -43871,1409 +43889,1409 @@
       <c r="AA36" s="656"/>
       <c r="AD36" s="656"/>
     </row>
-    <row r="37" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A37" s="985" t="s">
+    <row r="37" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A37" s="983" t="s">
         <v>655</v>
       </c>
-      <c r="B37" s="985"/>
-      <c r="C37" s="986"/>
-      <c r="F37" s="988"/>
-      <c r="G37" s="989"/>
-      <c r="H37" s="990"/>
-      <c r="I37" s="989"/>
-      <c r="K37" s="991"/>
-      <c r="L37" s="992" t="s">
-        <v>869</v>
-      </c>
-      <c r="M37" s="992"/>
-      <c r="O37" s="992" t="s">
-        <v>869</v>
-      </c>
-      <c r="P37" s="992"/>
-      <c r="Q37" s="986"/>
-      <c r="R37" s="989"/>
-      <c r="T37" s="989"/>
-      <c r="V37" s="993"/>
-      <c r="X37" s="990"/>
-    </row>
-    <row r="38" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="994" t="s">
+      <c r="B37" s="983"/>
+      <c r="C37" s="984"/>
+      <c r="F37" s="986"/>
+      <c r="G37" s="987"/>
+      <c r="H37" s="988"/>
+      <c r="I37" s="987"/>
+      <c r="K37" s="989"/>
+      <c r="L37" s="990" t="s">
+        <v>868</v>
+      </c>
+      <c r="M37" s="990"/>
+      <c r="O37" s="990" t="s">
+        <v>868</v>
+      </c>
+      <c r="P37" s="990"/>
+      <c r="Q37" s="984"/>
+      <c r="R37" s="987"/>
+      <c r="T37" s="987"/>
+      <c r="V37" s="991"/>
+      <c r="X37" s="988"/>
+    </row>
+    <row r="38" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A38" s="992" t="s">
         <v>656</v>
       </c>
-      <c r="B38" s="994"/>
-      <c r="C38" s="995">
+      <c r="B38" s="992"/>
+      <c r="C38" s="993">
         <f>+'EFE20'!C15</f>
         <v>468128</v>
       </c>
-      <c r="D38" s="996"/>
-      <c r="E38" s="996"/>
-      <c r="F38" s="996"/>
-      <c r="G38" s="989"/>
-      <c r="H38" s="990"/>
-      <c r="I38" s="989"/>
-      <c r="J38" s="990"/>
-      <c r="K38" s="991"/>
-      <c r="L38" s="994" t="s">
+      <c r="D38" s="994"/>
+      <c r="E38" s="994"/>
+      <c r="F38" s="994"/>
+      <c r="G38" s="987"/>
+      <c r="H38" s="988"/>
+      <c r="I38" s="987"/>
+      <c r="J38" s="988"/>
+      <c r="K38" s="989"/>
+      <c r="L38" s="992" t="s">
         <v>348</v>
       </c>
-      <c r="M38" s="994"/>
-      <c r="O38" s="994" t="s">
+      <c r="M38" s="992"/>
+      <c r="O38" s="992" t="s">
         <v>348</v>
       </c>
-      <c r="P38" s="994"/>
-      <c r="Q38" s="995">
+      <c r="P38" s="992"/>
+      <c r="Q38" s="993">
         <f>+Q47</f>
         <v>17336462.178671967</v>
       </c>
-      <c r="R38" s="989"/>
-      <c r="T38" s="989"/>
-      <c r="V38" s="993"/>
-      <c r="X38" s="990"/>
-    </row>
-    <row r="39" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A39" s="1050" t="s">
+      <c r="R38" s="987"/>
+      <c r="T38" s="987"/>
+      <c r="V38" s="991"/>
+      <c r="X38" s="988"/>
+    </row>
+    <row r="39" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A39" s="1048" t="s">
         <v>657</v>
       </c>
-      <c r="B39" s="1050"/>
-      <c r="C39" s="1051">
+      <c r="B39" s="1048"/>
+      <c r="C39" s="1049">
         <f>-C38+D24</f>
         <v>-937756.5299999998</v>
       </c>
-      <c r="D39" s="999"/>
-      <c r="E39" s="999"/>
-      <c r="F39" s="999"/>
-      <c r="G39" s="989"/>
-      <c r="H39" s="990"/>
-      <c r="I39" s="989"/>
-      <c r="L39" s="1000" t="s">
+      <c r="D39" s="997"/>
+      <c r="E39" s="997"/>
+      <c r="F39" s="997"/>
+      <c r="G39" s="987"/>
+      <c r="H39" s="988"/>
+      <c r="I39" s="987"/>
+      <c r="L39" s="998" t="s">
         <v>658</v>
       </c>
-      <c r="M39" s="1000"/>
-      <c r="O39" s="1000" t="s">
-        <v>843</v>
-      </c>
-      <c r="P39" s="1000"/>
-      <c r="Q39" s="1035">
+      <c r="M39" s="998"/>
+      <c r="O39" s="998" t="s">
+        <v>842</v>
+      </c>
+      <c r="P39" s="998"/>
+      <c r="Q39" s="1033">
         <f>+'ECP20'!T76</f>
         <v>-21629181</v>
       </c>
-      <c r="R39" s="1047" t="s">
-        <v>886</v>
-      </c>
-      <c r="T39" s="989"/>
-      <c r="V39" s="993"/>
-      <c r="X39" s="990"/>
-    </row>
-    <row r="40" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="1002" t="s">
+      <c r="R39" s="1045" t="s">
+        <v>885</v>
+      </c>
+      <c r="T39" s="987"/>
+      <c r="V39" s="991"/>
+      <c r="X39" s="988"/>
+    </row>
+    <row r="40" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A40" s="1000" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="1002"/>
-      <c r="C40" s="998">
+      <c r="B40" s="1000"/>
+      <c r="C40" s="996">
         <f>+C38+C39</f>
         <v>-469628.5299999998</v>
       </c>
-      <c r="D40" s="999"/>
-      <c r="E40" s="999"/>
-      <c r="F40" s="999"/>
-      <c r="G40" s="989"/>
-      <c r="H40" s="990"/>
-      <c r="I40" s="989"/>
-      <c r="K40" s="991"/>
-      <c r="L40" s="1000" t="s">
+      <c r="D40" s="997"/>
+      <c r="E40" s="997"/>
+      <c r="F40" s="997"/>
+      <c r="G40" s="987"/>
+      <c r="H40" s="988"/>
+      <c r="I40" s="987"/>
+      <c r="K40" s="989"/>
+      <c r="L40" s="998" t="s">
         <v>659</v>
       </c>
-      <c r="M40" s="1000"/>
-      <c r="O40" s="1000" t="s">
+      <c r="M40" s="998"/>
+      <c r="O40" s="998" t="s">
         <v>659</v>
       </c>
-      <c r="P40" s="1000"/>
-      <c r="Q40" s="995">
-        <v>0</v>
-      </c>
-      <c r="R40" s="989"/>
-      <c r="T40" s="989"/>
-      <c r="V40" s="993"/>
-      <c r="X40" s="990"/>
-    </row>
-    <row r="41" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C41" s="1003">
+      <c r="P40" s="998"/>
+      <c r="Q40" s="993">
+        <v>0</v>
+      </c>
+      <c r="R40" s="987"/>
+      <c r="T40" s="987"/>
+      <c r="V40" s="991"/>
+      <c r="X40" s="988"/>
+    </row>
+    <row r="41" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C41" s="1001">
         <f>-C40+D24</f>
         <v>0</v>
       </c>
-      <c r="G41" s="1004"/>
-      <c r="H41" s="990"/>
-      <c r="I41" s="1004"/>
-      <c r="K41" s="991"/>
-      <c r="L41" s="1005" t="s">
+      <c r="G41" s="1002"/>
+      <c r="H41" s="988"/>
+      <c r="I41" s="1002"/>
+      <c r="K41" s="989"/>
+      <c r="L41" s="1003" t="s">
         <v>660</v>
       </c>
-      <c r="M41" s="1005"/>
-      <c r="O41" s="1005" t="s">
+      <c r="M41" s="1003"/>
+      <c r="O41" s="1003" t="s">
         <v>660</v>
       </c>
-      <c r="P41" s="1005"/>
-      <c r="Q41" s="995">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1004"/>
-      <c r="S41" s="990"/>
-      <c r="T41" s="1004"/>
-      <c r="U41" s="990"/>
-      <c r="V41" s="993"/>
-      <c r="X41" s="990"/>
-    </row>
-    <row r="42" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A42" s="985" t="s">
+      <c r="P41" s="1003"/>
+      <c r="Q41" s="993">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1002"/>
+      <c r="S41" s="988"/>
+      <c r="T41" s="1002"/>
+      <c r="U41" s="988"/>
+      <c r="V41" s="991"/>
+      <c r="X41" s="988"/>
+    </row>
+    <row r="42" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A42" s="983" t="s">
         <v>661</v>
       </c>
-      <c r="B42" s="985"/>
-      <c r="C42" s="986"/>
-      <c r="G42" s="989"/>
-      <c r="H42" s="990"/>
-      <c r="I42" s="989"/>
-      <c r="K42" s="991"/>
-      <c r="L42" s="994" t="s">
+      <c r="B42" s="983"/>
+      <c r="C42" s="984"/>
+      <c r="G42" s="987"/>
+      <c r="H42" s="988"/>
+      <c r="I42" s="987"/>
+      <c r="K42" s="989"/>
+      <c r="L42" s="992" t="s">
         <v>749</v>
       </c>
-      <c r="M42" s="994"/>
-      <c r="O42" s="994" t="s">
+      <c r="M42" s="992"/>
+      <c r="O42" s="992" t="s">
         <v>749</v>
       </c>
-      <c r="P42" s="994"/>
-      <c r="Q42" s="995">
-        <v>0</v>
-      </c>
-      <c r="R42" s="989"/>
-      <c r="T42" s="989"/>
-      <c r="V42" s="993"/>
-      <c r="X42" s="990"/>
-    </row>
-    <row r="43" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A43" s="994" t="s">
+      <c r="P42" s="992"/>
+      <c r="Q42" s="993">
+        <v>0</v>
+      </c>
+      <c r="R42" s="987"/>
+      <c r="T42" s="987"/>
+      <c r="V42" s="991"/>
+      <c r="X42" s="988"/>
+    </row>
+    <row r="43" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A43" s="992" t="s">
         <v>662</v>
       </c>
-      <c r="B43" s="994"/>
-      <c r="C43" s="995">
+      <c r="B43" s="992"/>
+      <c r="C43" s="993">
         <f>+'EFE20'!C10</f>
         <v>19635020</v>
       </c>
-      <c r="D43" s="996"/>
-      <c r="E43" s="996"/>
-      <c r="F43" s="996"/>
-      <c r="G43" s="989"/>
-      <c r="H43" s="990"/>
-      <c r="I43" s="989"/>
-      <c r="J43" s="990"/>
-      <c r="K43" s="991"/>
-      <c r="L43" s="1005" t="s">
+      <c r="D43" s="994"/>
+      <c r="E43" s="994"/>
+      <c r="F43" s="994"/>
+      <c r="G43" s="987"/>
+      <c r="H43" s="988"/>
+      <c r="I43" s="987"/>
+      <c r="J43" s="988"/>
+      <c r="K43" s="989"/>
+      <c r="L43" s="1003" t="s">
         <v>663</v>
       </c>
-      <c r="M43" s="1005"/>
-      <c r="O43" s="1005" t="s">
-        <v>883</v>
-      </c>
-      <c r="P43" s="1005"/>
-      <c r="Q43" s="995">
+      <c r="M43" s="1003"/>
+      <c r="O43" s="1003" t="s">
+        <v>882</v>
+      </c>
+      <c r="P43" s="1003"/>
+      <c r="Q43" s="993">
         <f>+'ECP20'!T71+'ECP20'!T74+'ECP20'!T78+'ECP20'!T80</f>
         <v>2260361</v>
       </c>
-      <c r="R43" s="989"/>
-      <c r="T43" s="989"/>
-      <c r="V43" s="993"/>
-      <c r="X43" s="990"/>
-    </row>
-    <row r="44" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A44" s="997" t="s">
+      <c r="R43" s="987"/>
+      <c r="T43" s="987"/>
+      <c r="V43" s="991"/>
+      <c r="X43" s="988"/>
+    </row>
+    <row r="44" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A44" s="995" t="s">
         <v>657</v>
       </c>
-      <c r="B44" s="997"/>
-      <c r="C44" s="998">
+      <c r="B44" s="995"/>
+      <c r="C44" s="996">
         <f>-C43+D20</f>
         <v>-12667045.439999998</v>
       </c>
-      <c r="D44" s="999"/>
-      <c r="E44" s="999"/>
-      <c r="F44" s="999"/>
-      <c r="G44" s="989"/>
-      <c r="H44" s="990"/>
-      <c r="I44" s="989"/>
-      <c r="L44" s="994" t="s">
+      <c r="D44" s="997"/>
+      <c r="E44" s="997"/>
+      <c r="F44" s="997"/>
+      <c r="G44" s="987"/>
+      <c r="H44" s="988"/>
+      <c r="I44" s="987"/>
+      <c r="L44" s="992" t="s">
         <v>664</v>
       </c>
-      <c r="M44" s="994"/>
-      <c r="O44" s="994" t="s">
+      <c r="M44" s="992"/>
+      <c r="O44" s="992" t="s">
         <v>664</v>
       </c>
-      <c r="P44" s="994"/>
-      <c r="Q44" s="995">
-        <v>0</v>
-      </c>
-      <c r="R44" s="989"/>
-      <c r="T44" s="989"/>
-      <c r="V44" s="993"/>
-      <c r="X44" s="990"/>
-    </row>
-    <row r="45" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A45" s="1002" t="s">
+      <c r="P44" s="992"/>
+      <c r="Q44" s="993">
+        <v>0</v>
+      </c>
+      <c r="R44" s="987"/>
+      <c r="T44" s="987"/>
+      <c r="V44" s="991"/>
+      <c r="X44" s="988"/>
+    </row>
+    <row r="45" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A45" s="1000" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1002"/>
-      <c r="C45" s="998">
+      <c r="B45" s="1000"/>
+      <c r="C45" s="996">
         <f>+C43+C44</f>
         <v>6967974.5600000024</v>
       </c>
-      <c r="D45" s="999"/>
-      <c r="E45" s="999"/>
-      <c r="F45" s="999"/>
-      <c r="G45" s="989"/>
-      <c r="H45" s="990"/>
-      <c r="I45" s="989"/>
-      <c r="K45" s="991"/>
-      <c r="L45" s="1006" t="s">
+      <c r="D45" s="997"/>
+      <c r="E45" s="997"/>
+      <c r="F45" s="997"/>
+      <c r="G45" s="987"/>
+      <c r="H45" s="988"/>
+      <c r="I45" s="987"/>
+      <c r="K45" s="989"/>
+      <c r="L45" s="1004" t="s">
         <v>5</v>
       </c>
-      <c r="M45" s="1006"/>
-      <c r="O45" s="1006" t="s">
+      <c r="M45" s="1004"/>
+      <c r="O45" s="1004" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="1006"/>
-      <c r="Q45" s="1007">
+      <c r="P45" s="1004"/>
+      <c r="Q45" s="1005">
         <f>SUM(Q38:Q44)</f>
         <v>-2032357.8213280328</v>
       </c>
-      <c r="R45" s="989"/>
-      <c r="T45" s="989"/>
-      <c r="V45" s="993"/>
-      <c r="X45" s="990"/>
-    </row>
-    <row r="46" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C46" s="999">
+      <c r="R45" s="987"/>
+      <c r="T45" s="987"/>
+      <c r="V45" s="991"/>
+      <c r="X45" s="988"/>
+    </row>
+    <row r="46" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C46" s="997">
         <f>+C45-D20</f>
         <v>0</v>
       </c>
-      <c r="D46" s="999"/>
-      <c r="E46" s="999"/>
-      <c r="F46" s="999"/>
-      <c r="G46" s="1004"/>
-      <c r="H46" s="1008"/>
-      <c r="I46" s="1004"/>
-      <c r="L46" s="1001"/>
-      <c r="M46" s="1001"/>
-      <c r="O46" s="1001"/>
-      <c r="P46" s="1001"/>
-      <c r="Q46" s="999">
+      <c r="D46" s="997"/>
+      <c r="E46" s="997"/>
+      <c r="F46" s="997"/>
+      <c r="G46" s="1002"/>
+      <c r="H46" s="1006"/>
+      <c r="I46" s="1002"/>
+      <c r="L46" s="999"/>
+      <c r="M46" s="999"/>
+      <c r="O46" s="999"/>
+      <c r="P46" s="999"/>
+      <c r="Q46" s="997">
         <f>+Q45-R30</f>
         <v>2311.8086719624698</v>
       </c>
-      <c r="R46" s="1004"/>
-      <c r="T46" s="1004"/>
-      <c r="V46" s="993"/>
-      <c r="X46" s="990"/>
-    </row>
-    <row r="47" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A47" s="985" t="s">
+      <c r="R46" s="1002"/>
+      <c r="T46" s="1002"/>
+      <c r="V46" s="991"/>
+      <c r="X46" s="988"/>
+    </row>
+    <row r="47" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A47" s="983" t="s">
         <v>665</v>
       </c>
-      <c r="B47" s="985"/>
-      <c r="C47" s="986"/>
-      <c r="G47" s="989"/>
-      <c r="H47" s="990"/>
-      <c r="I47" s="989"/>
-      <c r="K47" s="991"/>
-      <c r="L47" s="1009" t="s">
+      <c r="B47" s="983"/>
+      <c r="C47" s="984"/>
+      <c r="G47" s="987"/>
+      <c r="H47" s="988"/>
+      <c r="I47" s="987"/>
+      <c r="K47" s="989"/>
+      <c r="L47" s="1007" t="s">
         <v>348</v>
       </c>
-      <c r="M47" s="1009"/>
-      <c r="O47" s="1009" t="s">
+      <c r="M47" s="1007"/>
+      <c r="O47" s="1007" t="s">
         <v>348</v>
       </c>
-      <c r="P47" s="1009"/>
-      <c r="Q47" s="1010">
+      <c r="P47" s="1007"/>
+      <c r="Q47" s="1008">
         <f>+'ECP20'!T82</f>
         <v>17336462.178671967</v>
       </c>
-      <c r="R47" s="989"/>
-      <c r="T47" s="989"/>
-      <c r="V47" s="993"/>
-      <c r="X47" s="990"/>
-    </row>
-    <row r="48" spans="1:30" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A48" s="994" t="s">
+      <c r="R47" s="987"/>
+      <c r="T47" s="987"/>
+      <c r="V47" s="991"/>
+      <c r="X47" s="988"/>
+    </row>
+    <row r="48" spans="1:30" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A48" s="992" t="s">
         <v>662</v>
       </c>
-      <c r="B48" s="994"/>
-      <c r="C48" s="995">
+      <c r="B48" s="992"/>
+      <c r="C48" s="993">
         <f>+'EFE20'!C12</f>
         <v>1808437</v>
       </c>
-      <c r="D48" s="996"/>
-      <c r="E48" s="996"/>
-      <c r="F48" s="996"/>
-      <c r="G48" s="989"/>
-      <c r="H48" s="990"/>
-      <c r="I48" s="989"/>
-      <c r="J48" s="990"/>
-      <c r="K48" s="991"/>
-      <c r="L48" s="1011" t="s">
-        <v>870</v>
-      </c>
-      <c r="M48" s="1011"/>
-      <c r="O48" s="1011" t="s">
-        <v>870</v>
-      </c>
-      <c r="P48" s="1011"/>
-      <c r="Q48" s="998">
+      <c r="D48" s="994"/>
+      <c r="E48" s="994"/>
+      <c r="F48" s="994"/>
+      <c r="G48" s="987"/>
+      <c r="H48" s="988"/>
+      <c r="I48" s="987"/>
+      <c r="J48" s="988"/>
+      <c r="K48" s="989"/>
+      <c r="L48" s="1009" t="s">
+        <v>869</v>
+      </c>
+      <c r="M48" s="1009"/>
+      <c r="O48" s="1009" t="s">
+        <v>869</v>
+      </c>
+      <c r="P48" s="1009"/>
+      <c r="Q48" s="996">
         <f>+C71</f>
         <v>7958121</v>
       </c>
-      <c r="R48" s="989"/>
-      <c r="T48" s="989"/>
-      <c r="V48" s="993"/>
-      <c r="X48" s="990"/>
-    </row>
-    <row r="49" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A49" s="997" t="s">
+      <c r="R48" s="987"/>
+      <c r="T48" s="987"/>
+      <c r="V48" s="991"/>
+      <c r="X48" s="988"/>
+    </row>
+    <row r="49" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A49" s="995" t="s">
         <v>666</v>
       </c>
-      <c r="B49" s="997"/>
-      <c r="C49" s="995">
-        <v>0</v>
-      </c>
-      <c r="D49" s="999"/>
-      <c r="E49" s="999"/>
-      <c r="F49" s="999"/>
-      <c r="G49" s="989"/>
-      <c r="H49" s="990"/>
-      <c r="I49" s="989"/>
-      <c r="L49" s="1012" t="s">
+      <c r="B49" s="995"/>
+      <c r="C49" s="993">
+        <v>0</v>
+      </c>
+      <c r="D49" s="997"/>
+      <c r="E49" s="997"/>
+      <c r="F49" s="997"/>
+      <c r="G49" s="987"/>
+      <c r="H49" s="988"/>
+      <c r="I49" s="987"/>
+      <c r="L49" s="1010" t="s">
         <v>109</v>
       </c>
-      <c r="M49" s="1012"/>
-      <c r="O49" s="1012" t="s">
+      <c r="M49" s="1010"/>
+      <c r="O49" s="1010" t="s">
         <v>109</v>
       </c>
-      <c r="P49" s="1012"/>
-      <c r="Q49" s="1013">
+      <c r="P49" s="1010"/>
+      <c r="Q49" s="1011">
         <f>+Q47+Q48</f>
         <v>25294583.178671967</v>
       </c>
-      <c r="R49" s="989"/>
-      <c r="T49" s="989"/>
-      <c r="V49" s="993"/>
-      <c r="X49" s="990"/>
-    </row>
-    <row r="50" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A50" s="997" t="s">
+      <c r="R49" s="987"/>
+      <c r="T49" s="987"/>
+      <c r="V49" s="991"/>
+      <c r="X49" s="988"/>
+    </row>
+    <row r="50" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A50" s="995" t="s">
         <v>667</v>
       </c>
-      <c r="B50" s="997"/>
-      <c r="C50" s="998">
+      <c r="B50" s="995"/>
+      <c r="C50" s="996">
         <f>+D26-C48-C49</f>
         <v>-1610904</v>
       </c>
-      <c r="D50" s="1014"/>
-      <c r="E50" s="999"/>
-      <c r="F50" s="999"/>
-      <c r="G50" s="989"/>
-      <c r="H50" s="990"/>
-      <c r="I50" s="989"/>
-      <c r="L50" s="1001"/>
-      <c r="M50" s="1001"/>
-      <c r="O50" s="1001"/>
-      <c r="P50" s="1001"/>
-      <c r="Q50" s="1001"/>
-      <c r="R50" s="989"/>
-      <c r="T50" s="989"/>
-      <c r="V50" s="993"/>
-      <c r="X50" s="990"/>
-    </row>
-    <row r="51" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A51" s="1002" t="s">
+      <c r="D50" s="1012"/>
+      <c r="E50" s="997"/>
+      <c r="F50" s="997"/>
+      <c r="G50" s="987"/>
+      <c r="H50" s="988"/>
+      <c r="I50" s="987"/>
+      <c r="L50" s="999"/>
+      <c r="M50" s="999"/>
+      <c r="O50" s="999"/>
+      <c r="P50" s="999"/>
+      <c r="Q50" s="999"/>
+      <c r="R50" s="987"/>
+      <c r="T50" s="987"/>
+      <c r="V50" s="991"/>
+      <c r="X50" s="988"/>
+    </row>
+    <row r="51" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A51" s="1000" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="1002"/>
-      <c r="C51" s="998">
+      <c r="B51" s="1000"/>
+      <c r="C51" s="996">
         <f>SUM(C48:C50)</f>
         <v>197533</v>
       </c>
-      <c r="D51" s="999"/>
-      <c r="E51" s="999"/>
-      <c r="F51" s="999"/>
-      <c r="G51" s="989"/>
-      <c r="H51" s="990"/>
-      <c r="I51" s="989"/>
-      <c r="K51" s="991"/>
-      <c r="L51" s="1001"/>
-      <c r="M51" s="1001"/>
-      <c r="O51" s="1001"/>
-      <c r="P51" s="1001"/>
-      <c r="Q51" s="1001"/>
-      <c r="R51" s="989"/>
-      <c r="T51" s="989"/>
-      <c r="V51" s="993"/>
-      <c r="X51" s="990"/>
-    </row>
-    <row r="52" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C52" s="1015">
+      <c r="D51" s="997"/>
+      <c r="E51" s="997"/>
+      <c r="F51" s="997"/>
+      <c r="G51" s="987"/>
+      <c r="H51" s="988"/>
+      <c r="I51" s="987"/>
+      <c r="K51" s="989"/>
+      <c r="L51" s="999"/>
+      <c r="M51" s="999"/>
+      <c r="O51" s="999"/>
+      <c r="P51" s="999"/>
+      <c r="Q51" s="999"/>
+      <c r="R51" s="987"/>
+      <c r="T51" s="987"/>
+      <c r="V51" s="991"/>
+      <c r="X51" s="988"/>
+    </row>
+    <row r="52" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C52" s="1013">
         <f>+D26-C51</f>
         <v>0</v>
       </c>
-      <c r="D52" s="1015"/>
-      <c r="E52" s="1015"/>
-      <c r="F52" s="999"/>
-      <c r="G52" s="989"/>
-      <c r="H52" s="990"/>
-      <c r="I52" s="989"/>
-      <c r="K52" s="991"/>
-      <c r="L52" s="1001"/>
-      <c r="M52" s="1001"/>
-      <c r="O52" s="1001"/>
-      <c r="P52" s="1001"/>
-      <c r="Q52" s="1001"/>
-      <c r="R52" s="989"/>
-      <c r="T52" s="989"/>
-      <c r="V52" s="993"/>
-      <c r="X52" s="990"/>
-    </row>
-    <row r="53" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A53" s="985" t="s">
+      <c r="D52" s="1013"/>
+      <c r="E52" s="1013"/>
+      <c r="F52" s="997"/>
+      <c r="G52" s="987"/>
+      <c r="H52" s="988"/>
+      <c r="I52" s="987"/>
+      <c r="K52" s="989"/>
+      <c r="L52" s="999"/>
+      <c r="M52" s="999"/>
+      <c r="O52" s="999"/>
+      <c r="P52" s="999"/>
+      <c r="Q52" s="999"/>
+      <c r="R52" s="987"/>
+      <c r="T52" s="987"/>
+      <c r="V52" s="991"/>
+      <c r="X52" s="988"/>
+    </row>
+    <row r="53" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A53" s="983" t="s">
         <v>668</v>
       </c>
-      <c r="B53" s="985"/>
-      <c r="C53" s="986"/>
-      <c r="D53" s="999"/>
-      <c r="E53" s="999"/>
-      <c r="F53" s="999"/>
-      <c r="G53" s="989"/>
-      <c r="H53" s="990"/>
-      <c r="I53" s="989"/>
-      <c r="K53" s="991"/>
-      <c r="L53" s="1001"/>
-      <c r="M53" s="1001"/>
-      <c r="O53" s="1001"/>
-      <c r="P53" s="1001"/>
-      <c r="Q53" s="1001"/>
-      <c r="R53" s="989"/>
-      <c r="T53" s="989"/>
-      <c r="V53" s="993"/>
-      <c r="X53" s="990"/>
-    </row>
-    <row r="54" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A54" s="994" t="s">
+      <c r="B53" s="983"/>
+      <c r="C53" s="984"/>
+      <c r="D53" s="997"/>
+      <c r="E53" s="997"/>
+      <c r="F53" s="997"/>
+      <c r="G53" s="987"/>
+      <c r="H53" s="988"/>
+      <c r="I53" s="987"/>
+      <c r="K53" s="989"/>
+      <c r="L53" s="999"/>
+      <c r="M53" s="999"/>
+      <c r="O53" s="999"/>
+      <c r="P53" s="999"/>
+      <c r="Q53" s="999"/>
+      <c r="R53" s="987"/>
+      <c r="T53" s="987"/>
+      <c r="V53" s="991"/>
+      <c r="X53" s="988"/>
+    </row>
+    <row r="54" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A54" s="992" t="s">
         <v>669</v>
       </c>
-      <c r="B54" s="994"/>
-      <c r="C54" s="995">
+      <c r="B54" s="992"/>
+      <c r="C54" s="993">
         <f>+'EFE20'!Y17</f>
         <v>649755</v>
       </c>
-      <c r="D54" s="999"/>
-      <c r="E54" s="999"/>
-      <c r="F54" s="999"/>
-      <c r="G54" s="1004"/>
-      <c r="I54" s="1004"/>
-      <c r="K54" s="991"/>
-      <c r="L54" s="1001"/>
-      <c r="M54" s="1001"/>
-      <c r="O54" s="1001"/>
-      <c r="P54" s="1001"/>
-      <c r="Q54" s="1001"/>
-      <c r="R54" s="1004"/>
-      <c r="T54" s="1004"/>
-      <c r="V54" s="993"/>
-      <c r="X54" s="990"/>
-    </row>
-    <row r="55" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A55" s="994" t="s">
-        <v>884</v>
-      </c>
-      <c r="B55" s="994"/>
-      <c r="C55" s="1035">
+      <c r="D54" s="997"/>
+      <c r="E54" s="997"/>
+      <c r="F54" s="997"/>
+      <c r="G54" s="1002"/>
+      <c r="I54" s="1002"/>
+      <c r="K54" s="989"/>
+      <c r="L54" s="999"/>
+      <c r="M54" s="999"/>
+      <c r="O54" s="999"/>
+      <c r="P54" s="999"/>
+      <c r="Q54" s="999"/>
+      <c r="R54" s="1002"/>
+      <c r="T54" s="1002"/>
+      <c r="V54" s="991"/>
+      <c r="X54" s="988"/>
+    </row>
+    <row r="55" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A55" s="992" t="s">
+        <v>883</v>
+      </c>
+      <c r="B55" s="992"/>
+      <c r="C55" s="1033">
         <v>-17000</v>
       </c>
-      <c r="D55" s="999"/>
-      <c r="E55" s="999"/>
-      <c r="F55" s="999"/>
-      <c r="G55" s="1004"/>
-      <c r="I55" s="1004"/>
-      <c r="K55" s="991"/>
-      <c r="L55" s="1001"/>
-      <c r="M55" s="1001"/>
-      <c r="O55" s="1001"/>
-      <c r="P55" s="1001"/>
-      <c r="Q55" s="1001"/>
-      <c r="R55" s="1004"/>
-      <c r="T55" s="1004"/>
-      <c r="V55" s="993"/>
-      <c r="X55" s="990"/>
-    </row>
-    <row r="56" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A56" s="994" t="s">
+      <c r="D55" s="997"/>
+      <c r="E55" s="997"/>
+      <c r="F55" s="997"/>
+      <c r="G55" s="1002"/>
+      <c r="I55" s="1002"/>
+      <c r="K55" s="989"/>
+      <c r="L55" s="999"/>
+      <c r="M55" s="999"/>
+      <c r="O55" s="999"/>
+      <c r="P55" s="999"/>
+      <c r="Q55" s="999"/>
+      <c r="R55" s="1002"/>
+      <c r="T55" s="1002"/>
+      <c r="V55" s="991"/>
+      <c r="X55" s="988"/>
+    </row>
+    <row r="56" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A56" s="992" t="s">
         <v>670</v>
       </c>
-      <c r="B56" s="994"/>
-      <c r="C56" s="995">
+      <c r="B56" s="992"/>
+      <c r="C56" s="993">
         <f>-1543734</f>
         <v>-1543734</v>
       </c>
-      <c r="D56" s="999"/>
-      <c r="E56" s="999"/>
-      <c r="F56" s="999"/>
-      <c r="G56" s="1004"/>
-      <c r="I56" s="1004"/>
-      <c r="K56" s="991"/>
-      <c r="L56" s="1001"/>
-      <c r="M56" s="1001"/>
-      <c r="O56" s="1001"/>
-      <c r="P56" s="1001"/>
-      <c r="Q56" s="1001"/>
-      <c r="R56" s="1004"/>
-      <c r="T56" s="1004"/>
-      <c r="V56" s="993"/>
-      <c r="X56" s="990"/>
-    </row>
-    <row r="57" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A57" s="997" t="s">
+      <c r="D56" s="997"/>
+      <c r="E56" s="997"/>
+      <c r="F56" s="997"/>
+      <c r="G56" s="1002"/>
+      <c r="I56" s="1002"/>
+      <c r="K56" s="989"/>
+      <c r="L56" s="999"/>
+      <c r="M56" s="999"/>
+      <c r="O56" s="999"/>
+      <c r="P56" s="999"/>
+      <c r="Q56" s="999"/>
+      <c r="R56" s="1002"/>
+      <c r="T56" s="1002"/>
+      <c r="V56" s="991"/>
+      <c r="X56" s="988"/>
+    </row>
+    <row r="57" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A57" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B57" s="997"/>
-      <c r="C57" s="998">
+      <c r="B57" s="995"/>
+      <c r="C57" s="996">
         <f>+R23-C54-C55-C56</f>
         <v>0</v>
       </c>
-      <c r="D57" s="999"/>
-      <c r="E57" s="999"/>
-      <c r="F57" s="999"/>
-      <c r="G57" s="989"/>
-      <c r="H57" s="990"/>
-      <c r="I57" s="989"/>
-      <c r="K57" s="991"/>
-      <c r="L57" s="1001"/>
-      <c r="M57" s="1001"/>
-      <c r="O57" s="1001"/>
-      <c r="P57" s="1001"/>
-      <c r="Q57" s="1001"/>
-      <c r="R57" s="989"/>
-      <c r="T57" s="989"/>
-      <c r="V57" s="993"/>
-      <c r="X57" s="990"/>
-    </row>
-    <row r="58" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A58" s="1002" t="s">
+      <c r="D57" s="997"/>
+      <c r="E57" s="997"/>
+      <c r="F57" s="997"/>
+      <c r="G57" s="987"/>
+      <c r="H57" s="988"/>
+      <c r="I57" s="987"/>
+      <c r="K57" s="989"/>
+      <c r="L57" s="999"/>
+      <c r="M57" s="999"/>
+      <c r="O57" s="999"/>
+      <c r="P57" s="999"/>
+      <c r="Q57" s="999"/>
+      <c r="R57" s="987"/>
+      <c r="T57" s="987"/>
+      <c r="V57" s="991"/>
+      <c r="X57" s="988"/>
+    </row>
+    <row r="58" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A58" s="1000" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="1002"/>
-      <c r="C58" s="998">
+      <c r="B58" s="1000"/>
+      <c r="C58" s="996">
         <f>SUM(C54:C57)</f>
         <v>-910979</v>
       </c>
-      <c r="D58" s="999"/>
-      <c r="E58" s="999"/>
-      <c r="F58" s="999"/>
-      <c r="G58" s="989"/>
-      <c r="H58" s="990"/>
-      <c r="I58" s="989"/>
-      <c r="K58" s="991"/>
-      <c r="L58" s="1001"/>
-      <c r="M58" s="1001"/>
-      <c r="O58" s="1001"/>
-      <c r="P58" s="1001"/>
-      <c r="Q58" s="1001"/>
-      <c r="R58" s="989"/>
-      <c r="T58" s="989"/>
-      <c r="V58" s="993"/>
-      <c r="X58" s="990"/>
-    </row>
-    <row r="59" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C59" s="999">
+      <c r="D58" s="997"/>
+      <c r="E58" s="997"/>
+      <c r="F58" s="997"/>
+      <c r="G58" s="987"/>
+      <c r="H58" s="988"/>
+      <c r="I58" s="987"/>
+      <c r="K58" s="989"/>
+      <c r="L58" s="999"/>
+      <c r="M58" s="999"/>
+      <c r="O58" s="999"/>
+      <c r="P58" s="999"/>
+      <c r="Q58" s="999"/>
+      <c r="R58" s="987"/>
+      <c r="T58" s="987"/>
+      <c r="V58" s="991"/>
+      <c r="X58" s="988"/>
+    </row>
+    <row r="59" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C59" s="997">
         <f>+C58-R23</f>
         <v>0</v>
       </c>
-      <c r="D59" s="999"/>
-      <c r="E59" s="999"/>
-      <c r="F59" s="999"/>
-      <c r="G59" s="989"/>
-      <c r="H59" s="990"/>
-      <c r="I59" s="989"/>
-      <c r="K59" s="991"/>
-      <c r="L59" s="1001"/>
-      <c r="M59" s="1001"/>
-      <c r="O59" s="1001"/>
-      <c r="P59" s="1001"/>
-      <c r="Q59" s="1001"/>
-      <c r="R59" s="989"/>
-      <c r="T59" s="989"/>
-      <c r="V59" s="993"/>
-      <c r="X59" s="990"/>
-    </row>
-    <row r="60" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A60" s="985" t="s">
+      <c r="D59" s="997"/>
+      <c r="E59" s="997"/>
+      <c r="F59" s="997"/>
+      <c r="G59" s="987"/>
+      <c r="H59" s="988"/>
+      <c r="I59" s="987"/>
+      <c r="K59" s="989"/>
+      <c r="L59" s="999"/>
+      <c r="M59" s="999"/>
+      <c r="O59" s="999"/>
+      <c r="P59" s="999"/>
+      <c r="Q59" s="999"/>
+      <c r="R59" s="987"/>
+      <c r="T59" s="987"/>
+      <c r="V59" s="991"/>
+      <c r="X59" s="988"/>
+    </row>
+    <row r="60" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A60" s="983" t="s">
         <v>672</v>
       </c>
-      <c r="B60" s="985"/>
-      <c r="C60" s="986"/>
-      <c r="D60" s="999"/>
-      <c r="E60" s="999"/>
-      <c r="F60" s="999"/>
-      <c r="G60" s="989"/>
-      <c r="H60" s="990"/>
-      <c r="I60" s="989"/>
-      <c r="K60" s="991"/>
-      <c r="L60" s="1001"/>
-      <c r="M60" s="1001"/>
-      <c r="O60" s="1001"/>
-      <c r="P60" s="1001"/>
-      <c r="Q60" s="1001"/>
-      <c r="R60" s="989"/>
-      <c r="T60" s="989"/>
-      <c r="V60" s="993"/>
-      <c r="X60" s="990"/>
-    </row>
-    <row r="61" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A61" s="994" t="s">
-        <v>871</v>
-      </c>
-      <c r="B61" s="994"/>
-      <c r="C61" s="995">
+      <c r="B60" s="983"/>
+      <c r="C60" s="984"/>
+      <c r="D60" s="997"/>
+      <c r="E60" s="997"/>
+      <c r="F60" s="997"/>
+      <c r="G60" s="987"/>
+      <c r="H60" s="988"/>
+      <c r="I60" s="987"/>
+      <c r="K60" s="989"/>
+      <c r="L60" s="999"/>
+      <c r="M60" s="999"/>
+      <c r="O60" s="999"/>
+      <c r="P60" s="999"/>
+      <c r="Q60" s="999"/>
+      <c r="R60" s="987"/>
+      <c r="T60" s="987"/>
+      <c r="V60" s="991"/>
+      <c r="X60" s="988"/>
+    </row>
+    <row r="61" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A61" s="992" t="s">
+        <v>870</v>
+      </c>
+      <c r="B61" s="992"/>
+      <c r="C61" s="993">
         <f>+'EFE20'!C14</f>
         <v>2380394</v>
       </c>
-      <c r="D61" s="999"/>
-      <c r="E61" s="999"/>
-      <c r="F61" s="999"/>
-      <c r="G61" s="989"/>
-      <c r="H61" s="990"/>
-      <c r="I61" s="989"/>
-      <c r="L61" s="1001"/>
-      <c r="M61" s="1001"/>
-      <c r="O61" s="1001"/>
-      <c r="P61" s="1001"/>
-      <c r="Q61" s="1001"/>
-      <c r="R61" s="989"/>
-      <c r="T61" s="989"/>
-      <c r="V61" s="993"/>
-      <c r="X61" s="990"/>
-    </row>
-    <row r="62" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A62" s="997" t="s">
+      <c r="D61" s="997"/>
+      <c r="E61" s="997"/>
+      <c r="F61" s="997"/>
+      <c r="G61" s="987"/>
+      <c r="H61" s="988"/>
+      <c r="I61" s="987"/>
+      <c r="L61" s="999"/>
+      <c r="M61" s="999"/>
+      <c r="O61" s="999"/>
+      <c r="P61" s="999"/>
+      <c r="Q61" s="999"/>
+      <c r="R61" s="987"/>
+      <c r="T61" s="987"/>
+      <c r="V61" s="991"/>
+      <c r="X61" s="988"/>
+    </row>
+    <row r="62" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A62" s="995" t="s">
         <v>657</v>
       </c>
-      <c r="B62" s="997"/>
-      <c r="C62" s="998">
+      <c r="B62" s="995"/>
+      <c r="C62" s="996">
         <f>-C61+D22</f>
         <v>-1744851</v>
       </c>
-      <c r="D62" s="999"/>
-      <c r="E62" s="999"/>
-      <c r="F62" s="999"/>
-      <c r="G62" s="989"/>
-      <c r="H62" s="990"/>
-      <c r="I62" s="989"/>
-      <c r="L62" s="1001"/>
-      <c r="M62" s="1001"/>
-      <c r="O62" s="1001"/>
-      <c r="P62" s="1001"/>
-      <c r="Q62" s="1001"/>
-      <c r="R62" s="989"/>
-      <c r="T62" s="989"/>
-      <c r="V62" s="993"/>
-      <c r="X62" s="990"/>
-    </row>
-    <row r="63" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A63" s="1002" t="s">
+      <c r="D62" s="997"/>
+      <c r="E62" s="997"/>
+      <c r="F62" s="997"/>
+      <c r="G62" s="987"/>
+      <c r="H62" s="988"/>
+      <c r="I62" s="987"/>
+      <c r="L62" s="999"/>
+      <c r="M62" s="999"/>
+      <c r="O62" s="999"/>
+      <c r="P62" s="999"/>
+      <c r="Q62" s="999"/>
+      <c r="R62" s="987"/>
+      <c r="T62" s="987"/>
+      <c r="V62" s="991"/>
+      <c r="X62" s="988"/>
+    </row>
+    <row r="63" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A63" s="1000" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="1002"/>
-      <c r="C63" s="998">
+      <c r="B63" s="1000"/>
+      <c r="C63" s="996">
         <f>+C61+C62</f>
         <v>635543</v>
       </c>
-      <c r="D63" s="999"/>
-      <c r="E63" s="999"/>
-      <c r="F63" s="999"/>
-      <c r="G63" s="1004"/>
-      <c r="H63" s="1001"/>
-      <c r="I63" s="1004"/>
-      <c r="L63" s="1001"/>
-      <c r="M63" s="1001"/>
-      <c r="O63" s="1001"/>
-      <c r="P63" s="1001"/>
-      <c r="Q63" s="1001"/>
-      <c r="R63" s="1004"/>
-      <c r="T63" s="1004"/>
-      <c r="V63" s="993"/>
-      <c r="X63" s="990"/>
-    </row>
-    <row r="64" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C64" s="999">
+      <c r="D63" s="997"/>
+      <c r="E63" s="997"/>
+      <c r="F63" s="997"/>
+      <c r="G63" s="1002"/>
+      <c r="H63" s="999"/>
+      <c r="I63" s="1002"/>
+      <c r="L63" s="999"/>
+      <c r="M63" s="999"/>
+      <c r="O63" s="999"/>
+      <c r="P63" s="999"/>
+      <c r="Q63" s="999"/>
+      <c r="R63" s="1002"/>
+      <c r="T63" s="1002"/>
+      <c r="V63" s="991"/>
+      <c r="X63" s="988"/>
+    </row>
+    <row r="64" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C64" s="997">
         <f>+C63-D22</f>
         <v>0</v>
       </c>
-      <c r="D64" s="999"/>
-      <c r="E64" s="999"/>
-      <c r="F64" s="999"/>
-      <c r="G64" s="1004"/>
-      <c r="H64" s="1001"/>
-      <c r="I64" s="1004"/>
-      <c r="L64" s="1001"/>
-      <c r="M64" s="1001"/>
-      <c r="O64" s="1001"/>
-      <c r="P64" s="1001"/>
-      <c r="Q64" s="1001"/>
-      <c r="R64" s="1004"/>
-      <c r="T64" s="1004"/>
-      <c r="V64" s="993"/>
-      <c r="X64" s="990"/>
-    </row>
-    <row r="65" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A65" s="985" t="s">
+      <c r="D64" s="997"/>
+      <c r="E64" s="997"/>
+      <c r="F64" s="997"/>
+      <c r="G64" s="1002"/>
+      <c r="H64" s="999"/>
+      <c r="I64" s="1002"/>
+      <c r="L64" s="999"/>
+      <c r="M64" s="999"/>
+      <c r="O64" s="999"/>
+      <c r="P64" s="999"/>
+      <c r="Q64" s="999"/>
+      <c r="R64" s="1002"/>
+      <c r="T64" s="1002"/>
+      <c r="V64" s="991"/>
+      <c r="X64" s="988"/>
+    </row>
+    <row r="65" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A65" s="983" t="s">
+        <v>871</v>
+      </c>
+      <c r="B65" s="983"/>
+      <c r="C65" s="984"/>
+      <c r="D65" s="997"/>
+      <c r="E65" s="997"/>
+      <c r="F65" s="997"/>
+      <c r="G65" s="1002"/>
+      <c r="I65" s="1002"/>
+      <c r="L65" s="999"/>
+      <c r="M65" s="999"/>
+      <c r="O65" s="999"/>
+      <c r="P65" s="999"/>
+      <c r="Q65" s="999"/>
+      <c r="R65" s="1002"/>
+      <c r="T65" s="1002"/>
+      <c r="V65" s="991"/>
+      <c r="X65" s="988"/>
+    </row>
+    <row r="66" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A66" s="992" t="s">
         <v>872</v>
       </c>
-      <c r="B65" s="985"/>
-      <c r="C65" s="986"/>
-      <c r="D65" s="999"/>
-      <c r="E65" s="999"/>
-      <c r="F65" s="999"/>
-      <c r="G65" s="1004"/>
-      <c r="I65" s="1004"/>
-      <c r="L65" s="1001"/>
-      <c r="M65" s="1001"/>
-      <c r="O65" s="1001"/>
-      <c r="P65" s="1001"/>
-      <c r="Q65" s="1001"/>
-      <c r="R65" s="1004"/>
-      <c r="T65" s="1004"/>
-      <c r="V65" s="993"/>
-      <c r="X65" s="990"/>
-    </row>
-    <row r="66" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A66" s="994" t="s">
-        <v>873</v>
-      </c>
-      <c r="B66" s="994"/>
-      <c r="C66" s="995">
+      <c r="B66" s="992"/>
+      <c r="C66" s="993">
         <f>+'EFE20'!C11</f>
         <v>39210</v>
       </c>
-      <c r="D66" s="999"/>
-      <c r="E66" s="999"/>
-      <c r="F66" s="999"/>
-      <c r="G66" s="1004"/>
-      <c r="I66" s="1004"/>
-      <c r="L66" s="1001"/>
-      <c r="M66" s="1001"/>
-      <c r="O66" s="1001"/>
-      <c r="P66" s="1001"/>
-      <c r="Q66" s="1001"/>
-      <c r="R66" s="1004"/>
-      <c r="T66" s="1004"/>
-      <c r="V66" s="993"/>
-      <c r="X66" s="990"/>
-    </row>
-    <row r="67" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A67" s="997" t="s">
+      <c r="D66" s="997"/>
+      <c r="E66" s="997"/>
+      <c r="F66" s="997"/>
+      <c r="G66" s="1002"/>
+      <c r="I66" s="1002"/>
+      <c r="L66" s="999"/>
+      <c r="M66" s="999"/>
+      <c r="O66" s="999"/>
+      <c r="P66" s="999"/>
+      <c r="Q66" s="999"/>
+      <c r="R66" s="1002"/>
+      <c r="T66" s="1002"/>
+      <c r="V66" s="991"/>
+      <c r="X66" s="988"/>
+    </row>
+    <row r="67" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A67" s="995" t="s">
         <v>657</v>
       </c>
-      <c r="B67" s="997"/>
-      <c r="C67" s="998">
+      <c r="B67" s="995"/>
+      <c r="C67" s="996">
         <f>-C66+D21</f>
         <v>-439321.65</v>
       </c>
-      <c r="D67" s="999"/>
-      <c r="E67" s="999"/>
-      <c r="F67" s="999"/>
-      <c r="G67" s="1004"/>
-      <c r="I67" s="1004"/>
-      <c r="R67" s="1004"/>
-      <c r="T67" s="1004"/>
-      <c r="V67" s="993"/>
-      <c r="X67" s="990"/>
-    </row>
-    <row r="68" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B68" s="1002"/>
-      <c r="C68" s="998">
+      <c r="D67" s="997"/>
+      <c r="E67" s="997"/>
+      <c r="F67" s="997"/>
+      <c r="G67" s="1002"/>
+      <c r="I67" s="1002"/>
+      <c r="R67" s="1002"/>
+      <c r="T67" s="1002"/>
+      <c r="V67" s="991"/>
+      <c r="X67" s="988"/>
+    </row>
+    <row r="68" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A68" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B68" s="1000"/>
+      <c r="C68" s="996">
         <f>+C66+C67</f>
         <v>-400111.65</v>
       </c>
-      <c r="D68" s="999"/>
-      <c r="E68" s="999"/>
-      <c r="F68" s="999"/>
-      <c r="G68" s="1004"/>
-      <c r="I68" s="1004"/>
-      <c r="R68" s="1004"/>
-      <c r="T68" s="1004"/>
-      <c r="V68" s="993"/>
-      <c r="X68" s="990"/>
-    </row>
-    <row r="69" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C69" s="999">
+      <c r="D68" s="997"/>
+      <c r="E68" s="997"/>
+      <c r="F68" s="997"/>
+      <c r="G68" s="1002"/>
+      <c r="I68" s="1002"/>
+      <c r="R68" s="1002"/>
+      <c r="T68" s="1002"/>
+      <c r="V68" s="991"/>
+      <c r="X68" s="988"/>
+    </row>
+    <row r="69" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C69" s="997">
         <f>+C68-D21</f>
         <v>0</v>
       </c>
-      <c r="D69" s="999"/>
-      <c r="E69" s="999"/>
-      <c r="F69" s="999"/>
-      <c r="G69" s="1004"/>
-      <c r="I69" s="1004"/>
-      <c r="R69" s="1004"/>
-      <c r="T69" s="1004"/>
-      <c r="V69" s="993"/>
-      <c r="X69" s="990"/>
-    </row>
-    <row r="70" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="985" t="s">
+      <c r="D69" s="997"/>
+      <c r="E69" s="997"/>
+      <c r="F69" s="997"/>
+      <c r="G69" s="1002"/>
+      <c r="I69" s="1002"/>
+      <c r="R69" s="1002"/>
+      <c r="T69" s="1002"/>
+      <c r="V69" s="991"/>
+      <c r="X69" s="988"/>
+    </row>
+    <row r="70" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A70" s="983" t="s">
         <v>673</v>
       </c>
-      <c r="B70" s="985"/>
-      <c r="C70" s="1010"/>
-      <c r="D70" s="999"/>
-      <c r="E70" s="999"/>
-      <c r="F70" s="999"/>
-      <c r="G70" s="1004"/>
-      <c r="I70" s="1004"/>
-      <c r="R70" s="1004"/>
-      <c r="T70" s="1004"/>
-      <c r="V70" s="993"/>
-      <c r="X70" s="990"/>
-    </row>
-    <row r="71" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A71" s="997" t="s">
-        <v>875</v>
-      </c>
-      <c r="B71" s="997"/>
-      <c r="C71" s="995">
+      <c r="B70" s="983"/>
+      <c r="C70" s="1008"/>
+      <c r="D70" s="997"/>
+      <c r="E70" s="997"/>
+      <c r="F70" s="997"/>
+      <c r="G70" s="1002"/>
+      <c r="I70" s="1002"/>
+      <c r="R70" s="1002"/>
+      <c r="T70" s="1002"/>
+      <c r="V70" s="991"/>
+      <c r="X70" s="988"/>
+    </row>
+    <row r="71" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A71" s="995" t="s">
+        <v>874</v>
+      </c>
+      <c r="B71" s="995"/>
+      <c r="C71" s="993">
         <f>-'ERI20'!D20</f>
         <v>7958121</v>
       </c>
-      <c r="G71" s="1004"/>
-      <c r="I71" s="1004"/>
-      <c r="R71" s="1004"/>
-      <c r="T71" s="1004"/>
-      <c r="V71" s="993"/>
-      <c r="X71" s="990"/>
-    </row>
-    <row r="72" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A72" s="997" t="s">
+      <c r="G71" s="1002"/>
+      <c r="I71" s="1002"/>
+      <c r="R71" s="1002"/>
+      <c r="T71" s="1002"/>
+      <c r="V71" s="991"/>
+      <c r="X71" s="988"/>
+    </row>
+    <row r="72" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A72" s="995" t="s">
         <v>674</v>
       </c>
-      <c r="B72" s="997"/>
-      <c r="C72" s="995">
+      <c r="B72" s="995"/>
+      <c r="C72" s="993">
         <f>+'EFE20'!C41</f>
         <v>-4275291</v>
       </c>
-      <c r="G72" s="1004"/>
-      <c r="I72" s="1004"/>
-      <c r="R72" s="1004"/>
-      <c r="T72" s="1004"/>
-      <c r="V72" s="993"/>
-      <c r="X72" s="990"/>
-    </row>
-    <row r="73" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A73" s="997" t="s">
+      <c r="G72" s="1002"/>
+      <c r="I72" s="1002"/>
+      <c r="R72" s="1002"/>
+      <c r="T72" s="1002"/>
+      <c r="V72" s="991"/>
+      <c r="X72" s="988"/>
+    </row>
+    <row r="73" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A73" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B73" s="997"/>
-      <c r="C73" s="1016">
+      <c r="B73" s="995"/>
+      <c r="C73" s="1014">
         <f>-C71-C72+R10</f>
         <v>978507</v>
       </c>
-      <c r="G73" s="1004"/>
-      <c r="I73" s="1004"/>
-      <c r="R73" s="1004"/>
-      <c r="T73" s="1004"/>
-      <c r="V73" s="993"/>
-      <c r="X73" s="990"/>
-    </row>
-    <row r="74" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A74" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B74" s="1002"/>
-      <c r="C74" s="1016">
+      <c r="G73" s="1002"/>
+      <c r="I73" s="1002"/>
+      <c r="R73" s="1002"/>
+      <c r="T73" s="1002"/>
+      <c r="V73" s="991"/>
+      <c r="X73" s="988"/>
+    </row>
+    <row r="74" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A74" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B74" s="1000"/>
+      <c r="C74" s="1014">
         <f>SUM(C71:C73)</f>
         <v>4661337</v>
       </c>
-      <c r="G74" s="1004"/>
-      <c r="I74" s="1004"/>
-      <c r="R74" s="1004"/>
-      <c r="T74" s="1004"/>
-      <c r="V74" s="993"/>
-      <c r="X74" s="990"/>
-    </row>
-    <row r="75" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C75" s="1034">
+      <c r="G74" s="1002"/>
+      <c r="I74" s="1002"/>
+      <c r="R74" s="1002"/>
+      <c r="T74" s="1002"/>
+      <c r="V74" s="991"/>
+      <c r="X74" s="988"/>
+    </row>
+    <row r="75" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C75" s="1032">
         <f>+C74-R10</f>
         <v>0</v>
       </c>
-      <c r="G75" s="1004"/>
-      <c r="I75" s="1004"/>
-      <c r="R75" s="1004"/>
-      <c r="T75" s="1004"/>
-      <c r="V75" s="993"/>
-      <c r="X75" s="990"/>
-    </row>
-    <row r="76" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A76" s="985" t="s">
+      <c r="G75" s="1002"/>
+      <c r="I75" s="1002"/>
+      <c r="R75" s="1002"/>
+      <c r="T75" s="1002"/>
+      <c r="V75" s="991"/>
+      <c r="X75" s="988"/>
+    </row>
+    <row r="76" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A76" s="983" t="s">
         <v>675</v>
       </c>
-      <c r="B76" s="985"/>
-      <c r="C76" s="1010"/>
-      <c r="G76" s="1004"/>
-      <c r="I76" s="1004"/>
-      <c r="R76" s="1004"/>
-      <c r="T76" s="1004"/>
-      <c r="V76" s="993"/>
-      <c r="X76" s="990"/>
-    </row>
-    <row r="77" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="997" t="s">
-        <v>876</v>
-      </c>
-      <c r="B77" s="997"/>
-      <c r="C77" s="995">
+      <c r="B76" s="983"/>
+      <c r="C76" s="1008"/>
+      <c r="G76" s="1002"/>
+      <c r="I76" s="1002"/>
+      <c r="R76" s="1002"/>
+      <c r="T76" s="1002"/>
+      <c r="V76" s="991"/>
+      <c r="X76" s="988"/>
+    </row>
+    <row r="77" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="995" t="s">
+        <v>875</v>
+      </c>
+      <c r="B77" s="995"/>
+      <c r="C77" s="993">
         <f>-'ERI20'!D18</f>
         <v>4837640</v>
       </c>
-      <c r="G77" s="1004"/>
-      <c r="I77" s="1004"/>
-      <c r="R77" s="1004"/>
-      <c r="T77" s="1004"/>
-      <c r="V77" s="993"/>
-      <c r="X77" s="990"/>
-    </row>
-    <row r="78" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A78" s="997" t="s">
+      <c r="G77" s="1002"/>
+      <c r="I77" s="1002"/>
+      <c r="R77" s="1002"/>
+      <c r="T77" s="1002"/>
+      <c r="V77" s="991"/>
+      <c r="X77" s="988"/>
+    </row>
+    <row r="78" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A78" s="995" t="s">
         <v>676</v>
       </c>
-      <c r="B78" s="997"/>
-      <c r="C78" s="1049">
+      <c r="B78" s="995"/>
+      <c r="C78" s="1047">
         <f>+'EFE20'!C42</f>
         <v>-4453394</v>
       </c>
-      <c r="G78" s="1004"/>
-      <c r="I78" s="1004"/>
-      <c r="R78" s="1004"/>
-      <c r="T78" s="1004"/>
-      <c r="V78" s="993"/>
-      <c r="X78" s="990"/>
-    </row>
-    <row r="79" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A79" s="997" t="s">
+      <c r="G78" s="1002"/>
+      <c r="I78" s="1002"/>
+      <c r="R78" s="1002"/>
+      <c r="T78" s="1002"/>
+      <c r="V78" s="991"/>
+      <c r="X78" s="988"/>
+    </row>
+    <row r="79" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A79" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B79" s="997"/>
-      <c r="C79" s="1016">
+      <c r="B79" s="995"/>
+      <c r="C79" s="1014">
         <f>-C77-C78+R14</f>
         <v>1684199.08</v>
       </c>
-      <c r="G79" s="1004"/>
-      <c r="I79" s="1004"/>
-      <c r="R79" s="1004"/>
-      <c r="T79" s="1004"/>
-      <c r="V79" s="993"/>
-      <c r="X79" s="990"/>
-    </row>
-    <row r="80" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A80" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B80" s="1002"/>
-      <c r="C80" s="1016">
+      <c r="G79" s="1002"/>
+      <c r="I79" s="1002"/>
+      <c r="R79" s="1002"/>
+      <c r="T79" s="1002"/>
+      <c r="V79" s="991"/>
+      <c r="X79" s="988"/>
+    </row>
+    <row r="80" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A80" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B80" s="1000"/>
+      <c r="C80" s="1014">
         <f>SUM(C77:C79)</f>
         <v>2068445.08</v>
       </c>
-      <c r="G80" s="1004"/>
-      <c r="I80" s="1004"/>
-      <c r="R80" s="1004"/>
-      <c r="T80" s="1004"/>
-      <c r="V80" s="993"/>
-      <c r="X80" s="990"/>
-    </row>
-    <row r="81" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C81" s="1034">
+      <c r="G80" s="1002"/>
+      <c r="I80" s="1002"/>
+      <c r="R80" s="1002"/>
+      <c r="T80" s="1002"/>
+      <c r="V80" s="991"/>
+      <c r="X80" s="988"/>
+    </row>
+    <row r="81" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C81" s="1032">
         <f>+C80-R14</f>
         <v>0</v>
       </c>
-      <c r="G81" s="1004"/>
-      <c r="I81" s="1004"/>
-      <c r="R81" s="1004"/>
-      <c r="T81" s="1004"/>
-      <c r="V81" s="993"/>
-      <c r="X81" s="990"/>
-    </row>
-    <row r="82" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A82" s="985" t="s">
+      <c r="G81" s="1002"/>
+      <c r="I81" s="1002"/>
+      <c r="R81" s="1002"/>
+      <c r="T81" s="1002"/>
+      <c r="V81" s="991"/>
+      <c r="X81" s="988"/>
+    </row>
+    <row r="82" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A82" s="983" t="s">
         <v>677</v>
       </c>
-      <c r="B82" s="985"/>
-      <c r="C82" s="986"/>
-      <c r="G82" s="1004"/>
-      <c r="I82" s="1004"/>
-      <c r="R82" s="1004"/>
-      <c r="T82" s="1004"/>
-      <c r="V82" s="993"/>
-      <c r="X82" s="990"/>
-    </row>
-    <row r="83" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A83" s="994" t="s">
-        <v>877</v>
-      </c>
-      <c r="B83" s="994"/>
-      <c r="C83" s="995">
+      <c r="B82" s="983"/>
+      <c r="C82" s="984"/>
+      <c r="G82" s="1002"/>
+      <c r="I82" s="1002"/>
+      <c r="R82" s="1002"/>
+      <c r="T82" s="1002"/>
+      <c r="V82" s="991"/>
+      <c r="X82" s="988"/>
+    </row>
+    <row r="83" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A83" s="992" t="s">
+        <v>876</v>
+      </c>
+      <c r="B83" s="992"/>
+      <c r="C83" s="993">
         <f>+'EFE20'!C8</f>
         <v>179838</v>
       </c>
-      <c r="G83" s="1004"/>
-      <c r="I83" s="1004"/>
-      <c r="R83" s="1004"/>
-      <c r="T83" s="1004"/>
-      <c r="V83" s="993"/>
-      <c r="X83" s="990"/>
-    </row>
-    <row r="84" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A84" s="997" t="s">
-        <v>878</v>
-      </c>
-      <c r="B84" s="997"/>
-      <c r="C84" s="998">
+      <c r="G83" s="1002"/>
+      <c r="I83" s="1002"/>
+      <c r="R83" s="1002"/>
+      <c r="T83" s="1002"/>
+      <c r="V83" s="991"/>
+      <c r="X83" s="988"/>
+    </row>
+    <row r="84" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A84" s="995" t="s">
+        <v>877</v>
+      </c>
+      <c r="B84" s="995"/>
+      <c r="C84" s="996">
         <f>-C83+D8</f>
         <v>-4903357.74</v>
       </c>
-      <c r="G84" s="1004"/>
-      <c r="I84" s="1004"/>
-      <c r="R84" s="1004"/>
-      <c r="T84" s="1004"/>
-      <c r="V84" s="993"/>
-      <c r="X84" s="990"/>
-    </row>
-    <row r="85" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A85" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B85" s="1002"/>
-      <c r="C85" s="998">
+      <c r="G84" s="1002"/>
+      <c r="I84" s="1002"/>
+      <c r="R84" s="1002"/>
+      <c r="T84" s="1002"/>
+      <c r="V84" s="991"/>
+      <c r="X84" s="988"/>
+    </row>
+    <row r="85" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A85" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B85" s="1000"/>
+      <c r="C85" s="996">
         <f>+C83+C84</f>
         <v>-4723519.74</v>
       </c>
-      <c r="G85" s="1004"/>
-      <c r="I85" s="1004"/>
-      <c r="R85" s="1004"/>
-      <c r="T85" s="1004"/>
-      <c r="V85" s="993"/>
-      <c r="X85" s="990"/>
-    </row>
-    <row r="86" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C86" s="999">
+      <c r="G85" s="1002"/>
+      <c r="I85" s="1002"/>
+      <c r="R85" s="1002"/>
+      <c r="T85" s="1002"/>
+      <c r="V85" s="991"/>
+      <c r="X85" s="988"/>
+    </row>
+    <row r="86" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C86" s="997">
         <f>+C85-D8</f>
         <v>0</v>
       </c>
-      <c r="G86" s="1004"/>
-      <c r="I86" s="1004"/>
-      <c r="R86" s="1004"/>
-      <c r="T86" s="1004"/>
-      <c r="V86" s="993"/>
-      <c r="X86" s="990"/>
-    </row>
-    <row r="87" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A87" s="985" t="s">
+      <c r="G86" s="1002"/>
+      <c r="I86" s="1002"/>
+      <c r="R86" s="1002"/>
+      <c r="T86" s="1002"/>
+      <c r="V86" s="991"/>
+      <c r="X86" s="988"/>
+    </row>
+    <row r="87" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A87" s="983" t="s">
         <v>678</v>
       </c>
-      <c r="B87" s="985"/>
-      <c r="C87" s="986"/>
-      <c r="G87" s="1004"/>
-      <c r="I87" s="1004"/>
-      <c r="R87" s="1004"/>
-      <c r="T87" s="1004"/>
-      <c r="V87" s="993"/>
-      <c r="X87" s="990"/>
-    </row>
-    <row r="88" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A88" s="994" t="s">
-        <v>877</v>
-      </c>
-      <c r="B88" s="994"/>
-      <c r="C88" s="995">
+      <c r="B87" s="983"/>
+      <c r="C87" s="984"/>
+      <c r="G87" s="1002"/>
+      <c r="I87" s="1002"/>
+      <c r="R87" s="1002"/>
+      <c r="T87" s="1002"/>
+      <c r="V87" s="991"/>
+      <c r="X87" s="988"/>
+    </row>
+    <row r="88" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A88" s="992" t="s">
+        <v>876</v>
+      </c>
+      <c r="B88" s="992"/>
+      <c r="C88" s="993">
         <f>+[2]EFE19!C9</f>
         <v>1812247</v>
       </c>
-      <c r="G88" s="1004"/>
-      <c r="I88" s="1004"/>
-      <c r="R88" s="1004"/>
-      <c r="T88" s="1004"/>
-      <c r="V88" s="993"/>
-      <c r="X88" s="990"/>
-    </row>
-    <row r="89" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A89" s="997" t="s">
-        <v>879</v>
-      </c>
-      <c r="B89" s="997"/>
-      <c r="C89" s="998">
+      <c r="G88" s="1002"/>
+      <c r="I88" s="1002"/>
+      <c r="R88" s="1002"/>
+      <c r="T88" s="1002"/>
+      <c r="V88" s="991"/>
+      <c r="X88" s="988"/>
+    </row>
+    <row r="89" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A89" s="995" t="s">
+        <v>878</v>
+      </c>
+      <c r="B89" s="995"/>
+      <c r="C89" s="996">
         <f>-C88+D11+D18</f>
         <v>5118200</v>
       </c>
-      <c r="G89" s="1004"/>
-      <c r="I89" s="1004"/>
-      <c r="R89" s="1004"/>
-      <c r="T89" s="1004"/>
-      <c r="V89" s="993"/>
-      <c r="X89" s="990"/>
-    </row>
-    <row r="90" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B90" s="1002"/>
-      <c r="C90" s="998">
+      <c r="G89" s="1002"/>
+      <c r="I89" s="1002"/>
+      <c r="R89" s="1002"/>
+      <c r="T89" s="1002"/>
+      <c r="V89" s="991"/>
+      <c r="X89" s="988"/>
+    </row>
+    <row r="90" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A90" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B90" s="1000"/>
+      <c r="C90" s="996">
         <f>+C88+C89</f>
         <v>6930447</v>
       </c>
-      <c r="G90" s="1004"/>
-      <c r="I90" s="1004"/>
-      <c r="R90" s="1004"/>
-      <c r="T90" s="1004"/>
-      <c r="V90" s="993"/>
-      <c r="X90" s="990"/>
-    </row>
-    <row r="91" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C91" s="1015">
+      <c r="G90" s="1002"/>
+      <c r="I90" s="1002"/>
+      <c r="R90" s="1002"/>
+      <c r="T90" s="1002"/>
+      <c r="V90" s="991"/>
+      <c r="X90" s="988"/>
+    </row>
+    <row r="91" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C91" s="1013">
         <f>+D11+D18-C90</f>
         <v>0</v>
       </c>
-      <c r="G91" s="1004"/>
-      <c r="I91" s="1004"/>
-      <c r="R91" s="1004"/>
-      <c r="T91" s="1004"/>
-      <c r="V91" s="993"/>
-      <c r="X91" s="990"/>
-    </row>
-    <row r="92" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A92" s="985" t="s">
+      <c r="G91" s="1002"/>
+      <c r="I91" s="1002"/>
+      <c r="R91" s="1002"/>
+      <c r="T91" s="1002"/>
+      <c r="V91" s="991"/>
+      <c r="X91" s="988"/>
+    </row>
+    <row r="92" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A92" s="983" t="s">
         <v>679</v>
       </c>
-      <c r="B92" s="985"/>
-      <c r="C92" s="986"/>
-      <c r="G92" s="1004"/>
-      <c r="I92" s="1004"/>
-      <c r="R92" s="1004"/>
-      <c r="T92" s="1004"/>
-      <c r="V92" s="993"/>
-      <c r="X92" s="990"/>
-    </row>
-    <row r="93" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A93" s="994" t="s">
+      <c r="B92" s="983"/>
+      <c r="C92" s="984"/>
+      <c r="G92" s="1002"/>
+      <c r="I92" s="1002"/>
+      <c r="R92" s="1002"/>
+      <c r="T92" s="1002"/>
+      <c r="V92" s="991"/>
+      <c r="X92" s="988"/>
+    </row>
+    <row r="93" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A93" s="992" t="s">
         <v>680</v>
       </c>
-      <c r="B93" s="994"/>
-      <c r="C93" s="995">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1004"/>
-      <c r="I93" s="1004"/>
-      <c r="R93" s="1004"/>
-      <c r="T93" s="1004"/>
-      <c r="V93" s="993"/>
-      <c r="X93" s="990"/>
-    </row>
-    <row r="94" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A94" s="997" t="s">
+      <c r="B93" s="992"/>
+      <c r="C93" s="993">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1002"/>
+      <c r="I93" s="1002"/>
+      <c r="R93" s="1002"/>
+      <c r="T93" s="1002"/>
+      <c r="V93" s="991"/>
+      <c r="X93" s="988"/>
+    </row>
+    <row r="94" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A94" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B94" s="997"/>
-      <c r="C94" s="998">
+      <c r="B94" s="995"/>
+      <c r="C94" s="996">
         <f>-C93+D27</f>
         <v>0</v>
       </c>
-      <c r="G94" s="1004"/>
-      <c r="I94" s="1004"/>
-      <c r="N94" s="975"/>
-      <c r="R94" s="1004"/>
-      <c r="T94" s="1004"/>
-      <c r="V94" s="993"/>
-    </row>
-    <row r="95" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A95" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B95" s="1002"/>
-      <c r="C95" s="998">
+      <c r="G94" s="1002"/>
+      <c r="I94" s="1002"/>
+      <c r="N94" s="974"/>
+      <c r="R94" s="1002"/>
+      <c r="T94" s="1002"/>
+      <c r="V94" s="991"/>
+    </row>
+    <row r="95" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A95" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B95" s="1000"/>
+      <c r="C95" s="996">
         <f>+C93+C94</f>
         <v>0</v>
       </c>
-      <c r="G95" s="1004"/>
-      <c r="I95" s="1004"/>
-      <c r="N95" s="975"/>
-      <c r="R95" s="1004"/>
-      <c r="T95" s="1004"/>
-      <c r="V95" s="993"/>
-    </row>
-    <row r="96" spans="1:24" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C96" s="1017">
+      <c r="G95" s="1002"/>
+      <c r="I95" s="1002"/>
+      <c r="N95" s="974"/>
+      <c r="R95" s="1002"/>
+      <c r="T95" s="1002"/>
+      <c r="V95" s="991"/>
+    </row>
+    <row r="96" spans="1:24" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C96" s="1015">
         <f>+C95-D27</f>
         <v>0</v>
       </c>
-      <c r="G96" s="1004"/>
-      <c r="I96" s="1004"/>
-      <c r="N96" s="975"/>
-      <c r="R96" s="1004"/>
-      <c r="T96" s="1004"/>
-      <c r="V96" s="993"/>
-    </row>
-    <row r="97" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A97" s="985" t="s">
+      <c r="G96" s="1002"/>
+      <c r="I96" s="1002"/>
+      <c r="N96" s="974"/>
+      <c r="R96" s="1002"/>
+      <c r="T96" s="1002"/>
+      <c r="V96" s="991"/>
+    </row>
+    <row r="97" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A97" s="983" t="s">
         <v>681</v>
       </c>
-      <c r="B97" s="985"/>
-      <c r="C97" s="986"/>
-      <c r="G97" s="1004"/>
-      <c r="I97" s="1004"/>
-      <c r="N97" s="975"/>
-      <c r="R97" s="1004"/>
-      <c r="T97" s="1004"/>
-      <c r="V97" s="993"/>
-    </row>
-    <row r="98" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A98" s="994" t="s">
+      <c r="B97" s="983"/>
+      <c r="C97" s="984"/>
+      <c r="G97" s="1002"/>
+      <c r="I97" s="1002"/>
+      <c r="N97" s="974"/>
+      <c r="R97" s="1002"/>
+      <c r="T97" s="1002"/>
+      <c r="V97" s="991"/>
+    </row>
+    <row r="98" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A98" s="992" t="s">
         <v>682</v>
       </c>
-      <c r="B98" s="994"/>
-      <c r="C98" s="995">
-        <f>+'EFE20'!C58</f>
+      <c r="B98" s="992"/>
+      <c r="C98" s="993">
+        <f>+'EFE20'!C65</f>
         <v>-1307540</v>
       </c>
-      <c r="G98" s="1004"/>
-      <c r="I98" s="1004"/>
-      <c r="N98" s="975"/>
-      <c r="R98" s="1004"/>
-      <c r="T98" s="1004"/>
-      <c r="V98" s="993"/>
-    </row>
-    <row r="99" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A99" s="994" t="s">
+      <c r="G98" s="1002"/>
+      <c r="I98" s="1002"/>
+      <c r="N98" s="974"/>
+      <c r="R98" s="1002"/>
+      <c r="T98" s="1002"/>
+      <c r="V98" s="991"/>
+    </row>
+    <row r="99" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A99" s="992" t="s">
         <v>683</v>
       </c>
-      <c r="B99" s="994"/>
-      <c r="C99" s="995">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1004"/>
-      <c r="I99" s="1004"/>
-      <c r="N99" s="975"/>
-      <c r="R99" s="1004"/>
-      <c r="T99" s="1004"/>
-      <c r="V99" s="993"/>
-    </row>
-    <row r="100" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A100" s="997" t="s">
+      <c r="B99" s="992"/>
+      <c r="C99" s="993">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1002"/>
+      <c r="I99" s="1002"/>
+      <c r="N99" s="974"/>
+      <c r="R99" s="1002"/>
+      <c r="T99" s="1002"/>
+      <c r="V99" s="991"/>
+    </row>
+    <row r="100" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A100" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B100" s="997"/>
-      <c r="C100" s="1016">
+      <c r="B100" s="995"/>
+      <c r="C100" s="1014">
         <f>-C98-C99+R13+R25</f>
         <v>1100326</v>
       </c>
-      <c r="G100" s="1004"/>
-      <c r="I100" s="1004"/>
-      <c r="N100" s="975"/>
-      <c r="R100" s="1004"/>
-      <c r="T100" s="1004"/>
-      <c r="V100" s="993"/>
-    </row>
-    <row r="101" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A101" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B101" s="1002"/>
-      <c r="C101" s="998">
+      <c r="G100" s="1002"/>
+      <c r="I100" s="1002"/>
+      <c r="N100" s="974"/>
+      <c r="R100" s="1002"/>
+      <c r="T100" s="1002"/>
+      <c r="V100" s="991"/>
+    </row>
+    <row r="101" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A101" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B101" s="1000"/>
+      <c r="C101" s="996">
         <f>SUM(C98:C100)</f>
         <v>-207214</v>
       </c>
-      <c r="G101" s="1004"/>
-      <c r="I101" s="1004"/>
-      <c r="N101" s="975"/>
-      <c r="R101" s="1004"/>
-      <c r="T101" s="1004"/>
-      <c r="V101" s="993"/>
-    </row>
-    <row r="102" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="C102" s="1017">
+      <c r="G101" s="1002"/>
+      <c r="I101" s="1002"/>
+      <c r="N101" s="974"/>
+      <c r="R101" s="1002"/>
+      <c r="T101" s="1002"/>
+      <c r="V101" s="991"/>
+    </row>
+    <row r="102" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="C102" s="1015">
         <f>+C101-R13-R25</f>
         <v>0</v>
       </c>
-      <c r="G102" s="1004"/>
-      <c r="I102" s="1004"/>
-      <c r="N102" s="975"/>
-      <c r="R102" s="1004"/>
-      <c r="T102" s="1004"/>
-      <c r="V102" s="993"/>
-    </row>
-    <row r="103" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A103" s="985" t="s">
-        <v>882</v>
-      </c>
-      <c r="B103" s="985"/>
-      <c r="C103" s="986"/>
-      <c r="G103" s="1004"/>
-      <c r="I103" s="1004"/>
-      <c r="N103" s="975"/>
-      <c r="R103" s="1004"/>
-      <c r="T103" s="1004"/>
-      <c r="V103" s="993"/>
-    </row>
-    <row r="104" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A104" s="994" t="s">
+      <c r="G102" s="1002"/>
+      <c r="I102" s="1002"/>
+      <c r="N102" s="974"/>
+      <c r="R102" s="1002"/>
+      <c r="T102" s="1002"/>
+      <c r="V102" s="991"/>
+    </row>
+    <row r="103" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A103" s="983" t="s">
+        <v>881</v>
+      </c>
+      <c r="B103" s="983"/>
+      <c r="C103" s="984"/>
+      <c r="G103" s="1002"/>
+      <c r="I103" s="1002"/>
+      <c r="N103" s="974"/>
+      <c r="R103" s="1002"/>
+      <c r="T103" s="1002"/>
+      <c r="V103" s="991"/>
+    </row>
+    <row r="104" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A104" s="992" t="s">
         <v>76</v>
       </c>
-      <c r="B104" s="994"/>
-      <c r="C104" s="995">
+      <c r="B104" s="992"/>
+      <c r="C104" s="993">
         <f>'EFE20'!C18</f>
         <v>11250279</v>
       </c>
-      <c r="G104" s="1004"/>
-      <c r="I104" s="1004"/>
-      <c r="N104" s="975"/>
-      <c r="R104" s="1004"/>
-      <c r="T104" s="1004"/>
-      <c r="V104" s="993"/>
-    </row>
-    <row r="105" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A105" s="997" t="s">
+      <c r="G104" s="1002"/>
+      <c r="I104" s="1002"/>
+      <c r="N104" s="974"/>
+      <c r="R104" s="1002"/>
+      <c r="T104" s="1002"/>
+      <c r="V104" s="991"/>
+    </row>
+    <row r="105" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A105" s="995" t="s">
         <v>671</v>
       </c>
-      <c r="B105" s="997"/>
-      <c r="C105" s="998">
+      <c r="B105" s="995"/>
+      <c r="C105" s="996">
         <f>+C104-R24</f>
         <v>0</v>
       </c>
-      <c r="G105" s="1004"/>
-      <c r="I105" s="1004"/>
-      <c r="N105" s="975"/>
-      <c r="R105" s="1004"/>
-      <c r="T105" s="1004"/>
-      <c r="V105" s="993"/>
-    </row>
-    <row r="106" spans="1:22" s="987" customFormat="1" ht="12" customHeight="1">
-      <c r="A106" s="1002" t="s">
-        <v>874</v>
-      </c>
-      <c r="B106" s="1002"/>
-      <c r="C106" s="998">
+      <c r="G105" s="1002"/>
+      <c r="I105" s="1002"/>
+      <c r="N105" s="974"/>
+      <c r="R105" s="1002"/>
+      <c r="T105" s="1002"/>
+      <c r="V105" s="991"/>
+    </row>
+    <row r="106" spans="1:22" s="985" customFormat="1" ht="12" customHeight="1">
+      <c r="A106" s="1000" t="s">
+        <v>873</v>
+      </c>
+      <c r="B106" s="1000"/>
+      <c r="C106" s="996">
         <f>SUM(C104:C105)</f>
         <v>11250279</v>
       </c>
-      <c r="G106" s="1004"/>
-      <c r="I106" s="1004"/>
-      <c r="N106" s="975"/>
-      <c r="R106" s="1004"/>
-      <c r="T106" s="1004"/>
-      <c r="V106" s="993"/>
+      <c r="G106" s="1002"/>
+      <c r="I106" s="1002"/>
+      <c r="N106" s="974"/>
+      <c r="R106" s="1002"/>
+      <c r="T106" s="1002"/>
+      <c r="V106" s="991"/>
     </row>
     <row r="107" spans="1:22" ht="12" customHeight="1">
-      <c r="C107" s="1036">
+      <c r="C107" s="1034">
         <f>+C106-R24</f>
         <v>0</v>
       </c>
@@ -46511,7 +46529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -49024,7 +49042,7 @@
         <v>88500896.519999996</v>
       </c>
       <c r="U67" s="727"/>
-      <c r="V67" s="1074"/>
+      <c r="V67" s="1061"/>
       <c r="W67" s="727"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickTop="1">
@@ -49102,7 +49120,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="733" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B71" s="735">
         <v>6115000</v>
@@ -49183,7 +49201,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="733" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B74" s="735"/>
       <c r="C74" s="735"/>
@@ -49234,7 +49252,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="733" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B76" s="735">
         <v>-21629181</v>
@@ -49287,7 +49305,7 @@
     </row>
     <row r="78" spans="1:23" ht="24">
       <c r="A78" s="733" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B78" s="735"/>
       <c r="C78" s="735"/>
@@ -49339,7 +49357,7 @@
     </row>
     <row r="80" spans="1:23" ht="24">
       <c r="A80" s="733" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B80" s="735"/>
       <c r="C80" s="735"/>
@@ -49355,7 +49373,7 @@
       <c r="M80" s="740"/>
       <c r="N80" s="740"/>
       <c r="O80" s="740"/>
-      <c r="P80" s="1030">
+      <c r="P80" s="1028">
         <f>953966-50758-116791-673128</f>
         <v>113289</v>
       </c>
@@ -49447,7 +49465,7 @@
     </row>
     <row r="84" spans="1:23" ht="15.75" thickBot="1">
       <c r="A84" s="733" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B84" s="742">
         <f>SUM(B67:B83)</f>
@@ -49560,27 +49578,27 @@
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="44" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="44" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="U85" sqref="U85"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.7109375" style="403" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="12.28515625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="11.140625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="10.28515625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="11.28515625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="10" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="11.140625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="10.28515625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="13" width="11.28515625" style="403" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="12.5703125" style="403" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.5703125" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="12.28515625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="11.140625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.28515625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="11.28515625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="10" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="11.140625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="10.28515625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="13" width="11.28515625" style="403" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="12.5703125" style="403" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" style="403" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" style="403" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" style="403" customWidth="1"/>
@@ -49612,7 +49630,7 @@
         <v>243</v>
       </c>
       <c r="D4" s="745" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E4" s="745" t="s">
         <v>280</v>
@@ -49630,7 +49648,7 @@
         <v>433</v>
       </c>
       <c r="J4" s="745" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K4" s="745" t="s">
         <v>245</v>
@@ -51753,7 +51771,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="867" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B57" s="748">
         <v>1859768</v>
@@ -51775,7 +51793,7 @@
       </c>
       <c r="O57" s="748"/>
       <c r="P57" s="748"/>
-      <c r="Q57" s="1075">
+      <c r="Q57" s="1062">
         <f t="shared" ref="Q57:Q63" si="8">+N57+P57-O57</f>
         <v>1859768</v>
       </c>
@@ -51784,7 +51802,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="867" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B58" s="748">
         <v>660505</v>
@@ -51807,14 +51825,14 @@
         <v>0</v>
       </c>
       <c r="P58" s="748"/>
-      <c r="Q58" s="1075">
+      <c r="Q58" s="1062">
         <f t="shared" si="8"/>
         <v>660505</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1">
       <c r="A59" s="869" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B59" s="748"/>
       <c r="D59" s="748"/>
@@ -51835,7 +51853,7 @@
       </c>
       <c r="O59" s="748"/>
       <c r="P59" s="748"/>
-      <c r="Q59" s="1075">
+      <c r="Q59" s="1062">
         <f t="shared" si="8"/>
         <v>-373201</v>
       </c>
@@ -51870,7 +51888,7 @@
       </c>
       <c r="O60" s="748"/>
       <c r="P60" s="748"/>
-      <c r="Q60" s="1075">
+      <c r="Q60" s="1062">
         <f t="shared" si="8"/>
         <v>786417</v>
       </c>
@@ -51903,14 +51921,14 @@
         <f>+'AD ESF'!E285</f>
         <v>104043</v>
       </c>
-      <c r="Q61" s="1075">
+      <c r="Q61" s="1062">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="867" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B62" s="748"/>
       <c r="C62" s="748"/>
@@ -51935,7 +51953,7 @@
         <v>2534340</v>
       </c>
       <c r="P62" s="748"/>
-      <c r="Q62" s="1075">
+      <c r="Q62" s="1062">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -52004,15 +52022,15 @@
         <f>+'Planilla final'!P76+'AD ESF'!E270</f>
         <v>2069001</v>
       </c>
-      <c r="Q63" s="1076">
+      <c r="Q63" s="1063">
         <f t="shared" si="8"/>
         <v>18032461.050000001</v>
       </c>
-      <c r="R63" s="1021"/>
+      <c r="R63" s="1019"/>
     </row>
     <row r="64" spans="1:19" ht="15.75" thickBot="1">
       <c r="A64" s="870" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B64" s="871">
         <f t="shared" ref="B64:Q64" si="9">SUM(B56:B63)</f>
@@ -52078,11 +52096,11 @@
         <f t="shared" si="9"/>
         <v>54413337.409999996</v>
       </c>
-      <c r="R64" s="1021">
+      <c r="R64" s="1019">
         <f>+Q64-'ECP20'!P84</f>
         <v>-2308.6025545746088</v>
       </c>
-      <c r="S64" s="1028"/>
+      <c r="S64" s="1026"/>
     </row>
     <row r="65" spans="1:1024" ht="15.75" thickBot="1">
       <c r="B65" s="761">
@@ -52145,7 +52163,7 @@
         <f>+'Planilla final'!P56-P64</f>
         <v>-2069001</v>
       </c>
-      <c r="Q65" s="1077">
+      <c r="Q65" s="1064">
         <f>+'Planilla final'!Q56+'Planilla final'!Q57-Q64</f>
         <v>-3.8900000005960464</v>
       </c>
@@ -52418,7 +52436,7 @@
     </row>
     <row r="75" spans="1:1024" ht="15.75" thickBot="1">
       <c r="A75" s="870" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B75" s="874"/>
       <c r="C75" s="874"/>
@@ -54015,7 +54033,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="867" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B86" s="748">
         <f>+B58</f>
@@ -54040,7 +54058,7 @@
       </c>
       <c r="O86" s="748"/>
       <c r="P86" s="748"/>
-      <c r="Q86" s="1029">
+      <c r="Q86" s="1027">
         <f t="shared" ref="Q86" si="20">+N86+P86-O86</f>
         <v>660505</v>
       </c>
@@ -54052,7 +54070,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="867" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B87" s="748">
         <v>-21629181</v>
@@ -54074,7 +54092,7 @@
       </c>
       <c r="O87" s="748"/>
       <c r="P87" s="748"/>
-      <c r="Q87" s="1031">
+      <c r="Q87" s="1029">
         <f>+N87+P87-O87</f>
         <v>-21629181</v>
       </c>
@@ -54083,7 +54101,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="876" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B88" s="748"/>
       <c r="C88" s="748"/>
@@ -54106,14 +54124,14 @@
       </c>
       <c r="O88" s="748"/>
       <c r="P88" s="748"/>
-      <c r="Q88" s="1029">
+      <c r="Q88" s="1027">
         <f>+P88+N88-O88</f>
         <v>-373201</v>
       </c>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="876" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B89" s="748">
         <f>+B57</f>
@@ -54136,14 +54154,14 @@
       </c>
       <c r="O89" s="748"/>
       <c r="P89" s="748"/>
-      <c r="Q89" s="1029">
+      <c r="Q89" s="1027">
         <f>+P89+N89-O89</f>
         <v>1859768</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="876" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B90" s="748"/>
       <c r="C90" s="748"/>
@@ -54169,7 +54187,7 @@
         <v>2534340</v>
       </c>
       <c r="P90" s="748"/>
-      <c r="Q90" s="1029">
+      <c r="Q90" s="1027">
         <f>+P90+N90-O90</f>
         <v>0</v>
       </c>
@@ -54204,14 +54222,14 @@
       </c>
       <c r="O91" s="748"/>
       <c r="P91" s="748"/>
-      <c r="Q91" s="1029">
+      <c r="Q91" s="1027">
         <f>+P91+N91-O91</f>
         <v>786417</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1">
       <c r="A92" s="883" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B92" s="882">
         <f>+B63</f>
@@ -54273,14 +54291,14 @@
         <f>+P63</f>
         <v>2069001</v>
       </c>
-      <c r="Q92" s="1029">
+      <c r="Q92" s="1027">
         <f>+P92+N92-O92</f>
         <v>18032461.050000001</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.75" thickBot="1">
       <c r="A93" s="870" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B93" s="871">
         <f t="shared" ref="B93:M93" si="22">SUM(B85:B92)</f>
@@ -54417,7 +54435,7 @@
         <f>+P93-'Planilla final'!P59</f>
         <v>0</v>
       </c>
-      <c r="Q94" s="1021">
+      <c r="Q94" s="1019">
         <f>+Q93-'Planilla final'!Q59</f>
         <v>3.2000000029802322</v>
       </c>
@@ -54433,73 +54451,77 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:AML81"/>
+  <dimension ref="A1:AMM88"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.28515625" style="407" customWidth="1"/>
     <col min="2" max="2" width="9" style="407" customWidth="1"/>
-    <col min="3" max="3" width="14" style="407" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="407" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1" style="414" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="0" style="407" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="1" style="407" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" style="407" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11.5703125" style="407" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.42578125" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="18" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9.7109375" style="407" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="12" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="24" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.140625" style="407" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="11" style="407" customWidth="1"/>
-    <col min="27" max="1026" width="11.42578125" style="407"/>
+    <col min="10" max="10" width="13.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="18" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9.7109375" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="12" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="24" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="1.28515625" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="13.42578125" style="407" bestFit="1" customWidth="1"/>
+    <col min="28" max="1027" width="11.42578125" style="407"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="762" t="s">
         <v>390</v>
       </c>
       <c r="B1" s="762"/>
       <c r="C1" s="762"/>
-      <c r="D1" s="1043"/>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="D1" s="1041"/>
+      <c r="AA1" s="762"/>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="763" t="s">
         <v>758</v>
       </c>
       <c r="B2" s="764"/>
       <c r="C2" s="764"/>
-      <c r="D2" s="1044"/>
+      <c r="D2" s="1042"/>
       <c r="E2" s="765"/>
       <c r="F2" s="765"/>
       <c r="G2" s="765"/>
       <c r="H2" s="765"/>
       <c r="I2" s="765"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="764"/>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="763" t="s">
         <v>456</v>
       </c>
       <c r="B3" s="764"/>
       <c r="C3" s="764"/>
-      <c r="D3" s="1044"/>
+      <c r="D3" s="1042"/>
       <c r="E3" s="765"/>
       <c r="F3" s="765"/>
       <c r="G3" s="765"/>
       <c r="H3" s="765"/>
       <c r="I3" s="765"/>
-    </row>
-    <row r="4" spans="1:26" ht="24" customHeight="1">
+      <c r="AA3" s="764"/>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1">
       <c r="A4" s="765"/>
       <c r="B4" s="766" t="s">
         <v>759</v>
@@ -54528,7 +54550,7 @@
         <v>760</v>
       </c>
       <c r="L4" s="459" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="M4" s="459" t="s">
         <v>280</v>
@@ -54569,8 +54591,12 @@
       <c r="Y4" s="459" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Z4" s="769"/>
+      <c r="AA4" s="767">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" s="763" t="s">
         <v>764</v>
       </c>
@@ -54599,8 +54625,9 @@
       <c r="X5" s="414"/>
       <c r="Y5" s="414"/>
       <c r="Z5" s="414"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="771"/>
+    </row>
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" s="765" t="s">
         <v>765</v>
       </c>
@@ -54690,9 +54717,10 @@
         <f>+V6+X6-W6</f>
         <v>29661783.050000008</v>
       </c>
-      <c r="Z6" s="544"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Z6" s="408"/>
+      <c r="AA6" s="969"/>
+    </row>
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" s="772" t="s">
         <v>766</v>
       </c>
@@ -54723,9 +54751,10 @@
       <c r="W7" s="408"/>
       <c r="X7" s="408"/>
       <c r="Y7" s="408"/>
-      <c r="Z7" s="544"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Z7" s="408"/>
+      <c r="AA7" s="969"/>
+    </row>
+    <row r="8" spans="1:27" hidden="1">
       <c r="A8" s="775" t="s">
         <v>767</v>
       </c>
@@ -54762,7 +54791,7 @@
       <c r="Q8" s="408"/>
       <c r="R8" s="408"/>
       <c r="S8" s="408"/>
-      <c r="T8" s="1055">
+      <c r="T8" s="1053">
         <v>2607</v>
       </c>
       <c r="U8" s="408"/>
@@ -54777,8 +54806,9 @@
         <v>179838</v>
       </c>
       <c r="Z8" s="408"/>
-    </row>
-    <row r="9" spans="1:26" hidden="1">
+      <c r="AA8" s="969"/>
+    </row>
+    <row r="9" spans="1:27" hidden="1">
       <c r="A9" s="775" t="s">
         <v>768</v>
       </c>
@@ -54825,9 +54855,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="544"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Z9" s="408"/>
+      <c r="AA9" s="969"/>
+    </row>
+    <row r="10" spans="1:27" hidden="1">
       <c r="A10" s="775" t="s">
         <v>769</v>
       </c>
@@ -54887,8 +54918,9 @@
         <v>19635020</v>
       </c>
       <c r="Z10" s="408"/>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="969"/>
+    </row>
+    <row r="11" spans="1:27" hidden="1">
       <c r="A11" s="775" t="s">
         <v>770</v>
       </c>
@@ -54937,9 +54969,10 @@
         <f t="shared" si="2"/>
         <v>39210</v>
       </c>
-      <c r="Z11" s="544"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Z11" s="408"/>
+      <c r="AA11" s="969"/>
+    </row>
+    <row r="12" spans="1:27" hidden="1">
       <c r="A12" s="775" t="s">
         <v>771</v>
       </c>
@@ -54984,9 +55017,10 @@
         <f t="shared" si="2"/>
         <v>1808437</v>
       </c>
-      <c r="Z12" s="544"/>
-    </row>
-    <row r="13" spans="1:26" hidden="1">
+      <c r="Z12" s="408"/>
+      <c r="AA12" s="969"/>
+    </row>
+    <row r="13" spans="1:27" hidden="1">
       <c r="A13" s="775" t="s">
         <v>772</v>
       </c>
@@ -55029,9 +55063,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="414"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Z13" s="408"/>
+      <c r="AA13" s="969"/>
+    </row>
+    <row r="14" spans="1:27" hidden="1">
       <c r="A14" s="775" t="s">
         <v>773</v>
       </c>
@@ -55080,9 +55115,10 @@
         <f t="shared" si="2"/>
         <v>2380394</v>
       </c>
-      <c r="Z14" s="414"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Z14" s="408"/>
+      <c r="AA14" s="969"/>
+    </row>
+    <row r="15" spans="1:27" hidden="1">
       <c r="A15" s="775" t="s">
         <v>774</v>
       </c>
@@ -55094,7 +55130,7 @@
         <v>468128</v>
       </c>
       <c r="D15" s="773"/>
-      <c r="E15" s="1048">
+      <c r="E15" s="1046">
         <v>-268373.46999999881</v>
       </c>
       <c r="F15" s="475"/>
@@ -55132,9 +55168,10 @@
         <f>+V15+X15</f>
         <v>468128</v>
       </c>
-      <c r="Z15" s="414"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Z15" s="408"/>
+      <c r="AA15" s="969"/>
+    </row>
+    <row r="16" spans="1:27" hidden="1">
       <c r="A16" s="775" t="s">
         <v>775</v>
       </c>
@@ -55187,16 +55224,17 @@
         <f>+V16+W16-X16</f>
         <v>4837640</v>
       </c>
-      <c r="Z16" s="544"/>
-    </row>
-    <row r="17" spans="1:1026">
+      <c r="Z16" s="408"/>
+      <c r="AA16" s="969"/>
+    </row>
+    <row r="17" spans="1:1027" hidden="1">
       <c r="A17" s="775" t="s">
         <v>776</v>
       </c>
       <c r="B17" s="773">
         <v>25</v>
       </c>
-      <c r="C17" s="1052">
+      <c r="C17" s="1050">
         <f>+Y17+'ESF20'!C56</f>
         <v>-893979</v>
       </c>
@@ -55241,14 +55279,15 @@
         <f>+V17+W17-X17</f>
         <v>649755</v>
       </c>
-      <c r="Z17" s="414"/>
-    </row>
-    <row r="18" spans="1:1026">
+      <c r="Z17" s="408"/>
+      <c r="AA17" s="1050"/>
+    </row>
+    <row r="18" spans="1:1027" hidden="1">
       <c r="A18" s="775" t="s">
         <v>777</v>
       </c>
       <c r="B18" s="773"/>
-      <c r="C18" s="1042">
+      <c r="C18" s="1040">
         <f>+'ESF20'!R24</f>
         <v>11250279</v>
       </c>
@@ -55266,7 +55305,7 @@
       <c r="I18" s="475">
         <v>5177025</v>
       </c>
-      <c r="J18" s="1032"/>
+      <c r="J18" s="1030"/>
       <c r="K18" s="408"/>
       <c r="L18" s="408"/>
       <c r="M18" s="408"/>
@@ -55288,9 +55327,10 @@
         <f>+V18+W18-X18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="414"/>
-    </row>
-    <row r="19" spans="1:1026">
+      <c r="Z18" s="408"/>
+      <c r="AA18" s="1040"/>
+    </row>
+    <row r="19" spans="1:1027" hidden="1">
       <c r="A19" s="775" t="s">
         <v>778</v>
       </c>
@@ -55339,14 +55379,15 @@
         <f>+V19+W19-X19</f>
         <v>2260361</v>
       </c>
-      <c r="Z19" s="414"/>
-    </row>
-    <row r="20" spans="1:1026">
-      <c r="A20" s="1057" t="s">
-        <v>843</v>
-      </c>
-      <c r="B20" s="1058"/>
-      <c r="C20" s="1042">
+      <c r="Z19" s="408"/>
+      <c r="AA19" s="969"/>
+    </row>
+    <row r="20" spans="1:1027" hidden="1">
+      <c r="A20" s="1055" t="s">
+        <v>842</v>
+      </c>
+      <c r="B20" s="1056"/>
+      <c r="C20" s="1040">
         <f>+'ESF20'!Q39</f>
         <v>-21629181</v>
       </c>
@@ -55386,9 +55427,10 @@
         <f>+V20+W20-X20</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="414"/>
-    </row>
-    <row r="21" spans="1:1026" s="975" customFormat="1">
+      <c r="Z20" s="408"/>
+      <c r="AA20" s="1040"/>
+    </row>
+    <row r="21" spans="1:1027" s="974" customFormat="1" hidden="1">
       <c r="A21" s="970"/>
       <c r="B21" s="971"/>
       <c r="C21" s="972">
@@ -55476,8 +55518,8 @@
         <f t="shared" si="4"/>
         <v>61920566.050000012</v>
       </c>
-      <c r="Z21" s="974"/>
-      <c r="AA21" s="939"/>
+      <c r="Z21" s="973"/>
+      <c r="AA21" s="972"/>
       <c r="AB21" s="939"/>
       <c r="AC21" s="939"/>
       <c r="AD21" s="939"/>
@@ -56477,8 +56519,9 @@
       <c r="AMJ21" s="939"/>
       <c r="AMK21" s="939"/>
       <c r="AML21" s="939"/>
-    </row>
-    <row r="22" spans="1:1026">
+      <c r="AMM21" s="939"/>
+    </row>
+    <row r="22" spans="1:1027" hidden="1">
       <c r="A22" s="772" t="s">
         <v>779</v>
       </c>
@@ -56507,13 +56550,14 @@
       <c r="X22" s="414"/>
       <c r="Y22" s="414"/>
       <c r="Z22" s="414"/>
-    </row>
-    <row r="23" spans="1:1026">
+      <c r="AA22" s="773"/>
+    </row>
+    <row r="23" spans="1:1027" hidden="1">
       <c r="A23" s="775" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="773"/>
-      <c r="C23" s="1038">
+      <c r="C23" s="1036">
         <f>+'ESF20'!C84</f>
         <v>-4903357.74</v>
       </c>
@@ -56549,15 +56593,16 @@
       <c r="X23" s="414"/>
       <c r="Y23" s="414"/>
       <c r="Z23" s="414"/>
-    </row>
-    <row r="24" spans="1:1026">
+      <c r="AA23" s="1036"/>
+    </row>
+    <row r="24" spans="1:1027" hidden="1">
       <c r="A24" s="775" t="s">
         <v>126</v>
       </c>
       <c r="B24" s="773"/>
-      <c r="C24" s="1038">
+      <c r="C24" s="1036">
         <f>+'ESF20'!D19+'ESF20'!D9</f>
-        <v>-3574321.1499999985</v>
+        <v>-3342632.1499999985</v>
       </c>
       <c r="D24" s="773"/>
       <c r="E24" s="774">
@@ -56591,13 +56636,14 @@
       <c r="X24" s="414"/>
       <c r="Y24" s="414"/>
       <c r="Z24" s="414"/>
-    </row>
-    <row r="25" spans="1:1026">
+      <c r="AA24" s="1036"/>
+    </row>
+    <row r="25" spans="1:1027" hidden="1">
       <c r="A25" s="775" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="773"/>
-      <c r="C25" s="1039">
+      <c r="C25" s="1037">
         <f>+'ESF20'!D11+'ESF20'!D18</f>
         <v>6930447</v>
       </c>
@@ -56632,13 +56678,14 @@
       <c r="X25" s="414"/>
       <c r="Y25" s="414"/>
       <c r="Z25" s="414"/>
-    </row>
-    <row r="26" spans="1:1026">
+      <c r="AA25" s="1037"/>
+    </row>
+    <row r="26" spans="1:1027" hidden="1">
       <c r="A26" s="775" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="773"/>
-      <c r="C26" s="1038">
+      <c r="C26" s="1036">
         <f>+'ESF20'!D10</f>
         <v>-5308932.76</v>
       </c>
@@ -56674,13 +56721,14 @@
       <c r="X26" s="414"/>
       <c r="Y26" s="414"/>
       <c r="Z26" s="414"/>
-    </row>
-    <row r="27" spans="1:1026">
+      <c r="AA26" s="1036"/>
+    </row>
+    <row r="27" spans="1:1027" hidden="1">
       <c r="A27" s="775" t="s">
         <v>45</v>
       </c>
       <c r="B27" s="773"/>
-      <c r="C27" s="1038">
+      <c r="C27" s="1036">
         <f>+'ESF20'!D12</f>
         <v>-1008270</v>
       </c>
@@ -56716,13 +56764,14 @@
       <c r="X27" s="414"/>
       <c r="Y27" s="414"/>
       <c r="Z27" s="414"/>
-    </row>
-    <row r="28" spans="1:1026">
+      <c r="AA27" s="1036"/>
+    </row>
+    <row r="28" spans="1:1027" hidden="1">
       <c r="A28" s="775" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="773"/>
-      <c r="C28" s="1040">
+      <c r="C28" s="1038">
         <f>+'ESF20'!D13</f>
         <v>462096.62000000104</v>
       </c>
@@ -56758,13 +56807,14 @@
       <c r="X28" s="414"/>
       <c r="Y28" s="414"/>
       <c r="Z28" s="414"/>
-    </row>
-    <row r="29" spans="1:1026" hidden="1">
+      <c r="AA28" s="1038"/>
+    </row>
+    <row r="29" spans="1:1027" hidden="1">
       <c r="A29" s="775" t="s">
         <v>518</v>
       </c>
       <c r="B29" s="773"/>
-      <c r="C29" s="1041"/>
+      <c r="C29" s="1039"/>
       <c r="D29" s="773"/>
       <c r="E29" s="774">
         <v>0</v>
@@ -56796,13 +56846,14 @@
       <c r="X29" s="414"/>
       <c r="Y29" s="414"/>
       <c r="Z29" s="414"/>
-    </row>
-    <row r="30" spans="1:1026">
+      <c r="AA29" s="1039"/>
+    </row>
+    <row r="30" spans="1:1027" hidden="1">
       <c r="A30" s="775" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="773"/>
-      <c r="C30" s="1038">
+      <c r="C30" s="1036">
         <f>+'ESF20'!D14+'ESF20'!D25</f>
         <v>-2149319.1799999997</v>
       </c>
@@ -56839,13 +56890,14 @@
       <c r="X30" s="414"/>
       <c r="Y30" s="414"/>
       <c r="Z30" s="414"/>
-    </row>
-    <row r="31" spans="1:1026">
+      <c r="AA30" s="1036"/>
+    </row>
+    <row r="31" spans="1:1027" hidden="1">
       <c r="A31" s="775" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="773"/>
-      <c r="C31" s="1039">
+      <c r="C31" s="1037">
         <f>+'ESF20'!R8</f>
         <v>3714995</v>
       </c>
@@ -56882,13 +56934,14 @@
       <c r="X31" s="414"/>
       <c r="Y31" s="414"/>
       <c r="Z31" s="414"/>
-    </row>
-    <row r="32" spans="1:1026">
+      <c r="AA31" s="1037"/>
+    </row>
+    <row r="32" spans="1:1027" hidden="1">
       <c r="A32" s="775" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="773"/>
-      <c r="C32" s="1038">
+      <c r="C32" s="1036">
         <f>+'ESF20'!R9+'ESF20'!R21</f>
         <v>-915527.6799999997</v>
       </c>
@@ -56925,13 +56978,14 @@
       <c r="X32" s="414"/>
       <c r="Y32" s="414"/>
       <c r="Z32" s="414"/>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" s="1036"/>
+    </row>
+    <row r="33" spans="1:27" hidden="1">
       <c r="A33" s="775" t="s">
         <v>780</v>
       </c>
       <c r="B33" s="773"/>
-      <c r="C33" s="1038">
+      <c r="C33" s="1036">
         <f>+'ESF20'!C73</f>
         <v>978507</v>
       </c>
@@ -56969,15 +57023,16 @@
       <c r="X33" s="414"/>
       <c r="Y33" s="414"/>
       <c r="Z33" s="414"/>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" s="1036"/>
+    </row>
+    <row r="34" spans="1:27" hidden="1">
       <c r="A34" s="775" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="773"/>
-      <c r="C34" s="1038">
+      <c r="C34" s="1036">
         <f>+'ESF20'!R11+'ESF20'!R22</f>
-        <v>-10632407.469999999</v>
+        <v>-10864096.469999999</v>
       </c>
       <c r="D34" s="773"/>
       <c r="E34" s="774">
@@ -57012,13 +57067,14 @@
       <c r="X34" s="414"/>
       <c r="Y34" s="414"/>
       <c r="Z34" s="414"/>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" s="1036"/>
+    </row>
+    <row r="35" spans="1:27" hidden="1">
       <c r="A35" s="775" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="773"/>
-      <c r="C35" s="1037">
+      <c r="C35" s="1035">
         <f>+'ESF20'!C105</f>
         <v>0</v>
       </c>
@@ -57053,13 +57109,14 @@
       <c r="X35" s="414"/>
       <c r="Y35" s="414"/>
       <c r="Z35" s="414"/>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" s="1035"/>
+    </row>
+    <row r="36" spans="1:27" hidden="1">
       <c r="A36" s="775" t="s">
         <v>520</v>
       </c>
       <c r="B36" s="773"/>
-      <c r="C36" s="1038">
+      <c r="C36" s="1036">
         <f>+'ESF20'!C100</f>
         <v>1100326</v>
       </c>
@@ -57088,13 +57145,14 @@
       <c r="X36" s="414"/>
       <c r="Y36" s="414"/>
       <c r="Z36" s="414"/>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" s="1036"/>
+    </row>
+    <row r="37" spans="1:27" hidden="1">
       <c r="A37" s="775" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B37" s="773"/>
-      <c r="C37" s="1038">
+      <c r="C37" s="1036">
         <f>+'ESF20'!R12</f>
         <v>-3097550</v>
       </c>
@@ -57123,13 +57181,14 @@
       <c r="X37" s="414"/>
       <c r="Y37" s="414"/>
       <c r="Z37" s="414"/>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" s="1036"/>
+    </row>
+    <row r="38" spans="1:27" hidden="1">
       <c r="A38" s="775" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="773"/>
-      <c r="C38" s="1037">
+      <c r="C38" s="1035">
         <f>+'ESF20'!C79</f>
         <v>1684199.08</v>
       </c>
@@ -57165,14 +57224,15 @@
       <c r="W38" s="414"/>
       <c r="X38" s="414"/>
       <c r="Y38" s="414"/>
-      <c r="Z38" s="544"/>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="Z38" s="414"/>
+      <c r="AA38" s="1035"/>
+    </row>
+    <row r="39" spans="1:27" hidden="1">
       <c r="A39" s="775" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B39" s="773"/>
-      <c r="C39" s="1038">
+      <c r="C39" s="1036">
         <f>+'ESF20'!R5</f>
         <v>-74044</v>
       </c>
@@ -57209,8 +57269,9 @@
       <c r="X39" s="414"/>
       <c r="Y39" s="414"/>
       <c r="Z39" s="414"/>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" s="1036"/>
+    </row>
+    <row r="40" spans="1:27" hidden="1">
       <c r="A40" s="772" t="s">
         <v>781</v>
       </c>
@@ -57256,13 +57317,14 @@
       <c r="X40" s="414"/>
       <c r="Y40" s="414"/>
       <c r="Z40" s="414"/>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" s="777"/>
+    </row>
+    <row r="41" spans="1:27" hidden="1">
       <c r="A41" s="775" t="s">
         <v>782</v>
       </c>
       <c r="B41" s="773"/>
-      <c r="C41" s="1054">
+      <c r="C41" s="1052">
         <f>+Y41</f>
         <v>-4275291</v>
       </c>
@@ -57293,7 +57355,7 @@
       <c r="P41" s="408"/>
       <c r="Q41" s="408"/>
       <c r="R41" s="408"/>
-      <c r="S41" s="1056">
+      <c r="S41" s="1054">
         <v>-268323</v>
       </c>
       <c r="T41" s="408">
@@ -57310,14 +57372,15 @@
         <f>+V41+W41-X41</f>
         <v>-4275291</v>
       </c>
-      <c r="Z41" s="414"/>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="Z41" s="408"/>
+      <c r="AA41" s="1052"/>
+    </row>
+    <row r="42" spans="1:27" hidden="1">
       <c r="A42" s="775" t="s">
         <v>783</v>
       </c>
       <c r="B42" s="773"/>
-      <c r="C42" s="1052">
+      <c r="C42" s="1050">
         <f t="shared" ref="C42" si="6">+Y42</f>
         <v>-4453394</v>
       </c>
@@ -57346,10 +57409,10 @@
       <c r="P42" s="414"/>
       <c r="Q42" s="414"/>
       <c r="R42" s="414"/>
-      <c r="S42" s="1037">
+      <c r="S42" s="1035">
         <v>-231683</v>
       </c>
-      <c r="T42" s="1037">
+      <c r="T42" s="1035">
         <v>-245237</v>
       </c>
       <c r="U42" s="414"/>
@@ -57363,16 +57426,17 @@
         <f>+V42+W42-X42</f>
         <v>-4453394</v>
       </c>
-      <c r="Z42" s="414"/>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="Z42" s="408"/>
+      <c r="AA42" s="1050"/>
+    </row>
+    <row r="43" spans="1:27" hidden="1">
       <c r="A43" s="775" t="s">
         <v>784</v>
       </c>
       <c r="B43" s="773">
         <v>25</v>
       </c>
-      <c r="C43" s="1052">
+      <c r="C43" s="1050">
         <f>+Y43</f>
         <v>-17000</v>
       </c>
@@ -57414,9 +57478,10 @@
         <f>+V43+W43-X43</f>
         <v>-17000</v>
       </c>
-      <c r="Z43" s="414"/>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="Z43" s="408"/>
+      <c r="AA43" s="1050"/>
+    </row>
+    <row r="44" spans="1:27" hidden="1">
       <c r="A44" s="778" t="s">
         <v>785</v>
       </c>
@@ -57462,9 +57527,12 @@
       <c r="X44" s="414"/>
       <c r="Y44" s="414"/>
       <c r="Z44" s="414"/>
-    </row>
-    <row r="45" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A45" s="765"/>
+      <c r="AA44" s="780"/>
+    </row>
+    <row r="45" spans="1:27" ht="15" customHeight="1">
+      <c r="A45" s="763" t="s">
+        <v>896</v>
+      </c>
       <c r="B45" s="771"/>
       <c r="C45" s="771"/>
       <c r="D45" s="771"/>
@@ -57490,20 +57558,26 @@
       <c r="X45" s="414"/>
       <c r="Y45" s="414"/>
       <c r="Z45" s="414"/>
-    </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="763" t="s">
-        <v>786</v>
+      <c r="AA45" s="771"/>
+    </row>
+    <row r="46" spans="1:27" ht="15" customHeight="1">
+      <c r="A46" s="765" t="s">
+        <v>897</v>
       </c>
       <c r="B46" s="771"/>
-      <c r="C46" s="771"/>
+      <c r="C46" s="1035">
+        <f>+'ESF20'!F8+'ESF20'!F9+'ESF20'!F11+'ESF20'!F12+'ERI20'!D3-'ESF20'!C8-'ESF20'!C9-'ESF20'!C11-'ESF20'!C12</f>
+        <v>210680433.00999996</v>
+      </c>
       <c r="D46" s="771"/>
-      <c r="E46" s="783"/>
-      <c r="F46" s="783"/>
-      <c r="G46" s="783"/>
+      <c r="E46" s="408"/>
+      <c r="F46" s="408"/>
+      <c r="G46" s="408"/>
       <c r="H46" s="408"/>
       <c r="I46" s="408"/>
-      <c r="J46" s="414"/>
+      <c r="J46" s="1035">
+        <v>180367119</v>
+      </c>
       <c r="K46" s="414"/>
       <c r="L46" s="414"/>
       <c r="M46" s="414"/>
@@ -57520,34 +57594,26 @@
       <c r="X46" s="414"/>
       <c r="Y46" s="414"/>
       <c r="Z46" s="414"/>
-    </row>
-    <row r="47" spans="1:26">
-      <c r="A47" s="775" t="s">
-        <v>787</v>
-      </c>
-      <c r="B47" s="773">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1039">
-        <f>+'ESF20'!D7</f>
-        <v>3350139</v>
-      </c>
-      <c r="D47" s="773"/>
-      <c r="E47" s="781">
-        <v>-965345</v>
-      </c>
-      <c r="F47" s="781"/>
-      <c r="G47" s="781">
-        <f>+'ESF20'!J7</f>
-        <v>251011</v>
-      </c>
-      <c r="H47" s="784">
-        <v>-593863</v>
-      </c>
-      <c r="I47" s="781">
-        <v>-175815</v>
-      </c>
-      <c r="J47" s="414"/>
+      <c r="AA46" s="1035"/>
+    </row>
+    <row r="47" spans="1:27" ht="15" customHeight="1">
+      <c r="A47" s="765" t="s">
+        <v>898</v>
+      </c>
+      <c r="B47" s="771"/>
+      <c r="C47" s="1035">
+        <f>20091886-204015134</f>
+        <v>-183923248</v>
+      </c>
+      <c r="D47" s="771"/>
+      <c r="E47" s="408"/>
+      <c r="F47" s="408"/>
+      <c r="G47" s="408"/>
+      <c r="H47" s="408"/>
+      <c r="I47" s="408"/>
+      <c r="J47" s="1035">
+        <v>-164103721</v>
+      </c>
       <c r="K47" s="414"/>
       <c r="L47" s="414"/>
       <c r="M47" s="414"/>
@@ -57564,32 +57630,26 @@
       <c r="X47" s="414"/>
       <c r="Y47" s="414"/>
       <c r="Z47" s="414"/>
-    </row>
-    <row r="48" spans="1:26">
-      <c r="A48" s="775" t="s">
-        <v>788</v>
-      </c>
-      <c r="B48" s="773"/>
-      <c r="C48" s="1038">
-        <f>+'ESF20'!D6</f>
-        <v>-3107992</v>
-      </c>
-      <c r="D48" s="773"/>
-      <c r="E48" s="781">
-        <v>60892</v>
-      </c>
-      <c r="F48" s="781"/>
-      <c r="G48" s="781">
-        <f>+'ESF20'!J6</f>
-        <v>29809</v>
-      </c>
-      <c r="H48" s="784">
-        <v>5828169</v>
-      </c>
-      <c r="I48" s="781">
-        <v>-1655856</v>
-      </c>
-      <c r="J48" s="414"/>
+      <c r="AA47" s="1035"/>
+    </row>
+    <row r="48" spans="1:27" ht="15" customHeight="1">
+      <c r="A48" s="765" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="771"/>
+      <c r="C48" s="1035">
+        <f>+'ESF20'!C72</f>
+        <v>-4275291</v>
+      </c>
+      <c r="D48" s="771"/>
+      <c r="E48" s="408"/>
+      <c r="F48" s="408"/>
+      <c r="G48" s="408"/>
+      <c r="H48" s="408"/>
+      <c r="I48" s="408"/>
+      <c r="J48" s="1035">
+        <v>-3680975</v>
+      </c>
       <c r="K48" s="414"/>
       <c r="L48" s="414"/>
       <c r="M48" s="414"/>
@@ -57606,31 +57666,26 @@
       <c r="X48" s="414"/>
       <c r="Y48" s="414"/>
       <c r="Z48" s="414"/>
-    </row>
-    <row r="49" spans="1:26">
-      <c r="A49" s="775" t="s">
-        <v>789</v>
-      </c>
-      <c r="B49" s="773"/>
-      <c r="C49" s="1039">
-        <f>+'ESF20'!D23</f>
-        <v>1673584</v>
-      </c>
-      <c r="D49" s="773"/>
-      <c r="E49" s="785">
-        <v>-251355</v>
-      </c>
-      <c r="F49" s="785"/>
-      <c r="G49" s="785">
-        <v>0</v>
-      </c>
-      <c r="H49" s="432">
-        <v>0</v>
-      </c>
-      <c r="I49" s="781">
-        <v>-125000</v>
-      </c>
-      <c r="J49" s="414"/>
+      <c r="AA48" s="1035"/>
+    </row>
+    <row r="49" spans="1:27" ht="15" customHeight="1">
+      <c r="A49" s="765" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="771"/>
+      <c r="C49" s="1035">
+        <f>+J49</f>
+        <v>-501019</v>
+      </c>
+      <c r="D49" s="771"/>
+      <c r="E49" s="408"/>
+      <c r="F49" s="408"/>
+      <c r="G49" s="408"/>
+      <c r="H49" s="408"/>
+      <c r="I49" s="408"/>
+      <c r="J49" s="1035">
+        <v>-501019</v>
+      </c>
       <c r="K49" s="414"/>
       <c r="L49" s="414"/>
       <c r="M49" s="414"/>
@@ -57647,23 +57702,26 @@
       <c r="X49" s="414"/>
       <c r="Y49" s="414"/>
       <c r="Z49" s="414"/>
-    </row>
-    <row r="50" spans="1:26">
-      <c r="A50" s="775" t="s">
-        <v>890</v>
-      </c>
-      <c r="B50" s="773"/>
-      <c r="C50" s="1038">
-        <f>+'ESF20'!C39</f>
-        <v>-937756.5299999998</v>
-      </c>
-      <c r="D50" s="773"/>
-      <c r="E50" s="785"/>
-      <c r="F50" s="785"/>
-      <c r="G50" s="785"/>
-      <c r="H50" s="432"/>
-      <c r="I50" s="781"/>
-      <c r="J50" s="414"/>
+      <c r="AA49" s="1035"/>
+    </row>
+    <row r="50" spans="1:27" ht="15" customHeight="1">
+      <c r="A50" s="765" t="s">
+        <v>899</v>
+      </c>
+      <c r="B50" s="771"/>
+      <c r="C50" s="1035">
+        <f>+J50</f>
+        <v>-1888989</v>
+      </c>
+      <c r="D50" s="771"/>
+      <c r="E50" s="408"/>
+      <c r="F50" s="408"/>
+      <c r="G50" s="408"/>
+      <c r="H50" s="408"/>
+      <c r="I50" s="408"/>
+      <c r="J50" s="1035">
+        <v>-1888989</v>
+      </c>
       <c r="K50" s="414"/>
       <c r="L50" s="414"/>
       <c r="M50" s="414"/>
@@ -57680,29 +57738,27 @@
       <c r="X50" s="414"/>
       <c r="Y50" s="414"/>
       <c r="Z50" s="414"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="775" t="s">
-        <v>889</v>
-      </c>
-      <c r="B51" s="773"/>
-      <c r="C51" s="1037">
-        <f>+'ESF20'!C67</f>
-        <v>-439321.65</v>
-      </c>
-      <c r="D51" s="773"/>
-      <c r="E51" s="785"/>
-      <c r="F51" s="785"/>
-      <c r="G51" s="785">
-        <v>0</v>
-      </c>
-      <c r="H51" s="781">
-        <v>119269</v>
-      </c>
-      <c r="I51" s="781">
-        <v>-1494761</v>
-      </c>
-      <c r="J51" s="414"/>
+      <c r="AA50" s="1035"/>
+    </row>
+    <row r="51" spans="1:27" ht="15" customHeight="1">
+      <c r="A51" s="765" t="s">
+        <v>900</v>
+      </c>
+      <c r="B51" s="771"/>
+      <c r="C51" s="1078">
+        <f>SUM(C46:C50)</f>
+        <v>20091886.009999961</v>
+      </c>
+      <c r="D51" s="771"/>
+      <c r="E51" s="408"/>
+      <c r="F51" s="408"/>
+      <c r="G51" s="408"/>
+      <c r="H51" s="408"/>
+      <c r="I51" s="408"/>
+      <c r="J51" s="1035">
+        <f>SUM(J46:J50)</f>
+        <v>10192415</v>
+      </c>
       <c r="K51" s="414"/>
       <c r="L51" s="414"/>
       <c r="M51" s="414"/>
@@ -57719,33 +57775,18 @@
       <c r="X51" s="414"/>
       <c r="Y51" s="414"/>
       <c r="Z51" s="414"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="775" t="s">
-        <v>790</v>
-      </c>
-      <c r="B52" s="773">
-        <v>12</v>
-      </c>
-      <c r="C52" s="1038">
-        <f>+'ESF20'!C44</f>
-        <v>-12667045.439999998</v>
-      </c>
-      <c r="D52" s="773"/>
-      <c r="E52" s="784">
-        <v>-3842548</v>
-      </c>
-      <c r="F52" s="784"/>
-      <c r="G52" s="784">
-        <v>-12283237</v>
-      </c>
-      <c r="H52" s="781">
-        <v>-15283415</v>
-      </c>
-      <c r="I52" s="781">
-        <f>-19113929+437588</f>
-        <v>-18676341</v>
-      </c>
+      <c r="AA51" s="1078"/>
+    </row>
+    <row r="52" spans="1:27" ht="7.5" customHeight="1">
+      <c r="A52" s="765"/>
+      <c r="B52" s="771"/>
+      <c r="C52" s="1077"/>
+      <c r="D52" s="771"/>
+      <c r="E52" s="408"/>
+      <c r="F52" s="408"/>
+      <c r="G52" s="408"/>
+      <c r="H52" s="408"/>
+      <c r="I52" s="408"/>
       <c r="J52" s="414"/>
       <c r="K52" s="414"/>
       <c r="L52" s="414"/>
@@ -57763,30 +57804,20 @@
       <c r="X52" s="414"/>
       <c r="Y52" s="414"/>
       <c r="Z52" s="414"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="775" t="s">
-        <v>888</v>
-      </c>
-      <c r="B53" s="773"/>
-      <c r="C53" s="1037">
-        <f>+'ESF20'!C50</f>
-        <v>-1610904</v>
-      </c>
-      <c r="D53" s="773"/>
-      <c r="E53" s="785">
-        <v>0</v>
-      </c>
-      <c r="F53" s="785"/>
-      <c r="G53" s="785">
-        <v>0</v>
-      </c>
-      <c r="H53" s="432">
-        <v>0</v>
-      </c>
-      <c r="I53" s="781">
-        <v>-49200</v>
-      </c>
+      <c r="AA52" s="1077"/>
+    </row>
+    <row r="53" spans="1:27">
+      <c r="A53" s="763" t="s">
+        <v>786</v>
+      </c>
+      <c r="B53" s="771"/>
+      <c r="C53" s="771"/>
+      <c r="D53" s="771"/>
+      <c r="E53" s="783"/>
+      <c r="F53" s="783"/>
+      <c r="G53" s="783"/>
+      <c r="H53" s="408"/>
+      <c r="I53" s="408"/>
       <c r="J53" s="414"/>
       <c r="K53" s="414"/>
       <c r="L53" s="414"/>
@@ -57804,32 +57835,33 @@
       <c r="X53" s="414"/>
       <c r="Y53" s="414"/>
       <c r="Z53" s="414"/>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" s="771"/>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="775" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B54" s="773">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1038">
-        <f>+'ESF20'!C62</f>
-        <v>-1744851</v>
+        <v>7</v>
+      </c>
+      <c r="C54" s="1037">
+        <f>+'ESF20'!D7</f>
+        <v>3350139</v>
       </c>
       <c r="D54" s="773"/>
-      <c r="E54" s="784">
-        <v>-909058</v>
-      </c>
-      <c r="F54" s="784"/>
-      <c r="G54" s="784">
-        <v>-4862718</v>
-      </c>
-      <c r="H54" s="781">
-        <f>-(1121449+75987)</f>
-        <v>-1197436</v>
+      <c r="E54" s="781">
+        <v>-965345</v>
+      </c>
+      <c r="F54" s="781"/>
+      <c r="G54" s="781">
+        <f>+'ESF20'!J7</f>
+        <v>251011</v>
+      </c>
+      <c r="H54" s="784">
+        <v>-593863</v>
       </c>
       <c r="I54" s="781">
-        <v>-2492677</v>
+        <v>-175815</v>
       </c>
       <c r="J54" s="414"/>
       <c r="K54" s="414"/>
@@ -57848,35 +57880,31 @@
       <c r="X54" s="414"/>
       <c r="Y54" s="414"/>
       <c r="Z54" s="414"/>
-    </row>
-    <row r="55" spans="1:26">
-      <c r="A55" s="778" t="s">
-        <v>792</v>
+      <c r="AA54" s="1037"/>
+    </row>
+    <row r="55" spans="1:27">
+      <c r="A55" s="775" t="s">
+        <v>788</v>
       </c>
       <c r="B55" s="773"/>
-      <c r="C55" s="780">
-        <f t="shared" ref="C55:D55" si="8">+SUM(C47:C54)</f>
-        <v>-15484147.619999997</v>
-      </c>
-      <c r="D55" s="774">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="786">
-        <v>-5907414</v>
-      </c>
-      <c r="F55" s="774"/>
-      <c r="G55" s="786">
-        <f>+SUM(G47:G54)</f>
-        <v>-16865135</v>
-      </c>
-      <c r="H55" s="782">
-        <f>+SUM(H47:H54)</f>
-        <v>-11127276</v>
+      <c r="C55" s="1036">
+        <f>+'ESF20'!D6</f>
+        <v>-3107992</v>
+      </c>
+      <c r="D55" s="773"/>
+      <c r="E55" s="781">
+        <v>60892</v>
+      </c>
+      <c r="F55" s="781"/>
+      <c r="G55" s="781">
+        <f>+'ESF20'!J6</f>
+        <v>29809</v>
+      </c>
+      <c r="H55" s="784">
+        <v>5828169</v>
       </c>
       <c r="I55" s="781">
-        <f>+SUM(I47:I54)</f>
-        <v>-24669650</v>
+        <v>-1655856</v>
       </c>
       <c r="J55" s="414"/>
       <c r="K55" s="414"/>
@@ -57895,17 +57923,31 @@
       <c r="X55" s="414"/>
       <c r="Y55" s="414"/>
       <c r="Z55" s="414"/>
-    </row>
-    <row r="56" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A56" s="414"/>
-      <c r="B56" s="622"/>
-      <c r="C56" s="622"/>
-      <c r="D56" s="622"/>
-      <c r="E56" s="408"/>
-      <c r="F56" s="408"/>
-      <c r="G56" s="408"/>
-      <c r="H56" s="408"/>
-      <c r="I56" s="408"/>
+      <c r="AA55" s="1036"/>
+    </row>
+    <row r="56" spans="1:27">
+      <c r="A56" s="775" t="s">
+        <v>789</v>
+      </c>
+      <c r="B56" s="773"/>
+      <c r="C56" s="1037">
+        <f>+'ESF20'!D23</f>
+        <v>1673584</v>
+      </c>
+      <c r="D56" s="773"/>
+      <c r="E56" s="785">
+        <v>-251355</v>
+      </c>
+      <c r="F56" s="785"/>
+      <c r="G56" s="785">
+        <v>0</v>
+      </c>
+      <c r="H56" s="432">
+        <v>0</v>
+      </c>
+      <c r="I56" s="781">
+        <v>-125000</v>
+      </c>
       <c r="J56" s="414"/>
       <c r="K56" s="414"/>
       <c r="L56" s="414"/>
@@ -57923,19 +57965,23 @@
       <c r="X56" s="414"/>
       <c r="Y56" s="414"/>
       <c r="Z56" s="414"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="763" t="s">
-        <v>793</v>
-      </c>
-      <c r="B57" s="771"/>
-      <c r="C57" s="771"/>
-      <c r="D57" s="771"/>
-      <c r="E57" s="783"/>
-      <c r="F57" s="783"/>
-      <c r="G57" s="783"/>
-      <c r="H57" s="408"/>
-      <c r="I57" s="408"/>
+      <c r="AA56" s="1037"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" s="775" t="s">
+        <v>889</v>
+      </c>
+      <c r="B57" s="773"/>
+      <c r="C57" s="1036">
+        <f>+'ESF20'!C39</f>
+        <v>-937756.5299999998</v>
+      </c>
+      <c r="D57" s="773"/>
+      <c r="E57" s="785"/>
+      <c r="F57" s="785"/>
+      <c r="G57" s="785"/>
+      <c r="H57" s="432"/>
+      <c r="I57" s="781"/>
       <c r="J57" s="414"/>
       <c r="K57" s="414"/>
       <c r="L57" s="414"/>
@@ -57953,27 +57999,30 @@
       <c r="X57" s="414"/>
       <c r="Y57" s="414"/>
       <c r="Z57" s="414"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="765" t="s">
-        <v>794</v>
-      </c>
-      <c r="B58" s="771"/>
-      <c r="C58" s="1052">
-        <f t="shared" ref="C58" si="9">+Y58</f>
-        <v>-1307540</v>
-      </c>
-      <c r="D58" s="771"/>
-      <c r="E58" s="408">
-        <v>-1307540</v>
-      </c>
-      <c r="F58" s="408"/>
-      <c r="G58" s="783"/>
-      <c r="H58" s="408"/>
-      <c r="I58" s="408"/>
-      <c r="J58" s="514">
-        <v>-1307540</v>
-      </c>
+      <c r="AA57" s="1036"/>
+    </row>
+    <row r="58" spans="1:27">
+      <c r="A58" s="775" t="s">
+        <v>888</v>
+      </c>
+      <c r="B58" s="773"/>
+      <c r="C58" s="1035">
+        <f>+'ESF20'!C67</f>
+        <v>-439321.65</v>
+      </c>
+      <c r="D58" s="773"/>
+      <c r="E58" s="785"/>
+      <c r="F58" s="785"/>
+      <c r="G58" s="785">
+        <v>0</v>
+      </c>
+      <c r="H58" s="781">
+        <v>119269</v>
+      </c>
+      <c r="I58" s="781">
+        <v>-1494761</v>
+      </c>
+      <c r="J58" s="414"/>
       <c r="K58" s="414"/>
       <c r="L58" s="414"/>
       <c r="M58" s="414"/>
@@ -57985,35 +58034,40 @@
       <c r="S58" s="414"/>
       <c r="T58" s="414"/>
       <c r="U58" s="414"/>
-      <c r="V58" s="544">
-        <f>SUM(J58:U58)</f>
-        <v>-1307540</v>
-      </c>
+      <c r="V58" s="414"/>
       <c r="W58" s="414"/>
       <c r="X58" s="414"/>
-      <c r="Y58" s="544">
-        <f>+V58+W58-X58</f>
-        <v>-1307540</v>
-      </c>
+      <c r="Y58" s="414"/>
       <c r="Z58" s="414"/>
-    </row>
-    <row r="59" spans="1:26" hidden="1">
-      <c r="A59" s="765" t="s">
-        <v>885</v>
-      </c>
-      <c r="B59" s="771"/>
-      <c r="C59" s="969">
-        <v>0</v>
-      </c>
-      <c r="D59" s="771"/>
+      <c r="AA58" s="1035"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" s="775" t="s">
+        <v>790</v>
+      </c>
+      <c r="B59" s="773">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1036">
+        <f>+'ESF20'!C44</f>
+        <v>-12667045.439999998</v>
+      </c>
+      <c r="D59" s="773"/>
       <c r="E59" s="784">
-        <v>221096</v>
-      </c>
-      <c r="F59" s="408"/>
-      <c r="G59" s="783"/>
-      <c r="H59" s="408"/>
-      <c r="I59" s="408"/>
-      <c r="J59" s="514"/>
+        <v>-3842548</v>
+      </c>
+      <c r="F59" s="784"/>
+      <c r="G59" s="784">
+        <v>-12283237</v>
+      </c>
+      <c r="H59" s="781">
+        <v>-15283415</v>
+      </c>
+      <c r="I59" s="781">
+        <f>-19113929+437588</f>
+        <v>-18676341</v>
+      </c>
+      <c r="J59" s="414"/>
       <c r="K59" s="414"/>
       <c r="L59" s="414"/>
       <c r="M59" s="414"/>
@@ -58025,30 +58079,36 @@
       <c r="S59" s="414"/>
       <c r="T59" s="414"/>
       <c r="U59" s="414"/>
-      <c r="V59" s="544"/>
+      <c r="V59" s="414"/>
       <c r="W59" s="414"/>
       <c r="X59" s="414"/>
-      <c r="Y59" s="544"/>
+      <c r="Y59" s="414"/>
       <c r="Z59" s="414"/>
-    </row>
-    <row r="60" spans="1:26" hidden="1">
+      <c r="AA59" s="1036"/>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="775" t="s">
-        <v>795</v>
+        <v>887</v>
       </c>
       <c r="B60" s="773"/>
-      <c r="C60" s="969">
-        <v>0</v>
+      <c r="C60" s="1035">
+        <f>+'ESF20'!C50</f>
+        <v>-1610904</v>
       </c>
       <c r="D60" s="773"/>
-      <c r="E60" s="784">
-        <v>1188714</v>
-      </c>
-      <c r="F60" s="784"/>
-      <c r="G60" s="784">
-        <v>0</v>
-      </c>
-      <c r="H60" s="432"/>
-      <c r="I60" s="781"/>
+      <c r="E60" s="785">
+        <v>0</v>
+      </c>
+      <c r="F60" s="785"/>
+      <c r="G60" s="785">
+        <v>0</v>
+      </c>
+      <c r="H60" s="432">
+        <v>0</v>
+      </c>
+      <c r="I60" s="781">
+        <v>-49200</v>
+      </c>
       <c r="J60" s="414"/>
       <c r="K60" s="414"/>
       <c r="L60" s="414"/>
@@ -58066,25 +58126,34 @@
       <c r="X60" s="414"/>
       <c r="Y60" s="414"/>
       <c r="Z60" s="414"/>
-    </row>
-    <row r="61" spans="1:26" hidden="1">
+      <c r="AA60" s="1035"/>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="775" t="s">
-        <v>796</v>
-      </c>
-      <c r="B61" s="773"/>
-      <c r="C61" s="969">
-        <v>0</v>
+        <v>791</v>
+      </c>
+      <c r="B61" s="773">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1036">
+        <f>+'ESF20'!C62</f>
+        <v>-1744851</v>
       </c>
       <c r="D61" s="773"/>
-      <c r="E61" s="774">
-        <v>-5488035</v>
+      <c r="E61" s="784">
+        <v>-909058</v>
       </c>
       <c r="F61" s="784"/>
       <c r="G61" s="784">
-        <v>0</v>
-      </c>
-      <c r="H61" s="432"/>
-      <c r="I61" s="781"/>
+        <v>-4862718</v>
+      </c>
+      <c r="H61" s="781">
+        <f>-(1121449+75987)</f>
+        <v>-1197436</v>
+      </c>
+      <c r="I61" s="781">
+        <v>-2492677</v>
+      </c>
       <c r="J61" s="414"/>
       <c r="K61" s="414"/>
       <c r="L61" s="414"/>
@@ -58102,32 +58171,36 @@
       <c r="X61" s="414"/>
       <c r="Y61" s="414"/>
       <c r="Z61" s="414"/>
-    </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="775" t="s">
-        <v>797</v>
+      <c r="AA61" s="1036"/>
+    </row>
+    <row r="62" spans="1:27">
+      <c r="A62" s="778" t="s">
+        <v>792</v>
       </c>
       <c r="B62" s="773"/>
-      <c r="C62" s="1038">
-        <f>+'ESF20'!R6+'ESF20'!R18</f>
-        <v>-456875</v>
-      </c>
-      <c r="D62" s="773"/>
-      <c r="E62" s="774">
-        <v>-10808637</v>
+      <c r="C62" s="780">
+        <f t="shared" ref="C62:D62" si="8">+SUM(C54:C61)</f>
+        <v>-15484147.619999997</v>
+      </c>
+      <c r="D62" s="774">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="786">
+        <v>-5907414</v>
       </c>
       <c r="F62" s="774"/>
-      <c r="G62" s="774">
-        <f>+'ESF20'!X6+'ESF20'!X18</f>
-        <v>-7240852</v>
-      </c>
-      <c r="H62" s="781">
-        <f>+'ESF20'!Z6+'ESF20'!Z16</f>
-        <v>-4735058</v>
+      <c r="G62" s="786">
+        <f>+SUM(G54:G61)</f>
+        <v>-16865135</v>
+      </c>
+      <c r="H62" s="782">
+        <f>+SUM(H54:H61)</f>
+        <v>-11127276</v>
       </c>
       <c r="I62" s="781">
-        <f>15141796-13490379-198890+4596345</f>
-        <v>6048872</v>
+        <f>+SUM(I54:I61)</f>
+        <v>-24669650</v>
       </c>
       <c r="J62" s="414"/>
       <c r="K62" s="414"/>
@@ -58146,33 +58219,18 @@
       <c r="X62" s="414"/>
       <c r="Y62" s="414"/>
       <c r="Z62" s="414"/>
-    </row>
-    <row r="63" spans="1:26">
-      <c r="A63" s="775" t="s">
-        <v>798</v>
-      </c>
-      <c r="B63" s="773"/>
-      <c r="C63" s="1039">
-        <f>+'ESF20'!R7+'ESF20'!R19</f>
-        <v>11202774.02</v>
-      </c>
-      <c r="D63" s="773"/>
-      <c r="E63" s="1046">
-        <v>-8550313</v>
-      </c>
-      <c r="F63" s="774"/>
-      <c r="G63" s="774">
-        <f>+'ESF20'!X7+'ESF20'!X19</f>
-        <v>-7134782</v>
-      </c>
-      <c r="H63" s="781">
-        <f>+'ESF20'!Z7+'ESF20'!Z17</f>
-        <v>-8370991</v>
-      </c>
-      <c r="I63" s="781">
-        <f>13238971-9192632</f>
-        <v>4046339</v>
-      </c>
+      <c r="AA62" s="780"/>
+    </row>
+    <row r="63" spans="1:27" ht="5.0999999999999996" customHeight="1">
+      <c r="A63" s="414"/>
+      <c r="B63" s="622"/>
+      <c r="C63" s="622"/>
+      <c r="D63" s="622"/>
+      <c r="E63" s="408"/>
+      <c r="F63" s="408"/>
+      <c r="G63" s="408"/>
+      <c r="H63" s="408"/>
+      <c r="I63" s="408"/>
       <c r="J63" s="414"/>
       <c r="K63" s="414"/>
       <c r="L63" s="414"/>
@@ -58190,36 +58248,20 @@
       <c r="X63" s="414"/>
       <c r="Y63" s="414"/>
       <c r="Z63" s="414"/>
-    </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="778" t="s">
-        <v>799</v>
-      </c>
-      <c r="B64" s="779"/>
-      <c r="C64" s="786">
-        <f>+SUM(C58:C63)</f>
-        <v>9438359.0199999996</v>
-      </c>
-      <c r="D64" s="774">
-        <f>+SUM(D58:D63)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="785">
-        <v>-24744715</v>
-      </c>
-      <c r="F64" s="774"/>
-      <c r="G64" s="786">
-        <f>+SUM(G60:G63)</f>
-        <v>-14375634</v>
-      </c>
-      <c r="H64" s="787">
-        <f>+SUM(H60:H63)</f>
-        <v>-13106049</v>
-      </c>
-      <c r="I64" s="774">
-        <f>+SUM(I60:I63)</f>
-        <v>10095211</v>
-      </c>
+      <c r="AA63" s="622"/>
+    </row>
+    <row r="64" spans="1:27">
+      <c r="A64" s="763" t="s">
+        <v>793</v>
+      </c>
+      <c r="B64" s="771"/>
+      <c r="C64" s="771"/>
+      <c r="D64" s="771"/>
+      <c r="E64" s="783"/>
+      <c r="F64" s="783"/>
+      <c r="G64" s="783"/>
+      <c r="H64" s="408"/>
+      <c r="I64" s="408"/>
       <c r="J64" s="414"/>
       <c r="K64" s="414"/>
       <c r="L64" s="414"/>
@@ -58237,17 +58279,28 @@
       <c r="X64" s="414"/>
       <c r="Y64" s="414"/>
       <c r="Z64" s="414"/>
-    </row>
-    <row r="65" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A65" s="788"/>
-      <c r="B65" s="789"/>
-      <c r="C65" s="789"/>
-      <c r="D65" s="789"/>
-      <c r="F65" s="785"/>
-      <c r="G65" s="785"/>
+      <c r="AA64" s="771"/>
+    </row>
+    <row r="65" spans="1:27">
+      <c r="A65" s="765" t="s">
+        <v>794</v>
+      </c>
+      <c r="B65" s="771"/>
+      <c r="C65" s="1050">
+        <f t="shared" ref="C65" si="9">+Y65</f>
+        <v>-1307540</v>
+      </c>
+      <c r="D65" s="771"/>
+      <c r="E65" s="408">
+        <v>-1307540</v>
+      </c>
+      <c r="F65" s="408"/>
+      <c r="G65" s="783"/>
       <c r="H65" s="408"/>
       <c r="I65" s="408"/>
-      <c r="J65" s="414"/>
+      <c r="J65" s="514">
+        <v>-1307540</v>
+      </c>
       <c r="K65" s="414"/>
       <c r="L65" s="414"/>
       <c r="M65" s="414"/>
@@ -58259,39 +58312,36 @@
       <c r="S65" s="414"/>
       <c r="T65" s="414"/>
       <c r="U65" s="414"/>
-      <c r="V65" s="414"/>
+      <c r="V65" s="544">
+        <f>SUM(J65:U65)</f>
+        <v>-1307540</v>
+      </c>
       <c r="W65" s="414"/>
       <c r="X65" s="414"/>
-      <c r="Y65" s="414"/>
-      <c r="Z65" s="414"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" s="778" t="s">
-        <v>800</v>
-      </c>
-      <c r="B66" s="773"/>
-      <c r="C66" s="774">
-        <f>+C64+C55+C44</f>
-        <v>14046097.298671972</v>
-      </c>
-      <c r="D66" s="773"/>
-      <c r="E66" s="774">
-        <v>8967695</v>
-      </c>
-      <c r="F66" s="774"/>
-      <c r="G66" s="774">
-        <f>+G64+G55+G44</f>
-        <v>-3077085</v>
-      </c>
-      <c r="H66" s="781">
-        <f>+H64+H55+H44</f>
-        <v>-9115106.9500000104</v>
-      </c>
-      <c r="I66" s="781">
-        <f>+I64+I55+I44</f>
-        <v>6324454</v>
-      </c>
-      <c r="J66" s="414"/>
+      <c r="Y65" s="544">
+        <f>+V65+W65-X65</f>
+        <v>-1307540</v>
+      </c>
+      <c r="Z65" s="544"/>
+      <c r="AA65" s="1050"/>
+    </row>
+    <row r="66" spans="1:27" hidden="1">
+      <c r="A66" s="765" t="s">
+        <v>884</v>
+      </c>
+      <c r="B66" s="771"/>
+      <c r="C66" s="969">
+        <v>0</v>
+      </c>
+      <c r="D66" s="771"/>
+      <c r="E66" s="784">
+        <v>221096</v>
+      </c>
+      <c r="F66" s="408"/>
+      <c r="G66" s="783"/>
+      <c r="H66" s="408"/>
+      <c r="I66" s="408"/>
+      <c r="J66" s="514"/>
       <c r="K66" s="414"/>
       <c r="L66" s="414"/>
       <c r="M66" s="414"/>
@@ -58303,37 +58353,31 @@
       <c r="S66" s="414"/>
       <c r="T66" s="414"/>
       <c r="U66" s="414"/>
-      <c r="V66" s="414"/>
+      <c r="V66" s="544"/>
       <c r="W66" s="414"/>
       <c r="X66" s="414"/>
-      <c r="Y66" s="414"/>
-      <c r="Z66" s="414"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" s="778" t="s">
-        <v>801</v>
+      <c r="Y66" s="544"/>
+      <c r="Z66" s="544"/>
+      <c r="AA66" s="969"/>
+    </row>
+    <row r="67" spans="1:27" hidden="1">
+      <c r="A67" s="775" t="s">
+        <v>795</v>
       </c>
       <c r="B67" s="773"/>
-      <c r="C67" s="1038">
-        <f>+'ESF20'!F5</f>
-        <v>5885974</v>
+      <c r="C67" s="969">
+        <v>0</v>
       </c>
       <c r="D67" s="773"/>
-      <c r="E67" s="1046">
-        <v>-3155765</v>
-      </c>
-      <c r="F67" s="774"/>
-      <c r="G67" s="774">
-        <f>+H68</f>
-        <v>70061.049999989569</v>
-      </c>
-      <c r="H67" s="781">
-        <f>+I68</f>
-        <v>9185168</v>
-      </c>
-      <c r="I67" s="781">
-        <v>2860714</v>
-      </c>
+      <c r="E67" s="784">
+        <v>1188714</v>
+      </c>
+      <c r="F67" s="784"/>
+      <c r="G67" s="784">
+        <v>0</v>
+      </c>
+      <c r="H67" s="432"/>
+      <c r="I67" s="781"/>
       <c r="J67" s="414"/>
       <c r="K67" s="414"/>
       <c r="L67" s="414"/>
@@ -58351,38 +58395,26 @@
       <c r="X67" s="414"/>
       <c r="Y67" s="414"/>
       <c r="Z67" s="414"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A68" s="778" t="s">
-        <v>802</v>
-      </c>
-      <c r="B68" s="773">
-        <v>6</v>
-      </c>
-      <c r="C68" s="790">
-        <f>+C66+C67</f>
-        <v>19932071.298671972</v>
-      </c>
-      <c r="D68" s="774">
-        <f t="shared" ref="D68" si="10">+D66+D67</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="1045">
-        <v>5811930</v>
-      </c>
-      <c r="F68" s="774"/>
-      <c r="G68" s="790">
-        <f>+G66+G67</f>
-        <v>-3007023.9500000104</v>
-      </c>
-      <c r="H68" s="781">
-        <f>+H66+H67</f>
-        <v>70061.049999989569</v>
-      </c>
-      <c r="I68" s="781">
-        <f>+I66+I67</f>
-        <v>9185168</v>
-      </c>
+      <c r="AA67" s="969"/>
+    </row>
+    <row r="68" spans="1:27" hidden="1">
+      <c r="A68" s="775" t="s">
+        <v>796</v>
+      </c>
+      <c r="B68" s="773"/>
+      <c r="C68" s="969">
+        <v>0</v>
+      </c>
+      <c r="D68" s="773"/>
+      <c r="E68" s="774">
+        <v>-5488035</v>
+      </c>
+      <c r="F68" s="784"/>
+      <c r="G68" s="784">
+        <v>0</v>
+      </c>
+      <c r="H68" s="432"/>
+      <c r="I68" s="781"/>
       <c r="J68" s="414"/>
       <c r="K68" s="414"/>
       <c r="L68" s="414"/>
@@ -58400,16 +58432,34 @@
       <c r="X68" s="414"/>
       <c r="Y68" s="414"/>
       <c r="Z68" s="414"/>
-    </row>
-    <row r="69" spans="1:26" ht="5.0999999999999996" customHeight="1" thickTop="1">
-      <c r="A69" s="414"/>
-      <c r="B69" s="414"/>
-      <c r="C69" s="414"/>
-      <c r="E69" s="791"/>
-      <c r="F69" s="791"/>
-      <c r="G69" s="791"/>
-      <c r="H69" s="791"/>
-      <c r="I69" s="791"/>
+      <c r="AA68" s="969"/>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="775" t="s">
+        <v>797</v>
+      </c>
+      <c r="B69" s="773"/>
+      <c r="C69" s="1036">
+        <f>+'ESF20'!R6+'ESF20'!R18</f>
+        <v>-456875</v>
+      </c>
+      <c r="D69" s="773"/>
+      <c r="E69" s="774">
+        <v>-10808637</v>
+      </c>
+      <c r="F69" s="774"/>
+      <c r="G69" s="774">
+        <f>+'ESF20'!X6+'ESF20'!X18</f>
+        <v>-7240852</v>
+      </c>
+      <c r="H69" s="781">
+        <f>+'ESF20'!Z6+'ESF20'!Z16</f>
+        <v>-4735058</v>
+      </c>
+      <c r="I69" s="781">
+        <f>15141796-13490379-198890+4596345</f>
+        <v>6048872</v>
+      </c>
       <c r="J69" s="414"/>
       <c r="K69" s="414"/>
       <c r="L69" s="414"/>
@@ -58427,20 +58477,34 @@
       <c r="X69" s="414"/>
       <c r="Y69" s="414"/>
       <c r="Z69" s="414"/>
-    </row>
-    <row r="70" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A70" s="414" t="s">
-        <v>803</v>
-      </c>
-      <c r="B70" s="414"/>
-      <c r="C70" s="1053">
-        <f>+C68-'ESF20'!C5</f>
-        <v>2311.8086719736457</v>
-      </c>
-      <c r="F70" s="791"/>
-      <c r="G70" s="791"/>
-      <c r="H70" s="791"/>
-      <c r="I70" s="791"/>
+      <c r="AA69" s="1036"/>
+    </row>
+    <row r="70" spans="1:27">
+      <c r="A70" s="775" t="s">
+        <v>798</v>
+      </c>
+      <c r="B70" s="773"/>
+      <c r="C70" s="1037">
+        <f>+'ESF20'!R7+'ESF20'!R19</f>
+        <v>11202774.02</v>
+      </c>
+      <c r="D70" s="773"/>
+      <c r="E70" s="1044">
+        <v>-8550313</v>
+      </c>
+      <c r="F70" s="774"/>
+      <c r="G70" s="774">
+        <f>+'ESF20'!X7+'ESF20'!X19</f>
+        <v>-7134782</v>
+      </c>
+      <c r="H70" s="781">
+        <f>+'ESF20'!Z7+'ESF20'!Z17</f>
+        <v>-8370991</v>
+      </c>
+      <c r="I70" s="781">
+        <f>13238971-9192632</f>
+        <v>4046339</v>
+      </c>
       <c r="J70" s="414"/>
       <c r="K70" s="414"/>
       <c r="L70" s="414"/>
@@ -58458,16 +58522,37 @@
       <c r="X70" s="414"/>
       <c r="Y70" s="414"/>
       <c r="Z70" s="414"/>
-    </row>
-    <row r="71" spans="1:26" ht="5.0999999999999996" customHeight="1">
-      <c r="A71" s="414"/>
-      <c r="B71" s="414"/>
-      <c r="C71" s="414"/>
-      <c r="E71" s="791"/>
-      <c r="F71" s="791"/>
-      <c r="G71" s="791"/>
-      <c r="H71" s="791"/>
-      <c r="I71" s="791"/>
+      <c r="AA70" s="1037"/>
+    </row>
+    <row r="71" spans="1:27">
+      <c r="A71" s="778" t="s">
+        <v>799</v>
+      </c>
+      <c r="B71" s="779"/>
+      <c r="C71" s="786">
+        <f>+SUM(C65:C70)</f>
+        <v>9438359.0199999996</v>
+      </c>
+      <c r="D71" s="774">
+        <f>+SUM(D65:D70)</f>
+        <v>0</v>
+      </c>
+      <c r="E71" s="785">
+        <v>-24744715</v>
+      </c>
+      <c r="F71" s="774"/>
+      <c r="G71" s="786">
+        <f>+SUM(G67:G70)</f>
+        <v>-14375634</v>
+      </c>
+      <c r="H71" s="787">
+        <f>+SUM(H67:H70)</f>
+        <v>-13106049</v>
+      </c>
+      <c r="I71" s="774">
+        <f>+SUM(I67:I70)</f>
+        <v>10095211</v>
+      </c>
       <c r="J71" s="414"/>
       <c r="K71" s="414"/>
       <c r="L71" s="414"/>
@@ -58485,13 +58570,17 @@
       <c r="X71" s="414"/>
       <c r="Y71" s="414"/>
       <c r="Z71" s="414"/>
-    </row>
-    <row r="72" spans="1:26">
-      <c r="E72" s="792"/>
-      <c r="F72" s="792"/>
-      <c r="G72" s="791"/>
-      <c r="H72" s="791"/>
-      <c r="I72" s="791"/>
+      <c r="AA71" s="786"/>
+    </row>
+    <row r="72" spans="1:27" ht="5.0999999999999996" customHeight="1">
+      <c r="A72" s="788"/>
+      <c r="B72" s="789"/>
+      <c r="C72" s="789"/>
+      <c r="D72" s="789"/>
+      <c r="F72" s="785"/>
+      <c r="G72" s="785"/>
+      <c r="H72" s="408"/>
+      <c r="I72" s="408"/>
       <c r="J72" s="414"/>
       <c r="K72" s="414"/>
       <c r="L72" s="414"/>
@@ -58509,15 +58598,34 @@
       <c r="X72" s="414"/>
       <c r="Y72" s="414"/>
       <c r="Z72" s="414"/>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="E73" s="428">
-        <v>0</v>
-      </c>
-      <c r="F73" s="428"/>
-      <c r="G73" s="791"/>
-      <c r="H73" s="791"/>
-      <c r="I73" s="791"/>
+      <c r="AA72" s="789"/>
+    </row>
+    <row r="73" spans="1:27">
+      <c r="A73" s="778" t="s">
+        <v>800</v>
+      </c>
+      <c r="B73" s="773"/>
+      <c r="C73" s="774">
+        <f>+C51+C62+C71</f>
+        <v>14046097.409999963</v>
+      </c>
+      <c r="D73" s="773"/>
+      <c r="E73" s="774">
+        <v>8967695</v>
+      </c>
+      <c r="F73" s="774"/>
+      <c r="G73" s="774">
+        <f>+G71+G62+G44</f>
+        <v>-3077085</v>
+      </c>
+      <c r="H73" s="781">
+        <f>+H71+H62+H44</f>
+        <v>-9115106.9500000104</v>
+      </c>
+      <c r="I73" s="781">
+        <f>+I71+I62+I44</f>
+        <v>6324454</v>
+      </c>
       <c r="J73" s="414"/>
       <c r="K73" s="414"/>
       <c r="L73" s="414"/>
@@ -58535,13 +58643,33 @@
       <c r="X73" s="414"/>
       <c r="Y73" s="414"/>
       <c r="Z73" s="414"/>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="E74" s="428"/>
-      <c r="F74" s="428"/>
-      <c r="G74" s="791"/>
-      <c r="H74" s="791"/>
-      <c r="I74" s="791"/>
+      <c r="AA73" s="774"/>
+    </row>
+    <row r="74" spans="1:27">
+      <c r="A74" s="778" t="s">
+        <v>801</v>
+      </c>
+      <c r="B74" s="773"/>
+      <c r="C74" s="1036">
+        <f>+'ESF20'!F5</f>
+        <v>5885974</v>
+      </c>
+      <c r="D74" s="773"/>
+      <c r="E74" s="1044">
+        <v>-3155765</v>
+      </c>
+      <c r="F74" s="774"/>
+      <c r="G74" s="774">
+        <f>+H75</f>
+        <v>70061.049999989569</v>
+      </c>
+      <c r="H74" s="781">
+        <f>+I75</f>
+        <v>9185168</v>
+      </c>
+      <c r="I74" s="781">
+        <v>2860714</v>
+      </c>
       <c r="J74" s="414"/>
       <c r="K74" s="414"/>
       <c r="L74" s="414"/>
@@ -58559,11 +58687,39 @@
       <c r="X74" s="414"/>
       <c r="Y74" s="414"/>
       <c r="Z74" s="414"/>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="G75" s="414"/>
-      <c r="H75" s="642"/>
-      <c r="I75" s="414"/>
+      <c r="AA74" s="1036"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A75" s="778" t="s">
+        <v>802</v>
+      </c>
+      <c r="B75" s="773">
+        <v>6</v>
+      </c>
+      <c r="C75" s="790">
+        <f>+C73+C74</f>
+        <v>19932071.409999963</v>
+      </c>
+      <c r="D75" s="774">
+        <f t="shared" ref="D75" si="10">+D73+D74</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1043">
+        <v>5811930</v>
+      </c>
+      <c r="F75" s="774"/>
+      <c r="G75" s="790">
+        <f>+G73+G74</f>
+        <v>-3007023.9500000104</v>
+      </c>
+      <c r="H75" s="781">
+        <f>+H73+H74</f>
+        <v>70061.049999989569</v>
+      </c>
+      <c r="I75" s="781">
+        <f>+I73+I74</f>
+        <v>9185168</v>
+      </c>
       <c r="J75" s="414"/>
       <c r="K75" s="414"/>
       <c r="L75" s="414"/>
@@ -58581,11 +58737,17 @@
       <c r="X75" s="414"/>
       <c r="Y75" s="414"/>
       <c r="Z75" s="414"/>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="G76" s="414"/>
-      <c r="H76" s="414"/>
-      <c r="I76" s="414"/>
+      <c r="AA75" s="790"/>
+    </row>
+    <row r="76" spans="1:27" ht="5.0999999999999996" customHeight="1" thickTop="1">
+      <c r="A76" s="414"/>
+      <c r="B76" s="414"/>
+      <c r="C76" s="414"/>
+      <c r="E76" s="791"/>
+      <c r="F76" s="791"/>
+      <c r="G76" s="791"/>
+      <c r="H76" s="791"/>
+      <c r="I76" s="791"/>
       <c r="J76" s="414"/>
       <c r="K76" s="414"/>
       <c r="L76" s="414"/>
@@ -58603,11 +58765,21 @@
       <c r="X76" s="414"/>
       <c r="Y76" s="414"/>
       <c r="Z76" s="414"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="G77" s="414"/>
-      <c r="H77" s="414"/>
-      <c r="I77" s="414"/>
+      <c r="AA76" s="414"/>
+    </row>
+    <row r="77" spans="1:27" ht="11.25" customHeight="1">
+      <c r="A77" s="414" t="s">
+        <v>901</v>
+      </c>
+      <c r="B77" s="414"/>
+      <c r="C77" s="1079">
+        <f>+C75-'ESF20'!C5</f>
+        <v>2311.9199999645352</v>
+      </c>
+      <c r="F77" s="791"/>
+      <c r="G77" s="791"/>
+      <c r="H77" s="791"/>
+      <c r="I77" s="791"/>
       <c r="J77" s="414"/>
       <c r="K77" s="414"/>
       <c r="L77" s="414"/>
@@ -58625,11 +58797,17 @@
       <c r="X77" s="414"/>
       <c r="Y77" s="414"/>
       <c r="Z77" s="414"/>
-    </row>
-    <row r="78" spans="1:26">
-      <c r="G78" s="414"/>
-      <c r="H78" s="414"/>
-      <c r="I78" s="414"/>
+      <c r="AA77" s="1051"/>
+    </row>
+    <row r="78" spans="1:27" ht="5.0999999999999996" customHeight="1">
+      <c r="A78" s="414"/>
+      <c r="B78" s="414"/>
+      <c r="C78" s="414"/>
+      <c r="E78" s="791"/>
+      <c r="F78" s="791"/>
+      <c r="G78" s="791"/>
+      <c r="H78" s="791"/>
+      <c r="I78" s="791"/>
       <c r="J78" s="414"/>
       <c r="K78" s="414"/>
       <c r="L78" s="414"/>
@@ -58647,11 +58825,14 @@
       <c r="X78" s="414"/>
       <c r="Y78" s="414"/>
       <c r="Z78" s="414"/>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="G79" s="414"/>
-      <c r="H79" s="414"/>
-      <c r="I79" s="414"/>
+      <c r="AA78" s="414"/>
+    </row>
+    <row r="79" spans="1:27">
+      <c r="E79" s="792"/>
+      <c r="F79" s="792"/>
+      <c r="G79" s="791"/>
+      <c r="H79" s="791"/>
+      <c r="I79" s="791"/>
       <c r="J79" s="414"/>
       <c r="K79" s="414"/>
       <c r="L79" s="414"/>
@@ -58670,10 +58851,14 @@
       <c r="Y79" s="414"/>
       <c r="Z79" s="414"/>
     </row>
-    <row r="80" spans="1:26">
-      <c r="G80" s="414"/>
-      <c r="H80" s="414"/>
-      <c r="I80" s="414"/>
+    <row r="80" spans="1:27">
+      <c r="E80" s="428">
+        <v>0</v>
+      </c>
+      <c r="F80" s="428"/>
+      <c r="G80" s="791"/>
+      <c r="H80" s="791"/>
+      <c r="I80" s="791"/>
       <c r="J80" s="414"/>
       <c r="K80" s="414"/>
       <c r="L80" s="414"/>
@@ -58692,10 +58877,12 @@
       <c r="Y80" s="414"/>
       <c r="Z80" s="414"/>
     </row>
-    <row r="81" spans="7:26">
-      <c r="G81" s="414"/>
-      <c r="H81" s="414"/>
-      <c r="I81" s="414"/>
+    <row r="81" spans="5:26">
+      <c r="E81" s="428"/>
+      <c r="F81" s="428"/>
+      <c r="G81" s="791"/>
+      <c r="H81" s="791"/>
+      <c r="I81" s="791"/>
       <c r="J81" s="414"/>
       <c r="K81" s="414"/>
       <c r="L81" s="414"/>
@@ -58714,9 +58901,163 @@
       <c r="Y81" s="414"/>
       <c r="Z81" s="414"/>
     </row>
+    <row r="82" spans="5:26">
+      <c r="G82" s="414"/>
+      <c r="H82" s="642"/>
+      <c r="I82" s="414"/>
+      <c r="J82" s="414"/>
+      <c r="K82" s="414"/>
+      <c r="L82" s="414"/>
+      <c r="M82" s="414"/>
+      <c r="N82" s="414"/>
+      <c r="O82" s="414"/>
+      <c r="P82" s="414"/>
+      <c r="Q82" s="414"/>
+      <c r="R82" s="414"/>
+      <c r="S82" s="414"/>
+      <c r="T82" s="414"/>
+      <c r="U82" s="414"/>
+      <c r="V82" s="414"/>
+      <c r="W82" s="414"/>
+      <c r="X82" s="414"/>
+      <c r="Y82" s="414"/>
+      <c r="Z82" s="414"/>
+    </row>
+    <row r="83" spans="5:26">
+      <c r="G83" s="414"/>
+      <c r="H83" s="414"/>
+      <c r="I83" s="414"/>
+      <c r="J83" s="414"/>
+      <c r="K83" s="414"/>
+      <c r="L83" s="414"/>
+      <c r="M83" s="414"/>
+      <c r="N83" s="414"/>
+      <c r="O83" s="414"/>
+      <c r="P83" s="414"/>
+      <c r="Q83" s="414"/>
+      <c r="R83" s="414"/>
+      <c r="S83" s="414"/>
+      <c r="T83" s="414"/>
+      <c r="U83" s="414"/>
+      <c r="V83" s="414"/>
+      <c r="W83" s="414"/>
+      <c r="X83" s="414"/>
+      <c r="Y83" s="414"/>
+      <c r="Z83" s="414"/>
+    </row>
+    <row r="84" spans="5:26">
+      <c r="G84" s="414"/>
+      <c r="H84" s="414"/>
+      <c r="I84" s="414"/>
+      <c r="J84" s="414"/>
+      <c r="K84" s="414"/>
+      <c r="L84" s="414"/>
+      <c r="M84" s="414"/>
+      <c r="N84" s="414"/>
+      <c r="O84" s="414"/>
+      <c r="P84" s="414"/>
+      <c r="Q84" s="414"/>
+      <c r="R84" s="414"/>
+      <c r="S84" s="414"/>
+      <c r="T84" s="414"/>
+      <c r="U84" s="414"/>
+      <c r="V84" s="414"/>
+      <c r="W84" s="414"/>
+      <c r="X84" s="414"/>
+      <c r="Y84" s="414"/>
+      <c r="Z84" s="414"/>
+    </row>
+    <row r="85" spans="5:26">
+      <c r="G85" s="414"/>
+      <c r="H85" s="414"/>
+      <c r="I85" s="414"/>
+      <c r="J85" s="414"/>
+      <c r="K85" s="414"/>
+      <c r="L85" s="414"/>
+      <c r="M85" s="414"/>
+      <c r="N85" s="414"/>
+      <c r="O85" s="414"/>
+      <c r="P85" s="414"/>
+      <c r="Q85" s="414"/>
+      <c r="R85" s="414"/>
+      <c r="S85" s="414"/>
+      <c r="T85" s="414"/>
+      <c r="U85" s="414"/>
+      <c r="V85" s="414"/>
+      <c r="W85" s="414"/>
+      <c r="X85" s="414"/>
+      <c r="Y85" s="414"/>
+      <c r="Z85" s="414"/>
+    </row>
+    <row r="86" spans="5:26">
+      <c r="G86" s="414"/>
+      <c r="H86" s="414"/>
+      <c r="I86" s="414"/>
+      <c r="J86" s="414"/>
+      <c r="K86" s="414"/>
+      <c r="L86" s="414"/>
+      <c r="M86" s="414"/>
+      <c r="N86" s="414"/>
+      <c r="O86" s="414"/>
+      <c r="P86" s="414"/>
+      <c r="Q86" s="414"/>
+      <c r="R86" s="414"/>
+      <c r="S86" s="414"/>
+      <c r="T86" s="414"/>
+      <c r="U86" s="414"/>
+      <c r="V86" s="414"/>
+      <c r="W86" s="414"/>
+      <c r="X86" s="414"/>
+      <c r="Y86" s="414"/>
+      <c r="Z86" s="414"/>
+    </row>
+    <row r="87" spans="5:26">
+      <c r="G87" s="414"/>
+      <c r="H87" s="414"/>
+      <c r="I87" s="414"/>
+      <c r="J87" s="414"/>
+      <c r="K87" s="414"/>
+      <c r="L87" s="414"/>
+      <c r="M87" s="414"/>
+      <c r="N87" s="414"/>
+      <c r="O87" s="414"/>
+      <c r="P87" s="414"/>
+      <c r="Q87" s="414"/>
+      <c r="R87" s="414"/>
+      <c r="S87" s="414"/>
+      <c r="T87" s="414"/>
+      <c r="U87" s="414"/>
+      <c r="V87" s="414"/>
+      <c r="W87" s="414"/>
+      <c r="X87" s="414"/>
+      <c r="Y87" s="414"/>
+      <c r="Z87" s="414"/>
+    </row>
+    <row r="88" spans="5:26">
+      <c r="G88" s="414"/>
+      <c r="H88" s="414"/>
+      <c r="I88" s="414"/>
+      <c r="J88" s="414"/>
+      <c r="K88" s="414"/>
+      <c r="L88" s="414"/>
+      <c r="M88" s="414"/>
+      <c r="N88" s="414"/>
+      <c r="O88" s="414"/>
+      <c r="P88" s="414"/>
+      <c r="Q88" s="414"/>
+      <c r="R88" s="414"/>
+      <c r="S88" s="414"/>
+      <c r="T88" s="414"/>
+      <c r="U88" s="414"/>
+      <c r="V88" s="414"/>
+      <c r="W88" s="414"/>
+      <c r="X88" s="414"/>
+      <c r="Y88" s="414"/>
+      <c r="Z88" s="414"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup scale="89" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="89" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -58776,50 +59117,50 @@
     <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="798"/>
       <c r="E3" s="795"/>
-      <c r="P3" s="1069" t="s">
+      <c r="P3" s="1076" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1069"/>
+      <c r="Q3" s="1076"/>
     </row>
     <row r="4" spans="1:22" ht="38.25">
       <c r="A4" s="799" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="800" t="s">
+        <v>803</v>
+      </c>
+      <c r="C4" s="800" t="s">
         <v>804</v>
       </c>
-      <c r="C4" s="800" t="s">
+      <c r="D4" s="800" t="s">
         <v>805</v>
       </c>
-      <c r="D4" s="800" t="s">
+      <c r="E4" s="800" t="s">
         <v>806</v>
       </c>
-      <c r="E4" s="800" t="s">
+      <c r="F4" s="800" t="s">
         <v>807</v>
       </c>
-      <c r="F4" s="800" t="s">
+      <c r="G4" s="800" t="s">
         <v>808</v>
       </c>
-      <c r="G4" s="800" t="s">
+      <c r="H4" s="800" t="s">
         <v>809</v>
       </c>
-      <c r="H4" s="800" t="s">
+      <c r="I4" s="800" t="s">
         <v>810</v>
       </c>
-      <c r="I4" s="800" t="s">
+      <c r="J4" s="800" t="s">
         <v>811</v>
       </c>
-      <c r="J4" s="800" t="s">
+      <c r="K4" s="800" t="s">
         <v>812</v>
       </c>
-      <c r="K4" s="800" t="s">
+      <c r="L4" s="800" t="s">
         <v>813</v>
       </c>
-      <c r="L4" s="800" t="s">
+      <c r="M4" s="800" t="s">
         <v>814</v>
-      </c>
-      <c r="M4" s="800" t="s">
-        <v>815</v>
       </c>
       <c r="N4" s="800" t="s">
         <v>259</v>
@@ -61485,40 +61826,40 @@
         <v>3</v>
       </c>
       <c r="B54" s="800" t="s">
+        <v>803</v>
+      </c>
+      <c r="C54" s="800" t="s">
         <v>804</v>
       </c>
-      <c r="C54" s="800" t="s">
+      <c r="D54" s="800" t="s">
         <v>805</v>
       </c>
-      <c r="D54" s="800" t="s">
+      <c r="E54" s="800" t="s">
         <v>806</v>
       </c>
-      <c r="E54" s="800" t="s">
+      <c r="F54" s="800" t="s">
         <v>807</v>
       </c>
-      <c r="F54" s="800" t="s">
+      <c r="G54" s="800" t="s">
         <v>808</v>
       </c>
-      <c r="G54" s="800" t="s">
+      <c r="H54" s="800" t="s">
         <v>809</v>
       </c>
-      <c r="H54" s="800" t="s">
+      <c r="I54" s="800" t="s">
         <v>810</v>
       </c>
-      <c r="I54" s="800" t="s">
+      <c r="J54" s="800" t="s">
         <v>811</v>
       </c>
-      <c r="J54" s="800" t="s">
+      <c r="K54" s="800" t="s">
         <v>812</v>
       </c>
-      <c r="K54" s="800" t="s">
+      <c r="L54" s="800" t="s">
         <v>813</v>
       </c>
-      <c r="L54" s="800" t="s">
+      <c r="M54" s="800" t="s">
         <v>814</v>
-      </c>
-      <c r="M54" s="800" t="s">
-        <v>815</v>
       </c>
       <c r="N54" s="800" t="s">
         <v>259</v>
@@ -63256,7 +63597,7 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="358" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B10" s="364"/>
       <c r="C10" s="360">
@@ -63437,7 +63778,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" s="355" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C13" s="365">
         <f>+SUM(C3:C11)</f>
@@ -64203,7 +64544,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="358" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B26" s="364"/>
       <c r="C26" s="360">
@@ -64937,7 +65278,7 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="358" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B38" s="364"/>
       <c r="C38" s="360">
@@ -65845,18 +66186,18 @@
     <row r="2" spans="1:21">
       <c r="B2" s="161"/>
       <c r="D2" s="162"/>
-      <c r="F2" s="1061" t="s">
+      <c r="F2" s="1068" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="1061"/>
-      <c r="H2" s="1061"/>
-      <c r="J2" s="1061" t="s">
+      <c r="G2" s="1068"/>
+      <c r="H2" s="1068"/>
+      <c r="J2" s="1068" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="1061"/>
-      <c r="L2" s="1061"/>
-      <c r="M2" s="1061"/>
-      <c r="N2" s="1061"/>
+      <c r="K2" s="1068"/>
+      <c r="L2" s="1068"/>
+      <c r="M2" s="1068"/>
+      <c r="N2" s="1068"/>
       <c r="O2" s="164"/>
       <c r="P2" s="164"/>
       <c r="U2" s="165"/>
@@ -69190,13 +69531,13 @@
         <f>+C2-'Asientos - para Consolidado'!C10-'Asientos - para Consolidado'!D62</f>
         <v>9054002.0000000037</v>
       </c>
-      <c r="D8" s="1064" t="s">
+      <c r="D8" s="1069" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="1064"/>
-      <c r="F8" s="1064"/>
-      <c r="G8" s="1064"/>
-      <c r="H8" s="1064"/>
+      <c r="E8" s="1069"/>
+      <c r="F8" s="1069"/>
+      <c r="G8" s="1069"/>
+      <c r="H8" s="1069"/>
       <c r="I8" s="281"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
@@ -69210,10 +69551,10 @@
       <c r="D9" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="1065" t="s">
+      <c r="E9" s="1070" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="1065"/>
+      <c r="F9" s="1070"/>
       <c r="G9" s="283"/>
       <c r="H9" s="257"/>
       <c r="I9" s="271"/>
@@ -69241,13 +69582,13 @@
         <f>+'ESF - ERI'!F58-'ESF - ERI'!F49</f>
         <v>21123.449999999953</v>
       </c>
-      <c r="D13" s="1064" t="s">
+      <c r="D13" s="1069" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="1064"/>
-      <c r="F13" s="1064"/>
-      <c r="G13" s="1064"/>
-      <c r="H13" s="1064"/>
+      <c r="E13" s="1069"/>
+      <c r="F13" s="1069"/>
+      <c r="G13" s="1069"/>
+      <c r="H13" s="1069"/>
       <c r="I13" s="281"/>
       <c r="J13" s="277"/>
     </row>
@@ -69477,10 +69818,10 @@
       <c r="D31" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="1065" t="s">
+      <c r="E31" s="1070" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="1065"/>
+      <c r="F31" s="1070"/>
       <c r="G31" s="283"/>
       <c r="I31" s="290">
         <f>C24*G27</f>
@@ -69514,13 +69855,13 @@
         <f>+'ESF - ERI'!H58-'ESF - ERI'!H49</f>
         <v>-276937.91993750003</v>
       </c>
-      <c r="D35" s="1064" t="s">
+      <c r="D35" s="1069" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="1064"/>
-      <c r="F35" s="1064"/>
-      <c r="G35" s="1064"/>
-      <c r="H35" s="1064"/>
+      <c r="E35" s="1069"/>
+      <c r="F35" s="1069"/>
+      <c r="G35" s="1069"/>
+      <c r="H35" s="1069"/>
     </row>
     <row r="36" spans="2:9" ht="5.25" customHeight="1">
       <c r="B36" s="266"/>
@@ -69627,10 +69968,10 @@
       <c r="D42" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="1063" t="s">
+      <c r="E42" s="1072" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="1063"/>
+      <c r="F42" s="1072"/>
       <c r="G42" s="283"/>
       <c r="H42" s="257"/>
     </row>
@@ -69657,13 +69998,13 @@
         <f>+'ESF - ERI'!I58-'ESF - ERI'!I49</f>
         <v>70210.969999999972</v>
       </c>
-      <c r="D46" s="1064" t="s">
+      <c r="D46" s="1069" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="1064"/>
-      <c r="F46" s="1064"/>
-      <c r="G46" s="1064"/>
-      <c r="H46" s="1064"/>
+      <c r="E46" s="1069"/>
+      <c r="F46" s="1069"/>
+      <c r="G46" s="1069"/>
+      <c r="H46" s="1069"/>
     </row>
     <row r="47" spans="2:9" ht="6" customHeight="1">
       <c r="B47" s="266"/>
@@ -69920,10 +70261,10 @@
       <c r="D64" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="1063" t="s">
+      <c r="E64" s="1072" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="1063"/>
+      <c r="F64" s="1072"/>
       <c r="G64" s="257"/>
       <c r="H64" s="257"/>
       <c r="I64" s="291">
@@ -70090,13 +70431,13 @@
         <f>+'ESF - ERI'!L58+881973</f>
         <v>883113.17</v>
       </c>
-      <c r="D79" s="1064" t="s">
+      <c r="D79" s="1069" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="1064"/>
-      <c r="F79" s="1064"/>
-      <c r="G79" s="1064"/>
-      <c r="H79" s="1064"/>
+      <c r="E79" s="1069"/>
+      <c r="F79" s="1069"/>
+      <c r="G79" s="1069"/>
+      <c r="H79" s="1069"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="266"/>
@@ -70374,12 +70715,12 @@
         <f>+C17+C28+C39+C50+C61+C72+C83+C94+C6</f>
         <v>9357519.0706554651</v>
       </c>
-      <c r="D101" s="1062" t="s">
+      <c r="D101" s="1071" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="1062"/>
-      <c r="F101" s="1062"/>
-      <c r="G101" s="1062"/>
+      <c r="E101" s="1071"/>
+      <c r="F101" s="1071"/>
+      <c r="G101" s="1071"/>
       <c r="H101" s="295"/>
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1">
@@ -70390,13 +70731,13 @@
         <f>+C9+C31+C64+C42</f>
         <v>828548.36364874605</v>
       </c>
-      <c r="D102" s="1062" t="s">
+      <c r="D102" s="1071" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="1062"/>
-      <c r="F102" s="1062"/>
-      <c r="G102" s="1062"/>
-      <c r="H102" s="1062"/>
+      <c r="E102" s="1071"/>
+      <c r="F102" s="1071"/>
+      <c r="G102" s="1071"/>
+      <c r="H102" s="1071"/>
     </row>
     <row r="103" spans="2:9" ht="15" customHeight="1">
       <c r="B103" s="293" t="s">
@@ -70406,23 +70747,18 @@
         <f>+C86+C53+C20</f>
         <v>394335.36694421433</v>
       </c>
-      <c r="D103" s="1062" t="s">
+      <c r="D103" s="1071" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="1062"/>
-      <c r="F103" s="1062"/>
-      <c r="G103" s="1062"/>
+      <c r="E103" s="1071"/>
+      <c r="F103" s="1071"/>
+      <c r="G103" s="1071"/>
     </row>
     <row r="105" spans="2:9">
       <c r="E105" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D35:H35"/>
     <mergeCell ref="D102:H102"/>
     <mergeCell ref="D103:G103"/>
     <mergeCell ref="E42:F42"/>
@@ -70430,6 +70766,11 @@
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="D79:H79"/>
     <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D35:H35"/>
   </mergeCells>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
+++ b/Consolidado Telconet & Subsidiarias 2020-2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFBC54-DDD6-4773-B17A-FD4E787B8139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C57CA8-8448-4CC8-9D73-379CE1193768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESF - ERI" sheetId="1" state="hidden" r:id="rId1"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="907">
   <si>
     <t>TELCONET S.A. Y SUBSIDIARIAS</t>
   </si>
@@ -3339,9 +3339,6 @@
     <t>Emisión de obligaciones L/P</t>
   </si>
   <si>
-    <t>Otros pasivos a largo plazo</t>
-  </si>
-  <si>
     <t>Acciones en tesoreria</t>
   </si>
   <si>
@@ -3516,9 +3513,6 @@
     <t xml:space="preserve">   Pagado a proveedores, relacionadas, trabajadores y otros</t>
   </si>
   <si>
-    <t xml:space="preserve">   Impuesto a la renta</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Otros ingresos, neto</t>
   </si>
   <si>
@@ -3529,6 +3523,21 @@
   </si>
   <si>
     <t>Ajuste de Telconet Panama</t>
+  </si>
+  <si>
+    <t>Pasivos del contrato</t>
+  </si>
+  <si>
+    <t>Pasivos del contrato L/P</t>
+  </si>
+  <si>
+    <t>Otros pasivos no corrientes</t>
+  </si>
+  <si>
+    <t>Pasivo contingente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Impuesto a la renta pagado</t>
   </si>
 </sst>
 </file>
@@ -7636,7 +7645,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="467" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="49" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="195" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -7646,12 +7654,20 @@
     <xf numFmtId="195" fontId="0" fillId="12" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="0" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="70" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="195" fontId="49" fillId="6" borderId="0" xfId="467" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="195" fontId="80" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="53" fillId="13" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="53" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="53" fillId="13" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="195" fontId="53" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="196" fontId="13" fillId="0" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7685,7 +7701,6 @@
     <xf numFmtId="196" fontId="74" fillId="8" borderId="3" xfId="191" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="53" fillId="13" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="586">
     <cellStyle name="=C:\WINNT\SYSTEM32\COMMAND.COM" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -8424,28 +8439,28 @@
       <sheetName val="Participaciones 2017"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
       <sheetData sheetId="22">
         <row r="9">
           <cell r="C9">
@@ -8453,8 +8468,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8848,15 +8863,15 @@
       <c r="C3" s="7"/>
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
-      <c r="P3" s="1064" t="s">
+      <c r="P3" s="1065" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1064"/>
+      <c r="Q3" s="1065"/>
       <c r="V3" s="4"/>
-      <c r="AG3" s="1064" t="s">
+      <c r="AG3" s="1065" t="s">
         <v>2</v>
       </c>
-      <c r="AH3" s="1064"/>
+      <c r="AH3" s="1065"/>
     </row>
     <row r="4" spans="1:41" ht="78" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -16531,11 +16546,11 @@
         <f t="shared" si="38"/>
         <v>-0.48993751406669617</v>
       </c>
-      <c r="P79" s="1065">
+      <c r="P79" s="1066">
         <f>P78-Q78</f>
         <v>224942.27000001073</v>
       </c>
-      <c r="Q79" s="1065"/>
+      <c r="Q79" s="1066"/>
       <c r="R79" s="71" t="s">
         <v>114</v>
       </c>
@@ -16852,10 +16867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="C1" s="1071" t="s">
+      <c r="C1" s="1072" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="1071"/>
+      <c r="D1" s="1072"/>
     </row>
     <row r="2" spans="2:5">
       <c r="C2" s="297" t="s">
@@ -16978,11 +16993,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="C14" s="1071" t="s">
+      <c r="C14" s="1072" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="1071"/>
-      <c r="E14" s="1071"/>
+      <c r="D14" s="1072"/>
+      <c r="E14" s="1072"/>
     </row>
     <row r="15" spans="2:5" ht="26.25">
       <c r="C15" s="303" t="s">
@@ -17191,18 +17206,18 @@
         <f t="shared" ref="G3:G11" si="2">+E3*$G$2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1072">
+      <c r="K3" s="1073">
         <v>2017</v>
       </c>
-      <c r="L3" s="1072"/>
-      <c r="M3" s="1072">
+      <c r="L3" s="1073"/>
+      <c r="M3" s="1073">
         <v>2016</v>
       </c>
-      <c r="N3" s="1072"/>
-      <c r="O3" s="1072" t="s">
+      <c r="N3" s="1073"/>
+      <c r="O3" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="1072"/>
+      <c r="P3" s="1073"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="305" t="s">
@@ -17365,18 +17380,18 @@
       <c r="J8" s="306" t="s">
         <v>357</v>
       </c>
-      <c r="K8" s="1072">
+      <c r="K8" s="1073">
         <v>2017</v>
       </c>
-      <c r="L8" s="1072"/>
-      <c r="M8" s="1072">
+      <c r="L8" s="1073"/>
+      <c r="M8" s="1073">
         <v>2016</v>
       </c>
-      <c r="N8" s="1072"/>
-      <c r="O8" s="1072" t="s">
+      <c r="N8" s="1073"/>
+      <c r="O8" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="1072"/>
+      <c r="P8" s="1073"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" s="305" t="s">
@@ -17694,18 +17709,18 @@
         <v>0</v>
       </c>
       <c r="H20" s="308"/>
-      <c r="K20" s="1072">
+      <c r="K20" s="1073">
         <v>2017</v>
       </c>
-      <c r="L20" s="1072"/>
-      <c r="M20" s="1072">
+      <c r="L20" s="1073"/>
+      <c r="M20" s="1073">
         <v>2016</v>
       </c>
-      <c r="N20" s="1072"/>
-      <c r="O20" s="1072" t="s">
+      <c r="N20" s="1073"/>
+      <c r="O20" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="1072"/>
+      <c r="P20" s="1073"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="305" t="s">
@@ -18100,18 +18115,18 @@
         <f t="shared" ref="G39:G46" si="8">+E39*$G$38</f>
         <v>0</v>
       </c>
-      <c r="K39" s="1072">
+      <c r="K39" s="1073">
         <v>2017</v>
       </c>
-      <c r="L39" s="1072"/>
-      <c r="M39" s="1072">
+      <c r="L39" s="1073"/>
+      <c r="M39" s="1073">
         <v>2016</v>
       </c>
-      <c r="N39" s="1072"/>
-      <c r="O39" s="1072" t="s">
+      <c r="N39" s="1073"/>
+      <c r="O39" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P39" s="1072"/>
+      <c r="P39" s="1073"/>
     </row>
     <row r="40" spans="2:16">
       <c r="B40" s="305" t="s">
@@ -18472,18 +18487,18 @@
         <f t="shared" ref="G55:G62" si="11">+E55*$G$54</f>
         <v>0</v>
       </c>
-      <c r="K55" s="1072">
+      <c r="K55" s="1073">
         <v>2017</v>
       </c>
-      <c r="L55" s="1072"/>
-      <c r="M55" s="1072">
+      <c r="L55" s="1073"/>
+      <c r="M55" s="1073">
         <v>2016</v>
       </c>
-      <c r="N55" s="1072"/>
-      <c r="O55" s="1072" t="s">
+      <c r="N55" s="1073"/>
+      <c r="O55" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="1072"/>
+      <c r="P55" s="1073"/>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" s="305" t="s">
@@ -18889,18 +18904,18 @@
         <f t="shared" ref="G73:G80" si="14">+E73*$G$72</f>
         <v>0</v>
       </c>
-      <c r="K73" s="1072">
+      <c r="K73" s="1073">
         <v>2017</v>
       </c>
-      <c r="L73" s="1072"/>
-      <c r="M73" s="1072">
+      <c r="L73" s="1073"/>
+      <c r="M73" s="1073">
         <v>2016</v>
       </c>
-      <c r="N73" s="1072"/>
-      <c r="O73" s="1072" t="s">
+      <c r="N73" s="1073"/>
+      <c r="O73" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P73" s="1072"/>
+      <c r="P73" s="1073"/>
     </row>
     <row r="74" spans="2:16">
       <c r="B74" s="305" t="s">
@@ -19308,18 +19323,18 @@
         <f t="shared" ref="G92:G99" si="17">+E92*$G$91</f>
         <v>0</v>
       </c>
-      <c r="K92" s="1072">
+      <c r="K92" s="1073">
         <v>2017</v>
       </c>
-      <c r="L92" s="1072"/>
-      <c r="M92" s="1072">
+      <c r="L92" s="1073"/>
+      <c r="M92" s="1073">
         <v>2016</v>
       </c>
-      <c r="N92" s="1072"/>
-      <c r="O92" s="1072" t="s">
+      <c r="N92" s="1073"/>
+      <c r="O92" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P92" s="1072"/>
+      <c r="P92" s="1073"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="305" t="s">
@@ -19691,18 +19706,18 @@
         <f t="shared" ref="G109:G116" si="20">+E109*$G$108</f>
         <v>0</v>
       </c>
-      <c r="K109" s="1072">
+      <c r="K109" s="1073">
         <v>2017</v>
       </c>
-      <c r="L109" s="1072"/>
-      <c r="M109" s="1072">
+      <c r="L109" s="1073"/>
+      <c r="M109" s="1073">
         <v>2016</v>
       </c>
-      <c r="N109" s="1072"/>
-      <c r="O109" s="1072" t="s">
+      <c r="N109" s="1073"/>
+      <c r="O109" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P109" s="1072"/>
+      <c r="P109" s="1073"/>
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="305" t="s">
@@ -20074,18 +20089,18 @@
         <f t="shared" ref="G126:G133" si="23">+E126*$G$125</f>
         <v>0</v>
       </c>
-      <c r="K126" s="1072">
+      <c r="K126" s="1073">
         <v>2017</v>
       </c>
-      <c r="L126" s="1072"/>
-      <c r="M126" s="1072">
+      <c r="L126" s="1073"/>
+      <c r="M126" s="1073">
         <v>2016</v>
       </c>
-      <c r="N126" s="1072"/>
-      <c r="O126" s="1072" t="s">
+      <c r="N126" s="1073"/>
+      <c r="O126" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P126" s="1072"/>
+      <c r="P126" s="1073"/>
     </row>
     <row r="127" spans="2:16">
       <c r="B127" s="305" t="s">
@@ -20448,18 +20463,18 @@
         <f t="shared" ref="G142:G149" si="26">+E142*$G$141</f>
         <v>0</v>
       </c>
-      <c r="K142" s="1072">
+      <c r="K142" s="1073">
         <v>2017</v>
       </c>
-      <c r="L142" s="1072"/>
-      <c r="M142" s="1072">
+      <c r="L142" s="1073"/>
+      <c r="M142" s="1073">
         <v>2016</v>
       </c>
-      <c r="N142" s="1072"/>
-      <c r="O142" s="1072" t="s">
+      <c r="N142" s="1073"/>
+      <c r="O142" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="P142" s="1072"/>
+      <c r="P142" s="1073"/>
     </row>
     <row r="143" spans="2:16">
       <c r="B143" s="305" t="s">
@@ -20828,14 +20843,14 @@
         <f t="shared" ref="G159:G166" si="29">+E159*$G$158</f>
         <v>0</v>
       </c>
-      <c r="K159" s="1072">
+      <c r="K159" s="1073">
         <v>2017</v>
       </c>
-      <c r="L159" s="1072"/>
-      <c r="M159" s="1072">
+      <c r="L159" s="1073"/>
+      <c r="M159" s="1073">
         <v>2016</v>
       </c>
-      <c r="N159" s="1072"/>
+      <c r="N159" s="1073"/>
     </row>
     <row r="160" spans="2:16">
       <c r="B160" s="305" t="s">
@@ -21230,10 +21245,10 @@
         <f t="shared" ref="G184:G191" si="32">+E184*$G$183</f>
         <v>0</v>
       </c>
-      <c r="K184" s="1072">
+      <c r="K184" s="1073">
         <v>2017</v>
       </c>
-      <c r="L184" s="1072"/>
+      <c r="L184" s="1073"/>
     </row>
     <row r="185" spans="2:12">
       <c r="B185" s="305" t="s">
@@ -22043,22 +22058,22 @@
         <f t="shared" ref="K22:K29" si="5">+I22*$K$21</f>
         <v>0</v>
       </c>
-      <c r="O22" s="1072">
+      <c r="O22" s="1073">
         <v>2018</v>
       </c>
-      <c r="P22" s="1072"/>
-      <c r="Q22" s="1072">
+      <c r="P22" s="1073"/>
+      <c r="Q22" s="1073">
         <v>2017</v>
       </c>
-      <c r="R22" s="1072"/>
-      <c r="S22" s="1072">
+      <c r="R22" s="1073"/>
+      <c r="S22" s="1073">
         <v>2016</v>
       </c>
-      <c r="T22" s="1072"/>
-      <c r="U22" s="1072" t="s">
+      <c r="T22" s="1073"/>
+      <c r="U22" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="1072"/>
+      <c r="V22" s="1073"/>
     </row>
     <row r="23" spans="2:25">
       <c r="B23" s="305" t="s">
@@ -22294,18 +22309,18 @@
       </c>
       <c r="O27" s="306"/>
       <c r="P27" s="306"/>
-      <c r="Q27" s="1072">
+      <c r="Q27" s="1073">
         <v>2017</v>
       </c>
-      <c r="R27" s="1072"/>
-      <c r="S27" s="1072">
+      <c r="R27" s="1073"/>
+      <c r="S27" s="1073">
         <v>2016</v>
       </c>
-      <c r="T27" s="1072"/>
-      <c r="U27" s="1072" t="s">
+      <c r="T27" s="1073"/>
+      <c r="U27" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V27" s="1072"/>
+      <c r="V27" s="1073"/>
     </row>
     <row r="28" spans="2:25">
       <c r="B28" s="305" t="s">
@@ -22697,18 +22712,18 @@
         <v>0</v>
       </c>
       <c r="L39" s="308"/>
-      <c r="Q39" s="1072">
+      <c r="Q39" s="1073">
         <v>2017</v>
       </c>
-      <c r="R39" s="1072"/>
-      <c r="S39" s="1072">
+      <c r="R39" s="1073"/>
+      <c r="S39" s="1073">
         <v>2016</v>
       </c>
-      <c r="T39" s="1072"/>
-      <c r="U39" s="1072" t="s">
+      <c r="T39" s="1073"/>
+      <c r="U39" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V39" s="1072"/>
+      <c r="V39" s="1073"/>
     </row>
     <row r="40" spans="2:24">
       <c r="B40" s="305" t="s">
@@ -23284,18 +23299,18 @@
         <f t="shared" ref="K60:K67" si="13">+I60*$K$59</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="1072">
+      <c r="Q60" s="1073">
         <v>2017</v>
       </c>
-      <c r="R60" s="1072"/>
-      <c r="S60" s="1072">
+      <c r="R60" s="1073"/>
+      <c r="S60" s="1073">
         <v>2016</v>
       </c>
-      <c r="T60" s="1072"/>
-      <c r="U60" s="1072" t="s">
+      <c r="T60" s="1073"/>
+      <c r="U60" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V60" s="1072"/>
+      <c r="V60" s="1073"/>
     </row>
     <row r="61" spans="2:22">
       <c r="B61" s="305" t="s">
@@ -23798,18 +23813,18 @@
         <f t="shared" ref="K77:K84" si="17">+I77*$K$76</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="1072">
+      <c r="Q77" s="1073">
         <v>2017</v>
       </c>
-      <c r="R77" s="1072"/>
-      <c r="S77" s="1072">
+      <c r="R77" s="1073"/>
+      <c r="S77" s="1073">
         <v>2016</v>
       </c>
-      <c r="T77" s="1072"/>
-      <c r="U77" s="1072" t="s">
+      <c r="T77" s="1073"/>
+      <c r="U77" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V77" s="1072"/>
+      <c r="V77" s="1073"/>
     </row>
     <row r="78" spans="2:22">
       <c r="B78" s="305" t="s">
@@ -24380,18 +24395,18 @@
         <f t="shared" ref="K97:K104" si="21">+I97*$K$96</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="1072">
+      <c r="Q97" s="1073">
         <v>2017</v>
       </c>
-      <c r="R97" s="1072"/>
-      <c r="S97" s="1072">
+      <c r="R97" s="1073"/>
+      <c r="S97" s="1073">
         <v>2016</v>
       </c>
-      <c r="T97" s="1072"/>
-      <c r="U97" s="1072" t="s">
+      <c r="T97" s="1073"/>
+      <c r="U97" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V97" s="1072"/>
+      <c r="V97" s="1073"/>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="305" t="s">
@@ -24958,18 +24973,18 @@
         <f t="shared" ref="K117:K124" si="25">+I117*$K$116</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="1072">
+      <c r="Q117" s="1073">
         <v>2017</v>
       </c>
-      <c r="R117" s="1072"/>
-      <c r="S117" s="1072">
+      <c r="R117" s="1073"/>
+      <c r="S117" s="1073">
         <v>2016</v>
       </c>
-      <c r="T117" s="1072"/>
-      <c r="U117" s="1072" t="s">
+      <c r="T117" s="1073"/>
+      <c r="U117" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V117" s="1072"/>
+      <c r="V117" s="1073"/>
     </row>
     <row r="118" spans="2:22">
       <c r="B118" s="305" t="s">
@@ -25462,18 +25477,18 @@
         <f t="shared" ref="K134:K141" si="29">+I134*$K$133</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="1072">
+      <c r="Q134" s="1073">
         <v>2017</v>
       </c>
-      <c r="R134" s="1072"/>
-      <c r="S134" s="1072">
+      <c r="R134" s="1073"/>
+      <c r="S134" s="1073">
         <v>2016</v>
       </c>
-      <c r="T134" s="1072"/>
-      <c r="U134" s="1072" t="s">
+      <c r="T134" s="1073"/>
+      <c r="U134" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V134" s="1072"/>
+      <c r="V134" s="1073"/>
     </row>
     <row r="135" spans="2:22">
       <c r="B135" s="305" t="s">
@@ -25977,18 +25992,18 @@
         <f t="shared" ref="K151:K158" si="33">+I151*$K$150</f>
         <v>0</v>
       </c>
-      <c r="Q151" s="1072">
+      <c r="Q151" s="1073">
         <v>2017</v>
       </c>
-      <c r="R151" s="1072"/>
-      <c r="S151" s="1072">
+      <c r="R151" s="1073"/>
+      <c r="S151" s="1073">
         <v>2016</v>
       </c>
-      <c r="T151" s="1072"/>
-      <c r="U151" s="1072" t="s">
+      <c r="T151" s="1073"/>
+      <c r="U151" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V151" s="1072"/>
+      <c r="V151" s="1073"/>
     </row>
     <row r="152" spans="2:22">
       <c r="B152" s="305" t="s">
@@ -26484,18 +26499,18 @@
         <f t="shared" ref="K168:K175" si="37">+I168*$K$167</f>
         <v>0</v>
       </c>
-      <c r="Q168" s="1072">
+      <c r="Q168" s="1073">
         <v>2017</v>
       </c>
-      <c r="R168" s="1072"/>
-      <c r="S168" s="1072">
+      <c r="R168" s="1073"/>
+      <c r="S168" s="1073">
         <v>2016</v>
       </c>
-      <c r="T168" s="1072"/>
-      <c r="U168" s="1072" t="s">
+      <c r="T168" s="1073"/>
+      <c r="U168" s="1073" t="s">
         <v>5</v>
       </c>
-      <c r="V168" s="1072"/>
+      <c r="V168" s="1073"/>
     </row>
     <row r="169" spans="2:22">
       <c r="B169" s="305" t="s">
@@ -26992,14 +27007,14 @@
         <f t="shared" ref="K185:K192" si="41">+I185*$K$184</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="1072">
+      <c r="Q185" s="1073">
         <v>2017</v>
       </c>
-      <c r="R185" s="1072"/>
-      <c r="S185" s="1072">
+      <c r="R185" s="1073"/>
+      <c r="S185" s="1073">
         <v>2016</v>
       </c>
-      <c r="T185" s="1072"/>
+      <c r="T185" s="1073"/>
     </row>
     <row r="186" spans="2:20">
       <c r="B186" s="305" t="s">
@@ -27527,10 +27542,10 @@
         <f t="shared" ref="K206:K213" si="45">+I206*$K$205</f>
         <v>0</v>
       </c>
-      <c r="Q206" s="1072">
+      <c r="Q206" s="1073">
         <v>2017</v>
       </c>
-      <c r="R206" s="1072"/>
+      <c r="R206" s="1073"/>
     </row>
     <row r="207" spans="2:18">
       <c r="B207" s="305" t="s">
@@ -31366,7 +31381,7 @@
       </c>
       <c r="D48" s="389"/>
       <c r="E48" s="390" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F48" s="389"/>
       <c r="G48" s="390" t="s">
@@ -31388,12 +31403,12 @@
       <c r="D49" s="395"/>
       <c r="E49" s="265">
         <f>+'Planilla final'!B76</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="F49" s="395"/>
       <c r="G49" s="265">
         <f t="shared" ref="G49:G60" si="23">+E49*C49</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="H49" s="395"/>
       <c r="I49" s="396">
@@ -31674,12 +31689,12 @@
       <c r="D61" s="389"/>
       <c r="E61" s="399">
         <f>SUM(E49:E60)</f>
-        <v>16866022.050000001</v>
+        <v>13076008.050000001</v>
       </c>
       <c r="F61" s="389"/>
       <c r="G61" s="399">
         <f>SUM(G49:G60)</f>
-        <v>17566645.2780159</v>
+        <v>13776631.278015899</v>
       </c>
       <c r="H61" s="389"/>
       <c r="I61" s="400">
@@ -32234,14 +32249,14 @@
       <c r="D32" s="413"/>
     </row>
     <row r="33" spans="1:6" s="407" customFormat="1" ht="12">
-      <c r="A33" s="1053" t="s">
+      <c r="A33" s="1052" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="1054" t="s">
+      <c r="B33" s="1053" t="s">
         <v>823</v>
       </c>
-      <c r="C33" s="1055"/>
-      <c r="D33" s="1055">
+      <c r="C33" s="1054"/>
+      <c r="D33" s="1054">
         <f>+C31-D34</f>
         <v>0</v>
       </c>
@@ -32348,7 +32363,7 @@
         <v>212</v>
       </c>
       <c r="B42" s="857" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C42" s="858">
         <v>831651</v>
@@ -32360,7 +32375,7 @@
         <v>208</v>
       </c>
       <c r="B43" s="857" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C43" s="858"/>
       <c r="D43" s="858">
@@ -32384,7 +32399,7 @@
         <v>247</v>
       </c>
       <c r="B45" s="411" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C45" s="413"/>
       <c r="D45" s="413">
@@ -32966,11 +32981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AML85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K52" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="Q31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="R56" sqref="R56"/>
+      <selection pane="bottomRight" activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -32989,13 +33004,13 @@
     <col min="14" max="14" width="12.85546875" style="407" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="11.42578125" style="936" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" style="407" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="406" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" style="406" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="4" style="407" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.5703125" style="407" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" style="886" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" style="407" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="41" style="407" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="407" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="407" hidden="1" customWidth="1"/>
     <col min="25" max="1025" width="11.42578125" style="407"/>
     <col min="1026" max="1026" width="11.5703125" customWidth="1"/>
   </cols>
@@ -33052,10 +33067,10 @@
       <c r="M3" s="456" t="s">
         <v>498</v>
       </c>
-      <c r="O3" s="1073" t="s">
+      <c r="O3" s="1074" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="1073"/>
+      <c r="P3" s="1074"/>
     </row>
     <row r="4" spans="1:21 1026:1026" s="460" customFormat="1" ht="36">
       <c r="A4" s="458" t="s">
@@ -33239,7 +33254,7 @@
         <v>514</v>
       </c>
       <c r="B8" s="900">
-        <v>15126973</v>
+        <v>7980392</v>
       </c>
       <c r="C8" s="462">
         <v>96504</v>
@@ -33264,7 +33279,7 @@
       </c>
       <c r="N8" s="463">
         <f t="shared" si="0"/>
-        <v>15816760.74</v>
+        <v>8670179.7400000002</v>
       </c>
       <c r="O8" s="900"/>
       <c r="P8" s="900">
@@ -33273,7 +33288,7 @@
       </c>
       <c r="Q8" s="462">
         <f t="shared" si="1"/>
-        <v>15810074.74</v>
+        <v>8663493.7400000002</v>
       </c>
       <c r="R8" s="451"/>
       <c r="S8" s="917"/>
@@ -33286,7 +33301,7 @@
         <v>40</v>
       </c>
       <c r="B9" s="900">
-        <v>43757949</v>
+        <v>39178212</v>
       </c>
       <c r="C9" s="463">
         <v>204878</v>
@@ -33311,7 +33326,7 @@
       <c r="M9" s="463"/>
       <c r="N9" s="463">
         <f t="shared" si="0"/>
-        <v>46369288.149999999</v>
+        <v>41789551.149999999</v>
       </c>
       <c r="O9" s="900"/>
       <c r="P9" s="900">
@@ -33320,7 +33335,7 @@
       </c>
       <c r="Q9" s="462">
         <f t="shared" si="1"/>
-        <v>37224114.149999999</v>
+        <v>32644377.149999999</v>
       </c>
       <c r="R9" s="451"/>
       <c r="S9" s="917"/>
@@ -33333,7 +33348,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="900">
-        <v>6462502</v>
+        <v>16944276</v>
       </c>
       <c r="C10" s="462">
         <v>0</v>
@@ -33356,13 +33371,13 @@
       </c>
       <c r="N10" s="463">
         <f t="shared" si="0"/>
-        <v>6482831</v>
+        <v>16964605</v>
       </c>
       <c r="O10" s="900"/>
       <c r="P10" s="900"/>
       <c r="Q10" s="462">
         <f t="shared" si="1"/>
-        <v>6482831</v>
+        <v>16964605</v>
       </c>
       <c r="R10" s="451"/>
       <c r="S10" s="917"/>
@@ -33372,10 +33387,10 @@
     </row>
     <row r="11" spans="1:21 1026:1026" s="408" customFormat="1">
       <c r="A11" s="461" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B11" s="900">
-        <v>5359704</v>
+        <v>4638</v>
       </c>
       <c r="C11" s="462"/>
       <c r="D11" s="462">
@@ -33398,13 +33413,13 @@
       <c r="M11" s="463"/>
       <c r="N11" s="463">
         <f t="shared" si="0"/>
-        <v>5830961.7599999998</v>
+        <v>475895.76</v>
       </c>
       <c r="O11" s="900"/>
       <c r="P11" s="900"/>
       <c r="Q11" s="462">
         <f t="shared" si="1"/>
-        <v>5830961.7599999998</v>
+        <v>475895.76</v>
       </c>
       <c r="R11" s="451"/>
       <c r="S11" s="917"/>
@@ -33417,7 +33432,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="900">
-        <v>1748307</v>
+        <v>2538695</v>
       </c>
       <c r="C12" s="463"/>
       <c r="D12" s="463"/>
@@ -33434,13 +33449,13 @@
       <c r="M12" s="463"/>
       <c r="N12" s="463">
         <f t="shared" si="0"/>
-        <v>1761314</v>
+        <v>2551702</v>
       </c>
       <c r="O12" s="900"/>
       <c r="P12" s="900"/>
       <c r="Q12" s="462">
         <f t="shared" si="1"/>
-        <v>1761314</v>
+        <v>2551702</v>
       </c>
       <c r="R12" s="451"/>
       <c r="S12" s="917"/>
@@ -33453,7 +33468,7 @@
         <v>46</v>
       </c>
       <c r="B13" s="900">
-        <v>28373524</v>
+        <v>28373114</v>
       </c>
       <c r="C13" s="462"/>
       <c r="D13" s="463">
@@ -33474,13 +33489,13 @@
       </c>
       <c r="N13" s="463">
         <f t="shared" si="0"/>
-        <v>28453869.379999999</v>
+        <v>28453459.379999999</v>
       </c>
       <c r="O13" s="900"/>
       <c r="P13" s="900"/>
       <c r="Q13" s="462">
         <f t="shared" si="1"/>
-        <v>28453869.379999999</v>
+        <v>28453459.379999999</v>
       </c>
       <c r="R13" s="451"/>
       <c r="S13" s="917"/>
@@ -33527,7 +33542,7 @@
         <v>48</v>
       </c>
       <c r="B15" s="900">
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="C15" s="462"/>
       <c r="D15" s="463"/>
@@ -33544,7 +33559,7 @@
       <c r="M15" s="463"/>
       <c r="N15" s="463">
         <f t="shared" si="0"/>
-        <v>852144</v>
+        <v>7570843</v>
       </c>
       <c r="O15" s="900"/>
       <c r="P15" s="900">
@@ -33553,7 +33568,7 @@
       </c>
       <c r="Q15" s="900">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="R15" s="451"/>
       <c r="S15" s="917"/>
@@ -33565,9 +33580,7 @@
       <c r="A16" s="461" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="900">
-        <v>4645673</v>
-      </c>
+      <c r="B16" s="900"/>
       <c r="C16" s="462"/>
       <c r="D16" s="463"/>
       <c r="E16" s="463"/>
@@ -33581,13 +33594,13 @@
       <c r="M16" s="463"/>
       <c r="N16" s="463">
         <f t="shared" si="0"/>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="O16" s="900"/>
       <c r="P16" s="900"/>
       <c r="Q16" s="462">
         <f t="shared" si="1"/>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="R16" s="451"/>
       <c r="S16" s="917"/>
@@ -33654,7 +33667,7 @@
         <v>515</v>
       </c>
       <c r="B18" s="900">
-        <v>-146152287</v>
+        <v>-144590128</v>
       </c>
       <c r="C18" s="462"/>
       <c r="D18" s="462">
@@ -33677,7 +33690,7 @@
       <c r="M18" s="462"/>
       <c r="N18" s="463">
         <f t="shared" si="0"/>
-        <v>-148199705.47</v>
+        <v>-146637546.47</v>
       </c>
       <c r="O18" s="900">
         <f>+'AD ESF'!D283</f>
@@ -33686,7 +33699,7 @@
       <c r="P18" s="900"/>
       <c r="Q18" s="462">
         <f t="shared" si="1"/>
-        <v>-146190907.47</v>
+        <v>-144628748.47</v>
       </c>
       <c r="R18" s="451"/>
       <c r="S18" s="917"/>
@@ -33735,7 +33748,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="900">
-        <v>11075558</v>
+        <v>11046486</v>
       </c>
       <c r="C20" s="462"/>
       <c r="D20" s="463"/>
@@ -33750,7 +33763,7 @@
       <c r="M20" s="463"/>
       <c r="N20" s="463">
         <f t="shared" si="0"/>
-        <v>11075558</v>
+        <v>11046486</v>
       </c>
       <c r="O20" s="900">
         <f>+'AD ESF'!D252+'AD ESF'!D290</f>
@@ -33759,7 +33772,7 @@
       <c r="P20" s="900"/>
       <c r="Q20" s="462">
         <f t="shared" si="1"/>
-        <v>11598541</v>
+        <v>11569469</v>
       </c>
       <c r="R20" s="451"/>
       <c r="S20" s="917"/>
@@ -33772,7 +33785,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="900">
-        <v>0</v>
+        <v>1429486</v>
       </c>
       <c r="C21" s="462"/>
       <c r="D21" s="463"/>
@@ -33787,13 +33800,13 @@
       <c r="M21" s="463"/>
       <c r="N21" s="463">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1429486</v>
       </c>
       <c r="O21" s="900"/>
       <c r="P21" s="900"/>
       <c r="Q21" s="462">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1429486</v>
       </c>
       <c r="R21" s="451"/>
       <c r="S21" s="917"/>
@@ -33806,7 +33819,7 @@
         <v>516</v>
       </c>
       <c r="B22" s="900">
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="C22" s="463"/>
       <c r="D22" s="463"/>
@@ -33821,7 +33834,7 @@
       <c r="M22" s="463"/>
       <c r="N22" s="463">
         <f t="shared" si="0"/>
-        <v>42626957</v>
+        <v>42165207</v>
       </c>
       <c r="O22" s="900">
         <f>+'AD ESF'!D317</f>
@@ -33833,7 +33846,7 @@
       </c>
       <c r="Q22" s="462">
         <f t="shared" si="1"/>
-        <v>4056030</v>
+        <v>3594280</v>
       </c>
       <c r="R22" s="451"/>
       <c r="S22" s="917"/>
@@ -33916,7 +33929,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="901">
-        <v>1721555</v>
+        <v>292069</v>
       </c>
       <c r="C25" s="467">
         <v>100</v>
@@ -33937,7 +33950,7 @@
       <c r="M25" s="467"/>
       <c r="N25" s="463">
         <f t="shared" si="0"/>
-        <v>4271695.18</v>
+        <v>2842209.18</v>
       </c>
       <c r="O25" s="901"/>
       <c r="P25" s="901">
@@ -33946,7 +33959,7 @@
       </c>
       <c r="Q25" s="462">
         <f t="shared" si="1"/>
-        <v>1737355.1799999997</v>
+        <v>307869.18000000017</v>
       </c>
       <c r="R25" s="451"/>
       <c r="S25" s="917"/>
@@ -33960,7 +33973,7 @@
       </c>
       <c r="B26" s="469">
         <f t="shared" ref="B26:N26" si="2">SUM(B5:B25)</f>
-        <v>226220008</v>
+        <v>223554739</v>
       </c>
       <c r="C26" s="469">
         <f t="shared" si="2"/>
@@ -34008,7 +34021,7 @@
       </c>
       <c r="N26" s="469">
         <f t="shared" si="2"/>
-        <v>275853329.79000002</v>
+        <v>273188060.79000002</v>
       </c>
       <c r="O26" s="902">
         <f>+SUM(O5:O25)</f>
@@ -34020,7 +34033,7 @@
       </c>
       <c r="Q26" s="470">
         <f>SUM(Q5:Q25)</f>
-        <v>225235844.79000002</v>
+        <v>222570575.79000002</v>
       </c>
       <c r="R26" s="1018"/>
       <c r="S26" s="918"/>
@@ -34069,7 +34082,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="900">
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="C28" s="463"/>
       <c r="D28" s="463"/>
@@ -34084,13 +34097,13 @@
       <c r="M28" s="463"/>
       <c r="N28" s="474">
         <f t="shared" si="0"/>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="O28" s="900"/>
       <c r="P28" s="900"/>
       <c r="Q28" s="462">
         <f t="shared" si="3"/>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="R28" s="451"/>
       <c r="S28" s="917"/>
@@ -34103,7 +34116,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="900">
-        <v>6939887</v>
+        <v>6939886</v>
       </c>
       <c r="C29" s="463"/>
       <c r="D29" s="463">
@@ -34124,13 +34137,13 @@
       <c r="M29" s="463"/>
       <c r="N29" s="474">
         <f t="shared" si="0"/>
-        <v>7029610.0199999996</v>
+        <v>7029609.0199999996</v>
       </c>
       <c r="O29" s="900"/>
       <c r="P29" s="900"/>
       <c r="Q29" s="462">
         <f t="shared" si="3"/>
-        <v>7029610.0199999996</v>
+        <v>7029609.0199999996</v>
       </c>
       <c r="R29" s="451"/>
       <c r="S29" s="917"/>
@@ -34143,7 +34156,7 @@
         <v>67</v>
       </c>
       <c r="B30" s="900">
-        <v>25754955</v>
+        <v>29686523</v>
       </c>
       <c r="C30" s="462">
         <v>813607</v>
@@ -34168,7 +34181,7 @@
       </c>
       <c r="N30" s="474">
         <f t="shared" si="0"/>
-        <v>27040566</v>
+        <v>30972134</v>
       </c>
       <c r="O30" s="900">
         <f>+'AD ESF'!D304</f>
@@ -34177,7 +34190,7 @@
       <c r="P30" s="900"/>
       <c r="Q30" s="462">
         <f t="shared" si="3"/>
-        <v>26181737</v>
+        <v>30113305</v>
       </c>
       <c r="R30" s="451"/>
       <c r="S30" s="917"/>
@@ -34237,10 +34250,10 @@
     </row>
     <row r="32" spans="1:21 1026:1026" s="408" customFormat="1">
       <c r="A32" s="461" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B32" s="900">
-        <v>12422401</v>
+        <v>11705642</v>
       </c>
       <c r="C32" s="463"/>
       <c r="D32" s="462"/>
@@ -34259,13 +34272,13 @@
       <c r="M32" s="462"/>
       <c r="N32" s="474">
         <f t="shared" si="0"/>
-        <v>12494757</v>
+        <v>11777998</v>
       </c>
       <c r="O32" s="900"/>
       <c r="P32" s="900"/>
       <c r="Q32" s="462">
         <f t="shared" si="3"/>
-        <v>12494757</v>
+        <v>11777998</v>
       </c>
       <c r="R32" s="451"/>
       <c r="S32" s="917"/>
@@ -34278,7 +34291,8 @@
         <v>72</v>
       </c>
       <c r="B33" s="900">
-        <v>6333057</v>
+        <f>3245760-1574195</f>
+        <v>1671565</v>
       </c>
       <c r="C33" s="462"/>
       <c r="D33" s="462">
@@ -34302,7 +34316,7 @@
       </c>
       <c r="N33" s="474">
         <f t="shared" si="0"/>
-        <v>6430085.5300000003</v>
+        <v>1768593.53</v>
       </c>
       <c r="O33" s="900">
         <f>+'AD ESF'!D306</f>
@@ -34311,7 +34325,7 @@
       <c r="P33" s="900"/>
       <c r="Q33" s="462">
         <f t="shared" si="3"/>
-        <v>6444592.5300000003</v>
+        <v>1783100.53</v>
       </c>
       <c r="R33" s="451"/>
       <c r="S33" s="917"/>
@@ -34320,11 +34334,11 @@
       <c r="AML33"/>
     </row>
     <row r="34" spans="1:22 1026:1026" s="408" customFormat="1">
-      <c r="A34" s="461" t="s">
-        <v>838</v>
+      <c r="A34" s="1062" t="s">
+        <v>902</v>
       </c>
       <c r="B34" s="900">
-        <v>4578384</v>
+        <v>2479542</v>
       </c>
       <c r="C34" s="463"/>
       <c r="D34" s="463"/>
@@ -34339,13 +34353,13 @@
       <c r="M34" s="463"/>
       <c r="N34" s="474">
         <f t="shared" si="0"/>
-        <v>4578384</v>
+        <v>2479542</v>
       </c>
       <c r="O34" s="900"/>
       <c r="P34" s="900"/>
       <c r="Q34" s="462">
         <f t="shared" si="3"/>
-        <v>4578384</v>
+        <v>2479542</v>
       </c>
       <c r="R34" s="451"/>
       <c r="S34" s="917"/>
@@ -34358,7 +34372,7 @@
         <v>837</v>
       </c>
       <c r="B35" s="900">
-        <v>9733654</v>
+        <v>11189871</v>
       </c>
       <c r="C35" s="463"/>
       <c r="D35" s="462">
@@ -34382,13 +34396,13 @@
       </c>
       <c r="N35" s="474">
         <f t="shared" si="0"/>
-        <v>9995333.0800000001</v>
+        <v>11451550.08</v>
       </c>
       <c r="O35" s="900"/>
       <c r="P35" s="900"/>
       <c r="Q35" s="462">
         <f t="shared" si="3"/>
-        <v>9995333.0800000001</v>
+        <v>11451550.08</v>
       </c>
       <c r="R35" s="451"/>
       <c r="S35" s="917"/>
@@ -34434,9 +34448,7 @@
       <c r="A37" s="461" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="900">
-        <v>45106525</v>
-      </c>
+      <c r="B37" s="900"/>
       <c r="C37" s="463"/>
       <c r="D37" s="462"/>
       <c r="E37" s="463"/>
@@ -34450,13 +34462,13 @@
       <c r="M37" s="462"/>
       <c r="N37" s="474">
         <f t="shared" si="0"/>
-        <v>45106525</v>
+        <v>0</v>
       </c>
       <c r="O37" s="900"/>
       <c r="P37" s="900"/>
       <c r="Q37" s="462">
         <f t="shared" si="3"/>
-        <v>45106525</v>
+        <v>0</v>
       </c>
       <c r="R37" s="451"/>
       <c r="S37" s="917"/>
@@ -34469,7 +34481,7 @@
         <v>521</v>
       </c>
       <c r="B38" s="900">
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="C38" s="463"/>
       <c r="D38" s="463"/>
@@ -34486,13 +34498,13 @@
       <c r="M38" s="463"/>
       <c r="N38" s="474">
         <f t="shared" si="0"/>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="O38" s="900"/>
       <c r="P38" s="900"/>
       <c r="Q38" s="462">
         <f t="shared" si="3"/>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="R38" s="451"/>
       <c r="S38" s="917"/>
@@ -34534,12 +34546,12 @@
       <c r="U39" s="890"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:22 1026:1026" s="408" customFormat="1" hidden="1">
+    <row r="40" spans="1:22 1026:1026" s="408" customFormat="1">
       <c r="A40" s="461" t="s">
-        <v>79</v>
+        <v>904</v>
       </c>
       <c r="B40" s="900">
-        <v>0</v>
+        <v>4608086</v>
       </c>
       <c r="C40" s="463"/>
       <c r="D40" s="463"/>
@@ -34554,13 +34566,13 @@
       <c r="M40" s="463"/>
       <c r="N40" s="474">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4608086</v>
       </c>
       <c r="O40" s="900"/>
       <c r="P40" s="900"/>
       <c r="Q40" s="900">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4608086</v>
       </c>
       <c r="R40" s="451"/>
       <c r="S40" s="917"/>
@@ -34572,9 +34584,7 @@
       <c r="A41" s="461" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="900">
-        <v>0</v>
-      </c>
+      <c r="B41" s="900"/>
       <c r="C41" s="462">
         <f>4636266+693808</f>
         <v>5330074</v>
@@ -34621,12 +34631,10 @@
       <c r="AML41"/>
     </row>
     <row r="42" spans="1:22 1026:1026" s="408" customFormat="1">
-      <c r="A42" s="461" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="900">
-        <v>1141591</v>
-      </c>
+      <c r="A42" s="1062" t="s">
+        <v>903</v>
+      </c>
+      <c r="B42" s="900"/>
       <c r="C42" s="463"/>
       <c r="D42" s="463"/>
       <c r="E42" s="463"/>
@@ -34640,13 +34648,13 @@
       <c r="M42" s="463"/>
       <c r="N42" s="474">
         <f t="shared" si="0"/>
-        <v>1141591</v>
+        <v>0</v>
       </c>
       <c r="O42" s="900"/>
       <c r="P42" s="900"/>
       <c r="Q42" s="462">
         <f t="shared" si="3"/>
-        <v>1141591</v>
+        <v>0</v>
       </c>
       <c r="R42" s="451"/>
       <c r="S42" s="917"/>
@@ -34659,7 +34667,7 @@
         <v>522</v>
       </c>
       <c r="B43" s="900">
-        <v>7290869</v>
+        <v>7288330</v>
       </c>
       <c r="C43" s="463"/>
       <c r="D43" s="463"/>
@@ -34676,13 +34684,13 @@
       <c r="M43" s="463"/>
       <c r="N43" s="474">
         <f t="shared" si="0"/>
-        <v>7332501</v>
+        <v>7329962</v>
       </c>
       <c r="O43" s="900"/>
       <c r="P43" s="900"/>
       <c r="Q43" s="462">
         <f t="shared" si="3"/>
-        <v>7332501</v>
+        <v>7329962</v>
       </c>
       <c r="R43" s="451"/>
       <c r="S43" s="917"/>
@@ -34724,11 +34732,13 @@
       <c r="U44" s="890"/>
       <c r="AML44"/>
     </row>
-    <row r="45" spans="1:22 1026:1026" s="408" customFormat="1" hidden="1">
+    <row r="45" spans="1:22 1026:1026" s="408" customFormat="1">
       <c r="A45" s="461" t="s">
         <v>519</v>
       </c>
-      <c r="B45" s="900"/>
+      <c r="B45" s="900">
+        <v>42626983</v>
+      </c>
       <c r="C45" s="463"/>
       <c r="D45" s="463"/>
       <c r="E45" s="463"/>
@@ -34742,13 +34752,13 @@
       <c r="M45" s="463"/>
       <c r="N45" s="474">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42626983</v>
       </c>
       <c r="O45" s="900"/>
       <c r="P45" s="900"/>
       <c r="Q45" s="462">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42626983</v>
       </c>
       <c r="R45" s="451"/>
       <c r="S45" s="917"/>
@@ -34757,8 +34767,8 @@
       <c r="AML45"/>
     </row>
     <row r="46" spans="1:22 1026:1026" s="408" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A46" s="465" t="s">
-        <v>840</v>
+      <c r="A46" s="1063" t="s">
+        <v>905</v>
       </c>
       <c r="B46" s="901">
         <v>2580000</v>
@@ -34796,7 +34806,7 @@
       </c>
       <c r="B47" s="902">
         <f t="shared" ref="B47:Q47" si="4">SUM(B27:B46)</f>
-        <v>137912070</v>
+        <v>139036815</v>
       </c>
       <c r="C47" s="469">
         <f t="shared" si="4"/>
@@ -34844,7 +34854,7 @@
       </c>
       <c r="N47" s="469">
         <f t="shared" si="4"/>
-        <v>150417348.94999999</v>
+        <v>151542093.94999999</v>
       </c>
       <c r="O47" s="902">
         <f t="shared" si="4"/>
@@ -34856,7 +34866,7 @@
       </c>
       <c r="Q47" s="470">
         <f t="shared" si="4"/>
-        <v>139650800.94999999</v>
+        <v>140775545.94999999</v>
       </c>
       <c r="R47" s="1019"/>
       <c r="S47" s="918"/>
@@ -35143,7 +35153,7 @@
         <v>0.16999999998370185</v>
       </c>
       <c r="S52" s="917" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T52" s="923">
         <f>+Q52-'ECP20'!L86</f>
@@ -35255,7 +35265,7 @@
         <v>0.35000000009313226</v>
       </c>
       <c r="W54" s="408" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AML54"/>
     </row>
@@ -35316,9 +35326,10 @@
     </row>
     <row r="56" spans="1:24 1026:1026" s="408" customFormat="1">
       <c r="A56" s="461" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B56" s="900">
+        <f>59368780-15361151</f>
         <v>44007629</v>
       </c>
       <c r="C56" s="477">
@@ -35366,24 +35377,25 @@
         <f t="shared" si="6"/>
         <v>35499688.639999993</v>
       </c>
-      <c r="R56" s="1052">
+      <c r="R56" s="886">
         <f>+Q56+Q57-'ECP20'!P86</f>
-        <v>-2312.4925545752048</v>
-      </c>
-      <c r="S56" s="917"/>
-      <c r="T56" s="923">
+        <v>-4.4925545752048492</v>
+      </c>
+      <c r="S56" s="1064"/>
+      <c r="T56" s="928">
         <f>+Q56+Q57-'ECP20'!P86</f>
-        <v>-2312.4925545752048</v>
+        <v>-4.4925545752048492</v>
       </c>
       <c r="U56" s="924">
         <v>34120511.763659999</v>
       </c>
-      <c r="V56" s="925">
+      <c r="V56" s="924">
         <f t="shared" si="7"/>
         <v>-1379176.8763399944</v>
       </c>
-      <c r="X56" s="1060" t="s">
-        <v>894</v>
+      <c r="W56" s="1048"/>
+      <c r="X56" s="1048" t="s">
+        <v>893</v>
       </c>
       <c r="AML56"/>
     </row>
@@ -35392,7 +35404,8 @@
         <v>525</v>
       </c>
       <c r="B57" s="900">
-        <v>19151165</v>
+        <f>+B76</f>
+        <v>15361151</v>
       </c>
       <c r="C57" s="477">
         <f>+C76</f>
@@ -35425,7 +35438,7 @@
       </c>
       <c r="N57" s="474">
         <f t="shared" si="5"/>
-        <v>16866021.880000003</v>
+        <v>13076007.880000001</v>
       </c>
       <c r="O57" s="900">
         <f>+O76</f>
@@ -35437,11 +35450,11 @@
       </c>
       <c r="Q57" s="473">
         <f t="shared" si="6"/>
-        <v>18032460.880000003</v>
+        <v>14242446.880000001</v>
       </c>
       <c r="R57" s="886">
         <f>+Q57-Patrimonio!Q63</f>
-        <v>-0.16999999806284904</v>
+        <v>-0.16999999992549419</v>
       </c>
       <c r="S57" s="917" t="s">
         <v>498</v>
@@ -35509,7 +35522,7 @@
       </c>
       <c r="B59" s="902">
         <f>SUM(B48:B58)</f>
-        <v>88307938</v>
+        <v>84517924</v>
       </c>
       <c r="C59" s="902">
         <f t="shared" ref="C59:K59" si="8">SUM(C48:C58)</f>
@@ -35557,7 +35570,7 @@
       </c>
       <c r="N59" s="469">
         <f t="shared" ref="N59:Q59" si="10">SUM(N48:N58)</f>
-        <v>125435980.84</v>
+        <v>121645966.84</v>
       </c>
       <c r="O59" s="902">
         <f t="shared" si="10"/>
@@ -35569,7 +35582,7 @@
       </c>
       <c r="Q59" s="470">
         <f t="shared" si="10"/>
-        <v>85585043.840000004</v>
+        <v>81795029.839999989</v>
       </c>
       <c r="R59" s="1019"/>
       <c r="S59" s="918"/>
@@ -35579,7 +35592,7 @@
       </c>
       <c r="V59" s="925">
         <f>+U59-Q59</f>
-        <v>2915853.6299999952</v>
+        <v>6705867.6300000101</v>
       </c>
       <c r="AML59"/>
     </row>
@@ -35589,7 +35602,7 @@
       </c>
       <c r="B60" s="902">
         <f>+B59+B47</f>
-        <v>226220008</v>
+        <v>223554739</v>
       </c>
       <c r="C60" s="902">
         <f t="shared" ref="C60:Q60" si="11">+C59+C47</f>
@@ -35637,7 +35650,7 @@
       </c>
       <c r="N60" s="902">
         <f t="shared" si="11"/>
-        <v>275853329.78999996</v>
+        <v>273188060.78999996</v>
       </c>
       <c r="O60" s="902">
         <f t="shared" si="11"/>
@@ -35649,7 +35662,7 @@
       </c>
       <c r="Q60" s="902">
         <f t="shared" si="11"/>
-        <v>225235844.78999999</v>
+        <v>222570575.78999996</v>
       </c>
       <c r="R60" s="1019"/>
       <c r="S60" s="918"/>
@@ -35821,7 +35834,7 @@
         <v>101</v>
       </c>
       <c r="B64" s="907">
-        <v>205835336</v>
+        <v>204668336</v>
       </c>
       <c r="C64" s="484">
         <v>318327</v>
@@ -35848,7 +35861,7 @@
       </c>
       <c r="N64" s="485">
         <f>SUM(B64:M64)</f>
-        <v>211519899.90000001</v>
+        <v>210352899.90000001</v>
       </c>
       <c r="O64" s="939">
         <f>+'AD ERI'!D38</f>
@@ -35857,7 +35870,7 @@
       <c r="P64" s="940"/>
       <c r="Q64" s="486">
         <f>N64-O64+P64</f>
-        <v>210617337.90000001</v>
+        <v>209450337.90000001</v>
       </c>
       <c r="S64" s="919"/>
       <c r="T64" s="919"/>
@@ -35867,7 +35880,7 @@
         <v>102</v>
       </c>
       <c r="B65" s="908">
-        <v>-93087412</v>
+        <v>-91243067</v>
       </c>
       <c r="C65" s="487">
         <v>-3244369</v>
@@ -35894,7 +35907,7 @@
       </c>
       <c r="N65" s="488">
         <f>SUM(B65:M65)</f>
-        <v>-99162677.700000003</v>
+        <v>-97318332.700000003</v>
       </c>
       <c r="O65" s="941"/>
       <c r="P65" s="942">
@@ -35903,7 +35916,7 @@
       </c>
       <c r="Q65" s="489">
         <f>N65-O65+P65</f>
-        <v>-98260115.700000003</v>
+        <v>-96415770.700000003</v>
       </c>
       <c r="S65" s="919"/>
       <c r="T65" s="919"/>
@@ -35914,7 +35927,7 @@
       </c>
       <c r="B66" s="909">
         <f t="shared" ref="B66:N66" si="13">SUM(B64:B65)</f>
-        <v>112747924</v>
+        <v>113425269</v>
       </c>
       <c r="C66" s="491">
         <f t="shared" si="13"/>
@@ -35962,13 +35975,13 @@
       </c>
       <c r="N66" s="491">
         <f t="shared" si="13"/>
-        <v>112357222.2</v>
+        <v>113034567.2</v>
       </c>
       <c r="O66" s="943"/>
       <c r="P66" s="943"/>
       <c r="Q66" s="492">
         <f>SUM(Q64:Q65)</f>
-        <v>112357222.2</v>
+        <v>113034567.2</v>
       </c>
       <c r="R66" s="1021"/>
       <c r="S66" s="920"/>
@@ -35981,7 +35994,7 @@
         <v>104</v>
       </c>
       <c r="B67" s="910">
-        <v>-78565101</v>
+        <v>-78246646</v>
       </c>
       <c r="C67" s="494"/>
       <c r="D67" s="494">
@@ -36008,13 +36021,13 @@
       </c>
       <c r="N67" s="495">
         <f>SUM(B67:M67)</f>
-        <v>-79963126.739999995</v>
+        <v>-79644671.739999995</v>
       </c>
       <c r="O67" s="940"/>
       <c r="P67" s="939"/>
       <c r="Q67" s="486">
         <f>N67-O67+P67</f>
-        <v>-79963126.739999995</v>
+        <v>-79644671.739999995</v>
       </c>
       <c r="S67" s="919"/>
       <c r="T67" s="919"/>
@@ -36024,7 +36037,7 @@
         <v>105</v>
       </c>
       <c r="B68" s="908">
-        <v>-501019</v>
+        <v>-498825</v>
       </c>
       <c r="C68" s="487">
         <v>-261961</v>
@@ -36048,7 +36061,7 @@
       <c r="M68" s="487"/>
       <c r="N68" s="488">
         <f>SUM(B68:M68)</f>
-        <v>-834851.41</v>
+        <v>-832657.41</v>
       </c>
       <c r="O68" s="941"/>
       <c r="P68" s="942">
@@ -36057,7 +36070,7 @@
       </c>
       <c r="Q68" s="489">
         <f>N68-O68+P68</f>
-        <v>-366723.41000000003</v>
+        <v>-364529.41000000003</v>
       </c>
       <c r="S68" s="919"/>
       <c r="T68" s="919"/>
@@ -36068,7 +36081,7 @@
       </c>
       <c r="B69" s="909">
         <f t="shared" ref="B69:N69" si="14">SUM(B66:B68)</f>
-        <v>33681804</v>
+        <v>34679798</v>
       </c>
       <c r="C69" s="491">
         <f t="shared" si="14"/>
@@ -36116,13 +36129,13 @@
       </c>
       <c r="N69" s="491">
         <f t="shared" si="14"/>
-        <v>31559244.050000008</v>
+        <v>32557238.050000008</v>
       </c>
       <c r="O69" s="943"/>
       <c r="P69" s="943"/>
       <c r="Q69" s="492">
         <f>SUM(Q66:Q68)</f>
-        <v>32027372.050000008</v>
+        <v>33025366.050000008</v>
       </c>
       <c r="R69" s="1021"/>
       <c r="S69" s="920"/>
@@ -36135,7 +36148,7 @@
         <v>108</v>
       </c>
       <c r="B70" s="908">
-        <v>-1888989</v>
+        <v>-1888991</v>
       </c>
       <c r="C70" s="487"/>
       <c r="D70" s="487"/>
@@ -36154,13 +36167,13 @@
       <c r="M70" s="487"/>
       <c r="N70" s="488">
         <f>SUM(B70:M70)</f>
-        <v>-1897461</v>
+        <v>-1897463</v>
       </c>
       <c r="O70" s="941"/>
       <c r="P70" s="941"/>
       <c r="Q70" s="489">
         <f>N70-O70+P70</f>
-        <v>-1897461</v>
+        <v>-1897463</v>
       </c>
       <c r="S70" s="919"/>
       <c r="T70" s="919"/>
@@ -36171,7 +36184,7 @@
       </c>
       <c r="B71" s="909">
         <f t="shared" ref="B71:N71" si="15">+B69+B70</f>
-        <v>31792815</v>
+        <v>32790807</v>
       </c>
       <c r="C71" s="491">
         <f t="shared" si="15"/>
@@ -36219,13 +36232,13 @@
       </c>
       <c r="N71" s="491">
         <f t="shared" si="15"/>
-        <v>29661783.050000008</v>
+        <v>30659775.050000008</v>
       </c>
       <c r="O71" s="944"/>
       <c r="P71" s="944"/>
       <c r="Q71" s="492">
         <f>+Q69+Q70</f>
-        <v>30129911.050000008</v>
+        <v>31127903.050000008</v>
       </c>
       <c r="R71" s="1021"/>
       <c r="S71" s="920"/>
@@ -36238,7 +36251,7 @@
         <v>110</v>
       </c>
       <c r="B72" s="910">
-        <v>-4768922</v>
+        <v>-4918620</v>
       </c>
       <c r="C72" s="494"/>
       <c r="D72" s="494"/>
@@ -36257,13 +36270,13 @@
       <c r="M72" s="494"/>
       <c r="N72" s="495">
         <f>SUM(B72:M72)</f>
-        <v>-4837640</v>
+        <v>-4987338</v>
       </c>
       <c r="O72" s="940"/>
       <c r="P72" s="940"/>
       <c r="Q72" s="486">
         <f>N72-O72+P72</f>
-        <v>-4837640</v>
+        <v>-4987338</v>
       </c>
       <c r="S72" s="919"/>
       <c r="T72" s="919"/>
@@ -36273,7 +36286,7 @@
         <v>111</v>
       </c>
       <c r="B73" s="908">
-        <v>-7872728</v>
+        <v>-12511036</v>
       </c>
       <c r="C73" s="487"/>
       <c r="D73" s="487"/>
@@ -36293,13 +36306,13 @@
       <c r="M73" s="487"/>
       <c r="N73" s="488">
         <f>SUM(B73:M73)</f>
-        <v>-7958121</v>
+        <v>-12596429</v>
       </c>
       <c r="O73" s="945"/>
       <c r="P73" s="941"/>
       <c r="Q73" s="489">
         <f>N73-O73+P73</f>
-        <v>-7958121</v>
+        <v>-12596429</v>
       </c>
       <c r="S73" s="919"/>
       <c r="T73" s="919"/>
@@ -36310,7 +36323,7 @@
       </c>
       <c r="B74" s="909">
         <f t="shared" ref="B74:G74" si="16">+B71+B72+B73</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C74" s="491">
         <f t="shared" si="16"/>
@@ -36358,13 +36371,13 @@
       </c>
       <c r="N74" s="491">
         <f>+N71+N72+N73</f>
-        <v>16866022.050000008</v>
+        <v>13076008.050000008</v>
       </c>
       <c r="O74" s="946"/>
       <c r="P74" s="946"/>
       <c r="Q74" s="496">
         <f>+Q71+Q72+Q73</f>
-        <v>17334150.050000008</v>
+        <v>13544136.050000008</v>
       </c>
       <c r="R74" s="1021"/>
       <c r="S74" s="921"/>
@@ -36409,7 +36422,7 @@
       </c>
       <c r="B76" s="912">
         <f t="shared" ref="B76:N76" si="17">B74+B75</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C76" s="502">
         <f t="shared" si="17"/>
@@ -36457,7 +36470,7 @@
       </c>
       <c r="N76" s="502">
         <f t="shared" si="17"/>
-        <v>16866022.050000008</v>
+        <v>13076008.050000008</v>
       </c>
       <c r="O76" s="912">
         <f>SUM(O64:O75)</f>
@@ -36469,7 +36482,7 @@
       </c>
       <c r="Q76" s="503">
         <f>Q74+Q75</f>
-        <v>17334150.050000008</v>
+        <v>13544136.050000008</v>
       </c>
       <c r="R76" s="1017"/>
       <c r="S76" s="921"/>
@@ -37594,7 +37607,7 @@
       </c>
       <c r="B80" s="506">
         <f>+B76*100%</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C80" s="506">
         <f>+C76*Participaciones!E16</f>
@@ -37641,7 +37654,7 @@
       </c>
       <c r="N80" s="507">
         <f>SUM(B80:M80)</f>
-        <v>17566645.178671967</v>
+        <v>13776631.178671967</v>
       </c>
       <c r="O80" s="948">
         <f>+O68+O64</f>
@@ -37653,7 +37666,7 @@
       </c>
       <c r="Q80" s="507">
         <f>+N80-O80+P80</f>
-        <v>18034773.178671967</v>
+        <v>14244759.178671967</v>
       </c>
       <c r="S80" s="922"/>
       <c r="T80" s="922"/>
@@ -37728,7 +37741,7 @@
       <c r="A82" s="511"/>
       <c r="B82" s="512">
         <f>+B80+B81</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C82" s="512">
         <f>+C80+C81</f>
@@ -37773,7 +37786,7 @@
       </c>
       <c r="N82" s="512">
         <f t="shared" si="20"/>
-        <v>16866022.049999997</v>
+        <v>13076008.049999999</v>
       </c>
       <c r="O82" s="950">
         <f t="shared" si="20"/>
@@ -37785,7 +37798,7 @@
       </c>
       <c r="Q82" s="512">
         <f t="shared" si="20"/>
-        <v>17334150.049999997</v>
+        <v>13544136.049999999</v>
       </c>
       <c r="S82" s="922"/>
       <c r="T82" s="922"/>
@@ -37849,8 +37862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ321"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView showGridLines="0" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -39244,7 +39257,7 @@
     </row>
     <row r="136" spans="2:6" ht="32.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C136" s="535" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D136" s="529" t="s">
         <v>216</v>
@@ -40494,7 +40507,7 @@
     </row>
     <row r="264" spans="3:6">
       <c r="C264" s="538" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D264" s="548"/>
       <c r="E264" s="548">
@@ -40530,7 +40543,7 @@
     </row>
     <row r="268" spans="3:6" ht="24.75">
       <c r="C268" s="536" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D268" s="537" t="s">
         <v>216</v>
@@ -40552,7 +40565,7 @@
     </row>
     <row r="270" spans="3:6">
       <c r="C270" s="538" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D270" s="531"/>
       <c r="E270" s="531">
@@ -40658,7 +40671,7 @@
     </row>
     <row r="280" spans="3:6" ht="24.75">
       <c r="C280" s="536" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D280" s="537" t="s">
         <v>216</v>
@@ -40680,7 +40693,7 @@
     </row>
     <row r="282" spans="3:6">
       <c r="C282" s="538" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D282" s="531">
         <v>78647</v>
@@ -40690,7 +40703,7 @@
     </row>
     <row r="283" spans="3:6">
       <c r="C283" s="538" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D283" s="531">
         <v>2008798</v>
@@ -40753,7 +40766,7 @@
     </row>
     <row r="289" spans="3:6" ht="24.75">
       <c r="C289" s="536" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D289" s="537" t="s">
         <v>216</v>
@@ -40817,7 +40830,7 @@
     </row>
     <row r="295" spans="3:6" ht="24.75">
       <c r="C295" s="536" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D295" s="537" t="s">
         <v>216</v>
@@ -40877,7 +40890,7 @@
     </row>
     <row r="301" spans="3:6" ht="24.75">
       <c r="C301" s="438" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D301" s="422"/>
       <c r="E301" s="422"/>
@@ -40904,7 +40917,7 @@
     </row>
     <row r="304" spans="3:6">
       <c r="C304" s="440" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D304" s="441">
         <f>+'Saldos interco.'!C41+'Saldos interco.'!C42</f>
@@ -40923,10 +40936,10 @@
       <c r="E305" s="894"/>
     </row>
     <row r="306" spans="3:6">
-      <c r="C306" s="849" t="s">
+      <c r="C306" s="957" t="s">
         <v>483</v>
       </c>
-      <c r="D306" s="848">
+      <c r="D306" s="964">
         <f>+'Saldos interco.'!C54+'Saldos interco.'!C66-'Saldos interco.'!D25-'Saldos interco.'!D33</f>
         <v>-14507</v>
       </c>
@@ -40953,7 +40966,7 @@
     </row>
     <row r="309" spans="3:6">
       <c r="C309" s="440" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D309" s="411"/>
       <c r="E309" s="441">
@@ -41024,7 +41037,7 @@
     </row>
     <row r="316" spans="3:6">
       <c r="C316" s="536" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D316" s="537" t="s">
         <v>216</v>
@@ -41103,8 +41116,8 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -41733,8 +41746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -41745,9 +41758,9 @@
     <col min="4" max="4" width="11.28515625" style="407" customWidth="1"/>
     <col min="5" max="5" width="1" style="407" customWidth="1"/>
     <col min="6" max="6" width="12" style="403" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="407" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" style="407" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="407" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="407" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="407" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="407" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="578" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="407" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" style="578" hidden="1" customWidth="1"/>
@@ -41759,9 +41772,9 @@
     <col min="18" max="18" width="11.28515625" style="407" customWidth="1"/>
     <col min="19" max="19" width="0.7109375" style="407" customWidth="1"/>
     <col min="20" max="20" width="12" style="403" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="407" customWidth="1"/>
-    <col min="22" max="22" width="1.28515625" style="407" customWidth="1"/>
-    <col min="23" max="23" width="12" style="407" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="407" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="1.28515625" style="407" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12" style="407" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" style="578" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="407" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" style="578" hidden="1" customWidth="1"/>
@@ -42048,11 +42061,11 @@
       </c>
       <c r="Q6" s="612">
         <f>'Planilla final'!Q28</f>
-        <v>2936628</v>
+        <v>4080196</v>
       </c>
       <c r="R6" s="613">
         <f t="shared" ref="R6:R14" si="1">+Q6-T6</f>
-        <v>-448485</v>
+        <v>695083</v>
       </c>
       <c r="S6" s="582"/>
       <c r="T6" s="408">
@@ -42128,11 +42141,11 @@
       </c>
       <c r="Q7" s="612">
         <f>'Planilla final'!Q29</f>
-        <v>7029610.0199999996</v>
+        <v>7029609.0199999996</v>
       </c>
       <c r="R7" s="613">
         <f t="shared" si="1"/>
-        <v>4544879.0199999996</v>
+        <v>4544878.0199999996</v>
       </c>
       <c r="S7" s="582"/>
       <c r="T7" s="408">
@@ -42170,11 +42183,11 @@
       </c>
       <c r="C8" s="606">
         <f>'Planilla final'!Q8</f>
-        <v>15810074.74</v>
+        <v>8663493.7400000002</v>
       </c>
       <c r="D8" s="598">
         <f t="shared" si="0"/>
-        <v>-4723519.74</v>
+        <v>2423061.2599999998</v>
       </c>
       <c r="E8" s="605"/>
       <c r="F8" s="408">
@@ -42208,11 +42221,11 @@
       </c>
       <c r="Q8" s="612">
         <f>'Planilla final'!Q30</f>
-        <v>26181737</v>
+        <v>30113305</v>
       </c>
       <c r="R8" s="613">
         <f t="shared" si="1"/>
-        <v>3641738</v>
+        <v>7573306</v>
       </c>
       <c r="S8" s="582"/>
       <c r="T8" s="408">
@@ -42250,11 +42263,11 @@
       </c>
       <c r="C9" s="606">
         <f>'Planilla final'!Q9</f>
-        <v>37224114.149999999</v>
+        <v>32644377.149999999</v>
       </c>
       <c r="D9" s="598">
         <f t="shared" si="0"/>
-        <v>-5420371.1499999985</v>
+        <v>-840634.14999999851</v>
       </c>
       <c r="E9" s="605"/>
       <c r="F9" s="408">
@@ -42329,11 +42342,11 @@
       </c>
       <c r="C10" s="606">
         <f>'Planilla final'!Q11</f>
-        <v>5830961.7599999998</v>
+        <v>475895.76</v>
       </c>
       <c r="D10" s="598">
         <f t="shared" si="0"/>
-        <v>-5308932.76</v>
+        <v>46133.239999999991</v>
       </c>
       <c r="E10" s="605"/>
       <c r="F10" s="408">
@@ -42367,11 +42380,11 @@
       </c>
       <c r="Q10" s="612">
         <f>'Planilla final'!Q32</f>
-        <v>12494757</v>
+        <v>11777998</v>
       </c>
       <c r="R10" s="613">
         <f t="shared" si="1"/>
-        <v>4661337</v>
+        <v>3944578</v>
       </c>
       <c r="S10" s="582"/>
       <c r="T10" s="408">
@@ -42408,11 +42421,11 @@
       </c>
       <c r="C11" s="606">
         <f>'Planilla final'!Q10</f>
-        <v>6482831</v>
+        <v>16964605</v>
       </c>
       <c r="D11" s="598">
         <f t="shared" si="0"/>
-        <v>11215256</v>
+        <v>733482</v>
       </c>
       <c r="E11" s="605"/>
       <c r="F11" s="408">
@@ -42446,11 +42459,11 @@
       </c>
       <c r="Q11" s="612">
         <f>'Planilla final'!Q33</f>
-        <v>6444592.5300000003</v>
+        <v>1783100.53</v>
       </c>
       <c r="R11" s="613">
         <f t="shared" si="1"/>
-        <v>2263588.5300000003</v>
+        <v>-2397903.4699999997</v>
       </c>
       <c r="S11" s="582"/>
       <c r="T11" s="408">
@@ -42485,11 +42498,11 @@
       <c r="B12" s="605"/>
       <c r="C12" s="606">
         <f>'Planilla final'!Q12</f>
-        <v>1761314</v>
+        <v>2551702</v>
       </c>
       <c r="D12" s="598">
         <f t="shared" si="0"/>
-        <v>-1008270</v>
+        <v>-1798658</v>
       </c>
       <c r="E12" s="605"/>
       <c r="F12" s="408">
@@ -42523,11 +42536,11 @@
       </c>
       <c r="Q12" s="612">
         <f>'Planilla final'!Q34</f>
-        <v>4578384</v>
+        <v>2479542</v>
       </c>
       <c r="R12" s="613">
         <f t="shared" si="1"/>
-        <v>-3097550</v>
+        <v>-5196392</v>
       </c>
       <c r="S12" s="582"/>
       <c r="T12" s="408">
@@ -42564,11 +42577,11 @@
       </c>
       <c r="C13" s="606">
         <f>'Planilla final'!Q13</f>
-        <v>28453869.379999999</v>
+        <v>28453459.379999999</v>
       </c>
       <c r="D13" s="598">
         <f t="shared" si="0"/>
-        <v>462096.62000000104</v>
+        <v>462506.62000000104</v>
       </c>
       <c r="E13" s="605"/>
       <c r="F13" s="408">
@@ -42634,7 +42647,7 @@
     </row>
     <row r="14" spans="1:31" ht="12" customHeight="1">
       <c r="A14" s="407" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B14" s="625"/>
       <c r="C14" s="973">
@@ -42667,11 +42680,11 @@
       </c>
       <c r="Q14" s="612">
         <f>'Planilla final'!Q35</f>
-        <v>9995333.0800000001</v>
+        <v>11451550.08</v>
       </c>
       <c r="R14" s="613">
         <f t="shared" si="1"/>
-        <v>2095540.08</v>
+        <v>3551757.08</v>
       </c>
       <c r="S14" s="582"/>
       <c r="T14" s="408">
@@ -42702,7 +42715,7 @@
       <c r="B15" s="605"/>
       <c r="C15" s="972">
         <f>SUM(C5:C14)</f>
-        <v>119035049.52</v>
+        <v>113225417.51999998</v>
       </c>
       <c r="D15" s="598"/>
       <c r="E15" s="605"/>
@@ -42725,7 +42738,7 @@
       <c r="P15" s="633"/>
       <c r="Q15" s="628">
         <f>SUM(Q5:Q14)</f>
-        <v>71950416.719999999</v>
+        <v>71004675.719999999</v>
       </c>
       <c r="R15" s="613"/>
       <c r="S15" s="633"/>
@@ -42839,11 +42852,11 @@
       <c r="B18" s="605"/>
       <c r="C18" s="606">
         <f>'Planilla final'!Q16</f>
-        <v>4645673</v>
+        <v>0</v>
       </c>
       <c r="D18" s="598">
         <f t="shared" ref="D18:D27" si="2">F18-C18</f>
-        <v>-4284809</v>
+        <v>360864</v>
       </c>
       <c r="E18" s="605"/>
       <c r="F18" s="408">
@@ -42877,11 +42890,11 @@
       </c>
       <c r="Q18" s="636">
         <f>'Planilla final'!Q38</f>
-        <v>1645615</v>
+        <v>2731687</v>
       </c>
       <c r="R18" s="613">
         <f t="shared" ref="R18:R26" si="3">+Q18-T18</f>
-        <v>-8390</v>
+        <v>1077682</v>
       </c>
       <c r="S18" s="633"/>
       <c r="T18" s="408">
@@ -42918,11 +42931,11 @@
       </c>
       <c r="C19" s="606">
         <f>'Planilla final'!Q15</f>
-        <v>0</v>
+        <v>6718699</v>
       </c>
       <c r="D19" s="598">
         <f t="shared" si="2"/>
-        <v>2077739</v>
+        <v>-4640960</v>
       </c>
       <c r="E19" s="605"/>
       <c r="F19" s="408">
@@ -43000,11 +43013,11 @@
       </c>
       <c r="C20" s="606">
         <f>'Planilla final'!Q17+'Planilla final'!Q18</f>
-        <v>78965096.439999998</v>
+        <v>80527255.439999998</v>
       </c>
       <c r="D20" s="598">
         <f t="shared" si="2"/>
-        <v>6967974.5600000024</v>
+        <v>5405815.5600000024</v>
       </c>
       <c r="E20" s="605"/>
       <c r="F20" s="408">
@@ -43031,18 +43044,18 @@
       </c>
       <c r="N20" s="582"/>
       <c r="O20" s="611" t="s">
-        <v>637</v>
+        <v>904</v>
       </c>
       <c r="P20" s="582">
         <v>20</v>
       </c>
       <c r="Q20" s="612">
         <f>'Planilla final'!Q40</f>
-        <v>0</v>
+        <v>4608086</v>
       </c>
       <c r="R20" s="613">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4608086</v>
       </c>
       <c r="S20" s="582"/>
       <c r="T20" s="408">
@@ -43162,11 +43175,11 @@
       </c>
       <c r="C22" s="606">
         <f>'Planilla final'!Q20</f>
-        <v>11598541</v>
+        <v>11569469</v>
       </c>
       <c r="D22" s="598">
         <f t="shared" si="2"/>
-        <v>635543</v>
+        <v>664615</v>
       </c>
       <c r="E22" s="605"/>
       <c r="F22" s="408">
@@ -43200,11 +43213,11 @@
       </c>
       <c r="Q22" s="612">
         <f>'Planilla final'!Q42</f>
-        <v>1141591</v>
+        <v>0</v>
       </c>
       <c r="R22" s="613">
         <f t="shared" si="3"/>
-        <v>-12273597</v>
+        <v>-13415188</v>
       </c>
       <c r="S22" s="582"/>
       <c r="T22" s="408">
@@ -43241,11 +43254,11 @@
       </c>
       <c r="C23" s="606">
         <f>'Planilla final'!Q21</f>
-        <v>0</v>
+        <v>1429486</v>
       </c>
       <c r="D23" s="598">
         <f t="shared" si="2"/>
-        <v>1673584</v>
+        <v>244098</v>
       </c>
       <c r="E23" s="605"/>
       <c r="F23" s="408">
@@ -43272,18 +43285,18 @@
       </c>
       <c r="N23" s="582"/>
       <c r="O23" s="611" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="P23" s="582">
         <v>28</v>
       </c>
       <c r="Q23" s="612">
         <f>'Planilla final'!Q43</f>
-        <v>7332501</v>
+        <v>7329962</v>
       </c>
       <c r="R23" s="613">
         <f t="shared" si="3"/>
-        <v>-910979</v>
+        <v>-913518</v>
       </c>
       <c r="S23" s="582"/>
       <c r="T23" s="408">
@@ -43320,11 +43333,11 @@
       </c>
       <c r="C24" s="606">
         <f>'Planilla final'!Q22</f>
-        <v>4056030</v>
+        <v>3594280</v>
       </c>
       <c r="D24" s="598">
         <f t="shared" si="2"/>
-        <v>-469628.5299999998</v>
+        <v>-7878.5299999997951</v>
       </c>
       <c r="E24" s="605"/>
       <c r="F24" s="408">
@@ -43345,18 +43358,18 @@
       <c r="M24" s="610"/>
       <c r="N24" s="582"/>
       <c r="O24" s="611" t="s">
-        <v>76</v>
+        <v>902</v>
       </c>
       <c r="P24" s="582">
         <v>26</v>
       </c>
       <c r="Q24" s="612">
-        <f>+'Planilla final'!Q37</f>
-        <v>45106525</v>
+        <f>+'Planilla final'!Q45</f>
+        <v>42626983</v>
       </c>
       <c r="R24" s="613">
         <f t="shared" si="3"/>
-        <v>11250279</v>
+        <v>8770737</v>
       </c>
       <c r="S24" s="582"/>
       <c r="T24" s="408">
@@ -43387,11 +43400,11 @@
       <c r="B25" s="605"/>
       <c r="C25" s="606">
         <f>'Planilla final'!Q25</f>
-        <v>1737355.1799999997</v>
+        <v>307869.18000000017</v>
       </c>
       <c r="D25" s="598">
         <f t="shared" si="2"/>
-        <v>-1735755.1799999997</v>
+        <v>-306269.18000000017</v>
       </c>
       <c r="E25" s="605"/>
       <c r="F25" s="408">
@@ -43491,7 +43504,7 @@
       </c>
       <c r="N26" s="582"/>
       <c r="O26" s="611" t="s">
-        <v>840</v>
+        <v>905</v>
       </c>
       <c r="P26" s="582">
         <v>29</v>
@@ -43560,7 +43573,7 @@
       <c r="P27" s="633"/>
       <c r="Q27" s="646">
         <f>SUM(Q18:Q26)</f>
-        <v>67700384.230000004</v>
+        <v>69770870.230000004</v>
       </c>
       <c r="R27" s="647"/>
       <c r="S27" s="633"/>
@@ -43589,7 +43602,7 @@
       <c r="B28" s="605"/>
       <c r="C28" s="628">
         <f>SUM(C18:C27)</f>
-        <v>106200795.27000001</v>
+        <v>109345158.27000001</v>
       </c>
       <c r="D28" s="651"/>
       <c r="E28" s="605"/>
@@ -43610,7 +43623,7 @@
       <c r="P28" s="633"/>
       <c r="Q28" s="628">
         <f>Q15+Q27</f>
-        <v>139650800.94999999</v>
+        <v>140775545.94999999</v>
       </c>
       <c r="R28" s="647"/>
       <c r="S28" s="633"/>
@@ -43675,11 +43688,11 @@
       <c r="P30" s="633"/>
       <c r="Q30" s="408">
         <f>'Planilla final'!Q59</f>
-        <v>85585043.840000004</v>
+        <v>81795029.839999989</v>
       </c>
       <c r="R30" s="613">
         <f>+Q30-T30</f>
-        <v>-2915853.6299999952</v>
+        <v>-6705867.6300000101</v>
       </c>
       <c r="S30" s="633"/>
       <c r="T30" s="408">
@@ -43741,11 +43754,11 @@
       <c r="B32" s="605"/>
       <c r="C32" s="660">
         <f>C15+C28</f>
-        <v>225235844.79000002</v>
+        <v>222570575.78999999</v>
       </c>
       <c r="D32" s="1027">
         <f>SUM(D5:D31)</f>
-        <v>-14336874.319999989</v>
+        <v>-11671605.319999993</v>
       </c>
       <c r="E32" s="605"/>
       <c r="F32" s="660">
@@ -43771,11 +43784,11 @@
       <c r="P32" s="661"/>
       <c r="Q32" s="660">
         <f>Q28+Q30</f>
-        <v>225235844.78999999</v>
+        <v>222570575.78999996</v>
       </c>
       <c r="R32" s="1027">
         <f>SUM(R5:R31)</f>
-        <v>14336874.320000004</v>
+        <v>11671605.319999989</v>
       </c>
       <c r="S32" s="661"/>
       <c r="T32" s="660">
@@ -43839,7 +43852,7 @@
       <c r="T34" s="407"/>
       <c r="AD34" s="656"/>
     </row>
-    <row r="35" spans="1:30" ht="11.85" customHeight="1">
+    <row r="35" spans="1:30" ht="11.85" hidden="1" customHeight="1">
       <c r="F35" s="420"/>
       <c r="K35" s="664"/>
       <c r="N35" s="582"/>
@@ -43863,7 +43876,7 @@
       </c>
       <c r="AD35" s="656"/>
     </row>
-    <row r="36" spans="1:30" ht="12" customHeight="1">
+    <row r="36" spans="1:30" ht="12" hidden="1" customHeight="1">
       <c r="F36" s="407"/>
       <c r="K36" s="656"/>
       <c r="N36" s="582"/>
@@ -43880,7 +43893,7 @@
       <c r="AA36" s="656"/>
       <c r="AD36" s="656"/>
     </row>
-    <row r="37" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="37" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A37" s="980" t="s">
         <v>655</v>
       </c>
@@ -43892,11 +43905,11 @@
       <c r="I37" s="984"/>
       <c r="K37" s="986"/>
       <c r="L37" s="987" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M37" s="987"/>
       <c r="O37" s="987" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="P37" s="987"/>
       <c r="Q37" s="981"/>
@@ -43905,7 +43918,7 @@
       <c r="V37" s="988"/>
       <c r="X37" s="985"/>
     </row>
-    <row r="38" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="38" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A38" s="989" t="s">
         <v>656</v>
       </c>
@@ -43932,21 +43945,21 @@
       <c r="P38" s="989"/>
       <c r="Q38" s="990">
         <f>+Q47</f>
-        <v>17336462.178671967</v>
+        <v>13546448.178671967</v>
       </c>
       <c r="R38" s="984"/>
       <c r="T38" s="984"/>
       <c r="V38" s="988"/>
       <c r="X38" s="985"/>
     </row>
-    <row r="39" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A39" s="1043" t="s">
         <v>657</v>
       </c>
       <c r="B39" s="1043"/>
       <c r="C39" s="1044">
         <f>-C38+D24</f>
-        <v>-937756.5299999998</v>
+        <v>-476006.5299999998</v>
       </c>
       <c r="D39" s="994"/>
       <c r="E39" s="994"/>
@@ -43959,7 +43972,7 @@
       </c>
       <c r="M39" s="995"/>
       <c r="O39" s="995" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P39" s="995"/>
       <c r="Q39" s="1029">
@@ -43967,20 +43980,20 @@
         <v>-21629181</v>
       </c>
       <c r="R39" s="1040" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T39" s="984"/>
       <c r="V39" s="988"/>
       <c r="X39" s="985"/>
     </row>
-    <row r="40" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A40" s="997" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="997"/>
       <c r="C40" s="993">
         <f>+C38+C39</f>
-        <v>-469628.5299999998</v>
+        <v>-7878.5299999997951</v>
       </c>
       <c r="D40" s="994"/>
       <c r="E40" s="994"/>
@@ -44005,7 +44018,7 @@
       <c r="V40" s="988"/>
       <c r="X40" s="985"/>
     </row>
-    <row r="41" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C41" s="998">
         <f>-C40+D24</f>
         <v>0</v>
@@ -44032,7 +44045,7 @@
       <c r="V41" s="988"/>
       <c r="X41" s="985"/>
     </row>
-    <row r="42" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="42" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A42" s="980" t="s">
         <v>661</v>
       </c>
@@ -44058,7 +44071,7 @@
       <c r="V42" s="988"/>
       <c r="X42" s="985"/>
     </row>
-    <row r="43" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="43" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A43" s="989" t="s">
         <v>662</v>
       </c>
@@ -44080,26 +44093,26 @@
       </c>
       <c r="M43" s="1000"/>
       <c r="O43" s="1000" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="P43" s="1000"/>
       <c r="Q43" s="990">
         <f>+'ECP20'!T71+'ECP20'!T74+'ECP20'!T78+'ECP20'!T82</f>
-        <v>2260361</v>
+        <v>2258053</v>
       </c>
       <c r="R43" s="984"/>
       <c r="T43" s="984"/>
       <c r="V43" s="988"/>
       <c r="X43" s="985"/>
     </row>
-    <row r="44" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="44" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A44" s="992" t="s">
         <v>657</v>
       </c>
       <c r="B44" s="992"/>
       <c r="C44" s="993">
         <f>-C43+D20</f>
-        <v>-12667045.439999998</v>
+        <v>-14229204.439999998</v>
       </c>
       <c r="D44" s="994"/>
       <c r="E44" s="994"/>
@@ -44123,14 +44136,14 @@
       <c r="V44" s="988"/>
       <c r="X44" s="985"/>
     </row>
-    <row r="45" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="45" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A45" s="997" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="997"/>
       <c r="C45" s="993">
         <f>+C43+C44</f>
-        <v>6967974.5600000024</v>
+        <v>5405815.5600000024</v>
       </c>
       <c r="D45" s="994"/>
       <c r="E45" s="994"/>
@@ -44149,14 +44162,14 @@
       <c r="P45" s="1001"/>
       <c r="Q45" s="1002">
         <f>SUM(Q38:Q44)</f>
-        <v>-2032357.8213280328</v>
+        <v>-5824679.8213280328</v>
       </c>
       <c r="R45" s="984"/>
       <c r="T45" s="984"/>
       <c r="V45" s="988"/>
       <c r="X45" s="985"/>
     </row>
-    <row r="46" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="46" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C46" s="994">
         <f>+C45-D20</f>
         <v>0</v>
@@ -44173,14 +44186,14 @@
       <c r="P46" s="996"/>
       <c r="Q46" s="994">
         <f>+Q45-R30</f>
-        <v>883495.80867196247</v>
+        <v>881187.80867197737</v>
       </c>
       <c r="R46" s="999"/>
       <c r="T46" s="999"/>
       <c r="V46" s="988"/>
       <c r="X46" s="985"/>
     </row>
-    <row r="47" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="47" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A47" s="980" t="s">
         <v>665</v>
       </c>
@@ -44200,14 +44213,14 @@
       <c r="P47" s="1004"/>
       <c r="Q47" s="1005">
         <f>+'ECP20'!T84</f>
-        <v>17336462.178671967</v>
+        <v>13546448.178671967</v>
       </c>
       <c r="R47" s="984"/>
       <c r="T47" s="984"/>
       <c r="V47" s="988"/>
       <c r="X47" s="985"/>
     </row>
-    <row r="48" spans="1:30" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="48" spans="1:30" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A48" s="989" t="s">
         <v>662</v>
       </c>
@@ -44225,23 +44238,23 @@
       <c r="J48" s="985"/>
       <c r="K48" s="986"/>
       <c r="L48" s="1006" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M48" s="1006"/>
       <c r="O48" s="1006" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="P48" s="1006"/>
       <c r="Q48" s="993">
         <f>+C71</f>
-        <v>7958121</v>
+        <v>12596429</v>
       </c>
       <c r="R48" s="984"/>
       <c r="T48" s="984"/>
       <c r="V48" s="988"/>
       <c r="X48" s="985"/>
     </row>
-    <row r="49" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="49" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A49" s="992" t="s">
         <v>666</v>
       </c>
@@ -44265,14 +44278,14 @@
       <c r="P49" s="1007"/>
       <c r="Q49" s="1008">
         <f>+Q47+Q48</f>
-        <v>25294583.178671967</v>
+        <v>26142877.178671967</v>
       </c>
       <c r="R49" s="984"/>
       <c r="T49" s="984"/>
       <c r="V49" s="988"/>
       <c r="X49" s="985"/>
     </row>
-    <row r="50" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="50" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A50" s="992" t="s">
         <v>667</v>
       </c>
@@ -44297,7 +44310,7 @@
       <c r="V50" s="988"/>
       <c r="X50" s="985"/>
     </row>
-    <row r="51" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="51" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A51" s="997" t="s">
         <v>5</v>
       </c>
@@ -44323,7 +44336,7 @@
       <c r="V51" s="988"/>
       <c r="X51" s="985"/>
     </row>
-    <row r="52" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="52" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C52" s="1010">
         <f>+D26-C51</f>
         <v>0</v>
@@ -44345,7 +44358,7 @@
       <c r="V52" s="988"/>
       <c r="X52" s="985"/>
     </row>
-    <row r="53" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="53" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A53" s="980" t="s">
         <v>668</v>
       </c>
@@ -44368,7 +44381,7 @@
       <c r="V53" s="988"/>
       <c r="X53" s="985"/>
     </row>
-    <row r="54" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="54" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A54" s="989" t="s">
         <v>669</v>
       </c>
@@ -44393,9 +44406,9 @@
       <c r="V54" s="988"/>
       <c r="X54" s="985"/>
     </row>
-    <row r="55" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="55" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A55" s="989" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B55" s="989"/>
       <c r="C55" s="1029">
@@ -44417,7 +44430,7 @@
       <c r="V55" s="988"/>
       <c r="X55" s="985"/>
     </row>
-    <row r="56" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="56" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A56" s="989" t="s">
         <v>670</v>
       </c>
@@ -44442,14 +44455,14 @@
       <c r="V56" s="988"/>
       <c r="X56" s="985"/>
     </row>
-    <row r="57" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="57" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A57" s="992" t="s">
         <v>671</v>
       </c>
       <c r="B57" s="992"/>
       <c r="C57" s="993">
         <f>+R23-C54-C55-C56</f>
-        <v>0</v>
+        <v>-2539</v>
       </c>
       <c r="D57" s="994"/>
       <c r="E57" s="994"/>
@@ -44468,14 +44481,14 @@
       <c r="V57" s="988"/>
       <c r="X57" s="985"/>
     </row>
-    <row r="58" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="58" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A58" s="997" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="997"/>
       <c r="C58" s="993">
         <f>SUM(C54:C57)</f>
-        <v>-910979</v>
+        <v>-913518</v>
       </c>
       <c r="D58" s="994"/>
       <c r="E58" s="994"/>
@@ -44494,7 +44507,7 @@
       <c r="V58" s="988"/>
       <c r="X58" s="985"/>
     </row>
-    <row r="59" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="59" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C59" s="994">
         <f>+C58-R23</f>
         <v>0</v>
@@ -44516,7 +44529,7 @@
       <c r="V59" s="988"/>
       <c r="X59" s="985"/>
     </row>
-    <row r="60" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="60" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A60" s="980" t="s">
         <v>672</v>
       </c>
@@ -44539,9 +44552,9 @@
       <c r="V60" s="988"/>
       <c r="X60" s="985"/>
     </row>
-    <row r="61" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="61" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A61" s="989" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B61" s="989"/>
       <c r="C61" s="990">
@@ -44564,14 +44577,14 @@
       <c r="V61" s="988"/>
       <c r="X61" s="985"/>
     </row>
-    <row r="62" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="62" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A62" s="992" t="s">
         <v>657</v>
       </c>
       <c r="B62" s="992"/>
       <c r="C62" s="993">
         <f>-C61+D22</f>
-        <v>-1744851</v>
+        <v>-1715779</v>
       </c>
       <c r="D62" s="994"/>
       <c r="E62" s="994"/>
@@ -44589,14 +44602,14 @@
       <c r="V62" s="988"/>
       <c r="X62" s="985"/>
     </row>
-    <row r="63" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="63" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A63" s="997" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="997"/>
       <c r="C63" s="993">
         <f>+C61+C62</f>
-        <v>635543</v>
+        <v>664615</v>
       </c>
       <c r="D63" s="994"/>
       <c r="E63" s="994"/>
@@ -44614,7 +44627,7 @@
       <c r="V63" s="988"/>
       <c r="X63" s="985"/>
     </row>
-    <row r="64" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="64" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C64" s="994">
         <f>+C63-D22</f>
         <v>0</v>
@@ -44635,9 +44648,9 @@
       <c r="V64" s="988"/>
       <c r="X64" s="985"/>
     </row>
-    <row r="65" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="65" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A65" s="980" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B65" s="980"/>
       <c r="C65" s="981"/>
@@ -44656,9 +44669,9 @@
       <c r="V65" s="988"/>
       <c r="X65" s="985"/>
     </row>
-    <row r="66" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="66" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A66" s="989" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B66" s="989"/>
       <c r="C66" s="990">
@@ -44680,7 +44693,7 @@
       <c r="V66" s="988"/>
       <c r="X66" s="985"/>
     </row>
-    <row r="67" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="67" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A67" s="992" t="s">
         <v>657</v>
       </c>
@@ -44699,9 +44712,9 @@
       <c r="V67" s="988"/>
       <c r="X67" s="985"/>
     </row>
-    <row r="68" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="68" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A68" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B68" s="997"/>
       <c r="C68" s="993">
@@ -44718,7 +44731,7 @@
       <c r="V68" s="988"/>
       <c r="X68" s="985"/>
     </row>
-    <row r="69" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="69" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C69" s="994">
         <f>+C68-D21</f>
         <v>0</v>
@@ -44733,7 +44746,7 @@
       <c r="V69" s="988"/>
       <c r="X69" s="985"/>
     </row>
-    <row r="70" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="70" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A70" s="980" t="s">
         <v>673</v>
       </c>
@@ -44749,14 +44762,14 @@
       <c r="V70" s="988"/>
       <c r="X70" s="985"/>
     </row>
-    <row r="71" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="71" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A71" s="992" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B71" s="992"/>
       <c r="C71" s="990">
         <f>-'ERI20'!D20</f>
-        <v>7958121</v>
+        <v>12596429</v>
       </c>
       <c r="G71" s="999"/>
       <c r="I71" s="999"/>
@@ -44765,14 +44778,14 @@
       <c r="V71" s="988"/>
       <c r="X71" s="985"/>
     </row>
-    <row r="72" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="72" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A72" s="992" t="s">
         <v>674</v>
       </c>
       <c r="B72" s="992"/>
       <c r="C72" s="990">
-        <f>+'EFE20'!C41</f>
-        <v>-4275291</v>
+        <f>+'EFE20'!C48</f>
+        <v>-9630357</v>
       </c>
       <c r="G72" s="999"/>
       <c r="I72" s="999"/>
@@ -44781,14 +44794,14 @@
       <c r="V72" s="988"/>
       <c r="X72" s="985"/>
     </row>
-    <row r="73" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="73" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A73" s="992" t="s">
         <v>671</v>
       </c>
       <c r="B73" s="992"/>
       <c r="C73" s="1011">
         <f>-C71-C72+R10</f>
-        <v>978507</v>
+        <v>978506</v>
       </c>
       <c r="G73" s="999"/>
       <c r="I73" s="999"/>
@@ -44797,14 +44810,14 @@
       <c r="V73" s="988"/>
       <c r="X73" s="985"/>
     </row>
-    <row r="74" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="74" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A74" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B74" s="997"/>
       <c r="C74" s="1011">
         <f>SUM(C71:C73)</f>
-        <v>4661337</v>
+        <v>3944578</v>
       </c>
       <c r="G74" s="999"/>
       <c r="I74" s="999"/>
@@ -44813,7 +44826,7 @@
       <c r="V74" s="988"/>
       <c r="X74" s="985"/>
     </row>
-    <row r="75" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="75" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C75" s="1028">
         <f>+C74-R10</f>
         <v>0</v>
@@ -44825,7 +44838,7 @@
       <c r="V75" s="988"/>
       <c r="X75" s="985"/>
     </row>
-    <row r="76" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="76" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A76" s="980" t="s">
         <v>675</v>
       </c>
@@ -44838,14 +44851,14 @@
       <c r="V76" s="988"/>
       <c r="X76" s="985"/>
     </row>
-    <row r="77" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="77" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A77" s="992" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B77" s="992"/>
       <c r="C77" s="990">
         <f>-'ERI20'!D18</f>
-        <v>4837640</v>
+        <v>4987338</v>
       </c>
       <c r="G77" s="999"/>
       <c r="I77" s="999"/>
@@ -44854,7 +44867,7 @@
       <c r="V77" s="988"/>
       <c r="X77" s="985"/>
     </row>
-    <row r="78" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="78" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A78" s="992" t="s">
         <v>676</v>
       </c>
@@ -44870,14 +44883,14 @@
       <c r="V78" s="988"/>
       <c r="X78" s="985"/>
     </row>
-    <row r="79" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="79" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A79" s="992" t="s">
         <v>671</v>
       </c>
       <c r="B79" s="992"/>
       <c r="C79" s="1011">
         <f>-C77-C78+R14</f>
-        <v>1711294.08</v>
+        <v>3017813.08</v>
       </c>
       <c r="G79" s="999"/>
       <c r="I79" s="999"/>
@@ -44886,14 +44899,14 @@
       <c r="V79" s="988"/>
       <c r="X79" s="985"/>
     </row>
-    <row r="80" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="80" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A80" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B80" s="997"/>
       <c r="C80" s="1011">
         <f>SUM(C77:C79)</f>
-        <v>2095540.08</v>
+        <v>3551757.08</v>
       </c>
       <c r="G80" s="999"/>
       <c r="I80" s="999"/>
@@ -44902,7 +44915,7 @@
       <c r="V80" s="988"/>
       <c r="X80" s="985"/>
     </row>
-    <row r="81" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="81" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C81" s="1028">
         <f>+C80-R14</f>
         <v>0</v>
@@ -44914,7 +44927,7 @@
       <c r="V81" s="988"/>
       <c r="X81" s="985"/>
     </row>
-    <row r="82" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="82" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A82" s="980" t="s">
         <v>677</v>
       </c>
@@ -44927,9 +44940,9 @@
       <c r="V82" s="988"/>
       <c r="X82" s="985"/>
     </row>
-    <row r="83" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="83" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A83" s="989" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B83" s="989"/>
       <c r="C83" s="990">
@@ -44943,14 +44956,14 @@
       <c r="V83" s="988"/>
       <c r="X83" s="985"/>
     </row>
-    <row r="84" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="84" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A84" s="992" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B84" s="992"/>
       <c r="C84" s="993">
         <f>-C83+D8</f>
-        <v>-4903357.74</v>
+        <v>2243223.2599999998</v>
       </c>
       <c r="G84" s="999"/>
       <c r="I84" s="999"/>
@@ -44959,14 +44972,14 @@
       <c r="V84" s="988"/>
       <c r="X84" s="985"/>
     </row>
-    <row r="85" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="85" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A85" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B85" s="997"/>
       <c r="C85" s="993">
         <f>+C83+C84</f>
-        <v>-4723519.74</v>
+        <v>2423061.2599999998</v>
       </c>
       <c r="G85" s="999"/>
       <c r="I85" s="999"/>
@@ -44975,7 +44988,7 @@
       <c r="V85" s="988"/>
       <c r="X85" s="985"/>
     </row>
-    <row r="86" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="86" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C86" s="994">
         <f>+C85-D8</f>
         <v>0</v>
@@ -44987,7 +45000,7 @@
       <c r="V86" s="988"/>
       <c r="X86" s="985"/>
     </row>
-    <row r="87" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="87" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A87" s="980" t="s">
         <v>678</v>
       </c>
@@ -45000,9 +45013,9 @@
       <c r="V87" s="988"/>
       <c r="X87" s="985"/>
     </row>
-    <row r="88" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="88" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A88" s="989" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B88" s="989"/>
       <c r="C88" s="990">
@@ -45016,14 +45029,14 @@
       <c r="V88" s="988"/>
       <c r="X88" s="985"/>
     </row>
-    <row r="89" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="89" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A89" s="992" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B89" s="992"/>
       <c r="C89" s="993">
         <f>-C88+D11+D18</f>
-        <v>5118200</v>
+        <v>-717901</v>
       </c>
       <c r="G89" s="999"/>
       <c r="I89" s="999"/>
@@ -45032,14 +45045,14 @@
       <c r="V89" s="988"/>
       <c r="X89" s="985"/>
     </row>
-    <row r="90" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="90" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A90" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B90" s="997"/>
       <c r="C90" s="993">
         <f>+C88+C89</f>
-        <v>6930447</v>
+        <v>1094346</v>
       </c>
       <c r="G90" s="999"/>
       <c r="I90" s="999"/>
@@ -45048,7 +45061,7 @@
       <c r="V90" s="988"/>
       <c r="X90" s="985"/>
     </row>
-    <row r="91" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="91" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C91" s="1010">
         <f>+D11+D18-C90</f>
         <v>0</v>
@@ -45060,7 +45073,7 @@
       <c r="V91" s="988"/>
       <c r="X91" s="985"/>
     </row>
-    <row r="92" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="92" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A92" s="980" t="s">
         <v>679</v>
       </c>
@@ -45073,7 +45086,7 @@
       <c r="V92" s="988"/>
       <c r="X92" s="985"/>
     </row>
-    <row r="93" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="93" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A93" s="989" t="s">
         <v>680</v>
       </c>
@@ -45088,7 +45101,7 @@
       <c r="V93" s="988"/>
       <c r="X93" s="985"/>
     </row>
-    <row r="94" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="94" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A94" s="992" t="s">
         <v>671</v>
       </c>
@@ -45104,9 +45117,9 @@
       <c r="T94" s="999"/>
       <c r="V94" s="988"/>
     </row>
-    <row r="95" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="95" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A95" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B95" s="997"/>
       <c r="C95" s="993">
@@ -45120,7 +45133,7 @@
       <c r="T95" s="999"/>
       <c r="V95" s="988"/>
     </row>
-    <row r="96" spans="1:24" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="96" spans="1:24" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C96" s="1012">
         <f>+C95-D27</f>
         <v>0</v>
@@ -45132,7 +45145,7 @@
       <c r="T96" s="999"/>
       <c r="V96" s="988"/>
     </row>
-    <row r="97" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="97" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A97" s="980" t="s">
         <v>681</v>
       </c>
@@ -45145,7 +45158,7 @@
       <c r="T97" s="999"/>
       <c r="V97" s="988"/>
     </row>
-    <row r="98" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="98" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A98" s="989" t="s">
         <v>682</v>
       </c>
@@ -45161,7 +45174,7 @@
       <c r="T98" s="999"/>
       <c r="V98" s="988"/>
     </row>
-    <row r="99" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="99" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A99" s="989" t="s">
         <v>683</v>
       </c>
@@ -45176,7 +45189,7 @@
       <c r="T99" s="999"/>
       <c r="V99" s="988"/>
     </row>
-    <row r="100" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="100" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A100" s="992" t="s">
         <v>671</v>
       </c>
@@ -45192,9 +45205,9 @@
       <c r="T100" s="999"/>
       <c r="V100" s="988"/>
     </row>
-    <row r="101" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="101" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A101" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B101" s="997"/>
       <c r="C101" s="993">
@@ -45208,7 +45221,7 @@
       <c r="T101" s="999"/>
       <c r="V101" s="988"/>
     </row>
-    <row r="102" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="102" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="C102" s="1012">
         <f>+C101-R13-R25</f>
         <v>0</v>
@@ -45220,9 +45233,9 @@
       <c r="T102" s="999"/>
       <c r="V102" s="988"/>
     </row>
-    <row r="103" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="103" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A103" s="980" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B103" s="980"/>
       <c r="C103" s="981"/>
@@ -45233,14 +45246,14 @@
       <c r="T103" s="999"/>
       <c r="V103" s="988"/>
     </row>
-    <row r="104" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="104" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A104" s="989" t="s">
         <v>76</v>
       </c>
       <c r="B104" s="989"/>
       <c r="C104" s="990">
         <f>'EFE20'!C18</f>
-        <v>11250279</v>
+        <v>8770737</v>
       </c>
       <c r="G104" s="999"/>
       <c r="I104" s="999"/>
@@ -45249,7 +45262,7 @@
       <c r="T104" s="999"/>
       <c r="V104" s="988"/>
     </row>
-    <row r="105" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="105" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A105" s="992" t="s">
         <v>671</v>
       </c>
@@ -45265,14 +45278,14 @@
       <c r="T105" s="999"/>
       <c r="V105" s="988"/>
     </row>
-    <row r="106" spans="1:22" s="982" customFormat="1" ht="12" customHeight="1">
+    <row r="106" spans="1:22" s="982" customFormat="1" ht="12" hidden="1" customHeight="1">
       <c r="A106" s="997" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B106" s="997"/>
       <c r="C106" s="993">
         <f>SUM(C104:C105)</f>
-        <v>11250279</v>
+        <v>8770737</v>
       </c>
       <c r="G106" s="999"/>
       <c r="I106" s="999"/>
@@ -45281,7 +45294,7 @@
       <c r="T106" s="999"/>
       <c r="V106" s="988"/>
     </row>
-    <row r="107" spans="1:22" ht="12" customHeight="1">
+    <row r="107" spans="1:22" ht="12" hidden="1" customHeight="1">
       <c r="C107" s="1030">
         <f>+C106-R24</f>
         <v>0</v>
@@ -46592,7 +46605,7 @@
       <c r="C3" s="677"/>
       <c r="D3" s="678">
         <f>'Planilla final'!Q64</f>
-        <v>210617337.90000001</v>
+        <v>209450337.90000001</v>
       </c>
       <c r="E3" s="677"/>
       <c r="F3" s="676">
@@ -46621,7 +46634,7 @@
       </c>
       <c r="D4" s="678">
         <f>'Planilla final'!Q65</f>
-        <v>-98260115.700000003</v>
+        <v>-96415770.700000003</v>
       </c>
       <c r="E4" s="677"/>
       <c r="F4" s="676">
@@ -46656,7 +46669,7 @@
       <c r="C6" s="677"/>
       <c r="D6" s="685">
         <f>D3+D4</f>
-        <v>112357222.2</v>
+        <v>113034567.2</v>
       </c>
       <c r="E6" s="677"/>
       <c r="F6" s="686">
@@ -46712,7 +46725,7 @@
       </c>
       <c r="D9" s="678">
         <f>'Planilla final'!N67</f>
-        <v>-79963126.739999995</v>
+        <v>-79644671.739999995</v>
       </c>
       <c r="E9" s="677"/>
       <c r="F9" s="676">
@@ -46751,7 +46764,7 @@
       <c r="C11" s="677"/>
       <c r="D11" s="685">
         <f>D6+D9</f>
-        <v>32394095.460000008</v>
+        <v>33389895.460000008</v>
       </c>
       <c r="E11" s="677"/>
       <c r="F11" s="686">
@@ -46790,7 +46803,7 @@
       <c r="C13" s="690"/>
       <c r="D13" s="691">
         <f>'Planilla final'!N70</f>
-        <v>-1897461</v>
+        <v>-1897463</v>
       </c>
       <c r="E13" s="690"/>
       <c r="F13" s="689">
@@ -46816,7 +46829,7 @@
       <c r="C14" s="677"/>
       <c r="D14" s="678">
         <f>'Planilla final'!N68</f>
-        <v>-834851.41</v>
+        <v>-832657.41</v>
       </c>
       <c r="E14" s="677"/>
       <c r="F14" s="676">
@@ -46857,7 +46870,7 @@
       <c r="C16" s="693"/>
       <c r="D16" s="685">
         <f>D11+D13+D14</f>
-        <v>29661783.050000008</v>
+        <v>30659775.050000008</v>
       </c>
       <c r="E16" s="693"/>
       <c r="F16" s="686">
@@ -46896,7 +46909,7 @@
       <c r="C18" s="677"/>
       <c r="D18" s="678">
         <f>'Planilla final'!N72</f>
-        <v>-4837640</v>
+        <v>-4987338</v>
       </c>
       <c r="E18" s="677"/>
       <c r="F18" s="676">
@@ -46937,7 +46950,7 @@
       </c>
       <c r="D20" s="678">
         <f>'Planilla final'!Q73</f>
-        <v>-7958121</v>
+        <v>-12596429</v>
       </c>
       <c r="E20" s="677"/>
       <c r="F20" s="676">
@@ -46972,7 +46985,7 @@
       <c r="C22" s="677"/>
       <c r="D22" s="696">
         <f>D16+D18+D20</f>
-        <v>16866022.050000008</v>
+        <v>13076008.050000008</v>
       </c>
       <c r="E22" s="677"/>
       <c r="F22" s="697">
@@ -47068,7 +47081,7 @@
       <c r="C28" s="677"/>
       <c r="D28" s="703">
         <f>D22+D26</f>
-        <v>16866022.050000008</v>
+        <v>13076008.050000008</v>
       </c>
       <c r="E28" s="677"/>
       <c r="F28" s="704">
@@ -47182,7 +47195,7 @@
       <c r="C35" s="667"/>
       <c r="D35" s="712">
         <f>D28/D34</f>
-        <v>0.45407903705647346</v>
+        <v>0.35204158551937242</v>
       </c>
       <c r="E35" s="667"/>
       <c r="F35" s="713">
@@ -47219,10 +47232,10 @@
   <dimension ref="A1:AMJ88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="R78" sqref="R78"/>
+      <selection pane="bottomRight" activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -49033,7 +49046,7 @@
         <v>88500896.519999996</v>
       </c>
       <c r="U67" s="727"/>
-      <c r="V67" s="1056"/>
+      <c r="V67" s="1055"/>
       <c r="W67" s="727"/>
     </row>
     <row r="68" spans="1:23" ht="15.75" thickTop="1">
@@ -49108,7 +49121,7 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="733" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B71" s="735">
         <v>6115000</v>
@@ -49189,7 +49202,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="733" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B74" s="735"/>
       <c r="C74" s="735"/>
@@ -49240,7 +49253,7 @@
     </row>
     <row r="76" spans="1:23">
       <c r="A76" s="733" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B76" s="735">
         <v>-21629181</v>
@@ -49293,7 +49306,7 @@
     </row>
     <row r="78" spans="1:23" ht="24">
       <c r="A78" s="733" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B78" s="735"/>
       <c r="C78" s="735"/>
@@ -49345,7 +49358,7 @@
     </row>
     <row r="80" spans="1:23" ht="16.5" customHeight="1">
       <c r="A80" s="733" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B80" s="735"/>
       <c r="C80" s="735"/>
@@ -49396,7 +49409,7 @@
     </row>
     <row r="82" spans="1:23" ht="24">
       <c r="A82" s="733" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B82" s="735"/>
       <c r="C82" s="735"/>
@@ -49412,16 +49425,16 @@
       <c r="M82" s="740"/>
       <c r="N82" s="740"/>
       <c r="O82" s="740"/>
-      <c r="P82" s="1075">
-        <f>953966-50758-116791-673128</f>
-        <v>113289</v>
+      <c r="P82" s="1061">
+        <f>953966-50758-116791-673128-2308</f>
+        <v>110981</v>
       </c>
       <c r="Q82" s="740"/>
       <c r="R82" s="740"/>
       <c r="S82" s="740"/>
       <c r="T82" s="740">
         <f>SUM(B82:R83)</f>
-        <v>113289</v>
+        <v>110981</v>
       </c>
     </row>
     <row r="83" spans="1:23" ht="5.25" customHeight="1">
@@ -49468,7 +49481,7 @@
       <c r="O84" s="740"/>
       <c r="P84" s="740">
         <f>+'Planilla final'!Q80</f>
-        <v>18034773.178671967</v>
+        <v>14244759.178671967</v>
       </c>
       <c r="Q84" s="740"/>
       <c r="R84" s="740">
@@ -49478,7 +49491,7 @@
       <c r="S84" s="740"/>
       <c r="T84" s="740">
         <f>SUM(B84:R85)</f>
-        <v>17336462.178671967</v>
+        <v>13546448.178671967</v>
       </c>
     </row>
     <row r="85" spans="1:23" ht="4.5" customHeight="1">
@@ -49504,7 +49517,7 @@
     </row>
     <row r="86" spans="1:23" ht="15.75" thickBot="1">
       <c r="A86" s="733" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B86" s="742">
         <f>SUM(B67:B85)</f>
@@ -49543,7 +49556,7 @@
       <c r="O86" s="737"/>
       <c r="P86" s="742">
         <f>SUM(P67:P85)</f>
-        <v>53534462.012554571</v>
+        <v>49742140.012554571</v>
       </c>
       <c r="Q86" s="737"/>
       <c r="R86" s="742">
@@ -49553,12 +49566,12 @@
       <c r="S86" s="737"/>
       <c r="T86" s="742">
         <f>+T67+T69+T71+T76+T78+T84+T74+T82+T80</f>
-        <v>85587354.698671967</v>
+        <v>81795032.698671967</v>
       </c>
       <c r="U86" s="727"/>
-      <c r="V86" s="1056">
+      <c r="V86" s="1055">
         <f>+T86-Patrimonio!Q93</f>
-        <v>2307.6586719602346</v>
+        <v>-0.34132803976535797</v>
       </c>
       <c r="W86" s="727"/>
     </row>
@@ -49620,11 +49633,11 @@
   <dimension ref="A1:AMJ95"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="44" topLeftCell="F48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="44" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
-      <selection pane="bottomRight" activeCell="T64" sqref="T64"/>
+      <selection pane="bottomRight" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -51813,7 +51826,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="864" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B57" s="748">
         <v>1859768</v>
@@ -51835,7 +51848,7 @@
       </c>
       <c r="O57" s="748"/>
       <c r="P57" s="748"/>
-      <c r="Q57" s="1057">
+      <c r="Q57" s="1056">
         <f t="shared" ref="Q57:Q63" si="8">+N57+P57-O57</f>
         <v>1859768</v>
       </c>
@@ -51844,7 +51857,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="864" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B58" s="748">
         <v>660505</v>
@@ -51867,14 +51880,14 @@
         <v>0</v>
       </c>
       <c r="P58" s="748"/>
-      <c r="Q58" s="1057">
+      <c r="Q58" s="1056">
         <f t="shared" si="8"/>
         <v>660505</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1">
       <c r="A59" s="866" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B59" s="748"/>
       <c r="D59" s="748"/>
@@ -51898,7 +51911,7 @@
       </c>
       <c r="O59" s="748"/>
       <c r="P59" s="748"/>
-      <c r="Q59" s="1057">
+      <c r="Q59" s="1056">
         <f t="shared" si="8"/>
         <v>-1254385</v>
       </c>
@@ -51933,7 +51946,7 @@
       </c>
       <c r="O60" s="748"/>
       <c r="P60" s="748"/>
-      <c r="Q60" s="1057">
+      <c r="Q60" s="1056">
         <f t="shared" si="8"/>
         <v>786417</v>
       </c>
@@ -51966,7 +51979,7 @@
         <f>+'AD ESF'!E285</f>
         <v>104043</v>
       </c>
-      <c r="Q61" s="1057">
+      <c r="Q61" s="1056">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -51998,7 +52011,7 @@
         <v>2534340</v>
       </c>
       <c r="P62" s="748"/>
-      <c r="Q62" s="1057">
+      <c r="Q62" s="1056">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -52009,7 +52022,7 @@
       </c>
       <c r="B63" s="748">
         <f>+'Planilla final'!B76</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C63" s="748">
         <f>+'Planilla final'!C76</f>
@@ -52057,7 +52070,7 @@
       </c>
       <c r="N63" s="748">
         <f t="shared" si="7"/>
-        <v>16866022.050000001</v>
+        <v>13076008.050000001</v>
       </c>
       <c r="O63" s="748">
         <f>+'Planilla final'!O76</f>
@@ -52067,9 +52080,9 @@
         <f>+'Planilla final'!P76+'AD ESF'!E270</f>
         <v>2069001</v>
       </c>
-      <c r="Q63" s="1058">
+      <c r="Q63" s="1057">
         <f t="shared" si="8"/>
-        <v>18032461.050000001</v>
+        <v>14242447.050000001</v>
       </c>
       <c r="R63" s="1016"/>
     </row>
@@ -52079,7 +52092,7 @@
       </c>
       <c r="B64" s="868">
         <f t="shared" ref="B64:Q64" si="9">SUM(B56:B63)</f>
-        <v>63158794</v>
+        <v>59368780</v>
       </c>
       <c r="C64" s="868">
         <f t="shared" si="9"/>
@@ -52127,7 +52140,7 @@
       </c>
       <c r="N64" s="868">
         <f t="shared" si="9"/>
-        <v>48229157.409999996</v>
+        <v>44439143.409999996</v>
       </c>
       <c r="O64" s="868">
         <f t="shared" si="9"/>
@@ -52139,11 +52152,11 @@
       </c>
       <c r="Q64" s="869">
         <f t="shared" si="9"/>
-        <v>53532153.409999996</v>
+        <v>49742139.409999996</v>
       </c>
       <c r="R64" s="1016">
         <f>+Q64-'ECP20'!P86</f>
-        <v>-2308.6025545746088</v>
+        <v>-0.6025545746088028</v>
       </c>
       <c r="S64" s="1023"/>
     </row>
@@ -52208,7 +52221,7 @@
         <f>+'Planilla final'!P56-P64</f>
         <v>-2069001</v>
       </c>
-      <c r="Q65" s="1059">
+      <c r="Q65" s="1058">
         <f>+'Planilla final'!Q56+'Planilla final'!Q57-Q64</f>
         <v>-3.8900000005960464</v>
       </c>
@@ -54078,7 +54091,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="864" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B86" s="748">
         <f>+B58</f>
@@ -54115,7 +54128,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="864" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B87" s="748">
         <v>-21629181</v>
@@ -54146,7 +54159,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="873" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B88" s="748"/>
       <c r="C88" s="748"/>
@@ -54176,7 +54189,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="873" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B89" s="748">
         <f>+B57</f>
@@ -54281,7 +54294,7 @@
       </c>
       <c r="B92" s="879">
         <f>+B63</f>
-        <v>19151165</v>
+        <v>15361151</v>
       </c>
       <c r="C92" s="748">
         <f t="shared" ref="C92:M92" si="21">+C63+C42</f>
@@ -54329,7 +54342,7 @@
       </c>
       <c r="N92" s="748">
         <f>SUM(B92:M92)</f>
-        <v>16866022.050000001</v>
+        <v>13076008.050000001</v>
       </c>
       <c r="O92" s="748">
         <f>+O63</f>
@@ -54341,7 +54354,7 @@
       </c>
       <c r="Q92" s="1024">
         <f>+P92+N92-O92</f>
-        <v>18032461.050000001</v>
+        <v>14242447.050000001</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.75" thickBot="1">
@@ -54350,7 +54363,7 @@
       </c>
       <c r="B93" s="868">
         <f t="shared" ref="B93:M93" si="22">SUM(B85:B92)</f>
-        <v>88307937.560000002</v>
+        <v>84517923.560000002</v>
       </c>
       <c r="C93" s="868">
         <f t="shared" si="22"/>
@@ -54398,7 +54411,7 @@
       </c>
       <c r="N93" s="868">
         <f>SUM(B93:M93)</f>
-        <v>125435984.04000002</v>
+        <v>121645970.04000002</v>
       </c>
       <c r="O93" s="868">
         <f>SUM(O85:O92)</f>
@@ -54410,15 +54423,15 @@
       </c>
       <c r="Q93" s="869">
         <f>SUM(Q85:Q92)</f>
-        <v>85585047.040000007</v>
+        <v>81795033.040000007</v>
       </c>
       <c r="R93" s="749">
         <f>+Q93-'Planilla final'!Q59</f>
-        <v>3.2000000029802322</v>
+        <v>3.2000000178813934</v>
       </c>
       <c r="S93" s="434">
         <f>+R85-R93</f>
-        <v>-1371437.7299999893</v>
+        <v>-1371437.7300000042</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -54485,7 +54498,7 @@
       </c>
       <c r="Q94" s="1016">
         <f>+Q93-'Planilla final'!Q59</f>
-        <v>3.2000000029802322</v>
+        <v>3.2000000178813934</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -54501,12 +54514,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:AMM88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="AB4" sqref="AB4"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -54519,14 +54532,14 @@
     <col min="6" max="6" width="1" style="407" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" style="407" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11.5703125" style="407" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="12.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="18" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="20" width="9.7109375" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="12" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="24" width="11.42578125" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="12.140625" style="407" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="18" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="20" width="9.7109375" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="12" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="24" width="11.42578125" style="407" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="12.140625" style="407" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="1.28515625" style="414" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="13.42578125" style="407" bestFit="1" customWidth="1"/>
     <col min="28" max="1027" width="11.42578125" style="407"/>
@@ -54681,7 +54694,7 @@
       <c r="B6" s="771"/>
       <c r="C6" s="966">
         <f>+'ESF20'!Q49</f>
-        <v>25294583.178671967</v>
+        <v>26142877.178671967</v>
       </c>
       <c r="D6" s="771"/>
       <c r="E6" s="475">
@@ -54702,7 +54715,7 @@
       </c>
       <c r="J6" s="408">
         <f>+'Planilla final'!B71+'Planilla final'!B72</f>
-        <v>27023893</v>
+        <v>27872187</v>
       </c>
       <c r="K6" s="408">
         <f>+'Planilla final'!C71+'Planilla final'!C72</f>
@@ -54750,7 +54763,7 @@
       </c>
       <c r="V6" s="408">
         <f>+'Planilla final'!N71</f>
-        <v>29661783.050000008</v>
+        <v>30659775.050000008</v>
       </c>
       <c r="W6" s="408">
         <f>+'Planilla final'!O71</f>
@@ -54762,7 +54775,7 @@
       </c>
       <c r="Y6" s="408">
         <f>+V6+X6-W6</f>
-        <v>29661783.050000008</v>
+        <v>30659775.050000008</v>
       </c>
       <c r="Z6" s="408"/>
       <c r="AA6" s="966"/>
@@ -55225,7 +55238,7 @@
       <c r="B16" s="773"/>
       <c r="C16" s="966">
         <f>-'ERI20'!D18</f>
-        <v>4837640</v>
+        <v>4987338</v>
       </c>
       <c r="D16" s="773"/>
       <c r="E16" s="475">
@@ -55336,7 +55349,7 @@
       <c r="B18" s="773"/>
       <c r="C18" s="1036">
         <f>+'ESF20'!R24</f>
-        <v>11250279</v>
+        <v>8770737</v>
       </c>
       <c r="D18" s="773"/>
       <c r="E18" s="475">
@@ -55384,7 +55397,7 @@
       <c r="B19" s="773"/>
       <c r="C19" s="966">
         <f t="shared" si="1"/>
-        <v>2260361</v>
+        <v>2258053</v>
       </c>
       <c r="D19" s="773"/>
       <c r="E19" s="475">
@@ -55403,7 +55416,7 @@
       </c>
       <c r="J19" s="408">
         <f>+'ESF20'!Q43</f>
-        <v>2260361</v>
+        <v>2258053</v>
       </c>
       <c r="K19" s="408"/>
       <c r="L19" s="408"/>
@@ -55418,20 +55431,20 @@
       <c r="U19" s="408"/>
       <c r="V19" s="408">
         <f t="shared" si="0"/>
-        <v>2260361</v>
+        <v>2258053</v>
       </c>
       <c r="W19" s="408"/>
       <c r="X19" s="408"/>
       <c r="Y19" s="408">
         <f>+V19+W19-X19</f>
-        <v>2260361</v>
+        <v>2258053</v>
       </c>
       <c r="Z19" s="408"/>
       <c r="AA19" s="966"/>
     </row>
     <row r="20" spans="1:1027" hidden="1">
       <c r="A20" s="1050" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B20" s="1051"/>
       <c r="C20" s="1036">
@@ -55482,7 +55495,7 @@
       <c r="B21" s="968"/>
       <c r="C21" s="969">
         <f t="shared" ref="C21:D21" si="3">+SUM(C6:C20)</f>
-        <v>45630730.178671971</v>
+        <v>44146872.178671971</v>
       </c>
       <c r="D21" s="970">
         <f t="shared" si="3"/>
@@ -55506,7 +55519,7 @@
       </c>
       <c r="J21" s="970">
         <f t="shared" si="4"/>
-        <v>56526925</v>
+        <v>57372911</v>
       </c>
       <c r="K21" s="970">
         <f t="shared" si="4"/>
@@ -55554,7 +55567,7 @@
       </c>
       <c r="V21" s="970">
         <f t="shared" si="4"/>
-        <v>61452438.050000012</v>
+        <v>62448122.050000012</v>
       </c>
       <c r="W21" s="970">
         <f t="shared" si="4"/>
@@ -55563,7 +55576,7 @@
       <c r="X21" s="970"/>
       <c r="Y21" s="970">
         <f t="shared" si="4"/>
-        <v>61920566.050000012</v>
+        <v>62916250.050000012</v>
       </c>
       <c r="Z21" s="970"/>
       <c r="AA21" s="969"/>
@@ -56605,7 +56618,7 @@
       <c r="B23" s="773"/>
       <c r="C23" s="1032">
         <f>+'ESF20'!C84</f>
-        <v>-4903357.74</v>
+        <v>2243223.2599999998</v>
       </c>
       <c r="D23" s="773"/>
       <c r="E23" s="774">
@@ -56647,7 +56660,7 @@
       <c r="B24" s="773"/>
       <c r="C24" s="1032">
         <f>+'ESF20'!D19+'ESF20'!D9</f>
-        <v>-3342632.1499999985</v>
+        <v>-5481594.1499999985</v>
       </c>
       <c r="D24" s="773"/>
       <c r="E24" s="774">
@@ -56689,7 +56702,7 @@
       <c r="B25" s="773"/>
       <c r="C25" s="1033">
         <f>+'ESF20'!D11+'ESF20'!D18</f>
-        <v>6930447</v>
+        <v>1094346</v>
       </c>
       <c r="D25" s="773"/>
       <c r="E25" s="740">
@@ -56730,7 +56743,7 @@
       <c r="B26" s="773"/>
       <c r="C26" s="1032">
         <f>+'ESF20'!D10</f>
-        <v>-5308932.76</v>
+        <v>46133.239999999991</v>
       </c>
       <c r="D26" s="773"/>
       <c r="E26" s="774">
@@ -56772,7 +56785,7 @@
       <c r="B27" s="773"/>
       <c r="C27" s="1032">
         <f>+'ESF20'!D12</f>
-        <v>-1008270</v>
+        <v>-1798658</v>
       </c>
       <c r="D27" s="773"/>
       <c r="E27" s="774">
@@ -56814,7 +56827,7 @@
       <c r="B28" s="773"/>
       <c r="C28" s="1034">
         <f>+'ESF20'!D13</f>
-        <v>462096.62000000104</v>
+        <v>462506.62000000104</v>
       </c>
       <c r="D28" s="773"/>
       <c r="E28" s="774">
@@ -56894,7 +56907,7 @@
       <c r="B30" s="773"/>
       <c r="C30" s="1032">
         <f>+'ESF20'!D14+'ESF20'!D25</f>
-        <v>-2149319.1799999997</v>
+        <v>-719833.18000000017</v>
       </c>
       <c r="D30" s="773"/>
       <c r="E30" s="774">
@@ -56937,7 +56950,7 @@
       <c r="B31" s="773"/>
       <c r="C31" s="1033">
         <f>+'ESF20'!R8</f>
-        <v>3641738</v>
+        <v>7573306</v>
       </c>
       <c r="D31" s="773"/>
       <c r="E31" s="774">
@@ -57023,7 +57036,7 @@
       <c r="B33" s="773"/>
       <c r="C33" s="1032">
         <f>+'ESF20'!C73</f>
-        <v>978507</v>
+        <v>978506</v>
       </c>
       <c r="D33" s="773"/>
       <c r="E33" s="774">
@@ -57067,7 +57080,7 @@
       <c r="B34" s="773"/>
       <c r="C34" s="1032">
         <f>+'ESF20'!R11+'ESF20'!R22</f>
-        <v>-10010008.469999999</v>
+        <v>-15813091.469999999</v>
       </c>
       <c r="D34" s="773"/>
       <c r="E34" s="774">
@@ -57186,7 +57199,7 @@
       <c r="B37" s="773"/>
       <c r="C37" s="1032">
         <f>+'ESF20'!R12</f>
-        <v>-3097550</v>
+        <v>-5196392</v>
       </c>
       <c r="D37" s="773"/>
       <c r="E37" s="774">
@@ -57221,7 +57234,7 @@
       <c r="B38" s="773"/>
       <c r="C38" s="1031">
         <f>+'ESF20'!C79</f>
-        <v>1711294.08</v>
+        <v>3017813.08</v>
       </c>
       <c r="D38" s="773"/>
       <c r="E38" s="774">
@@ -57259,7 +57272,7 @@
     </row>
     <row r="39" spans="1:27" hidden="1">
       <c r="A39" s="775" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B39" s="773"/>
       <c r="C39" s="1032">
@@ -57307,7 +57320,7 @@
       <c r="B40" s="773"/>
       <c r="C40" s="777">
         <f t="shared" ref="C40:D40" si="5">+SUM(C21:C39)</f>
-        <v>29718754.89867197</v>
+        <v>30737149.89867197</v>
       </c>
       <c r="D40" s="475">
         <f t="shared" si="5"/>
@@ -57516,7 +57529,7 @@
       <c r="B44" s="779"/>
       <c r="C44" s="780">
         <f t="shared" ref="C44:D44" si="7">+C40+C41+C42+C43</f>
-        <v>20973069.89867197</v>
+        <v>21991464.89867197</v>
       </c>
       <c r="D44" s="781">
         <f t="shared" si="7"/>
@@ -57558,7 +57571,7 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1">
       <c r="A45" s="763" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B45" s="771"/>
       <c r="C45" s="771"/>
@@ -57588,12 +57601,12 @@
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1">
       <c r="A46" s="765" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B46" s="771"/>
       <c r="C46" s="1031">
         <f>+'ESF20'!F8+'ESF20'!F9+'ESF20'!F11+'ESF20'!F12+'ERI20'!D3-'ESF20'!C8-'ESF20'!C9-'ESF20'!C11-'ESF20'!C12</f>
-        <v>210680433.00999996</v>
+        <v>209967589.00999996</v>
       </c>
       <c r="D46" s="771"/>
       <c r="E46" s="408"/>
@@ -57601,9 +57614,7 @@
       <c r="G46" s="408"/>
       <c r="H46" s="408"/>
       <c r="I46" s="408"/>
-      <c r="J46" s="1031">
-        <v>180367119</v>
-      </c>
+      <c r="J46" s="1031"/>
       <c r="K46" s="414"/>
       <c r="L46" s="414"/>
       <c r="M46" s="414"/>
@@ -57621,17 +57632,16 @@
       <c r="Y46" s="414"/>
       <c r="AA46" s="1031">
         <f>+'ESF20'!W8+'ESF20'!W9+'ESF20'!W11+'ESF20'!W12+'ERI20'!F3-'ESF20'!Q8-'ESF20'!Q9-'ESF20'!Q11-'ESF20'!Q12</f>
-        <v>187321705.38</v>
+        <v>190150471.38</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1">
       <c r="A47" s="765" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B47" s="771"/>
       <c r="C47" s="1031">
-        <f>20091886-204015134</f>
-        <v>-183923248</v>
+        <v>-177586466</v>
       </c>
       <c r="D47" s="771"/>
       <c r="E47" s="408"/>
@@ -57639,9 +57649,7 @@
       <c r="G47" s="408"/>
       <c r="H47" s="408"/>
       <c r="I47" s="408"/>
-      <c r="J47" s="1031">
-        <v>-164103721</v>
-      </c>
+      <c r="J47" s="1031"/>
       <c r="K47" s="414"/>
       <c r="L47" s="414"/>
       <c r="M47" s="414"/>
@@ -57664,12 +57672,12 @@
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1">
       <c r="A48" s="765" t="s">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="B48" s="771"/>
       <c r="C48" s="1031">
-        <f>+'ESF20'!C72</f>
-        <v>-4275291</v>
+        <f>+Y48</f>
+        <v>-9630357</v>
       </c>
       <c r="D48" s="771"/>
       <c r="E48" s="408"/>
@@ -57678,7 +57686,7 @@
       <c r="H48" s="408"/>
       <c r="I48" s="408"/>
       <c r="J48" s="1031">
-        <v>-3680975</v>
+        <v>-9036041</v>
       </c>
       <c r="K48" s="414"/>
       <c r="L48" s="414"/>
@@ -57688,20 +57696,30 @@
       <c r="P48" s="414"/>
       <c r="Q48" s="414"/>
       <c r="R48" s="414"/>
-      <c r="S48" s="414"/>
-      <c r="T48" s="414"/>
+      <c r="S48" s="1031">
+        <v>-268323</v>
+      </c>
+      <c r="T48" s="1031">
+        <v>-325993</v>
+      </c>
       <c r="U48" s="414"/>
-      <c r="V48" s="414"/>
+      <c r="V48" s="544">
+        <f>SUM(J48:U48)</f>
+        <v>-9630357</v>
+      </c>
       <c r="W48" s="414"/>
       <c r="X48" s="414"/>
-      <c r="Y48" s="414"/>
+      <c r="Y48" s="544">
+        <f>+V48</f>
+        <v>-9630357</v>
+      </c>
       <c r="AA48" s="1031">
         <v>-7316715</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1">
       <c r="A49" s="765" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B49" s="771"/>
       <c r="C49" s="1031">
@@ -57728,17 +57746,23 @@
       <c r="S49" s="414"/>
       <c r="T49" s="414"/>
       <c r="U49" s="414"/>
-      <c r="V49" s="414"/>
+      <c r="V49" s="544">
+        <f t="shared" ref="V49:V50" si="8">SUM(J49:U49)</f>
+        <v>-501019</v>
+      </c>
       <c r="W49" s="414"/>
       <c r="X49" s="414"/>
-      <c r="Y49" s="414"/>
+      <c r="Y49" s="544">
+        <f t="shared" ref="Y49:Y50" si="9">+V49</f>
+        <v>-501019</v>
+      </c>
       <c r="AA49" s="1031">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1">
       <c r="A50" s="765" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B50" s="771"/>
       <c r="C50" s="1031">
@@ -57765,22 +57789,28 @@
       <c r="S50" s="414"/>
       <c r="T50" s="414"/>
       <c r="U50" s="414"/>
-      <c r="V50" s="414"/>
+      <c r="V50" s="544">
+        <f t="shared" si="8"/>
+        <v>-1888989</v>
+      </c>
       <c r="W50" s="414"/>
       <c r="X50" s="414"/>
-      <c r="Y50" s="414"/>
+      <c r="Y50" s="544">
+        <f t="shared" si="9"/>
+        <v>-1888989</v>
+      </c>
       <c r="AA50" s="1031">
         <v>-2563374</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1">
       <c r="A51" s="765" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B51" s="771"/>
-      <c r="C51" s="1062">
+      <c r="C51" s="1060">
         <f>SUM(C46:C50)</f>
-        <v>20091886.009999961</v>
+        <v>20360758.009999961</v>
       </c>
       <c r="D51" s="771"/>
       <c r="E51" s="408"/>
@@ -57788,10 +57818,7 @@
       <c r="G51" s="408"/>
       <c r="H51" s="408"/>
       <c r="I51" s="408"/>
-      <c r="J51" s="1031">
-        <f>SUM(J46:J50)</f>
-        <v>10192415</v>
-      </c>
+      <c r="J51" s="1031"/>
       <c r="K51" s="414"/>
       <c r="L51" s="414"/>
       <c r="M51" s="414"/>
@@ -57807,15 +57834,15 @@
       <c r="W51" s="414"/>
       <c r="X51" s="414"/>
       <c r="Y51" s="414"/>
-      <c r="AA51" s="1062">
+      <c r="AA51" s="1060">
         <f>SUM(AA46:AA50)</f>
-        <v>38765735.379999995</v>
+        <v>41594501.379999995</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="7.5" customHeight="1">
       <c r="A52" s="765"/>
       <c r="B52" s="771"/>
-      <c r="C52" s="1061"/>
+      <c r="C52" s="1059"/>
       <c r="D52" s="771"/>
       <c r="E52" s="408"/>
       <c r="F52" s="408"/>
@@ -57838,7 +57865,7 @@
       <c r="W52" s="414"/>
       <c r="X52" s="414"/>
       <c r="Y52" s="414"/>
-      <c r="AA52" s="1061"/>
+      <c r="AA52" s="1059"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="763" t="s">
@@ -57967,7 +57994,7 @@
       <c r="B56" s="773"/>
       <c r="C56" s="1033">
         <f>+'ESF20'!D23</f>
-        <v>1673584</v>
+        <v>244098</v>
       </c>
       <c r="D56" s="773"/>
       <c r="E56" s="785">
@@ -58005,12 +58032,12 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="775" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B57" s="773"/>
       <c r="C57" s="1032">
         <f>+'ESF20'!C39</f>
-        <v>-937756.5299999998</v>
+        <v>-476006.5299999998</v>
       </c>
       <c r="D57" s="773"/>
       <c r="E57" s="785"/>
@@ -58040,7 +58067,7 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="775" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B58" s="773"/>
       <c r="C58" s="1031">
@@ -58088,7 +58115,7 @@
       </c>
       <c r="C59" s="1032">
         <f>+'ESF20'!C44</f>
-        <v>-12667045.439999998</v>
+        <v>-14229204.439999998</v>
       </c>
       <c r="D59" s="773"/>
       <c r="E59" s="784">
@@ -58127,7 +58154,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="775" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B60" s="773"/>
       <c r="C60" s="1031">
@@ -58177,7 +58204,7 @@
       </c>
       <c r="C61" s="1032">
         <f>+'ESF20'!C62</f>
-        <v>-1744851</v>
+        <v>-1715779</v>
       </c>
       <c r="D61" s="773"/>
       <c r="E61" s="784">
@@ -58220,103 +58247,103 @@
       </c>
       <c r="B62" s="773"/>
       <c r="C62" s="780">
-        <f t="shared" ref="C62:AA62" si="8">+SUM(C54:C61)</f>
-        <v>-15484147.619999997</v>
+        <f t="shared" ref="C62:AA62" si="10">+SUM(C54:C61)</f>
+        <v>-17984970.619999997</v>
       </c>
       <c r="D62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5907414</v>
       </c>
       <c r="F62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-16865135</v>
       </c>
       <c r="H62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-11127276</v>
       </c>
       <c r="I62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-24669650</v>
       </c>
       <c r="J62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z62" s="781">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA62" s="780">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-5907414</v>
       </c>
     </row>
@@ -58384,7 +58411,7 @@
       </c>
       <c r="B65" s="771"/>
       <c r="C65" s="1045">
-        <f t="shared" ref="C65" si="9">+Y65</f>
+        <f t="shared" ref="C65" si="11">+Y65</f>
         <v>-1307540</v>
       </c>
       <c r="D65" s="771"/>
@@ -58424,9 +58451,9 @@
         <v>-1307540</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:27" hidden="1">
       <c r="A66" s="765" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B66" s="771"/>
       <c r="C66" s="966">
@@ -58461,7 +58488,7 @@
         <v>221096</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:27" hidden="1">
       <c r="A67" s="775" t="s">
         <v>795</v>
       </c>
@@ -58499,7 +58526,7 @@
         <v>1188714</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:27" hidden="1">
       <c r="A68" s="775" t="s">
         <v>796</v>
       </c>
@@ -58544,7 +58571,7 @@
       <c r="B69" s="773"/>
       <c r="C69" s="1032">
         <f>+'ESF20'!R6+'ESF20'!R18</f>
-        <v>-456875</v>
+        <v>1772765</v>
       </c>
       <c r="D69" s="773"/>
       <c r="E69" s="774">
@@ -58590,7 +58617,7 @@
       <c r="B70" s="773"/>
       <c r="C70" s="1033">
         <f>+'ESF20'!R7+'ESF20'!R19</f>
-        <v>11202774.02</v>
+        <v>11202773.02</v>
       </c>
       <c r="D70" s="773"/>
       <c r="E70" s="1039">
@@ -58636,102 +58663,102 @@
       <c r="B71" s="779"/>
       <c r="C71" s="786">
         <f>+SUM(C65:C70)</f>
-        <v>9438359.0199999996</v>
+        <v>11667998.02</v>
       </c>
       <c r="D71" s="786">
-        <f t="shared" ref="D71:AA71" si="10">+SUM(D65:D70)</f>
+        <f t="shared" ref="D71:AA71" si="12">+SUM(D65:D70)</f>
         <v>0</v>
       </c>
       <c r="E71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-24744715</v>
       </c>
       <c r="F71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-14375634</v>
       </c>
       <c r="H71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-13106049</v>
       </c>
       <c r="I71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10095211</v>
       </c>
       <c r="J71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1307540</v>
       </c>
       <c r="K71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1307540</v>
       </c>
       <c r="W71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1307540</v>
       </c>
       <c r="Z71" s="774">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA71" s="786">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-24744715</v>
       </c>
     </row>
@@ -58769,103 +58796,103 @@
       <c r="B73" s="773"/>
       <c r="C73" s="774">
         <f>+C51+C62+C71</f>
-        <v>14046097.409999963</v>
+        <v>14043785.409999963</v>
       </c>
       <c r="D73" s="774">
-        <f t="shared" ref="D73:AA73" si="11">+D51+D62+D71</f>
+        <f t="shared" ref="D73:AA73" si="13">+D51+D62+D71</f>
         <v>0</v>
       </c>
       <c r="E73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-30652129</v>
       </c>
       <c r="F73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-31240769</v>
       </c>
       <c r="H73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-24233325</v>
       </c>
       <c r="I73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-14574439</v>
       </c>
       <c r="J73" s="774">
-        <f t="shared" si="11"/>
-        <v>8884875</v>
+        <f t="shared" si="13"/>
+        <v>-1307540</v>
       </c>
       <c r="K73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1307540</v>
       </c>
       <c r="W73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1307540</v>
       </c>
       <c r="Z73" s="774">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA73" s="774">
-        <f t="shared" si="11"/>
-        <v>8113606.3799999952</v>
+        <f t="shared" si="13"/>
+        <v>10942372.379999995</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -58922,103 +58949,103 @@
       </c>
       <c r="C75" s="789">
         <f>+C73+C74</f>
-        <v>19932071.409999963</v>
+        <v>19929759.409999963</v>
       </c>
       <c r="D75" s="789">
-        <f t="shared" ref="D75:AA75" si="12">+D73+D74</f>
+        <f t="shared" ref="D75:AA75" si="14">+D73+D74</f>
         <v>0</v>
       </c>
       <c r="E75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-33807894</v>
       </c>
       <c r="F75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-67187819</v>
       </c>
       <c r="H75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-35947050</v>
       </c>
       <c r="I75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-11713725</v>
       </c>
       <c r="J75" s="789">
-        <f t="shared" si="12"/>
-        <v>8884875</v>
+        <f t="shared" si="14"/>
+        <v>-1307540</v>
       </c>
       <c r="K75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1307540</v>
       </c>
       <c r="W75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y75" s="789">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1307540</v>
       </c>
       <c r="Z75" s="774">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA75" s="789">
-        <f t="shared" si="12"/>
-        <v>4957841.3799999952</v>
+        <f t="shared" si="14"/>
+        <v>7786607.3799999952</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="5.0999999999999996" customHeight="1" thickTop="1">
@@ -59050,12 +59077,12 @@
     </row>
     <row r="77" spans="1:27" ht="11.25" customHeight="1">
       <c r="A77" s="414" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B77" s="414"/>
-      <c r="C77" s="1063">
+      <c r="C77" s="1046">
         <f>+C75-'ESF20'!C5</f>
-        <v>2311.9199999645352</v>
+        <v>-8.0000035464763641E-2</v>
       </c>
       <c r="F77" s="790"/>
       <c r="G77" s="790"/>
@@ -59079,7 +59106,7 @@
       <c r="Y77" s="414"/>
       <c r="AA77" s="1046">
         <f>8967695-AA73</f>
-        <v>854088.62000000477</v>
+        <v>-1974677.3799999952</v>
       </c>
     </row>
     <row r="78" spans="1:27" ht="5.0999999999999996" customHeight="1">
@@ -59389,10 +59416,10 @@
     <row r="3" spans="1:22" ht="15" customHeight="1">
       <c r="A3" s="797"/>
       <c r="E3" s="794"/>
-      <c r="P3" s="1074" t="s">
+      <c r="P3" s="1075" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1074"/>
+      <c r="Q3" s="1075"/>
     </row>
     <row r="4" spans="1:22" ht="38.25">
       <c r="A4" s="798" t="s">
@@ -66458,18 +66485,18 @@
     <row r="2" spans="1:21">
       <c r="B2" s="161"/>
       <c r="D2" s="162"/>
-      <c r="F2" s="1066" t="s">
+      <c r="F2" s="1067" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="1066"/>
-      <c r="H2" s="1066"/>
-      <c r="J2" s="1066" t="s">
+      <c r="G2" s="1067"/>
+      <c r="H2" s="1067"/>
+      <c r="J2" s="1067" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="1066"/>
-      <c r="L2" s="1066"/>
-      <c r="M2" s="1066"/>
-      <c r="N2" s="1066"/>
+      <c r="K2" s="1067"/>
+      <c r="L2" s="1067"/>
+      <c r="M2" s="1067"/>
+      <c r="N2" s="1067"/>
       <c r="O2" s="164"/>
       <c r="P2" s="164"/>
       <c r="U2" s="165"/>
@@ -69803,13 +69830,13 @@
         <f>+C2-'Asientos - para Consolidado'!C10-'Asientos - para Consolidado'!D62</f>
         <v>9054002.0000000037</v>
       </c>
-      <c r="D8" s="1069" t="s">
+      <c r="D8" s="1070" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="1069"/>
-      <c r="F8" s="1069"/>
-      <c r="G8" s="1069"/>
-      <c r="H8" s="1069"/>
+      <c r="E8" s="1070"/>
+      <c r="F8" s="1070"/>
+      <c r="G8" s="1070"/>
+      <c r="H8" s="1070"/>
       <c r="I8" s="281"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
@@ -69823,10 +69850,10 @@
       <c r="D9" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="1070" t="s">
+      <c r="E9" s="1071" t="s">
         <v>301</v>
       </c>
-      <c r="F9" s="1070"/>
+      <c r="F9" s="1071"/>
       <c r="G9" s="283"/>
       <c r="H9" s="257"/>
       <c r="I9" s="271"/>
@@ -69854,13 +69881,13 @@
         <f>+'ESF - ERI'!F58-'ESF - ERI'!F49</f>
         <v>21123.449999999953</v>
       </c>
-      <c r="D13" s="1069" t="s">
+      <c r="D13" s="1070" t="s">
         <v>299</v>
       </c>
-      <c r="E13" s="1069"/>
-      <c r="F13" s="1069"/>
-      <c r="G13" s="1069"/>
-      <c r="H13" s="1069"/>
+      <c r="E13" s="1070"/>
+      <c r="F13" s="1070"/>
+      <c r="G13" s="1070"/>
+      <c r="H13" s="1070"/>
       <c r="I13" s="281"/>
       <c r="J13" s="277"/>
     </row>
@@ -70090,10 +70117,10 @@
       <c r="D31" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E31" s="1070" t="s">
+      <c r="E31" s="1071" t="s">
         <v>301</v>
       </c>
-      <c r="F31" s="1070"/>
+      <c r="F31" s="1071"/>
       <c r="G31" s="283"/>
       <c r="I31" s="290">
         <f>C24*G27</f>
@@ -70127,13 +70154,13 @@
         <f>+'ESF - ERI'!H58-'ESF - ERI'!H49</f>
         <v>-276937.91993750003</v>
       </c>
-      <c r="D35" s="1069" t="s">
+      <c r="D35" s="1070" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="1069"/>
-      <c r="F35" s="1069"/>
-      <c r="G35" s="1069"/>
-      <c r="H35" s="1069"/>
+      <c r="E35" s="1070"/>
+      <c r="F35" s="1070"/>
+      <c r="G35" s="1070"/>
+      <c r="H35" s="1070"/>
     </row>
     <row r="36" spans="2:9" ht="5.25" customHeight="1">
       <c r="B36" s="266"/>
@@ -70240,10 +70267,10 @@
       <c r="D42" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E42" s="1068" t="s">
+      <c r="E42" s="1069" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="1068"/>
+      <c r="F42" s="1069"/>
       <c r="G42" s="283"/>
       <c r="H42" s="257"/>
     </row>
@@ -70270,13 +70297,13 @@
         <f>+'ESF - ERI'!I58-'ESF - ERI'!I49</f>
         <v>70210.969999999972</v>
       </c>
-      <c r="D46" s="1069" t="s">
+      <c r="D46" s="1070" t="s">
         <v>299</v>
       </c>
-      <c r="E46" s="1069"/>
-      <c r="F46" s="1069"/>
-      <c r="G46" s="1069"/>
-      <c r="H46" s="1069"/>
+      <c r="E46" s="1070"/>
+      <c r="F46" s="1070"/>
+      <c r="G46" s="1070"/>
+      <c r="H46" s="1070"/>
     </row>
     <row r="47" spans="2:9" ht="6" customHeight="1">
       <c r="B47" s="266"/>
@@ -70533,10 +70560,10 @@
       <c r="D64" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="E64" s="1068" t="s">
+      <c r="E64" s="1069" t="s">
         <v>301</v>
       </c>
-      <c r="F64" s="1068"/>
+      <c r="F64" s="1069"/>
       <c r="G64" s="257"/>
       <c r="H64" s="257"/>
       <c r="I64" s="291">
@@ -70703,13 +70730,13 @@
         <f>+'ESF - ERI'!L58+881973</f>
         <v>883113.17</v>
       </c>
-      <c r="D79" s="1069" t="s">
+      <c r="D79" s="1070" t="s">
         <v>328</v>
       </c>
-      <c r="E79" s="1069"/>
-      <c r="F79" s="1069"/>
-      <c r="G79" s="1069"/>
-      <c r="H79" s="1069"/>
+      <c r="E79" s="1070"/>
+      <c r="F79" s="1070"/>
+      <c r="G79" s="1070"/>
+      <c r="H79" s="1070"/>
     </row>
     <row r="80" spans="2:9">
       <c r="B80" s="266"/>
@@ -70987,12 +71014,12 @@
         <f>+C17+C28+C39+C50+C61+C72+C83+C94+C6</f>
         <v>9357519.0706554651</v>
       </c>
-      <c r="D101" s="1067" t="s">
+      <c r="D101" s="1068" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="1067"/>
-      <c r="F101" s="1067"/>
-      <c r="G101" s="1067"/>
+      <c r="E101" s="1068"/>
+      <c r="F101" s="1068"/>
+      <c r="G101" s="1068"/>
       <c r="H101" s="295"/>
     </row>
     <row r="102" spans="2:9" ht="15" customHeight="1">
@@ -71003,13 +71030,13 @@
         <f>+C9+C31+C64+C42</f>
         <v>828548.36364874605</v>
       </c>
-      <c r="D102" s="1067" t="s">
+      <c r="D102" s="1068" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="1067"/>
-      <c r="F102" s="1067"/>
-      <c r="G102" s="1067"/>
-      <c r="H102" s="1067"/>
+      <c r="E102" s="1068"/>
+      <c r="F102" s="1068"/>
+      <c r="G102" s="1068"/>
+      <c r="H102" s="1068"/>
     </row>
     <row r="103" spans="2:9" ht="15" customHeight="1">
       <c r="B103" s="293" t="s">
@@ -71019,12 +71046,12 @@
         <f>+C86+C53+C20</f>
         <v>394335.36694421433</v>
       </c>
-      <c r="D103" s="1067" t="s">
+      <c r="D103" s="1068" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="1067"/>
-      <c r="F103" s="1067"/>
-      <c r="G103" s="1067"/>
+      <c r="E103" s="1068"/>
+      <c r="F103" s="1068"/>
+      <c r="G103" s="1068"/>
     </row>
     <row r="105" spans="2:9">
       <c r="E105" s="268"/>
